--- a/Data/fake_scenarios.xlsx
+++ b/Data/fake_scenarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:SH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,1416 @@
       <c r="AF1" s="1" t="n">
         <v>2050</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>2051</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>2052</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>2053</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>2054</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>2055</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>2056</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>2057</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>2058</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>2061</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>2062</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>2063</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>2064</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>2065</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>2066</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>2067</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>2068</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>2069</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>2070</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>2071</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>2072</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>2073</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>2074</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>2075</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>2076</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>2077</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>2078</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>2079</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>2080</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>2081</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>2082</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>2083</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>2084</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>2085</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>2086</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>2087</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>2088</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>2089</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>2090</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>2091</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>2092</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>2093</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>2094</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>2095</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>2096</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>2097</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>2098</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>2099</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>2100</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>2101</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>2102</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>2103</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>2105</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>2106</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>2107</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>2108</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>2109</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>2110</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>2111</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>2112</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>2113</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>2114</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>2115</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>2116</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>2117</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>2118</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>2119</v>
+      </c>
+      <c r="CX1" s="1" t="n">
+        <v>2120</v>
+      </c>
+      <c r="CY1" s="1" t="n">
+        <v>2121</v>
+      </c>
+      <c r="CZ1" s="1" t="n">
+        <v>2122</v>
+      </c>
+      <c r="DA1" s="1" t="n">
+        <v>2123</v>
+      </c>
+      <c r="DB1" s="1" t="n">
+        <v>2124</v>
+      </c>
+      <c r="DC1" s="1" t="n">
+        <v>2125</v>
+      </c>
+      <c r="DD1" s="1" t="n">
+        <v>2126</v>
+      </c>
+      <c r="DE1" s="1" t="n">
+        <v>2127</v>
+      </c>
+      <c r="DF1" s="1" t="n">
+        <v>2128</v>
+      </c>
+      <c r="DG1" s="1" t="n">
+        <v>2129</v>
+      </c>
+      <c r="DH1" s="1" t="n">
+        <v>2130</v>
+      </c>
+      <c r="DI1" s="1" t="n">
+        <v>2131</v>
+      </c>
+      <c r="DJ1" s="1" t="n">
+        <v>2132</v>
+      </c>
+      <c r="DK1" s="1" t="n">
+        <v>2133</v>
+      </c>
+      <c r="DL1" s="1" t="n">
+        <v>2134</v>
+      </c>
+      <c r="DM1" s="1" t="n">
+        <v>2135</v>
+      </c>
+      <c r="DN1" s="1" t="n">
+        <v>2136</v>
+      </c>
+      <c r="DO1" s="1" t="n">
+        <v>2137</v>
+      </c>
+      <c r="DP1" s="1" t="n">
+        <v>2138</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>2139</v>
+      </c>
+      <c r="DR1" s="1" t="n">
+        <v>2140</v>
+      </c>
+      <c r="DS1" s="1" t="n">
+        <v>2141</v>
+      </c>
+      <c r="DT1" s="1" t="n">
+        <v>2142</v>
+      </c>
+      <c r="DU1" s="1" t="n">
+        <v>2143</v>
+      </c>
+      <c r="DV1" s="1" t="n">
+        <v>2144</v>
+      </c>
+      <c r="DW1" s="1" t="n">
+        <v>2145</v>
+      </c>
+      <c r="DX1" s="1" t="n">
+        <v>2146</v>
+      </c>
+      <c r="DY1" s="1" t="n">
+        <v>2147</v>
+      </c>
+      <c r="DZ1" s="1" t="n">
+        <v>2148</v>
+      </c>
+      <c r="EA1" s="1" t="n">
+        <v>2149</v>
+      </c>
+      <c r="EB1" s="1" t="n">
+        <v>2150</v>
+      </c>
+      <c r="EC1" s="1" t="n">
+        <v>2151</v>
+      </c>
+      <c r="ED1" s="1" t="n">
+        <v>2152</v>
+      </c>
+      <c r="EE1" s="1" t="n">
+        <v>2153</v>
+      </c>
+      <c r="EF1" s="1" t="n">
+        <v>2154</v>
+      </c>
+      <c r="EG1" s="1" t="n">
+        <v>2155</v>
+      </c>
+      <c r="EH1" s="1" t="n">
+        <v>2156</v>
+      </c>
+      <c r="EI1" s="1" t="n">
+        <v>2157</v>
+      </c>
+      <c r="EJ1" s="1" t="n">
+        <v>2158</v>
+      </c>
+      <c r="EK1" s="1" t="n">
+        <v>2159</v>
+      </c>
+      <c r="EL1" s="1" t="n">
+        <v>2160</v>
+      </c>
+      <c r="EM1" s="1" t="n">
+        <v>2161</v>
+      </c>
+      <c r="EN1" s="1" t="n">
+        <v>2162</v>
+      </c>
+      <c r="EO1" s="1" t="n">
+        <v>2163</v>
+      </c>
+      <c r="EP1" s="1" t="n">
+        <v>2164</v>
+      </c>
+      <c r="EQ1" s="1" t="n">
+        <v>2165</v>
+      </c>
+      <c r="ER1" s="1" t="n">
+        <v>2166</v>
+      </c>
+      <c r="ES1" s="1" t="n">
+        <v>2167</v>
+      </c>
+      <c r="ET1" s="1" t="n">
+        <v>2168</v>
+      </c>
+      <c r="EU1" s="1" t="n">
+        <v>2169</v>
+      </c>
+      <c r="EV1" s="1" t="n">
+        <v>2170</v>
+      </c>
+      <c r="EW1" s="1" t="n">
+        <v>2171</v>
+      </c>
+      <c r="EX1" s="1" t="n">
+        <v>2172</v>
+      </c>
+      <c r="EY1" s="1" t="n">
+        <v>2173</v>
+      </c>
+      <c r="EZ1" s="1" t="n">
+        <v>2174</v>
+      </c>
+      <c r="FA1" s="1" t="n">
+        <v>2175</v>
+      </c>
+      <c r="FB1" s="1" t="n">
+        <v>2176</v>
+      </c>
+      <c r="FC1" s="1" t="n">
+        <v>2177</v>
+      </c>
+      <c r="FD1" s="1" t="n">
+        <v>2178</v>
+      </c>
+      <c r="FE1" s="1" t="n">
+        <v>2179</v>
+      </c>
+      <c r="FF1" s="1" t="n">
+        <v>2180</v>
+      </c>
+      <c r="FG1" s="1" t="n">
+        <v>2181</v>
+      </c>
+      <c r="FH1" s="1" t="n">
+        <v>2182</v>
+      </c>
+      <c r="FI1" s="1" t="n">
+        <v>2183</v>
+      </c>
+      <c r="FJ1" s="1" t="n">
+        <v>2184</v>
+      </c>
+      <c r="FK1" s="1" t="n">
+        <v>2185</v>
+      </c>
+      <c r="FL1" s="1" t="n">
+        <v>2186</v>
+      </c>
+      <c r="FM1" s="1" t="n">
+        <v>2187</v>
+      </c>
+      <c r="FN1" s="1" t="n">
+        <v>2188</v>
+      </c>
+      <c r="FO1" s="1" t="n">
+        <v>2189</v>
+      </c>
+      <c r="FP1" s="1" t="n">
+        <v>2190</v>
+      </c>
+      <c r="FQ1" s="1" t="n">
+        <v>2191</v>
+      </c>
+      <c r="FR1" s="1" t="n">
+        <v>2192</v>
+      </c>
+      <c r="FS1" s="1" t="n">
+        <v>2193</v>
+      </c>
+      <c r="FT1" s="1" t="n">
+        <v>2194</v>
+      </c>
+      <c r="FU1" s="1" t="n">
+        <v>2195</v>
+      </c>
+      <c r="FV1" s="1" t="n">
+        <v>2196</v>
+      </c>
+      <c r="FW1" s="1" t="n">
+        <v>2197</v>
+      </c>
+      <c r="FX1" s="1" t="n">
+        <v>2198</v>
+      </c>
+      <c r="FY1" s="1" t="n">
+        <v>2199</v>
+      </c>
+      <c r="FZ1" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="GA1" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="GB1" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="GC1" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="GD1" s="1" t="n">
+        <v>2204</v>
+      </c>
+      <c r="GE1" s="1" t="n">
+        <v>2205</v>
+      </c>
+      <c r="GF1" s="1" t="n">
+        <v>2206</v>
+      </c>
+      <c r="GG1" s="1" t="n">
+        <v>2207</v>
+      </c>
+      <c r="GH1" s="1" t="n">
+        <v>2208</v>
+      </c>
+      <c r="GI1" s="1" t="n">
+        <v>2209</v>
+      </c>
+      <c r="GJ1" s="1" t="n">
+        <v>2210</v>
+      </c>
+      <c r="GK1" s="1" t="n">
+        <v>2211</v>
+      </c>
+      <c r="GL1" s="1" t="n">
+        <v>2212</v>
+      </c>
+      <c r="GM1" s="1" t="n">
+        <v>2213</v>
+      </c>
+      <c r="GN1" s="1" t="n">
+        <v>2214</v>
+      </c>
+      <c r="GO1" s="1" t="n">
+        <v>2215</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>2216</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>2217</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>2218</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>2219</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>2220</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>2221</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>2222</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>2223</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>2224</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>2225</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>2226</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>2227</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>2228</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>2229</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>2230</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>2231</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>2232</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>2233</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>2234</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>2235</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>2236</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>2237</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>2238</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>2240</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>2241</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>2242</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>2243</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>2244</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>2245</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>2246</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>2247</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>2248</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>2249</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>2250</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>2251</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>2252</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>2253</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>2254</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>2255</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>2256</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>2257</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>2258</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>2259</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>2260</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>2261</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>2262</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>2263</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>2264</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>2265</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>2266</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>2267</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>2268</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>2269</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>2270</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>2271</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>2272</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>2273</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>2274</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>2275</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>2276</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>2277</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>2278</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>2279</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>2280</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>2281</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>2282</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>2283</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>2284</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>2285</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>2286</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>2287</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>2288</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>2289</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>2290</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>2291</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>2292</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>2293</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>2294</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>2295</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>2296</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>2297</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>2298</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>2299</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>2301</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>2302</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>2303</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>2304</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>2305</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>2306</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>2307</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>2308</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>2309</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>2310</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>2311</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>2312</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>2313</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>2314</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>2315</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>2316</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>2317</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>2318</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>2319</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>2320</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>2321</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>2322</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>2324</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>2325</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>2326</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>2327</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>2328</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>2329</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>2331</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>2332</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>2333</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>2334</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>2335</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>2336</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>2337</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>2338</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>2339</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>2341</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>2342</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>2343</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>2345</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>2346</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>2347</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>2348</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>2349</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>2351</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>2352</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>2354</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>2355</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>2356</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>2357</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>2358</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>2359</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>2360</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>2361</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>2362</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>2363</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>2364</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>2365</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>2366</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>2367</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>2368</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>2369</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>2370</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>2371</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>2372</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>2373</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>2374</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>2375</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>2376</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>2377</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>2378</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>2379</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>2380</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>2381</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>2382</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>2383</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>2384</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>2385</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>2386</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>2387</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>2388</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>2389</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>2390</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>2391</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>2392</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>2393</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>2394</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>2395</v>
+      </c>
+      <c r="NN1" s="1" t="n">
+        <v>2396</v>
+      </c>
+      <c r="NO1" s="1" t="n">
+        <v>2397</v>
+      </c>
+      <c r="NP1" s="1" t="n">
+        <v>2398</v>
+      </c>
+      <c r="NQ1" s="1" t="n">
+        <v>2399</v>
+      </c>
+      <c r="NR1" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="NS1" s="1" t="n">
+        <v>2401</v>
+      </c>
+      <c r="NT1" s="1" t="n">
+        <v>2402</v>
+      </c>
+      <c r="NU1" s="1" t="n">
+        <v>2403</v>
+      </c>
+      <c r="NV1" s="1" t="n">
+        <v>2404</v>
+      </c>
+      <c r="NW1" s="1" t="n">
+        <v>2405</v>
+      </c>
+      <c r="NX1" s="1" t="n">
+        <v>2406</v>
+      </c>
+      <c r="NY1" s="1" t="n">
+        <v>2407</v>
+      </c>
+      <c r="NZ1" s="1" t="n">
+        <v>2408</v>
+      </c>
+      <c r="OA1" s="1" t="n">
+        <v>2409</v>
+      </c>
+      <c r="OB1" s="1" t="n">
+        <v>2410</v>
+      </c>
+      <c r="OC1" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="OD1" s="1" t="n">
+        <v>2412</v>
+      </c>
+      <c r="OE1" s="1" t="n">
+        <v>2413</v>
+      </c>
+      <c r="OF1" s="1" t="n">
+        <v>2414</v>
+      </c>
+      <c r="OG1" s="1" t="n">
+        <v>2415</v>
+      </c>
+      <c r="OH1" s="1" t="n">
+        <v>2416</v>
+      </c>
+      <c r="OI1" s="1" t="n">
+        <v>2417</v>
+      </c>
+      <c r="OJ1" s="1" t="n">
+        <v>2418</v>
+      </c>
+      <c r="OK1" s="1" t="n">
+        <v>2419</v>
+      </c>
+      <c r="OL1" s="1" t="n">
+        <v>2420</v>
+      </c>
+      <c r="OM1" s="1" t="n">
+        <v>2421</v>
+      </c>
+      <c r="ON1" s="1" t="n">
+        <v>2422</v>
+      </c>
+      <c r="OO1" s="1" t="n">
+        <v>2423</v>
+      </c>
+      <c r="OP1" s="1" t="n">
+        <v>2424</v>
+      </c>
+      <c r="OQ1" s="1" t="n">
+        <v>2425</v>
+      </c>
+      <c r="OR1" s="1" t="n">
+        <v>2426</v>
+      </c>
+      <c r="OS1" s="1" t="n">
+        <v>2427</v>
+      </c>
+      <c r="OT1" s="1" t="n">
+        <v>2428</v>
+      </c>
+      <c r="OU1" s="1" t="n">
+        <v>2429</v>
+      </c>
+      <c r="OV1" s="1" t="n">
+        <v>2430</v>
+      </c>
+      <c r="OW1" s="1" t="n">
+        <v>2431</v>
+      </c>
+      <c r="OX1" s="1" t="n">
+        <v>2432</v>
+      </c>
+      <c r="OY1" s="1" t="n">
+        <v>2433</v>
+      </c>
+      <c r="OZ1" s="1" t="n">
+        <v>2434</v>
+      </c>
+      <c r="PA1" s="1" t="n">
+        <v>2435</v>
+      </c>
+      <c r="PB1" s="1" t="n">
+        <v>2436</v>
+      </c>
+      <c r="PC1" s="1" t="n">
+        <v>2437</v>
+      </c>
+      <c r="PD1" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="PE1" s="1" t="n">
+        <v>2439</v>
+      </c>
+      <c r="PF1" s="1" t="n">
+        <v>2440</v>
+      </c>
+      <c r="PG1" s="1" t="n">
+        <v>2441</v>
+      </c>
+      <c r="PH1" s="1" t="n">
+        <v>2442</v>
+      </c>
+      <c r="PI1" s="1" t="n">
+        <v>2443</v>
+      </c>
+      <c r="PJ1" s="1" t="n">
+        <v>2444</v>
+      </c>
+      <c r="PK1" s="1" t="n">
+        <v>2445</v>
+      </c>
+      <c r="PL1" s="1" t="n">
+        <v>2446</v>
+      </c>
+      <c r="PM1" s="1" t="n">
+        <v>2447</v>
+      </c>
+      <c r="PN1" s="1" t="n">
+        <v>2448</v>
+      </c>
+      <c r="PO1" s="1" t="n">
+        <v>2449</v>
+      </c>
+      <c r="PP1" s="1" t="n">
+        <v>2450</v>
+      </c>
+      <c r="PQ1" s="1" t="n">
+        <v>2451</v>
+      </c>
+      <c r="PR1" s="1" t="n">
+        <v>2452</v>
+      </c>
+      <c r="PS1" s="1" t="n">
+        <v>2453</v>
+      </c>
+      <c r="PT1" s="1" t="n">
+        <v>2454</v>
+      </c>
+      <c r="PU1" s="1" t="n">
+        <v>2455</v>
+      </c>
+      <c r="PV1" s="1" t="n">
+        <v>2456</v>
+      </c>
+      <c r="PW1" s="1" t="n">
+        <v>2457</v>
+      </c>
+      <c r="PX1" s="1" t="n">
+        <v>2458</v>
+      </c>
+      <c r="PY1" s="1" t="n">
+        <v>2459</v>
+      </c>
+      <c r="PZ1" s="1" t="n">
+        <v>2460</v>
+      </c>
+      <c r="QA1" s="1" t="n">
+        <v>2461</v>
+      </c>
+      <c r="QB1" s="1" t="n">
+        <v>2462</v>
+      </c>
+      <c r="QC1" s="1" t="n">
+        <v>2463</v>
+      </c>
+      <c r="QD1" s="1" t="n">
+        <v>2464</v>
+      </c>
+      <c r="QE1" s="1" t="n">
+        <v>2465</v>
+      </c>
+      <c r="QF1" s="1" t="n">
+        <v>2466</v>
+      </c>
+      <c r="QG1" s="1" t="n">
+        <v>2467</v>
+      </c>
+      <c r="QH1" s="1" t="n">
+        <v>2468</v>
+      </c>
+      <c r="QI1" s="1" t="n">
+        <v>2469</v>
+      </c>
+      <c r="QJ1" s="1" t="n">
+        <v>2470</v>
+      </c>
+      <c r="QK1" s="1" t="n">
+        <v>2471</v>
+      </c>
+      <c r="QL1" s="1" t="n">
+        <v>2472</v>
+      </c>
+      <c r="QM1" s="1" t="n">
+        <v>2473</v>
+      </c>
+      <c r="QN1" s="1" t="n">
+        <v>2474</v>
+      </c>
+      <c r="QO1" s="1" t="n">
+        <v>2475</v>
+      </c>
+      <c r="QP1" s="1" t="n">
+        <v>2476</v>
+      </c>
+      <c r="QQ1" s="1" t="n">
+        <v>2477</v>
+      </c>
+      <c r="QR1" s="1" t="n">
+        <v>2478</v>
+      </c>
+      <c r="QS1" s="1" t="n">
+        <v>2479</v>
+      </c>
+      <c r="QT1" s="1" t="n">
+        <v>2480</v>
+      </c>
+      <c r="QU1" s="1" t="n">
+        <v>2481</v>
+      </c>
+      <c r="QV1" s="1" t="n">
+        <v>2482</v>
+      </c>
+      <c r="QW1" s="1" t="n">
+        <v>2483</v>
+      </c>
+      <c r="QX1" s="1" t="n">
+        <v>2484</v>
+      </c>
+      <c r="QY1" s="1" t="n">
+        <v>2485</v>
+      </c>
+      <c r="QZ1" s="1" t="n">
+        <v>2486</v>
+      </c>
+      <c r="RA1" s="1" t="n">
+        <v>2487</v>
+      </c>
+      <c r="RB1" s="1" t="n">
+        <v>2488</v>
+      </c>
+      <c r="RC1" s="1" t="n">
+        <v>2489</v>
+      </c>
+      <c r="RD1" s="1" t="n">
+        <v>2490</v>
+      </c>
+      <c r="RE1" s="1" t="n">
+        <v>2491</v>
+      </c>
+      <c r="RF1" s="1" t="n">
+        <v>2492</v>
+      </c>
+      <c r="RG1" s="1" t="n">
+        <v>2493</v>
+      </c>
+      <c r="RH1" s="1" t="n">
+        <v>2494</v>
+      </c>
+      <c r="RI1" s="1" t="n">
+        <v>2495</v>
+      </c>
+      <c r="RJ1" s="1" t="n">
+        <v>2496</v>
+      </c>
+      <c r="RK1" s="1" t="n">
+        <v>2497</v>
+      </c>
+      <c r="RL1" s="1" t="n">
+        <v>2498</v>
+      </c>
+      <c r="RM1" s="1" t="n">
+        <v>2499</v>
+      </c>
+      <c r="RN1" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="RO1" s="1" t="n">
+        <v>2501</v>
+      </c>
+      <c r="RP1" s="1" t="n">
+        <v>2502</v>
+      </c>
+      <c r="RQ1" s="1" t="n">
+        <v>2503</v>
+      </c>
+      <c r="RR1" s="1" t="n">
+        <v>2504</v>
+      </c>
+      <c r="RS1" s="1" t="n">
+        <v>2505</v>
+      </c>
+      <c r="RT1" s="1" t="n">
+        <v>2506</v>
+      </c>
+      <c r="RU1" s="1" t="n">
+        <v>2507</v>
+      </c>
+      <c r="RV1" s="1" t="n">
+        <v>2508</v>
+      </c>
+      <c r="RW1" s="1" t="n">
+        <v>2509</v>
+      </c>
+      <c r="RX1" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="RY1" s="1" t="n">
+        <v>2511</v>
+      </c>
+      <c r="RZ1" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="SA1" s="1" t="n">
+        <v>2513</v>
+      </c>
+      <c r="SB1" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="SC1" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="SD1" s="1" t="n">
+        <v>2516</v>
+      </c>
+      <c r="SE1" s="1" t="n">
+        <v>2517</v>
+      </c>
+      <c r="SF1" s="1" t="n">
+        <v>2518</v>
+      </c>
+      <c r="SG1" s="1" t="n">
+        <v>2519</v>
+      </c>
+      <c r="SH1" s="1" t="n">
+        <v>2520</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -544,91 +1954,1501 @@
         <v>0.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9710344827586207</v>
+        <v>0.9780761523046092</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9720689655172413</v>
+        <v>0.9861523046092184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.973103448275862</v>
+        <v>0.9942284569138277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9741379310344828</v>
+        <v>1.002304609218437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9751724137931034</v>
+        <v>1.010380761523046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9762068965517241</v>
+        <v>1.018456913827655</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9772413793103448</v>
+        <v>1.026533066132264</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9782758620689656</v>
+        <v>1.034609218436874</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9793103448275862</v>
+        <v>1.042685370741483</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9803448275862069</v>
+        <v>1.050761523046092</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9813793103448276</v>
+        <v>1.058837675350701</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9824137931034482</v>
+        <v>1.066913827655311</v>
       </c>
       <c r="P2" t="n">
-        <v>0.983448275862069</v>
+        <v>1.07498997995992</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9844827586206897</v>
+        <v>1.083066132264529</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9855172413793103</v>
+        <v>1.091142284569138</v>
       </c>
       <c r="S2" t="n">
-        <v>0.986551724137931</v>
+        <v>1.099218436873747</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9875862068965517</v>
+        <v>1.107294589178357</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9886206896551724</v>
+        <v>1.115370741482966</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9896551724137931</v>
+        <v>1.123446893787575</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9906896551724138</v>
+        <v>1.131523046092184</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9917241379310344</v>
+        <v>1.139599198396794</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9927586206896551</v>
+        <v>1.147675350701403</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9937931034482759</v>
+        <v>1.155751503006012</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9948275862068966</v>
+        <v>1.163827655310621</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9958620689655172</v>
+        <v>1.17190380761523</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9968965517241379</v>
+        <v>1.17997995991984</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9979310344827587</v>
+        <v>1.188056112224449</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9989655172413793</v>
+        <v>1.196132264529058</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>1.204208416833667</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.212284569138277</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.220360721442886</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1.228436873747495</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.236513026052104</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.244589178356713</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.252665330661323</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.260741482965932</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.268817635270541</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.27689378757515</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.28496993987976</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.293046092184369</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.301122244488978</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.309198396793587</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.317274549098197</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.325350701402806</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.333426853707415</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.341503006012024</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.349579158316633</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1.357655310621243</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.365731462925852</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.373807615230461</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.38188376753507</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.389959919839679</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.398036072144289</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1.406112224448898</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1.414188376753507</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.422264529058116</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1.430340681362726</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.438416833667335</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.446492985971944</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.454569138276553</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.462645290581162</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.470721442885772</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.478797595190381</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1.48687374749499</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.494949899799599</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.503026052104208</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.511102204408818</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1.519178356713427</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.527254509018036</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1.535330661322645</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1.543406813627255</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.551482965931864</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1.559559118236473</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1.567635270541082</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1.575711422845691</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1.583787575150301</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1.59186372745491</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1.599939879759519</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.608016032064128</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1.616092184368737</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.624168336673347</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1.632244488977956</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1.640320641282565</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1.648396793587174</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1.656472945891784</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1.664549098196393</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1.672625250501002</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1.680701402805611</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1.68877755511022</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1.69685370741483</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1.704929859719439</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1.713006012024048</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1.721082164328657</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1.729158316633267</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1.737234468937876</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1.745310621242485</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1.753386773547094</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1.761462925851704</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1.769539078156313</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>1.777615230460922</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1.785691382765531</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1.79376753507014</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1.801843687374749</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1.809919839679359</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1.817995991983968</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1.826072144288577</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1.834148296593186</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1.842224448897796</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1.850300601202405</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1.858376753507014</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>1.866452905811623</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1.874529058116233</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1.882605210420842</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>1.890681362725451</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1.89875751503006</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1.90683366733467</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>1.914909819639279</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1.922985971943888</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1.931062124248497</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1.939138276553106</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1.947214428857716</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1.955290581162325</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1.963366733466934</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1.971442885771543</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>1.979519038076152</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1.987595190380762</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1.995671342685371</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>2.00374749498998</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>2.011823647294589</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>2.019899799599199</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>2.027975951903808</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>2.036052104208417</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>2.044128256513026</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>2.052204408817635</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>2.060280561122244</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>2.068356713426854</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>2.076432865731463</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>2.084509018036072</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>2.092585170340682</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>2.100661322645291</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>2.1087374749499</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>2.116813627254509</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>2.124889779559118</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>2.132965931863728</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>2.141042084168337</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>2.149118236472946</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>2.157194388777556</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>2.165270541082164</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>2.173346693386774</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>2.181422845691383</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>2.189498997995992</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>2.197575150300601</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>2.205651302605211</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>2.21372745490982</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>2.221803607214429</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>2.229879759519038</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>2.237955911823647</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>2.246032064128257</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>2.254108216432866</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>2.262184368737475</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>2.270260521042085</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>2.278336673346693</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>2.286412825651303</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>2.294488977955912</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>2.302565130260521</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>2.31064128256513</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>2.31871743486974</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>2.326793587174349</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>2.334869739478958</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>2.342945891783567</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>2.351022044088176</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>2.359098196392786</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>2.367174348697395</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>2.375250501002004</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>2.383326653306614</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>2.391402805611222</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>2.399478957915832</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>2.407555110220441</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>2.41563126252505</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>2.42370741482966</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>2.431783567134269</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>2.439859719438878</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>2.447935871743487</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>2.456012024048096</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>2.464088176352706</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>2.472164328657315</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>2.480240480961924</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>2.488316633266533</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>2.496392785571143</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>2.504468937875751</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>2.512545090180361</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>2.52062124248497</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>2.528697394789579</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>2.536773547094189</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>2.544849699398798</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>2.552925851703407</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>2.561002004008016</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>2.569078156312625</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>2.577154308617235</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>2.585230460921844</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>2.593306613226453</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>2.601382765531063</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>2.609458917835672</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>2.61753507014028</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>2.62561122244489</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>2.633687374749499</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>2.641763527054108</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>2.649839679358718</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>2.657915831663327</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>2.665991983967936</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>2.674068136272545</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>2.682144288577154</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>2.690220440881764</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>2.698296593186373</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>2.706372745490982</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>2.714448897795592</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>2.722525050100201</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>2.73060120240481</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>2.738677354709419</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>2.746753507014028</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>2.754829659318637</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>2.762905811623247</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>2.770981963927856</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>2.779058116232465</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>2.787134268537074</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>2.795210420841683</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>2.803286573146293</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>2.811362725450902</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>2.819438877755511</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>2.827515030060121</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>2.83559118236473</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>2.843667334669339</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>2.851743486973948</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>2.859819639278557</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>2.867895791583166</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>2.875971943887776</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>2.884048096192385</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>2.892124248496994</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>2.900200400801603</v>
+      </c>
+      <c r="II2" t="n">
+        <v>2.908276553106213</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>2.916352705410822</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>2.924428857715431</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>2.93250501002004</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>2.94058116232465</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>2.948657314629259</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>2.956733466933868</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>2.964809619238477</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>2.972885771543086</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>2.980961923847696</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>2.989038076152305</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>2.997114228456914</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>3.005190380761523</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>3.013266533066132</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>3.021342685370742</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>3.029418837675351</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>3.03749498997996</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>3.04557114228457</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>3.053647294589179</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>3.061723446893788</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>3.069799599198397</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>3.077875751503006</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>3.085951903807615</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>3.094028056112225</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>3.102104208416834</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>3.110180360721444</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>3.118256513026052</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>3.126332665330661</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>3.134408817635271</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>3.14248496993988</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>3.150561122244489</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>3.158637274549099</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>3.166713426853708</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>3.174789579158316</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>3.182865731462926</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>3.190941883767535</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>3.199018036072145</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>3.207094188376754</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>3.215170340681363</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>3.223246492985973</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>3.231322645290581</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>3.23939879759519</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>3.2474749498998</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>3.255551102204409</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>3.263627254509018</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>3.271703406813628</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>3.279779559118237</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>3.287855711422846</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>3.295931863727455</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>3.304008016032064</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>3.312084168336674</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>3.320160320641283</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>3.328236472945892</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>3.336312625250502</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>3.34438877755511</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>3.352464929859719</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>3.360541082164329</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>3.368617234468938</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>3.376693386773548</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>3.384769539078157</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>3.392845691382766</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>3.400921843687375</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>3.408997995991984</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>3.417074148296593</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>3.425150300601203</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>3.433226452905812</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>3.441302605210421</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>3.449378757515031</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>3.457454909819639</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>3.465531062124249</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>3.473607214428858</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>3.481683366733467</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>3.489759519038077</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>3.497835671342686</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>3.505911823647295</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>3.513987975951904</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>3.522064128256513</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>3.530140280561122</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>3.538216432865732</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>3.546292585170341</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>3.55436873747495</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>3.56244488977956</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>3.570521042084168</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>3.578597194388778</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>3.586673346693387</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>3.594749498997996</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>3.602825651302606</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>3.610901803607215</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>3.618977955911824</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>3.627054108216433</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>3.635130260521042</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>3.643206412825651</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>3.651282565130261</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>3.65935871743487</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>3.66743486973948</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>3.675511022044089</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>3.683587174348697</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>3.691663326653307</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>3.699739478957916</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>3.707815631262525</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>3.715891783567135</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>3.723967935871744</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>3.732044088176353</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>3.740120240480962</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>3.748196392785571</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>3.756272545090181</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>3.76434869739479</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>3.772424849699399</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>3.780501002004009</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>3.788577154308618</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>3.796653306613226</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>3.804729458917836</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>3.812805611222445</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>3.820881763527054</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>3.828957915831664</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>3.837034068136273</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>3.845110220440882</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>3.853186372745491</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>3.8612625250501</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>3.86933867735471</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>3.877414829659319</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>3.885490981963928</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>3.893567134268538</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>3.901643286573147</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>3.909719438877755</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>3.917795591182365</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>3.925871743486974</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>3.933947895791584</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>3.942024048096193</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>3.950100200400802</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>3.958176352705411</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>3.96625250501002</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>3.974328657314629</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>3.982404809619239</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>3.990480961923848</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>3.998557114228457</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>4.006633266533067</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>4.014709418837676</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>4.022785571142285</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>4.030861723446894</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>4.038937875751503</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>4.047014028056113</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>4.055090180360722</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>4.063166332665331</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>4.07124248496994</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>4.079318637274549</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>4.087394789579158</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>4.095470941883768</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>4.103547094188377</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>4.111623246492987</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>4.119699398797596</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>4.127775551102205</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>4.135851703406814</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>4.143927855711423</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>4.152004008016032</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>4.160080160320642</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>4.168156312625251</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>4.17623246492986</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>4.184308617234469</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>4.192384769539078</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>4.200460921843688</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>4.208537074148297</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>4.216613226452906</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>4.224689378757516</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>4.232765531062125</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>4.240841683366734</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>4.248917835671343</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>4.256993987975952</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>4.265070140280561</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>4.273146292585171</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>4.28122244488978</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>4.28929859719439</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>4.297374749498998</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>4.305450901803607</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>4.313527054108217</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>4.321603206412826</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>4.329679358717435</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>4.337755511022045</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>4.345831663326654</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>4.353907815631263</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>4.361983967935872</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>4.370060120240481</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>4.378136272545091</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>4.3862124248497</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>4.394288577154309</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>4.402364729458919</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>4.410440881763527</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>4.418517034068136</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>4.426593186372746</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>4.434669338677355</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>4.442745490981964</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>4.450821643286574</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>4.458897795591183</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>4.466973947895792</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>4.475050100200401</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>4.48312625250501</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>4.49120240480962</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>4.499278557114229</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>4.507354709418838</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>4.515430861723448</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>4.523507014028056</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>4.531583166332665</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>4.539659318637275</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>4.547735470941884</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>4.555811623246494</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>4.563887775551103</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>4.571963927855712</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>4.580040080160321</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>4.58811623246493</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>4.596192384769539</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>4.604268537074149</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>4.612344689378758</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>4.620420841683367</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>4.628496993987977</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>4.636573146292585</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>4.644649298597195</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>4.652725450901804</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>4.660801603206413</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>4.668877755511023</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>4.676953907815632</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>4.685030060120241</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>4.69310621242485</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>4.701182364729459</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>4.709258517034068</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>4.717334669338678</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>4.725410821643287</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>4.733486973947897</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>4.741563126252506</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>4.749639278557114</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>4.757715430861724</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>4.765791583166333</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>4.773867735470942</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>4.781943887775552</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>4.790020040080161</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>4.79809619238477</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>4.806172344689379</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>4.814248496993988</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>4.822324649298598</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>4.830400801603207</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>4.838476953907816</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>4.846553106212426</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>4.854629258517035</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>4.862705410821643</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>4.870781563126253</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>4.878857715430862</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>4.886933867735471</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>4.895010020040081</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>4.90308617234469</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>4.911162324649299</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>4.919238476953908</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>4.927314629258517</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>4.935390781563127</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>4.943466933867736</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>4.951543086172345</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>4.959619238476955</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>4.967695390781564</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>4.975771543086172</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>4.983847695390782</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>4.991923847695391</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -642,90 +3462,1500 @@
         <v>0.97</v>
       </c>
       <c r="D3" t="n">
-        <v>0.936551724137931</v>
+        <v>0.9680561122244489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9031034482758621</v>
+        <v>0.9661122244488978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8696551724137931</v>
+        <v>0.9641683366733467</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8362068965517241</v>
+        <v>0.9622244488977956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8027586206896551</v>
+        <v>0.9602805611222445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7693103448275862</v>
+        <v>0.9583366733466934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7358620689655172</v>
+        <v>0.9563927855711423</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7024137931034482</v>
+        <v>0.9544488977955912</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6689655172413793</v>
+        <v>0.9525050100200401</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6355172413793103</v>
+        <v>0.950561122244489</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6020689655172413</v>
+        <v>0.9486172344689379</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5686206896551724</v>
+        <v>0.9466733466933868</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5351724137931034</v>
+        <v>0.9447294589178357</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5017241379310344</v>
+        <v>0.9427855711422846</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4682758620689655</v>
+        <v>0.9408416833667335</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4348275862068965</v>
+        <v>0.9388977955911824</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4013793103448275</v>
+        <v>0.9369539078156313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3679310344827587</v>
+        <v>0.9350100200400802</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3344827586206897</v>
+        <v>0.9330661322645291</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3010344827586207</v>
+        <v>0.931122244488978</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2675862068965518</v>
+        <v>0.9291783567134269</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2341379310344828</v>
+        <v>0.9272344689378758</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2006896551724138</v>
+        <v>0.9252905811623247</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1672413793103449</v>
+        <v>0.9233466933867736</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1337931034482759</v>
+        <v>0.9214028056112225</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1003448275862069</v>
+        <v>0.9194589178356714</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.06689655172413789</v>
+        <v>0.9175150300601203</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.033448275862069</v>
+        <v>0.9155711422845692</v>
       </c>
       <c r="AF3" t="n">
+        <v>0.913627254509018</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9116833667334669</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.9097394789579158</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.9077955911823647</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.9058517034068136</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.9039078156312625</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.9019639278557114</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.9000200400801603</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.8980761523046092</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.8961322645290581</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.894188376753507</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.8922444889779559</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.8903006012024048</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.8883567134268537</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.8864128256513026</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.8844689378757515</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.8825250501002004</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.8805811623246493</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.8786372745490982</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.8766933867735471</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.8747494989979959</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.8728056112224448</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.8708617234468937</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.8689178356713426</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.8669739478957915</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.8650300601202404</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.8630861723446893</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.8611422845691382</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.8591983967935871</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.857254509018036</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.8553106212424849</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.8533667334669338</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.8514228456913827</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.8494789579158316</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.8475350701402805</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.8455911823647294</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.8436472945891783</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.8417034068136272</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.8397595190380761</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.837815631262525</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.8358717434869739</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.8339278557114228</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.8319839679358717</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.8300400801603206</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.8280961923847695</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.8261523046092184</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.8242084168336673</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.8222645290581162</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.8203206412825651</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.818376753507014</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.8164328657314629</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.8144889779559118</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.8125450901803607</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.8106012024048096</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.8086573146292585</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.8067134268537074</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.8047695390781563</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.8028256513026052</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.8008817635270541</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.798937875751503</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.7969939879759519</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.7950501002004008</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.7931062124248497</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.7911623246492986</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.7892184368737475</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.7872745490981964</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.7853306613226453</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.7833867735470942</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.7814428857715431</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.779498997995992</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.7775551102204409</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.7756112224448898</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.7736673346693387</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0.7717234468937876</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0.7697795591182365</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.7678356713426854</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.7658917835671343</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.7639478957915832</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.7620040080160321</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.760060120240481</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.7581162324649299</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.7561723446893788</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.7542284569138277</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.7522845691382766</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.7503406813627255</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.7483967935871744</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.7464529058116233</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.7445090180360722</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.7425651302605211</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.7406212424849699</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.7386773547094188</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.7367334669338677</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.7347895791583166</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.7328456913827655</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0.7309018036072144</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0.7289579158316633</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0.7270140280561121</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0.725070140280561</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.7231262525050099</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.7211823647294588</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.7192384769539077</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0.7172945891783566</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0.7153507014028055</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0.7134068136272544</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.7114629258517033</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.7095190380761522</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.7075751503006011</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.70563126252505</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.7036873747494989</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.7017434869739478</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.6997995991983967</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0.6978557114228456</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0.6959118236472945</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.6939679358717434</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.6920240480961923</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0.6900801603206412</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0.6881362725450901</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0.686192384769539</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0.6842484969939879</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.6823046092184368</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0.6803607214428857</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0.6784168336673346</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0.6764729458917835</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0.6745290581162324</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0.6725851703406813</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0.6706412825651302</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0.6686973947895791</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0.666753507014028</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0.6648096192384769</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0.6628657314629258</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0.6609218436873747</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.6589779559118236</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0.6570340681362725</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.6550901803607214</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0.6531462925851703</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.6512024048096192</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0.6492585170340681</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.647314629258517</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0.6453707414829659</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0.6434268537074148</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0.6414829659318637</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.6395390781563126</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0.6375951903807615</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0.6356513026052104</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0.6337074148296593</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0.6317635270541082</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0.6298196392785571</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.627875751503006</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0.6259318637274549</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0.6239879759519038</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0.6220440881763527</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0.6201002004008016</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0.6181563126252505</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0.6162124248496994</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.6142685370741483</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0.6123246492985972</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0.6103807615230461</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0.608436873747495</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0.6064929859719439</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0.6045490981963928</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0.6026052104208417</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0.6006613226452906</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0.5987174348697395</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>0.5967735470941884</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0.5948296593186373</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>0.5928857715430862</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0.5909418837675351</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0.588997995991984</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0.5870541082164329</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0.5851102204408818</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0.5831663326653307</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0.5812224448897796</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0.5792785571142285</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0.5773346693386774</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0.5753907815631263</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>0.5734468937875752</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0.5715030060120241</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>0.569559118236473</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0.5676152304609219</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>0.5656713426853708</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0.5637274549098197</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>0.5617835671342686</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0.5598396793587175</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0.5578957915831664</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0.5559519038076153</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0.5540080160320642</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0.5520641282565131</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0.550120240480962</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>0.5481763527054109</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>0.5462324649298598</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0.5442885771543087</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>0.5423446893787576</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0.5404008016032065</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>0.5384569138276554</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>0.5365130260521043</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0.5345691382765532</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>0.5326252505010021</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>0.530681362725451</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>0.5287374749498999</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0.5267935871743488</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0.5248496993987977</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0.5229058116232466</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0.5209619238476955</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0.5190180360721444</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0.5170741482965933</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0.5151302605210422</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0.5131863727454909</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>0.5112424849699398</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0.5092985971943887</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>0.5073547094188376</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0.5054108216432865</v>
+      </c>
+      <c r="II3" t="n">
+        <v>0.5034669338677354</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>0.5015230460921843</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0.4995791583166332</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0.4976352705410821</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0.495691382765531</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>0.4937474949899799</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0.4918036072144288</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0.4898597194388777</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.4879158316633266</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>0.4859719438877755</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>0.4840280561122244</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>0.4820841683366733</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0.4801402805611222</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>0.4781963927855711</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0.47625250501002</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>0.4743086172344689</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>0.4723647294589178</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>0.4704208416833667</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>0.4684769539078156</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>0.4665330661322645</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>0.4645891783567134</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>0.4626452905811623</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>0.4607014028056112</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>0.4587575150300601</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>0.456813627254509</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>0.4548697394789579</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>0.4529258517034068</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>0.4509819639278557</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>0.4490380761523046</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>0.4470941883767535</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>0.4451503006012024</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>0.4432064128256513</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>0.4412625250501002</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>0.4393186372745491</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>0.437374749498998</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>0.4354308617234469</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>0.4334869739478958</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>0.4315430861723447</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>0.4295991983967936</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>0.4276553106212425</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>0.4257114228456914</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>0.4237675350701403</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>0.4218236472945892</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>0.4198797595190381</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>0.417935871743487</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>0.4159919839679359</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>0.4140480961923848</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>0.4121042084168337</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>0.4101603206412826</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>0.4082164328657315</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>0.4062725450901804</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>0.4043286573146293</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>0.4023847695390782</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>0.4004408817635271</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>0.398496993987976</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>0.3965531062124249</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>0.3946092184368738</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>0.3926653306613227</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>0.3907214428857716</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>0.3887775551102204</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>0.3868336673346693</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>0.3848897795591182</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>0.3829458917835671</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>0.381002004008016</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>0.3790581162324649</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>0.3771142284569138</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>0.3751703406813627</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>0.3732264529058116</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>0.3712825651302605</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>0.3693386773547094</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>0.3673947895791583</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>0.3654509018036072</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>0.3635070140280561</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>0.361563126252505</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>0.3596192384769539</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>0.3576753507014028</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>0.3557314629258517</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>0.3537875751503006</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>0.3518436873747495</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>0.3498997995991984</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>0.3479559118236473</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>0.3460120240480962</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>0.3440681362725451</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>0.342124248496994</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>0.3401803607214429</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>0.3382364729458918</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>0.3362925851703407</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>0.3343486973947896</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>0.3324048096192385</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>0.3304609218436874</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>0.3285170340681363</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>0.3265731462925852</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>0.3246292585170341</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>0.322685370741483</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>0.3207414829659319</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>0.3187975951903808</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>0.3168537074148297</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>0.3149098196392786</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>0.3129659318637275</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>0.3110220440881764</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>0.3090781563126253</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>0.3071342685370742</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>0.3051903807615231</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>0.3032464929859719</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>0.3013026052104208</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>0.2993587174348697</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>0.2974148296593186</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>0.2954709418837675</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>0.2935270541082164</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>0.2915831663326653</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>0.2896392785571142</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>0.2876953907815631</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>0.285751503006012</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>0.2838076152304609</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>0.2818637274549098</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>0.2799198396793587</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>0.2779759519038076</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>0.2760320641282565</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>0.2740881763527054</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>0.2721442885771543</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>0.2702004008016032</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>0.2682565130260521</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>0.266312625250501</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>0.2643687374749499</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>0.2624248496993988</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>0.2604809619238477</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>0.2585370741482966</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>0.2565931863727455</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>0.2546492985971944</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>0.2527054108216433</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>0.2507615230460922</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>0.2488176352705411</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>0.24687374749499</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>0.2449298597194389</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>0.2429859719438878</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>0.2410420841683367</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>0.2390981963927856</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>0.2371543086172345</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>0.2352104208416834</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>0.2332665330661323</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>0.2313226452905812</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>0.2293787575150301</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>0.227434869739479</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>0.2254909819639279</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>0.2235470941883768</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>0.2216032064128256</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>0.2196593186372745</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>0.2177154308617234</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>0.2157715430861723</v>
+      </c>
+      <c r="OB3" t="n">
+        <v>0.2138276553106212</v>
+      </c>
+      <c r="OC3" t="n">
+        <v>0.2118837675350701</v>
+      </c>
+      <c r="OD3" t="n">
+        <v>0.209939879759519</v>
+      </c>
+      <c r="OE3" t="n">
+        <v>0.2079959919839679</v>
+      </c>
+      <c r="OF3" t="n">
+        <v>0.2060521042084168</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>0.2041082164328657</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>0.2021643286573146</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>0.2002204408817635</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>0.1982765531062124</v>
+      </c>
+      <c r="OK3" t="n">
+        <v>0.1963326653306613</v>
+      </c>
+      <c r="OL3" t="n">
+        <v>0.1943887775551102</v>
+      </c>
+      <c r="OM3" t="n">
+        <v>0.1924448897795591</v>
+      </c>
+      <c r="ON3" t="n">
+        <v>0.190501002004008</v>
+      </c>
+      <c r="OO3" t="n">
+        <v>0.1885571142284569</v>
+      </c>
+      <c r="OP3" t="n">
+        <v>0.1866132264529058</v>
+      </c>
+      <c r="OQ3" t="n">
+        <v>0.1846693386773547</v>
+      </c>
+      <c r="OR3" t="n">
+        <v>0.1827254509018036</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>0.1807815631262525</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>0.1788376753507014</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>0.1768937875751503</v>
+      </c>
+      <c r="OV3" t="n">
+        <v>0.1749498997995992</v>
+      </c>
+      <c r="OW3" t="n">
+        <v>0.1730060120240481</v>
+      </c>
+      <c r="OX3" t="n">
+        <v>0.171062124248497</v>
+      </c>
+      <c r="OY3" t="n">
+        <v>0.1691182364729459</v>
+      </c>
+      <c r="OZ3" t="n">
+        <v>0.1671743486973948</v>
+      </c>
+      <c r="PA3" t="n">
+        <v>0.1652304609218437</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>0.1632865731462926</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>0.1613426853707415</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>0.1593987975951904</v>
+      </c>
+      <c r="PE3" t="n">
+        <v>0.1574549098196393</v>
+      </c>
+      <c r="PF3" t="n">
+        <v>0.1555110220440882</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>0.1535671342685371</v>
+      </c>
+      <c r="PH3" t="n">
+        <v>0.151623246492986</v>
+      </c>
+      <c r="PI3" t="n">
+        <v>0.1496793587174349</v>
+      </c>
+      <c r="PJ3" t="n">
+        <v>0.1477354709418838</v>
+      </c>
+      <c r="PK3" t="n">
+        <v>0.1457915831663327</v>
+      </c>
+      <c r="PL3" t="n">
+        <v>0.1438476953907816</v>
+      </c>
+      <c r="PM3" t="n">
+        <v>0.1419038076152305</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>0.1399599198396794</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>0.1380160320641283</v>
+      </c>
+      <c r="PP3" t="n">
+        <v>0.1360721442885772</v>
+      </c>
+      <c r="PQ3" t="n">
+        <v>0.1341282565130261</v>
+      </c>
+      <c r="PR3" t="n">
+        <v>0.132184368737475</v>
+      </c>
+      <c r="PS3" t="n">
+        <v>0.1302404809619239</v>
+      </c>
+      <c r="PT3" t="n">
+        <v>0.1282965931863728</v>
+      </c>
+      <c r="PU3" t="n">
+        <v>0.1263527054108217</v>
+      </c>
+      <c r="PV3" t="n">
+        <v>0.1244088176352706</v>
+      </c>
+      <c r="PW3" t="n">
+        <v>0.1224649298597195</v>
+      </c>
+      <c r="PX3" t="n">
+        <v>0.1205210420841684</v>
+      </c>
+      <c r="PY3" t="n">
+        <v>0.1185771543086173</v>
+      </c>
+      <c r="PZ3" t="n">
+        <v>0.1166332665330662</v>
+      </c>
+      <c r="QA3" t="n">
+        <v>0.1146893787575151</v>
+      </c>
+      <c r="QB3" t="n">
+        <v>0.112745490981964</v>
+      </c>
+      <c r="QC3" t="n">
+        <v>0.1108016032064129</v>
+      </c>
+      <c r="QD3" t="n">
+        <v>0.1088577154308618</v>
+      </c>
+      <c r="QE3" t="n">
+        <v>0.1069138276553107</v>
+      </c>
+      <c r="QF3" t="n">
+        <v>0.1049699398797596</v>
+      </c>
+      <c r="QG3" t="n">
+        <v>0.1030260521042085</v>
+      </c>
+      <c r="QH3" t="n">
+        <v>0.1010821643286574</v>
+      </c>
+      <c r="QI3" t="n">
+        <v>0.09913827655310625</v>
+      </c>
+      <c r="QJ3" t="n">
+        <v>0.09719438877755515</v>
+      </c>
+      <c r="QK3" t="n">
+        <v>0.09525050100200405</v>
+      </c>
+      <c r="QL3" t="n">
+        <v>0.09330661322645295</v>
+      </c>
+      <c r="QM3" t="n">
+        <v>0.09136272545090185</v>
+      </c>
+      <c r="QN3" t="n">
+        <v>0.08941883767535075</v>
+      </c>
+      <c r="QO3" t="n">
+        <v>0.08747494989979965</v>
+      </c>
+      <c r="QP3" t="n">
+        <v>0.08553106212424855</v>
+      </c>
+      <c r="QQ3" t="n">
+        <v>0.08358717434869745</v>
+      </c>
+      <c r="QR3" t="n">
+        <v>0.08164328657314635</v>
+      </c>
+      <c r="QS3" t="n">
+        <v>0.07969939879759524</v>
+      </c>
+      <c r="QT3" t="n">
+        <v>0.07775551102204414</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>0.07581162324649304</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>0.07386773547094194</v>
+      </c>
+      <c r="QW3" t="n">
+        <v>0.07192384769539084</v>
+      </c>
+      <c r="QX3" t="n">
+        <v>0.06997995991983974</v>
+      </c>
+      <c r="QY3" t="n">
+        <v>0.06803607214428864</v>
+      </c>
+      <c r="QZ3" t="n">
+        <v>0.06609218436873754</v>
+      </c>
+      <c r="RA3" t="n">
+        <v>0.06414829659318644</v>
+      </c>
+      <c r="RB3" t="n">
+        <v>0.06220440881763534</v>
+      </c>
+      <c r="RC3" t="n">
+        <v>0.06026052104208424</v>
+      </c>
+      <c r="RD3" t="n">
+        <v>0.05831663326653314</v>
+      </c>
+      <c r="RE3" t="n">
+        <v>0.05637274549098192</v>
+      </c>
+      <c r="RF3" t="n">
+        <v>0.05442885771543082</v>
+      </c>
+      <c r="RG3" t="n">
+        <v>0.05248496993987972</v>
+      </c>
+      <c r="RH3" t="n">
+        <v>0.05054108216432862</v>
+      </c>
+      <c r="RI3" t="n">
+        <v>0.04859719438877752</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>0.04665330661322642</v>
+      </c>
+      <c r="RK3" t="n">
+        <v>0.04470941883767532</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>0.04276553106212422</v>
+      </c>
+      <c r="RM3" t="n">
+        <v>0.04082164328657312</v>
+      </c>
+      <c r="RN3" t="n">
+        <v>0.03887775551102202</v>
+      </c>
+      <c r="RO3" t="n">
+        <v>0.03693386773547092</v>
+      </c>
+      <c r="RP3" t="n">
+        <v>0.03498997995991981</v>
+      </c>
+      <c r="RQ3" t="n">
+        <v>0.03304609218436871</v>
+      </c>
+      <c r="RR3" t="n">
+        <v>0.03110220440881761</v>
+      </c>
+      <c r="RS3" t="n">
+        <v>0.02915831663326651</v>
+      </c>
+      <c r="RT3" t="n">
+        <v>0.02721442885771541</v>
+      </c>
+      <c r="RU3" t="n">
+        <v>0.02527054108216431</v>
+      </c>
+      <c r="RV3" t="n">
+        <v>0.02332665330661321</v>
+      </c>
+      <c r="RW3" t="n">
+        <v>0.02138276553106211</v>
+      </c>
+      <c r="RX3" t="n">
+        <v>0.01943887775551101</v>
+      </c>
+      <c r="RY3" t="n">
+        <v>0.01749498997995991</v>
+      </c>
+      <c r="RZ3" t="n">
+        <v>0.01555110220440881</v>
+      </c>
+      <c r="SA3" t="n">
+        <v>0.01360721442885771</v>
+      </c>
+      <c r="SB3" t="n">
+        <v>0.0116633266533066</v>
+      </c>
+      <c r="SC3" t="n">
+        <v>0.009719438877755504</v>
+      </c>
+      <c r="SD3" t="n">
+        <v>0.007775551102204403</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>0.005831663326653302</v>
+      </c>
+      <c r="SF3" t="n">
+        <v>0.003887775551102202</v>
+      </c>
+      <c r="SG3" t="n">
+        <v>0.001943887775551101</v>
+      </c>
+      <c r="SH3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,91 +4970,1501 @@
         <v>0.97</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9020689655172414</v>
+        <v>0.9580360721442885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8341379310344827</v>
+        <v>0.9460721442885771</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7662068965517241</v>
+        <v>0.9341082164328657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6982758620689655</v>
+        <v>0.9221442885771542</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6303448275862069</v>
+        <v>0.9101803607214428</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5624137931034482</v>
+        <v>0.8982164328657314</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4944827586206896</v>
+        <v>0.8862525050100201</v>
       </c>
       <c r="K4" t="n">
-        <v>0.426551724137931</v>
+        <v>0.8742885771543086</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3586206896551724</v>
+        <v>0.8623246492985972</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2906896551724137</v>
+        <v>0.8503607214428858</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2227586206896551</v>
+        <v>0.8383967935871743</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1548275862068964</v>
+        <v>0.8264328657314629</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08689655172413779</v>
+        <v>0.8144689378757515</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01896551724137918</v>
+        <v>0.80250501002004</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.04896551724137943</v>
+        <v>0.7905410821643286</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.116896551724138</v>
+        <v>0.7785771543086172</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.1848275862068967</v>
+        <v>0.7666132264529057</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.2527586206896553</v>
+        <v>0.7546492985971944</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.3206896551724139</v>
+        <v>0.7426853707414829</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.3886206896551725</v>
+        <v>0.7307214428857716</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.4565517241379311</v>
+        <v>0.71875751503006</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.5244827586206897</v>
+        <v>0.7067935871743487</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.5924137931034483</v>
+        <v>0.6948296593186373</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.6603448275862072</v>
+        <v>0.6828657314629258</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.7282758620689658</v>
+        <v>0.6709018036072144</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.7962068965517244</v>
+        <v>0.658937875751503</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.864137931034483</v>
+        <v>0.6469739478957915</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.9320689655172416</v>
+        <v>0.6350100200400801</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1</v>
+        <v>0.6230460921843688</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.6110821643286573</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.5991182364729459</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.5871543086172344</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.5751903807615231</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.5632264529058115</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.5512625250501002</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5392985971943888</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.5273346693386773</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.5153707414829659</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.5034068136272545</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.491442885771543</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.4794789579158316</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.4675150300601202</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.4555511022044088</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.4435871743486973</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.431623246492986</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.4196593186372746</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.4076953907815631</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.3957314629258517</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.3837675350701403</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.3718036072144288</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.3598396793587174</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.347875751503006</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.3359118236472945</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.3239478957915831</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.3119839679358717</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.3000200400801603</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.2880561122244488</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.2760921843687375</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.2641282565130261</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.2521643286573146</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.2402004008016032</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.2282364729458918</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.2162725450901803</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.2043086172344689</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.1923446893787575</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.1803807615230461</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.1684168336673346</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.1564529058116232</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.1444889779559118</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.1325250501002003</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.120561122244489</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.1085971943887776</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.09663326653306614</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.08466933867735471</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.07270541082164328</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.06074148296593185</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.04877755511022042</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.03681362725450898</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.02484969939879755</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.01288577154308612</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.0009218436873746905</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>-0.01104208416833674</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>-0.02300601202404817</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>-0.0349699398797596</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>-0.04693386773547092</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>-0.05889779559118247</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>-0.07086172344689379</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>-0.08282565130260533</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>-0.09478957915831665</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>-0.106753507014028</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>-0.1187174348697395</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>-0.1306813627254508</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>-0.1426452905811624</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>-0.1546092184368737</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>-0.1665731462925852</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>-0.1785370741482966</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>-0.1905010020040081</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>-0.2024649298597194</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>-0.214428857715431</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>-0.2263927855711423</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>-0.2383567134268538</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>-0.2503206412825651</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>-0.2622845691382765</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>-0.274248496993988</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>-0.2862124248496993</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-0.2981763527054109</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>-0.3101402805611222</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>-0.3221042084168337</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>-0.3340681362725451</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>-0.3460320641282566</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>-0.3579959919839679</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>-0.3699599198396795</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>-0.3819238476953908</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>-0.3938877755511023</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>-0.4058517034068136</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>-0.417815631262525</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>-0.4297795591182365</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>-0.4417434869739478</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>-0.4537074148296594</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>-0.4656713426853707</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>-0.4776352705410822</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>-0.4895991983967936</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>-0.5015631262525051</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>-0.5135270541082164</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>-0.525490981963928</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>-0.5374549098196393</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>-0.5494188376753508</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>-0.5613827655310621</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>-0.5733466933867735</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>-0.585310621242485</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>-0.5972745490981963</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>-0.6092384769539079</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>-0.6212024048096192</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>-0.6331663326653307</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>-0.6451302605210421</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>-0.6570941883767536</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>-0.6690581162324649</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>-0.6810220440881765</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>-0.6929859719438878</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>-0.7049498997995993</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>-0.7169138276553106</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>-0.728877755511022</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>-0.7408416833667335</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>-0.7528056112224448</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>-0.7647695390781564</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>-0.7767334669338677</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>-0.7886973947895792</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>-0.8006613226452906</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>-0.8126252505010021</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>-0.8245891783567134</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>-0.836553106212425</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>-0.8485170340681363</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>-0.8604809619238478</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>-0.8724448897795591</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>-0.8844088176352705</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>-0.896372745490982</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>-0.9083366733466933</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>-0.9203006012024049</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>-0.9322645290581162</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>-0.9442284569138277</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>-0.956192384769539</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>-0.9681563126252506</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>-0.9801202404809619</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>-0.9920841683366735</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>-1.004048096192385</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>-1.016012024048096</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>-1.027975951903808</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>-1.039939879759519</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>-1.05190380761523</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>-1.063867735470942</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>-1.075831663326653</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>-1.087795591182365</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>-1.099759519038076</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>-1.111723446893788</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>-1.123687374749499</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>-1.135651302605211</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>-1.147615230460922</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>-1.159579158316633</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>-1.171543086172345</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>-1.183507014028056</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>-1.195470941883767</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>-1.207434869739479</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>-1.219398797595191</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>-1.231362725450902</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>-1.243326653306613</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>-1.255290581162325</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>-1.267254509018036</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>-1.279218436873747</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>-1.291182364729459</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>-1.30314629258517</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>-1.315110220440882</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>-1.327074148296593</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>-1.339038076152305</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>-1.351002004008016</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>-1.362965931863727</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>-1.374929859719439</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>-1.38689378757515</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>-1.398857715430862</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>-1.410821643286573</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>-1.422785571142285</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>-1.434749498997996</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>-1.446713426853708</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>-1.458677354709419</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>-1.47064128256513</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>-1.482605210420842</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>-1.494569138276553</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>-1.506533066132264</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>-1.518496993987976</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>-1.530460921843688</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>-1.542424849699399</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>-1.55438877755511</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>-1.566352705410822</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>-1.578316633266533</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>-1.590280561122244</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>-1.602244488977956</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>-1.614208416833667</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>-1.626172344689379</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>-1.63813627254509</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>-1.650100200400802</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>-1.662064128256513</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>-1.674028056112224</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>-1.685991983967936</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>-1.697955911823647</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>-1.709919839679359</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>-1.72188376753507</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>-1.733847695390782</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>-1.745811623246493</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>-1.757775551102205</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>-1.769739478957916</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>-1.781703406813627</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>-1.793667334669339</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>-1.80563126252505</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>-1.817595190380761</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>-1.829559118236473</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>-1.841523046092185</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>-1.853486973947896</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>-1.865450901803607</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>-1.877414829659319</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>-1.88937875751503</v>
+      </c>
+      <c r="II4" t="n">
+        <v>-1.901342685370741</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>-1.913306613226453</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>-1.925270541082164</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>-1.937234468937876</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>-1.949198396793587</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>-1.961162324649299</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>-1.97312625250501</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>-1.985090180360721</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>-1.997054108216433</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>-2.009018036072145</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>-2.020981963927856</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>-2.032945891783567</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>-2.044909819639279</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>-2.05687374749499</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>-2.068837675350702</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>-2.080801603206413</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>-2.092765531062124</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>-2.104729458917836</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>-2.116693386773547</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>-2.128657314629258</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>-2.14062124248497</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>-2.152585170340681</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>-2.164549098196392</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>-2.176513026052104</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>-2.188476953907815</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>-2.200440881763527</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>-2.212404809619239</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>-2.22436873747495</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>-2.236332665330662</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>-2.248296593186373</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>-2.260260521042084</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>-2.272224448897796</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>-2.284188376753507</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>-2.296152304609218</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>-2.30811623246493</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>-2.320080160320641</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>-2.332044088176353</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>-2.344008016032064</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>-2.355971943887775</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>-2.367935871743487</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>-2.379899799599198</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>-2.391863727454909</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>-2.403827655310621</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>-2.415791583166333</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>-2.427755511022044</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>-2.439719438877756</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>-2.451683366733467</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>-2.463647294589179</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>-2.47561122244489</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>-2.487575150300601</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>-2.499539078156313</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>-2.511503006012024</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>-2.523466933867735</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>-2.535430861723447</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>-2.547394789579158</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>-2.559358717434869</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>-2.571322645290581</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>-2.583286573146292</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>-2.595250501002004</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>-2.607214428857715</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>-2.619178356713427</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>-2.631142284569139</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>-2.64310621242485</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>-2.655070140280561</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>-2.667034068136273</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>-2.678997995991984</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>-2.690961923847696</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>-2.702925851703407</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>-2.714889779559118</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>-2.72685370741483</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>-2.738817635270541</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>-2.750781563126252</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>-2.762745490981964</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>-2.774709418837675</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>-2.786673346693386</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>-2.798637274549098</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>-2.810601202404809</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>-2.822565130260521</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>-2.834529058116233</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>-2.846492985971944</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>-2.858456913827656</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>-2.870420841683367</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>-2.882384769539078</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>-2.89434869739479</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>-2.906312625250501</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>-2.918276553106212</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>-2.930240480961924</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>-2.942204408817635</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>-2.954168336673347</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>-2.966132264529058</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>-2.978096192384769</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>-2.990060120240481</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>-3.002024048096192</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>-3.013987975951903</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>-3.025951903807615</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>-3.037915831663327</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>-3.049879759519039</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>-3.06184368737475</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>-3.073807615230461</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>-3.085771543086173</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>-3.097735470941884</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>-3.109699398797596</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>-3.121663326653307</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>-3.133627254509018</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>-3.14559118236473</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>-3.157555110220441</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>-3.169519038076152</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>-3.181482965931864</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>-3.193446893787575</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>-3.205410821643286</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>-3.217374749498998</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>-3.229338677354709</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>-3.241302605210421</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>-3.253266533066133</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>-3.265230460921844</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>-3.277194388777556</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>-3.289158316633267</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>-3.301122244488978</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>-3.31308617234469</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>-3.325050100200401</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>-3.337014028056112</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>-3.348977955911824</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>-3.360941883767535</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>-3.372905811623247</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>-3.384869739478958</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>-3.396833667334669</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>-3.408797595190381</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>-3.420761523046092</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>-3.432725450901803</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>-3.444689378757515</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>-3.456653306613227</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>-3.468617234468939</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>-3.48058116232465</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>-3.492545090180361</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>-3.504509018036073</v>
+      </c>
+      <c r="NN4" t="n">
+        <v>-3.516472945891784</v>
+      </c>
+      <c r="NO4" t="n">
+        <v>-3.528436873747495</v>
+      </c>
+      <c r="NP4" t="n">
+        <v>-3.540400801603207</v>
+      </c>
+      <c r="NQ4" t="n">
+        <v>-3.552364729458918</v>
+      </c>
+      <c r="NR4" t="n">
+        <v>-3.564328657314629</v>
+      </c>
+      <c r="NS4" t="n">
+        <v>-3.576292585170341</v>
+      </c>
+      <c r="NT4" t="n">
+        <v>-3.588256513026052</v>
+      </c>
+      <c r="NU4" t="n">
+        <v>-3.600220440881764</v>
+      </c>
+      <c r="NV4" t="n">
+        <v>-3.612184368737475</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>-3.624148296593186</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>-3.636112224448898</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>-3.648076152304609</v>
+      </c>
+      <c r="NZ4" t="n">
+        <v>-3.660040080160321</v>
+      </c>
+      <c r="OA4" t="n">
+        <v>-3.672004008016033</v>
+      </c>
+      <c r="OB4" t="n">
+        <v>-3.683967935871744</v>
+      </c>
+      <c r="OC4" t="n">
+        <v>-3.695931863727455</v>
+      </c>
+      <c r="OD4" t="n">
+        <v>-3.707895791583167</v>
+      </c>
+      <c r="OE4" t="n">
+        <v>-3.719859719438878</v>
+      </c>
+      <c r="OF4" t="n">
+        <v>-3.73182364729459</v>
+      </c>
+      <c r="OG4" t="n">
+        <v>-3.743787575150301</v>
+      </c>
+      <c r="OH4" t="n">
+        <v>-3.755751503006012</v>
+      </c>
+      <c r="OI4" t="n">
+        <v>-3.767715430861724</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>-3.779679358717435</v>
+      </c>
+      <c r="OK4" t="n">
+        <v>-3.791643286573146</v>
+      </c>
+      <c r="OL4" t="n">
+        <v>-3.803607214428858</v>
+      </c>
+      <c r="OM4" t="n">
+        <v>-3.815571142284569</v>
+      </c>
+      <c r="ON4" t="n">
+        <v>-3.82753507014028</v>
+      </c>
+      <c r="OO4" t="n">
+        <v>-3.839498997995992</v>
+      </c>
+      <c r="OP4" t="n">
+        <v>-3.851462925851703</v>
+      </c>
+      <c r="OQ4" t="n">
+        <v>-3.863426853707415</v>
+      </c>
+      <c r="OR4" t="n">
+        <v>-3.875390781563127</v>
+      </c>
+      <c r="OS4" t="n">
+        <v>-3.887354709418838</v>
+      </c>
+      <c r="OT4" t="n">
+        <v>-3.89931863727455</v>
+      </c>
+      <c r="OU4" t="n">
+        <v>-3.911282565130261</v>
+      </c>
+      <c r="OV4" t="n">
+        <v>-3.923246492985972</v>
+      </c>
+      <c r="OW4" t="n">
+        <v>-3.935210420841684</v>
+      </c>
+      <c r="OX4" t="n">
+        <v>-3.947174348697395</v>
+      </c>
+      <c r="OY4" t="n">
+        <v>-3.959138276553106</v>
+      </c>
+      <c r="OZ4" t="n">
+        <v>-3.971102204408818</v>
+      </c>
+      <c r="PA4" t="n">
+        <v>-3.983066132264529</v>
+      </c>
+      <c r="PB4" t="n">
+        <v>-3.995030060120241</v>
+      </c>
+      <c r="PC4" t="n">
+        <v>-4.006993987975952</v>
+      </c>
+      <c r="PD4" t="n">
+        <v>-4.018957915831663</v>
+      </c>
+      <c r="PE4" t="n">
+        <v>-4.030921843687375</v>
+      </c>
+      <c r="PF4" t="n">
+        <v>-4.042885771543086</v>
+      </c>
+      <c r="PG4" t="n">
+        <v>-4.054849699398797</v>
+      </c>
+      <c r="PH4" t="n">
+        <v>-4.066813627254509</v>
+      </c>
+      <c r="PI4" t="n">
+        <v>-4.078777555110221</v>
+      </c>
+      <c r="PJ4" t="n">
+        <v>-4.090741482965932</v>
+      </c>
+      <c r="PK4" t="n">
+        <v>-4.102705410821644</v>
+      </c>
+      <c r="PL4" t="n">
+        <v>-4.114669338677355</v>
+      </c>
+      <c r="PM4" t="n">
+        <v>-4.126633266533067</v>
+      </c>
+      <c r="PN4" t="n">
+        <v>-4.138597194388778</v>
+      </c>
+      <c r="PO4" t="n">
+        <v>-4.150561122244489</v>
+      </c>
+      <c r="PP4" t="n">
+        <v>-4.162525050100201</v>
+      </c>
+      <c r="PQ4" t="n">
+        <v>-4.174488977955912</v>
+      </c>
+      <c r="PR4" t="n">
+        <v>-4.186452905811623</v>
+      </c>
+      <c r="PS4" t="n">
+        <v>-4.198416833667335</v>
+      </c>
+      <c r="PT4" t="n">
+        <v>-4.210380761523046</v>
+      </c>
+      <c r="PU4" t="n">
+        <v>-4.222344689378758</v>
+      </c>
+      <c r="PV4" t="n">
+        <v>-4.234308617234469</v>
+      </c>
+      <c r="PW4" t="n">
+        <v>-4.24627254509018</v>
+      </c>
+      <c r="PX4" t="n">
+        <v>-4.258236472945892</v>
+      </c>
+      <c r="PY4" t="n">
+        <v>-4.270200400801603</v>
+      </c>
+      <c r="PZ4" t="n">
+        <v>-4.282164328657315</v>
+      </c>
+      <c r="QA4" t="n">
+        <v>-4.294128256513027</v>
+      </c>
+      <c r="QB4" t="n">
+        <v>-4.306092184368738</v>
+      </c>
+      <c r="QC4" t="n">
+        <v>-4.318056112224449</v>
+      </c>
+      <c r="QD4" t="n">
+        <v>-4.330020040080161</v>
+      </c>
+      <c r="QE4" t="n">
+        <v>-4.341983967935872</v>
+      </c>
+      <c r="QF4" t="n">
+        <v>-4.353947895791584</v>
+      </c>
+      <c r="QG4" t="n">
+        <v>-4.365911823647295</v>
+      </c>
+      <c r="QH4" t="n">
+        <v>-4.377875751503006</v>
+      </c>
+      <c r="QI4" t="n">
+        <v>-4.389839679358718</v>
+      </c>
+      <c r="QJ4" t="n">
+        <v>-4.401803607214429</v>
+      </c>
+      <c r="QK4" t="n">
+        <v>-4.41376753507014</v>
+      </c>
+      <c r="QL4" t="n">
+        <v>-4.425731462925852</v>
+      </c>
+      <c r="QM4" t="n">
+        <v>-4.437695390781563</v>
+      </c>
+      <c r="QN4" t="n">
+        <v>-4.449659318637274</v>
+      </c>
+      <c r="QO4" t="n">
+        <v>-4.461623246492986</v>
+      </c>
+      <c r="QP4" t="n">
+        <v>-4.473587174348697</v>
+      </c>
+      <c r="QQ4" t="n">
+        <v>-4.485551102204409</v>
+      </c>
+      <c r="QR4" t="n">
+        <v>-4.497515030060121</v>
+      </c>
+      <c r="QS4" t="n">
+        <v>-4.509478957915832</v>
+      </c>
+      <c r="QT4" t="n">
+        <v>-4.521442885771544</v>
+      </c>
+      <c r="QU4" t="n">
+        <v>-4.533406813627255</v>
+      </c>
+      <c r="QV4" t="n">
+        <v>-4.545370741482966</v>
+      </c>
+      <c r="QW4" t="n">
+        <v>-4.557334669338678</v>
+      </c>
+      <c r="QX4" t="n">
+        <v>-4.569298597194389</v>
+      </c>
+      <c r="QY4" t="n">
+        <v>-4.5812625250501</v>
+      </c>
+      <c r="QZ4" t="n">
+        <v>-4.593226452905812</v>
+      </c>
+      <c r="RA4" t="n">
+        <v>-4.605190380761523</v>
+      </c>
+      <c r="RB4" t="n">
+        <v>-4.617154308617235</v>
+      </c>
+      <c r="RC4" t="n">
+        <v>-4.629118236472946</v>
+      </c>
+      <c r="RD4" t="n">
+        <v>-4.641082164328657</v>
+      </c>
+      <c r="RE4" t="n">
+        <v>-4.653046092184369</v>
+      </c>
+      <c r="RF4" t="n">
+        <v>-4.66501002004008</v>
+      </c>
+      <c r="RG4" t="n">
+        <v>-4.676973947895791</v>
+      </c>
+      <c r="RH4" t="n">
+        <v>-4.688937875751503</v>
+      </c>
+      <c r="RI4" t="n">
+        <v>-4.700901803607215</v>
+      </c>
+      <c r="RJ4" t="n">
+        <v>-4.712865731462926</v>
+      </c>
+      <c r="RK4" t="n">
+        <v>-4.724829659318638</v>
+      </c>
+      <c r="RL4" t="n">
+        <v>-4.736793587174349</v>
+      </c>
+      <c r="RM4" t="n">
+        <v>-4.748757515030061</v>
+      </c>
+      <c r="RN4" t="n">
+        <v>-4.760721442885772</v>
+      </c>
+      <c r="RO4" t="n">
+        <v>-4.772685370741483</v>
+      </c>
+      <c r="RP4" t="n">
+        <v>-4.784649298597195</v>
+      </c>
+      <c r="RQ4" t="n">
+        <v>-4.796613226452906</v>
+      </c>
+      <c r="RR4" t="n">
+        <v>-4.808577154308617</v>
+      </c>
+      <c r="RS4" t="n">
+        <v>-4.820541082164329</v>
+      </c>
+      <c r="RT4" t="n">
+        <v>-4.83250501002004</v>
+      </c>
+      <c r="RU4" t="n">
+        <v>-4.844468937875752</v>
+      </c>
+      <c r="RV4" t="n">
+        <v>-4.856432865731463</v>
+      </c>
+      <c r="RW4" t="n">
+        <v>-4.868396793587174</v>
+      </c>
+      <c r="RX4" t="n">
+        <v>-4.880360721442886</v>
+      </c>
+      <c r="RY4" t="n">
+        <v>-4.892324649298597</v>
+      </c>
+      <c r="RZ4" t="n">
+        <v>-4.904288577154309</v>
+      </c>
+      <c r="SA4" t="n">
+        <v>-4.916252505010021</v>
+      </c>
+      <c r="SB4" t="n">
+        <v>-4.928216432865732</v>
+      </c>
+      <c r="SC4" t="n">
+        <v>-4.940180360721443</v>
+      </c>
+      <c r="SD4" t="n">
+        <v>-4.952144288577155</v>
+      </c>
+      <c r="SE4" t="n">
+        <v>-4.964108216432866</v>
+      </c>
+      <c r="SF4" t="n">
+        <v>-4.976072144288578</v>
+      </c>
+      <c r="SG4" t="n">
+        <v>-4.988036072144289</v>
+      </c>
+      <c r="SH4" t="n">
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/fake_scenarios.xlsx
+++ b/Data/fake_scenarios.xlsx
@@ -1951,1504 +1951,1504 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.97</v>
+        <v>97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9780761523046092</v>
+        <v>97.80761523046093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9861523046092184</v>
+        <v>98.61523046092185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9942284569138277</v>
+        <v>99.42284569138276</v>
       </c>
       <c r="G2" t="n">
-        <v>1.002304609218437</v>
+        <v>100.2304609218437</v>
       </c>
       <c r="H2" t="n">
-        <v>1.010380761523046</v>
+        <v>101.0380761523046</v>
       </c>
       <c r="I2" t="n">
-        <v>1.018456913827655</v>
+        <v>101.8456913827655</v>
       </c>
       <c r="J2" t="n">
-        <v>1.026533066132264</v>
+        <v>102.6533066132264</v>
       </c>
       <c r="K2" t="n">
-        <v>1.034609218436874</v>
+        <v>103.4609218436874</v>
       </c>
       <c r="L2" t="n">
-        <v>1.042685370741483</v>
+        <v>104.2685370741483</v>
       </c>
       <c r="M2" t="n">
-        <v>1.050761523046092</v>
+        <v>105.0761523046092</v>
       </c>
       <c r="N2" t="n">
-        <v>1.058837675350701</v>
+        <v>105.8837675350701</v>
       </c>
       <c r="O2" t="n">
-        <v>1.066913827655311</v>
+        <v>106.691382765531</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07498997995992</v>
+        <v>107.498997995992</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.083066132264529</v>
+        <v>108.3066132264529</v>
       </c>
       <c r="R2" t="n">
-        <v>1.091142284569138</v>
+        <v>109.1142284569138</v>
       </c>
       <c r="S2" t="n">
-        <v>1.099218436873747</v>
+        <v>109.9218436873747</v>
       </c>
       <c r="T2" t="n">
-        <v>1.107294589178357</v>
+        <v>110.7294589178357</v>
       </c>
       <c r="U2" t="n">
-        <v>1.115370741482966</v>
+        <v>111.5370741482966</v>
       </c>
       <c r="V2" t="n">
-        <v>1.123446893787575</v>
+        <v>112.3446893787575</v>
       </c>
       <c r="W2" t="n">
-        <v>1.131523046092184</v>
+        <v>113.1523046092184</v>
       </c>
       <c r="X2" t="n">
-        <v>1.139599198396794</v>
+        <v>113.9599198396794</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.147675350701403</v>
+        <v>114.7675350701403</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.155751503006012</v>
+        <v>115.5751503006012</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.163827655310621</v>
+        <v>116.3827655310621</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.17190380761523</v>
+        <v>117.190380761523</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.17997995991984</v>
+        <v>117.997995991984</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.188056112224449</v>
+        <v>118.8056112224449</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.196132264529058</v>
+        <v>119.6132264529058</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.204208416833667</v>
+        <v>120.4208416833667</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.212284569138277</v>
+        <v>121.2284569138277</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.220360721442886</v>
+        <v>122.0360721442886</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.228436873747495</v>
+        <v>122.8436873747495</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.236513026052104</v>
+        <v>123.6513026052104</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.244589178356713</v>
+        <v>124.4589178356713</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.252665330661323</v>
+        <v>125.2665330661323</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.260741482965932</v>
+        <v>126.0741482965932</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.268817635270541</v>
+        <v>126.8817635270541</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.27689378757515</v>
+        <v>127.689378757515</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.28496993987976</v>
+        <v>128.496993987976</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.293046092184369</v>
+        <v>129.3046092184369</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.301122244488978</v>
+        <v>130.1122244488978</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.309198396793587</v>
+        <v>130.9198396793587</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.317274549098197</v>
+        <v>131.7274549098196</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.325350701402806</v>
+        <v>132.5350701402806</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.333426853707415</v>
+        <v>133.3426853707415</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.341503006012024</v>
+        <v>134.1503006012024</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.349579158316633</v>
+        <v>134.9579158316633</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.357655310621243</v>
+        <v>135.7655310621243</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.365731462925852</v>
+        <v>136.5731462925852</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.373807615230461</v>
+        <v>137.3807615230461</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.38188376753507</v>
+        <v>138.188376753507</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.389959919839679</v>
+        <v>138.9959919839679</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.398036072144289</v>
+        <v>139.8036072144289</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.406112224448898</v>
+        <v>140.6112224448898</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.414188376753507</v>
+        <v>141.4188376753507</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.422264529058116</v>
+        <v>142.2264529058116</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.430340681362726</v>
+        <v>143.0340681362725</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.438416833667335</v>
+        <v>143.8416833667335</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.446492985971944</v>
+        <v>144.6492985971944</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.454569138276553</v>
+        <v>145.4569138276553</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.462645290581162</v>
+        <v>146.2645290581162</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.470721442885772</v>
+        <v>147.0721442885772</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.478797595190381</v>
+        <v>147.8797595190381</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.48687374749499</v>
+        <v>148.687374749499</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.494949899799599</v>
+        <v>149.4949899799599</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.503026052104208</v>
+        <v>150.3026052104208</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.511102204408818</v>
+        <v>151.1102204408818</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.519178356713427</v>
+        <v>151.9178356713427</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.527254509018036</v>
+        <v>152.7254509018036</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.535330661322645</v>
+        <v>153.5330661322645</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.543406813627255</v>
+        <v>154.3406813627255</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.551482965931864</v>
+        <v>155.1482965931864</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.559559118236473</v>
+        <v>155.9559118236473</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.567635270541082</v>
+        <v>156.7635270541082</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.575711422845691</v>
+        <v>157.5711422845691</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.583787575150301</v>
+        <v>158.3787575150301</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.59186372745491</v>
+        <v>159.186372745491</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.599939879759519</v>
+        <v>159.9939879759519</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.608016032064128</v>
+        <v>160.8016032064128</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.616092184368737</v>
+        <v>161.6092184368738</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.624168336673347</v>
+        <v>162.4168336673347</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.632244488977956</v>
+        <v>163.2244488977956</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.640320641282565</v>
+        <v>164.0320641282565</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.648396793587174</v>
+        <v>164.8396793587174</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.656472945891784</v>
+        <v>165.6472945891784</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.664549098196393</v>
+        <v>166.4549098196393</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.672625250501002</v>
+        <v>167.2625250501002</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.680701402805611</v>
+        <v>168.0701402805611</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.68877755511022</v>
+        <v>168.877755511022</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.69685370741483</v>
+        <v>169.685370741483</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.704929859719439</v>
+        <v>170.4929859719439</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.713006012024048</v>
+        <v>171.3006012024048</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.721082164328657</v>
+        <v>172.1082164328657</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.729158316633267</v>
+        <v>172.9158316633267</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.737234468937876</v>
+        <v>173.7234468937876</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.745310621242485</v>
+        <v>174.5310621242485</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.753386773547094</v>
+        <v>175.3386773547094</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.761462925851704</v>
+        <v>176.1462925851704</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.769539078156313</v>
+        <v>176.9539078156313</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.777615230460922</v>
+        <v>177.7615230460922</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.785691382765531</v>
+        <v>178.5691382765531</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.79376753507014</v>
+        <v>179.376753507014</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.801843687374749</v>
+        <v>180.184368737475</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.809919839679359</v>
+        <v>180.9919839679359</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.817995991983968</v>
+        <v>181.7995991983968</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.826072144288577</v>
+        <v>182.6072144288577</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.834148296593186</v>
+        <v>183.4148296593186</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.842224448897796</v>
+        <v>184.2224448897796</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.850300601202405</v>
+        <v>185.0300601202405</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.858376753507014</v>
+        <v>185.8376753507014</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.866452905811623</v>
+        <v>186.6452905811623</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.874529058116233</v>
+        <v>187.4529058116233</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.882605210420842</v>
+        <v>188.2605210420842</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.890681362725451</v>
+        <v>189.0681362725451</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.89875751503006</v>
+        <v>189.875751503006</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.90683366733467</v>
+        <v>190.683366733467</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.914909819639279</v>
+        <v>191.4909819639279</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.922985971943888</v>
+        <v>192.2985971943888</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.931062124248497</v>
+        <v>193.1062124248497</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.939138276553106</v>
+        <v>193.9138276553107</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.947214428857716</v>
+        <v>194.7214428857716</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.955290581162325</v>
+        <v>195.5290581162325</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.963366733466934</v>
+        <v>196.3366733466934</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.971442885771543</v>
+        <v>197.1442885771543</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.979519038076152</v>
+        <v>197.9519038076153</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.987595190380762</v>
+        <v>198.7595190380761</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.995671342685371</v>
+        <v>199.5671342685371</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.00374749498998</v>
+        <v>200.374749498998</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.011823647294589</v>
+        <v>201.1823647294589</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.019899799599199</v>
+        <v>201.9899799599199</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.027975951903808</v>
+        <v>202.7975951903808</v>
       </c>
       <c r="EE2" t="n">
-        <v>2.036052104208417</v>
+        <v>203.6052104208417</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.044128256513026</v>
+        <v>204.4128256513026</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.052204408817635</v>
+        <v>205.2204408817636</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.060280561122244</v>
+        <v>206.0280561122244</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.068356713426854</v>
+        <v>206.8356713426854</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.076432865731463</v>
+        <v>207.6432865731463</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.084509018036072</v>
+        <v>208.4509018036072</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.092585170340682</v>
+        <v>209.2585170340682</v>
       </c>
       <c r="EM2" t="n">
-        <v>2.100661322645291</v>
+        <v>210.0661322645291</v>
       </c>
       <c r="EN2" t="n">
-        <v>2.1087374749499</v>
+        <v>210.87374749499</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.116813627254509</v>
+        <v>211.6813627254509</v>
       </c>
       <c r="EP2" t="n">
-        <v>2.124889779559118</v>
+        <v>212.4889779559118</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.132965931863728</v>
+        <v>213.2965931863727</v>
       </c>
       <c r="ER2" t="n">
-        <v>2.141042084168337</v>
+        <v>214.1042084168337</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.149118236472946</v>
+        <v>214.9118236472946</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.157194388777556</v>
+        <v>215.7194388777556</v>
       </c>
       <c r="EU2" t="n">
-        <v>2.165270541082164</v>
+        <v>216.5270541082164</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.173346693386774</v>
+        <v>217.3346693386774</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.181422845691383</v>
+        <v>218.1422845691383</v>
       </c>
       <c r="EX2" t="n">
-        <v>2.189498997995992</v>
+        <v>218.9498997995992</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.197575150300601</v>
+        <v>219.7575150300601</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.205651302605211</v>
+        <v>220.5651302605211</v>
       </c>
       <c r="FA2" t="n">
-        <v>2.21372745490982</v>
+        <v>221.372745490982</v>
       </c>
       <c r="FB2" t="n">
-        <v>2.221803607214429</v>
+        <v>222.1803607214429</v>
       </c>
       <c r="FC2" t="n">
-        <v>2.229879759519038</v>
+        <v>222.9879759519038</v>
       </c>
       <c r="FD2" t="n">
-        <v>2.237955911823647</v>
+        <v>223.7955911823647</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.246032064128257</v>
+        <v>224.6032064128257</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.254108216432866</v>
+        <v>225.4108216432866</v>
       </c>
       <c r="FG2" t="n">
-        <v>2.262184368737475</v>
+        <v>226.2184368737475</v>
       </c>
       <c r="FH2" t="n">
-        <v>2.270260521042085</v>
+        <v>227.0260521042084</v>
       </c>
       <c r="FI2" t="n">
-        <v>2.278336673346693</v>
+        <v>227.8336673346693</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.286412825651303</v>
+        <v>228.6412825651303</v>
       </c>
       <c r="FK2" t="n">
-        <v>2.294488977955912</v>
+        <v>229.4488977955912</v>
       </c>
       <c r="FL2" t="n">
-        <v>2.302565130260521</v>
+        <v>230.2565130260521</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.31064128256513</v>
+        <v>231.064128256513</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.31871743486974</v>
+        <v>231.871743486974</v>
       </c>
       <c r="FO2" t="n">
-        <v>2.326793587174349</v>
+        <v>232.6793587174349</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.334869739478958</v>
+        <v>233.4869739478958</v>
       </c>
       <c r="FQ2" t="n">
-        <v>2.342945891783567</v>
+        <v>234.2945891783567</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.351022044088176</v>
+        <v>235.1022044088176</v>
       </c>
       <c r="FS2" t="n">
-        <v>2.359098196392786</v>
+        <v>235.9098196392786</v>
       </c>
       <c r="FT2" t="n">
-        <v>2.367174348697395</v>
+        <v>236.7174348697395</v>
       </c>
       <c r="FU2" t="n">
-        <v>2.375250501002004</v>
+        <v>237.5250501002004</v>
       </c>
       <c r="FV2" t="n">
-        <v>2.383326653306614</v>
+        <v>238.3326653306613</v>
       </c>
       <c r="FW2" t="n">
-        <v>2.391402805611222</v>
+        <v>239.1402805611222</v>
       </c>
       <c r="FX2" t="n">
-        <v>2.399478957915832</v>
+        <v>239.9478957915832</v>
       </c>
       <c r="FY2" t="n">
-        <v>2.407555110220441</v>
+        <v>240.7555110220441</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.41563126252505</v>
+        <v>241.563126252505</v>
       </c>
       <c r="GA2" t="n">
-        <v>2.42370741482966</v>
+        <v>242.370741482966</v>
       </c>
       <c r="GB2" t="n">
-        <v>2.431783567134269</v>
+        <v>243.1783567134269</v>
       </c>
       <c r="GC2" t="n">
-        <v>2.439859719438878</v>
+        <v>243.9859719438878</v>
       </c>
       <c r="GD2" t="n">
-        <v>2.447935871743487</v>
+        <v>244.7935871743487</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.456012024048096</v>
+        <v>245.6012024048096</v>
       </c>
       <c r="GF2" t="n">
-        <v>2.464088176352706</v>
+        <v>246.4088176352706</v>
       </c>
       <c r="GG2" t="n">
-        <v>2.472164328657315</v>
+        <v>247.2164328657315</v>
       </c>
       <c r="GH2" t="n">
-        <v>2.480240480961924</v>
+        <v>248.0240480961924</v>
       </c>
       <c r="GI2" t="n">
-        <v>2.488316633266533</v>
+        <v>248.8316633266533</v>
       </c>
       <c r="GJ2" t="n">
-        <v>2.496392785571143</v>
+        <v>249.6392785571143</v>
       </c>
       <c r="GK2" t="n">
-        <v>2.504468937875751</v>
+        <v>250.4468937875751</v>
       </c>
       <c r="GL2" t="n">
-        <v>2.512545090180361</v>
+        <v>251.2545090180361</v>
       </c>
       <c r="GM2" t="n">
-        <v>2.52062124248497</v>
+        <v>252.062124248497</v>
       </c>
       <c r="GN2" t="n">
-        <v>2.528697394789579</v>
+        <v>252.8697394789579</v>
       </c>
       <c r="GO2" t="n">
-        <v>2.536773547094189</v>
+        <v>253.6773547094189</v>
       </c>
       <c r="GP2" t="n">
-        <v>2.544849699398798</v>
+        <v>254.4849699398798</v>
       </c>
       <c r="GQ2" t="n">
-        <v>2.552925851703407</v>
+        <v>255.2925851703407</v>
       </c>
       <c r="GR2" t="n">
-        <v>2.561002004008016</v>
+        <v>256.1002004008016</v>
       </c>
       <c r="GS2" t="n">
-        <v>2.569078156312625</v>
+        <v>256.9078156312625</v>
       </c>
       <c r="GT2" t="n">
-        <v>2.577154308617235</v>
+        <v>257.7154308617235</v>
       </c>
       <c r="GU2" t="n">
-        <v>2.585230460921844</v>
+        <v>258.5230460921844</v>
       </c>
       <c r="GV2" t="n">
-        <v>2.593306613226453</v>
+        <v>259.3306613226453</v>
       </c>
       <c r="GW2" t="n">
-        <v>2.601382765531063</v>
+        <v>260.1382765531063</v>
       </c>
       <c r="GX2" t="n">
-        <v>2.609458917835672</v>
+        <v>260.9458917835672</v>
       </c>
       <c r="GY2" t="n">
-        <v>2.61753507014028</v>
+        <v>261.7535070140281</v>
       </c>
       <c r="GZ2" t="n">
-        <v>2.62561122244489</v>
+        <v>262.561122244489</v>
       </c>
       <c r="HA2" t="n">
-        <v>2.633687374749499</v>
+        <v>263.3687374749499</v>
       </c>
       <c r="HB2" t="n">
-        <v>2.641763527054108</v>
+        <v>264.1763527054109</v>
       </c>
       <c r="HC2" t="n">
-        <v>2.649839679358718</v>
+        <v>264.9839679358718</v>
       </c>
       <c r="HD2" t="n">
-        <v>2.657915831663327</v>
+        <v>265.7915831663327</v>
       </c>
       <c r="HE2" t="n">
-        <v>2.665991983967936</v>
+        <v>266.5991983967936</v>
       </c>
       <c r="HF2" t="n">
-        <v>2.674068136272545</v>
+        <v>267.4068136272546</v>
       </c>
       <c r="HG2" t="n">
-        <v>2.682144288577154</v>
+        <v>268.2144288577154</v>
       </c>
       <c r="HH2" t="n">
-        <v>2.690220440881764</v>
+        <v>269.0220440881764</v>
       </c>
       <c r="HI2" t="n">
-        <v>2.698296593186373</v>
+        <v>269.8296593186373</v>
       </c>
       <c r="HJ2" t="n">
-        <v>2.706372745490982</v>
+        <v>270.6372745490982</v>
       </c>
       <c r="HK2" t="n">
-        <v>2.714448897795592</v>
+        <v>271.4448897795592</v>
       </c>
       <c r="HL2" t="n">
-        <v>2.722525050100201</v>
+        <v>272.2525050100201</v>
       </c>
       <c r="HM2" t="n">
-        <v>2.73060120240481</v>
+        <v>273.060120240481</v>
       </c>
       <c r="HN2" t="n">
-        <v>2.738677354709419</v>
+        <v>273.8677354709419</v>
       </c>
       <c r="HO2" t="n">
-        <v>2.746753507014028</v>
+        <v>274.6753507014028</v>
       </c>
       <c r="HP2" t="n">
-        <v>2.754829659318637</v>
+        <v>275.4829659318638</v>
       </c>
       <c r="HQ2" t="n">
-        <v>2.762905811623247</v>
+        <v>276.2905811623247</v>
       </c>
       <c r="HR2" t="n">
-        <v>2.770981963927856</v>
+        <v>277.0981963927856</v>
       </c>
       <c r="HS2" t="n">
-        <v>2.779058116232465</v>
+        <v>277.9058116232466</v>
       </c>
       <c r="HT2" t="n">
-        <v>2.787134268537074</v>
+        <v>278.7134268537075</v>
       </c>
       <c r="HU2" t="n">
-        <v>2.795210420841683</v>
+        <v>279.5210420841683</v>
       </c>
       <c r="HV2" t="n">
-        <v>2.803286573146293</v>
+        <v>280.3286573146293</v>
       </c>
       <c r="HW2" t="n">
-        <v>2.811362725450902</v>
+        <v>281.1362725450902</v>
       </c>
       <c r="HX2" t="n">
-        <v>2.819438877755511</v>
+        <v>281.9438877755511</v>
       </c>
       <c r="HY2" t="n">
-        <v>2.827515030060121</v>
+        <v>282.7515030060121</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.83559118236473</v>
+        <v>283.559118236473</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.843667334669339</v>
+        <v>284.3667334669339</v>
       </c>
       <c r="IB2" t="n">
-        <v>2.851743486973948</v>
+        <v>285.1743486973948</v>
       </c>
       <c r="IC2" t="n">
-        <v>2.859819639278557</v>
+        <v>285.9819639278557</v>
       </c>
       <c r="ID2" t="n">
-        <v>2.867895791583166</v>
+        <v>286.7895791583167</v>
       </c>
       <c r="IE2" t="n">
-        <v>2.875971943887776</v>
+        <v>287.5971943887776</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.884048096192385</v>
+        <v>288.4048096192384</v>
       </c>
       <c r="IG2" t="n">
-        <v>2.892124248496994</v>
+        <v>289.2124248496995</v>
       </c>
       <c r="IH2" t="n">
-        <v>2.900200400801603</v>
+        <v>290.0200400801604</v>
       </c>
       <c r="II2" t="n">
-        <v>2.908276553106213</v>
+        <v>290.8276553106213</v>
       </c>
       <c r="IJ2" t="n">
-        <v>2.916352705410822</v>
+        <v>291.6352705410822</v>
       </c>
       <c r="IK2" t="n">
-        <v>2.924428857715431</v>
+        <v>292.4428857715431</v>
       </c>
       <c r="IL2" t="n">
-        <v>2.93250501002004</v>
+        <v>293.250501002004</v>
       </c>
       <c r="IM2" t="n">
-        <v>2.94058116232465</v>
+        <v>294.058116232465</v>
       </c>
       <c r="IN2" t="n">
-        <v>2.948657314629259</v>
+        <v>294.8657314629259</v>
       </c>
       <c r="IO2" t="n">
-        <v>2.956733466933868</v>
+        <v>295.6733466933868</v>
       </c>
       <c r="IP2" t="n">
-        <v>2.964809619238477</v>
+        <v>296.4809619238477</v>
       </c>
       <c r="IQ2" t="n">
-        <v>2.972885771543086</v>
+        <v>297.2885771543086</v>
       </c>
       <c r="IR2" t="n">
-        <v>2.980961923847696</v>
+        <v>298.0961923847696</v>
       </c>
       <c r="IS2" t="n">
-        <v>2.989038076152305</v>
+        <v>298.9038076152304</v>
       </c>
       <c r="IT2" t="n">
-        <v>2.997114228456914</v>
+        <v>299.7114228456913</v>
       </c>
       <c r="IU2" t="n">
-        <v>3.005190380761523</v>
+        <v>300.5190380761524</v>
       </c>
       <c r="IV2" t="n">
-        <v>3.013266533066132</v>
+        <v>301.3266533066133</v>
       </c>
       <c r="IW2" t="n">
-        <v>3.021342685370742</v>
+        <v>302.1342685370742</v>
       </c>
       <c r="IX2" t="n">
-        <v>3.029418837675351</v>
+        <v>302.9418837675351</v>
       </c>
       <c r="IY2" t="n">
-        <v>3.03749498997996</v>
+        <v>303.749498997996</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3.04557114228457</v>
+        <v>304.557114228457</v>
       </c>
       <c r="JA2" t="n">
-        <v>3.053647294589179</v>
+        <v>305.3647294589179</v>
       </c>
       <c r="JB2" t="n">
-        <v>3.061723446893788</v>
+        <v>306.1723446893787</v>
       </c>
       <c r="JC2" t="n">
-        <v>3.069799599198397</v>
+        <v>306.9799599198398</v>
       </c>
       <c r="JD2" t="n">
-        <v>3.077875751503006</v>
+        <v>307.7875751503006</v>
       </c>
       <c r="JE2" t="n">
-        <v>3.085951903807615</v>
+        <v>308.5951903807615</v>
       </c>
       <c r="JF2" t="n">
-        <v>3.094028056112225</v>
+        <v>309.4028056112225</v>
       </c>
       <c r="JG2" t="n">
-        <v>3.102104208416834</v>
+        <v>310.2104208416834</v>
       </c>
       <c r="JH2" t="n">
-        <v>3.110180360721444</v>
+        <v>311.0180360721444</v>
       </c>
       <c r="JI2" t="n">
-        <v>3.118256513026052</v>
+        <v>311.8256513026053</v>
       </c>
       <c r="JJ2" t="n">
-        <v>3.126332665330661</v>
+        <v>312.6332665330661</v>
       </c>
       <c r="JK2" t="n">
-        <v>3.134408817635271</v>
+        <v>313.4408817635271</v>
       </c>
       <c r="JL2" t="n">
-        <v>3.14248496993988</v>
+        <v>314.248496993988</v>
       </c>
       <c r="JM2" t="n">
-        <v>3.150561122244489</v>
+        <v>315.0561122244489</v>
       </c>
       <c r="JN2" t="n">
-        <v>3.158637274549099</v>
+        <v>315.8637274549098</v>
       </c>
       <c r="JO2" t="n">
-        <v>3.166713426853708</v>
+        <v>316.6713426853707</v>
       </c>
       <c r="JP2" t="n">
-        <v>3.174789579158316</v>
+        <v>317.4789579158316</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3.182865731462926</v>
+        <v>318.2865731462927</v>
       </c>
       <c r="JR2" t="n">
-        <v>3.190941883767535</v>
+        <v>319.0941883767535</v>
       </c>
       <c r="JS2" t="n">
-        <v>3.199018036072145</v>
+        <v>319.9018036072145</v>
       </c>
       <c r="JT2" t="n">
-        <v>3.207094188376754</v>
+        <v>320.7094188376754</v>
       </c>
       <c r="JU2" t="n">
-        <v>3.215170340681363</v>
+        <v>321.5170340681363</v>
       </c>
       <c r="JV2" t="n">
-        <v>3.223246492985973</v>
+        <v>322.3246492985973</v>
       </c>
       <c r="JW2" t="n">
-        <v>3.231322645290581</v>
+        <v>323.1322645290581</v>
       </c>
       <c r="JX2" t="n">
-        <v>3.23939879759519</v>
+        <v>323.939879759519</v>
       </c>
       <c r="JY2" t="n">
-        <v>3.2474749498998</v>
+        <v>324.74749498998</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3.255551102204409</v>
+        <v>325.5551102204409</v>
       </c>
       <c r="KA2" t="n">
-        <v>3.263627254509018</v>
+        <v>326.3627254509018</v>
       </c>
       <c r="KB2" t="n">
-        <v>3.271703406813628</v>
+        <v>327.1703406813627</v>
       </c>
       <c r="KC2" t="n">
-        <v>3.279779559118237</v>
+        <v>327.9779559118236</v>
       </c>
       <c r="KD2" t="n">
-        <v>3.287855711422846</v>
+        <v>328.7855711422847</v>
       </c>
       <c r="KE2" t="n">
-        <v>3.295931863727455</v>
+        <v>329.5931863727455</v>
       </c>
       <c r="KF2" t="n">
-        <v>3.304008016032064</v>
+        <v>330.4008016032064</v>
       </c>
       <c r="KG2" t="n">
-        <v>3.312084168336674</v>
+        <v>331.2084168336674</v>
       </c>
       <c r="KH2" t="n">
-        <v>3.320160320641283</v>
+        <v>332.0160320641283</v>
       </c>
       <c r="KI2" t="n">
-        <v>3.328236472945892</v>
+        <v>332.8236472945892</v>
       </c>
       <c r="KJ2" t="n">
-        <v>3.336312625250502</v>
+        <v>333.6312625250501</v>
       </c>
       <c r="KK2" t="n">
-        <v>3.34438877755511</v>
+        <v>334.438877755511</v>
       </c>
       <c r="KL2" t="n">
-        <v>3.352464929859719</v>
+        <v>335.2464929859719</v>
       </c>
       <c r="KM2" t="n">
-        <v>3.360541082164329</v>
+        <v>336.0541082164329</v>
       </c>
       <c r="KN2" t="n">
-        <v>3.368617234468938</v>
+        <v>336.8617234468938</v>
       </c>
       <c r="KO2" t="n">
-        <v>3.376693386773548</v>
+        <v>337.6693386773548</v>
       </c>
       <c r="KP2" t="n">
-        <v>3.384769539078157</v>
+        <v>338.4769539078156</v>
       </c>
       <c r="KQ2" t="n">
-        <v>3.392845691382766</v>
+        <v>339.2845691382765</v>
       </c>
       <c r="KR2" t="n">
-        <v>3.400921843687375</v>
+        <v>340.0921843687375</v>
       </c>
       <c r="KS2" t="n">
-        <v>3.408997995991984</v>
+        <v>340.8997995991984</v>
       </c>
       <c r="KT2" t="n">
-        <v>3.417074148296593</v>
+        <v>341.7074148296593</v>
       </c>
       <c r="KU2" t="n">
-        <v>3.425150300601203</v>
+        <v>342.5150300601203</v>
       </c>
       <c r="KV2" t="n">
-        <v>3.433226452905812</v>
+        <v>343.3226452905812</v>
       </c>
       <c r="KW2" t="n">
-        <v>3.441302605210421</v>
+        <v>344.1302605210421</v>
       </c>
       <c r="KX2" t="n">
-        <v>3.449378757515031</v>
+        <v>344.937875751503</v>
       </c>
       <c r="KY2" t="n">
-        <v>3.457454909819639</v>
+        <v>345.7454909819639</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3.465531062124249</v>
+        <v>346.553106212425</v>
       </c>
       <c r="LA2" t="n">
-        <v>3.473607214428858</v>
+        <v>347.3607214428858</v>
       </c>
       <c r="LB2" t="n">
-        <v>3.481683366733467</v>
+        <v>348.1683366733467</v>
       </c>
       <c r="LC2" t="n">
-        <v>3.489759519038077</v>
+        <v>348.9759519038077</v>
       </c>
       <c r="LD2" t="n">
-        <v>3.497835671342686</v>
+        <v>349.7835671342686</v>
       </c>
       <c r="LE2" t="n">
-        <v>3.505911823647295</v>
+        <v>350.5911823647294</v>
       </c>
       <c r="LF2" t="n">
-        <v>3.513987975951904</v>
+        <v>351.3987975951904</v>
       </c>
       <c r="LG2" t="n">
-        <v>3.522064128256513</v>
+        <v>352.2064128256513</v>
       </c>
       <c r="LH2" t="n">
-        <v>3.530140280561122</v>
+        <v>353.0140280561122</v>
       </c>
       <c r="LI2" t="n">
-        <v>3.538216432865732</v>
+        <v>353.8216432865732</v>
       </c>
       <c r="LJ2" t="n">
-        <v>3.546292585170341</v>
+        <v>354.6292585170341</v>
       </c>
       <c r="LK2" t="n">
-        <v>3.55436873747495</v>
+        <v>355.436873747495</v>
       </c>
       <c r="LL2" t="n">
-        <v>3.56244488977956</v>
+        <v>356.2444889779559</v>
       </c>
       <c r="LM2" t="n">
-        <v>3.570521042084168</v>
+        <v>357.0521042084168</v>
       </c>
       <c r="LN2" t="n">
-        <v>3.578597194388778</v>
+        <v>357.8597194388778</v>
       </c>
       <c r="LO2" t="n">
-        <v>3.586673346693387</v>
+        <v>358.6673346693387</v>
       </c>
       <c r="LP2" t="n">
-        <v>3.594749498997996</v>
+        <v>359.4749498997996</v>
       </c>
       <c r="LQ2" t="n">
-        <v>3.602825651302606</v>
+        <v>360.2825651302606</v>
       </c>
       <c r="LR2" t="n">
-        <v>3.610901803607215</v>
+        <v>361.0901803607215</v>
       </c>
       <c r="LS2" t="n">
-        <v>3.618977955911824</v>
+        <v>361.8977955911823</v>
       </c>
       <c r="LT2" t="n">
-        <v>3.627054108216433</v>
+        <v>362.7054108216433</v>
       </c>
       <c r="LU2" t="n">
-        <v>3.635130260521042</v>
+        <v>363.5130260521042</v>
       </c>
       <c r="LV2" t="n">
-        <v>3.643206412825651</v>
+        <v>364.3206412825651</v>
       </c>
       <c r="LW2" t="n">
-        <v>3.651282565130261</v>
+        <v>365.1282565130261</v>
       </c>
       <c r="LX2" t="n">
-        <v>3.65935871743487</v>
+        <v>365.935871743487</v>
       </c>
       <c r="LY2" t="n">
-        <v>3.66743486973948</v>
+        <v>366.7434869739479</v>
       </c>
       <c r="LZ2" t="n">
-        <v>3.675511022044089</v>
+        <v>367.5511022044088</v>
       </c>
       <c r="MA2" t="n">
-        <v>3.683587174348697</v>
+        <v>368.3587174348697</v>
       </c>
       <c r="MB2" t="n">
-        <v>3.691663326653307</v>
+        <v>369.1663326653307</v>
       </c>
       <c r="MC2" t="n">
-        <v>3.699739478957916</v>
+        <v>369.9739478957916</v>
       </c>
       <c r="MD2" t="n">
-        <v>3.707815631262525</v>
+        <v>370.7815631262525</v>
       </c>
       <c r="ME2" t="n">
-        <v>3.715891783567135</v>
+        <v>371.5891783567135</v>
       </c>
       <c r="MF2" t="n">
-        <v>3.723967935871744</v>
+        <v>372.3967935871744</v>
       </c>
       <c r="MG2" t="n">
-        <v>3.732044088176353</v>
+        <v>373.2044088176353</v>
       </c>
       <c r="MH2" t="n">
-        <v>3.740120240480962</v>
+        <v>374.0120240480962</v>
       </c>
       <c r="MI2" t="n">
-        <v>3.748196392785571</v>
+        <v>374.8196392785571</v>
       </c>
       <c r="MJ2" t="n">
-        <v>3.756272545090181</v>
+        <v>375.6272545090181</v>
       </c>
       <c r="MK2" t="n">
-        <v>3.76434869739479</v>
+        <v>376.434869739479</v>
       </c>
       <c r="ML2" t="n">
-        <v>3.772424849699399</v>
+        <v>377.2424849699399</v>
       </c>
       <c r="MM2" t="n">
-        <v>3.780501002004009</v>
+        <v>378.0501002004008</v>
       </c>
       <c r="MN2" t="n">
-        <v>3.788577154308618</v>
+        <v>378.8577154308617</v>
       </c>
       <c r="MO2" t="n">
-        <v>3.796653306613226</v>
+        <v>379.6653306613226</v>
       </c>
       <c r="MP2" t="n">
-        <v>3.804729458917836</v>
+        <v>380.4729458917836</v>
       </c>
       <c r="MQ2" t="n">
-        <v>3.812805611222445</v>
+        <v>381.2805611222445</v>
       </c>
       <c r="MR2" t="n">
-        <v>3.820881763527054</v>
+        <v>382.0881763527054</v>
       </c>
       <c r="MS2" t="n">
-        <v>3.828957915831664</v>
+        <v>382.8957915831664</v>
       </c>
       <c r="MT2" t="n">
-        <v>3.837034068136273</v>
+        <v>383.7034068136273</v>
       </c>
       <c r="MU2" t="n">
-        <v>3.845110220440882</v>
+        <v>384.5110220440882</v>
       </c>
       <c r="MV2" t="n">
-        <v>3.853186372745491</v>
+        <v>385.3186372745491</v>
       </c>
       <c r="MW2" t="n">
-        <v>3.8612625250501</v>
+        <v>386.12625250501</v>
       </c>
       <c r="MX2" t="n">
-        <v>3.86933867735471</v>
+        <v>386.933867735471</v>
       </c>
       <c r="MY2" t="n">
-        <v>3.877414829659319</v>
+        <v>387.7414829659319</v>
       </c>
       <c r="MZ2" t="n">
-        <v>3.885490981963928</v>
+        <v>388.5490981963928</v>
       </c>
       <c r="NA2" t="n">
-        <v>3.893567134268538</v>
+        <v>389.3567134268538</v>
       </c>
       <c r="NB2" t="n">
-        <v>3.901643286573147</v>
+        <v>390.1643286573146</v>
       </c>
       <c r="NC2" t="n">
-        <v>3.909719438877755</v>
+        <v>390.9719438877755</v>
       </c>
       <c r="ND2" t="n">
-        <v>3.917795591182365</v>
+        <v>391.7795591182365</v>
       </c>
       <c r="NE2" t="n">
-        <v>3.925871743486974</v>
+        <v>392.5871743486974</v>
       </c>
       <c r="NF2" t="n">
-        <v>3.933947895791584</v>
+        <v>393.3947895791584</v>
       </c>
       <c r="NG2" t="n">
-        <v>3.942024048096193</v>
+        <v>394.2024048096193</v>
       </c>
       <c r="NH2" t="n">
-        <v>3.950100200400802</v>
+        <v>395.0100200400802</v>
       </c>
       <c r="NI2" t="n">
-        <v>3.958176352705411</v>
+        <v>395.8176352705411</v>
       </c>
       <c r="NJ2" t="n">
-        <v>3.96625250501002</v>
+        <v>396.625250501002</v>
       </c>
       <c r="NK2" t="n">
-        <v>3.974328657314629</v>
+        <v>397.4328657314629</v>
       </c>
       <c r="NL2" t="n">
-        <v>3.982404809619239</v>
+        <v>398.2404809619239</v>
       </c>
       <c r="NM2" t="n">
-        <v>3.990480961923848</v>
+        <v>399.0480961923848</v>
       </c>
       <c r="NN2" t="n">
-        <v>3.998557114228457</v>
+        <v>399.8557114228457</v>
       </c>
       <c r="NO2" t="n">
-        <v>4.006633266533067</v>
+        <v>400.6633266533067</v>
       </c>
       <c r="NP2" t="n">
-        <v>4.014709418837676</v>
+        <v>401.4709418837675</v>
       </c>
       <c r="NQ2" t="n">
-        <v>4.022785571142285</v>
+        <v>402.2785571142285</v>
       </c>
       <c r="NR2" t="n">
-        <v>4.030861723446894</v>
+        <v>403.0861723446894</v>
       </c>
       <c r="NS2" t="n">
-        <v>4.038937875751503</v>
+        <v>403.8937875751503</v>
       </c>
       <c r="NT2" t="n">
-        <v>4.047014028056113</v>
+        <v>404.7014028056113</v>
       </c>
       <c r="NU2" t="n">
-        <v>4.055090180360722</v>
+        <v>405.5090180360722</v>
       </c>
       <c r="NV2" t="n">
-        <v>4.063166332665331</v>
+        <v>406.3166332665331</v>
       </c>
       <c r="NW2" t="n">
-        <v>4.07124248496994</v>
+        <v>407.124248496994</v>
       </c>
       <c r="NX2" t="n">
-        <v>4.079318637274549</v>
+        <v>407.9318637274549</v>
       </c>
       <c r="NY2" t="n">
-        <v>4.087394789579158</v>
+        <v>408.7394789579158</v>
       </c>
       <c r="NZ2" t="n">
-        <v>4.095470941883768</v>
+        <v>409.5470941883768</v>
       </c>
       <c r="OA2" t="n">
-        <v>4.103547094188377</v>
+        <v>410.3547094188377</v>
       </c>
       <c r="OB2" t="n">
-        <v>4.111623246492987</v>
+        <v>411.1623246492987</v>
       </c>
       <c r="OC2" t="n">
-        <v>4.119699398797596</v>
+        <v>411.9699398797596</v>
       </c>
       <c r="OD2" t="n">
-        <v>4.127775551102205</v>
+        <v>412.7775551102205</v>
       </c>
       <c r="OE2" t="n">
-        <v>4.135851703406814</v>
+        <v>413.5851703406814</v>
       </c>
       <c r="OF2" t="n">
-        <v>4.143927855711423</v>
+        <v>414.3927855711423</v>
       </c>
       <c r="OG2" t="n">
-        <v>4.152004008016032</v>
+        <v>415.2004008016032</v>
       </c>
       <c r="OH2" t="n">
-        <v>4.160080160320642</v>
+        <v>416.0080160320642</v>
       </c>
       <c r="OI2" t="n">
-        <v>4.168156312625251</v>
+        <v>416.8156312625251</v>
       </c>
       <c r="OJ2" t="n">
-        <v>4.17623246492986</v>
+        <v>417.623246492986</v>
       </c>
       <c r="OK2" t="n">
-        <v>4.184308617234469</v>
+        <v>418.4308617234469</v>
       </c>
       <c r="OL2" t="n">
-        <v>4.192384769539078</v>
+        <v>419.2384769539078</v>
       </c>
       <c r="OM2" t="n">
-        <v>4.200460921843688</v>
+        <v>420.0460921843688</v>
       </c>
       <c r="ON2" t="n">
-        <v>4.208537074148297</v>
+        <v>420.8537074148297</v>
       </c>
       <c r="OO2" t="n">
-        <v>4.216613226452906</v>
+        <v>421.6613226452906</v>
       </c>
       <c r="OP2" t="n">
-        <v>4.224689378757516</v>
+        <v>422.4689378757516</v>
       </c>
       <c r="OQ2" t="n">
-        <v>4.232765531062125</v>
+        <v>423.2765531062125</v>
       </c>
       <c r="OR2" t="n">
-        <v>4.240841683366734</v>
+        <v>424.0841683366734</v>
       </c>
       <c r="OS2" t="n">
-        <v>4.248917835671343</v>
+        <v>424.8917835671343</v>
       </c>
       <c r="OT2" t="n">
-        <v>4.256993987975952</v>
+        <v>425.6993987975952</v>
       </c>
       <c r="OU2" t="n">
-        <v>4.265070140280561</v>
+        <v>426.5070140280561</v>
       </c>
       <c r="OV2" t="n">
-        <v>4.273146292585171</v>
+        <v>427.3146292585171</v>
       </c>
       <c r="OW2" t="n">
-        <v>4.28122244488978</v>
+        <v>428.122244488978</v>
       </c>
       <c r="OX2" t="n">
-        <v>4.28929859719439</v>
+        <v>428.929859719439</v>
       </c>
       <c r="OY2" t="n">
-        <v>4.297374749498998</v>
+        <v>429.7374749498998</v>
       </c>
       <c r="OZ2" t="n">
-        <v>4.305450901803607</v>
+        <v>430.5450901803607</v>
       </c>
       <c r="PA2" t="n">
-        <v>4.313527054108217</v>
+        <v>431.3527054108217</v>
       </c>
       <c r="PB2" t="n">
-        <v>4.321603206412826</v>
+        <v>432.1603206412826</v>
       </c>
       <c r="PC2" t="n">
-        <v>4.329679358717435</v>
+        <v>432.9679358717435</v>
       </c>
       <c r="PD2" t="n">
-        <v>4.337755511022045</v>
+        <v>433.7755511022045</v>
       </c>
       <c r="PE2" t="n">
-        <v>4.345831663326654</v>
+        <v>434.5831663326654</v>
       </c>
       <c r="PF2" t="n">
-        <v>4.353907815631263</v>
+        <v>435.3907815631263</v>
       </c>
       <c r="PG2" t="n">
-        <v>4.361983967935872</v>
+        <v>436.1983967935872</v>
       </c>
       <c r="PH2" t="n">
-        <v>4.370060120240481</v>
+        <v>437.0060120240481</v>
       </c>
       <c r="PI2" t="n">
-        <v>4.378136272545091</v>
+        <v>437.8136272545091</v>
       </c>
       <c r="PJ2" t="n">
-        <v>4.3862124248497</v>
+        <v>438.62124248497</v>
       </c>
       <c r="PK2" t="n">
-        <v>4.394288577154309</v>
+        <v>439.4288577154309</v>
       </c>
       <c r="PL2" t="n">
-        <v>4.402364729458919</v>
+        <v>440.2364729458919</v>
       </c>
       <c r="PM2" t="n">
-        <v>4.410440881763527</v>
+        <v>441.0440881763527</v>
       </c>
       <c r="PN2" t="n">
-        <v>4.418517034068136</v>
+        <v>441.8517034068136</v>
       </c>
       <c r="PO2" t="n">
-        <v>4.426593186372746</v>
+        <v>442.6593186372746</v>
       </c>
       <c r="PP2" t="n">
-        <v>4.434669338677355</v>
+        <v>443.4669338677355</v>
       </c>
       <c r="PQ2" t="n">
-        <v>4.442745490981964</v>
+        <v>444.2745490981964</v>
       </c>
       <c r="PR2" t="n">
-        <v>4.450821643286574</v>
+        <v>445.0821643286574</v>
       </c>
       <c r="PS2" t="n">
-        <v>4.458897795591183</v>
+        <v>445.8897795591183</v>
       </c>
       <c r="PT2" t="n">
-        <v>4.466973947895792</v>
+        <v>446.6973947895792</v>
       </c>
       <c r="PU2" t="n">
-        <v>4.475050100200401</v>
+        <v>447.5050100200401</v>
       </c>
       <c r="PV2" t="n">
-        <v>4.48312625250501</v>
+        <v>448.312625250501</v>
       </c>
       <c r="PW2" t="n">
-        <v>4.49120240480962</v>
+        <v>449.120240480962</v>
       </c>
       <c r="PX2" t="n">
-        <v>4.499278557114229</v>
+        <v>449.9278557114229</v>
       </c>
       <c r="PY2" t="n">
-        <v>4.507354709418838</v>
+        <v>450.7354709418838</v>
       </c>
       <c r="PZ2" t="n">
-        <v>4.515430861723448</v>
+        <v>451.5430861723448</v>
       </c>
       <c r="QA2" t="n">
-        <v>4.523507014028056</v>
+        <v>452.3507014028057</v>
       </c>
       <c r="QB2" t="n">
-        <v>4.531583166332665</v>
+        <v>453.1583166332665</v>
       </c>
       <c r="QC2" t="n">
-        <v>4.539659318637275</v>
+        <v>453.9659318637275</v>
       </c>
       <c r="QD2" t="n">
-        <v>4.547735470941884</v>
+        <v>454.7735470941884</v>
       </c>
       <c r="QE2" t="n">
-        <v>4.555811623246494</v>
+        <v>455.5811623246494</v>
       </c>
       <c r="QF2" t="n">
-        <v>4.563887775551103</v>
+        <v>456.3887775551103</v>
       </c>
       <c r="QG2" t="n">
-        <v>4.571963927855712</v>
+        <v>457.1963927855712</v>
       </c>
       <c r="QH2" t="n">
-        <v>4.580040080160321</v>
+        <v>458.0040080160321</v>
       </c>
       <c r="QI2" t="n">
-        <v>4.58811623246493</v>
+        <v>458.811623246493</v>
       </c>
       <c r="QJ2" t="n">
-        <v>4.596192384769539</v>
+        <v>459.6192384769539</v>
       </c>
       <c r="QK2" t="n">
-        <v>4.604268537074149</v>
+        <v>460.4268537074149</v>
       </c>
       <c r="QL2" t="n">
-        <v>4.612344689378758</v>
+        <v>461.2344689378758</v>
       </c>
       <c r="QM2" t="n">
-        <v>4.620420841683367</v>
+        <v>462.0420841683367</v>
       </c>
       <c r="QN2" t="n">
-        <v>4.628496993987977</v>
+        <v>462.8496993987977</v>
       </c>
       <c r="QO2" t="n">
-        <v>4.636573146292585</v>
+        <v>463.6573146292586</v>
       </c>
       <c r="QP2" t="n">
-        <v>4.644649298597195</v>
+        <v>464.4649298597195</v>
       </c>
       <c r="QQ2" t="n">
-        <v>4.652725450901804</v>
+        <v>465.2725450901804</v>
       </c>
       <c r="QR2" t="n">
-        <v>4.660801603206413</v>
+        <v>466.0801603206413</v>
       </c>
       <c r="QS2" t="n">
-        <v>4.668877755511023</v>
+        <v>466.8877755511023</v>
       </c>
       <c r="QT2" t="n">
-        <v>4.676953907815632</v>
+        <v>467.6953907815632</v>
       </c>
       <c r="QU2" t="n">
-        <v>4.685030060120241</v>
+        <v>468.5030060120241</v>
       </c>
       <c r="QV2" t="n">
-        <v>4.69310621242485</v>
+        <v>469.310621242485</v>
       </c>
       <c r="QW2" t="n">
-        <v>4.701182364729459</v>
+        <v>470.1182364729459</v>
       </c>
       <c r="QX2" t="n">
-        <v>4.709258517034068</v>
+        <v>470.9258517034068</v>
       </c>
       <c r="QY2" t="n">
-        <v>4.717334669338678</v>
+        <v>471.7334669338678</v>
       </c>
       <c r="QZ2" t="n">
-        <v>4.725410821643287</v>
+        <v>472.5410821643287</v>
       </c>
       <c r="RA2" t="n">
-        <v>4.733486973947897</v>
+        <v>473.3486973947897</v>
       </c>
       <c r="RB2" t="n">
-        <v>4.741563126252506</v>
+        <v>474.1563126252506</v>
       </c>
       <c r="RC2" t="n">
-        <v>4.749639278557114</v>
+        <v>474.9639278557115</v>
       </c>
       <c r="RD2" t="n">
-        <v>4.757715430861724</v>
+        <v>475.7715430861724</v>
       </c>
       <c r="RE2" t="n">
-        <v>4.765791583166333</v>
+        <v>476.5791583166333</v>
       </c>
       <c r="RF2" t="n">
-        <v>4.773867735470942</v>
+        <v>477.3867735470942</v>
       </c>
       <c r="RG2" t="n">
-        <v>4.781943887775552</v>
+        <v>478.1943887775552</v>
       </c>
       <c r="RH2" t="n">
-        <v>4.790020040080161</v>
+        <v>479.0020040080161</v>
       </c>
       <c r="RI2" t="n">
-        <v>4.79809619238477</v>
+        <v>479.809619238477</v>
       </c>
       <c r="RJ2" t="n">
-        <v>4.806172344689379</v>
+        <v>480.6172344689379</v>
       </c>
       <c r="RK2" t="n">
-        <v>4.814248496993988</v>
+        <v>481.4248496993988</v>
       </c>
       <c r="RL2" t="n">
-        <v>4.822324649298598</v>
+        <v>482.2324649298598</v>
       </c>
       <c r="RM2" t="n">
-        <v>4.830400801603207</v>
+        <v>483.0400801603207</v>
       </c>
       <c r="RN2" t="n">
-        <v>4.838476953907816</v>
+        <v>483.8476953907816</v>
       </c>
       <c r="RO2" t="n">
-        <v>4.846553106212426</v>
+        <v>484.6553106212426</v>
       </c>
       <c r="RP2" t="n">
-        <v>4.854629258517035</v>
+        <v>485.4629258517035</v>
       </c>
       <c r="RQ2" t="n">
-        <v>4.862705410821643</v>
+        <v>486.2705410821644</v>
       </c>
       <c r="RR2" t="n">
-        <v>4.870781563126253</v>
+        <v>487.0781563126253</v>
       </c>
       <c r="RS2" t="n">
-        <v>4.878857715430862</v>
+        <v>487.8857715430862</v>
       </c>
       <c r="RT2" t="n">
-        <v>4.886933867735471</v>
+        <v>488.6933867735471</v>
       </c>
       <c r="RU2" t="n">
-        <v>4.895010020040081</v>
+        <v>489.5010020040081</v>
       </c>
       <c r="RV2" t="n">
-        <v>4.90308617234469</v>
+        <v>490.308617234469</v>
       </c>
       <c r="RW2" t="n">
-        <v>4.911162324649299</v>
+        <v>491.11623246493</v>
       </c>
       <c r="RX2" t="n">
-        <v>4.919238476953908</v>
+        <v>491.9238476953909</v>
       </c>
       <c r="RY2" t="n">
-        <v>4.927314629258517</v>
+        <v>492.7314629258517</v>
       </c>
       <c r="RZ2" t="n">
-        <v>4.935390781563127</v>
+        <v>493.5390781563127</v>
       </c>
       <c r="SA2" t="n">
-        <v>4.943466933867736</v>
+        <v>494.3466933867736</v>
       </c>
       <c r="SB2" t="n">
-        <v>4.951543086172345</v>
+        <v>495.1543086172345</v>
       </c>
       <c r="SC2" t="n">
-        <v>4.959619238476955</v>
+        <v>495.9619238476955</v>
       </c>
       <c r="SD2" t="n">
-        <v>4.967695390781564</v>
+        <v>496.7695390781564</v>
       </c>
       <c r="SE2" t="n">
-        <v>4.975771543086172</v>
+        <v>497.5771543086173</v>
       </c>
       <c r="SF2" t="n">
-        <v>4.983847695390782</v>
+        <v>498.3847695390782</v>
       </c>
       <c r="SG2" t="n">
-        <v>4.991923847695391</v>
+        <v>499.1923847695391</v>
       </c>
       <c r="SH2" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
@@ -3459,1501 +3459,1501 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0.97</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9680561122244489</v>
+        <v>96.80561122244488</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9661122244488978</v>
+        <v>96.61122244488978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9641683366733467</v>
+        <v>96.41683366733467</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9622244488977956</v>
+        <v>96.22244488977955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9602805611222445</v>
+        <v>96.02805611222445</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9583366733466934</v>
+        <v>95.83366733466934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9563927855711423</v>
+        <v>95.63927855711422</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9544488977955912</v>
+        <v>95.44488977955912</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9525050100200401</v>
+        <v>95.250501002004</v>
       </c>
       <c r="M3" t="n">
-        <v>0.950561122244489</v>
+        <v>95.0561122244489</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9486172344689379</v>
+        <v>94.86172344689379</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9466733466933868</v>
+        <v>94.66733466933867</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9447294589178357</v>
+        <v>94.47294589178357</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9427855711422846</v>
+        <v>94.27855711422846</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9408416833667335</v>
+        <v>94.08416833667334</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9388977955911824</v>
+        <v>93.88977955911824</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9369539078156313</v>
+        <v>93.69539078156312</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9350100200400802</v>
+        <v>93.50100200400801</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9330661322645291</v>
+        <v>93.30661322645291</v>
       </c>
       <c r="W3" t="n">
-        <v>0.931122244488978</v>
+        <v>93.11222444889779</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9291783567134269</v>
+        <v>92.91783567134269</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9272344689378758</v>
+        <v>92.72344689378758</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9252905811623247</v>
+        <v>92.52905811623246</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9233466933867736</v>
+        <v>92.33466933867736</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9214028056112225</v>
+        <v>92.14028056112224</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9194589178356714</v>
+        <v>91.94589178356713</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9175150300601203</v>
+        <v>91.75150300601203</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9155711422845692</v>
+        <v>91.55711422845691</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.913627254509018</v>
+        <v>91.36272545090181</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.9116833667334669</v>
+        <v>91.1683366733467</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9097394789579158</v>
+        <v>90.97394789579158</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.9077955911823647</v>
+        <v>90.77955911823648</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.9058517034068136</v>
+        <v>90.58517034068136</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.9039078156312625</v>
+        <v>90.39078156312625</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.9019639278557114</v>
+        <v>90.19639278557115</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9000200400801603</v>
+        <v>90.00200400801603</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.8980761523046092</v>
+        <v>89.80761523046093</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.8961322645290581</v>
+        <v>89.61322645290582</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.894188376753507</v>
+        <v>89.4188376753507</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8922444889779559</v>
+        <v>89.2244488977956</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.8903006012024048</v>
+        <v>89.03006012024048</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.8883567134268537</v>
+        <v>88.83567134268537</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8864128256513026</v>
+        <v>88.64128256513027</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.8844689378757515</v>
+        <v>88.44689378757515</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8825250501002004</v>
+        <v>88.25250501002004</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.8805811623246493</v>
+        <v>88.05811623246494</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.8786372745490982</v>
+        <v>87.86372745490982</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.8766933867735471</v>
+        <v>87.66933867735472</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.8747494989979959</v>
+        <v>87.4749498997996</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8728056112224448</v>
+        <v>87.28056112224448</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8708617234468937</v>
+        <v>87.08617234468937</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8689178356713426</v>
+        <v>86.89178356713427</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.8669739478957915</v>
+        <v>86.69739478957915</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.8650300601202404</v>
+        <v>86.50300601202404</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.8630861723446893</v>
+        <v>86.30861723446893</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.8611422845691382</v>
+        <v>86.11422845691382</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.8591983967935871</v>
+        <v>85.91983967935872</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.857254509018036</v>
+        <v>85.7254509018036</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.8553106212424849</v>
+        <v>85.53106212424849</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.8533667334669338</v>
+        <v>85.33667334669339</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.8514228456913827</v>
+        <v>85.14228456913827</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.8494789579158316</v>
+        <v>84.94789579158316</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.8475350701402805</v>
+        <v>84.75350701402805</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.8455911823647294</v>
+        <v>84.55911823647294</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.8436472945891783</v>
+        <v>84.36472945891784</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.8417034068136272</v>
+        <v>84.17034068136272</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.8397595190380761</v>
+        <v>83.97595190380761</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.837815631262525</v>
+        <v>83.78156312625251</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.8358717434869739</v>
+        <v>83.58717434869739</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.8339278557114228</v>
+        <v>83.39278557114228</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.8319839679358717</v>
+        <v>83.19839679358716</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.8300400801603206</v>
+        <v>83.00400801603206</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.8280961923847695</v>
+        <v>82.80961923847696</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.8261523046092184</v>
+        <v>82.61523046092184</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.8242084168336673</v>
+        <v>82.42084168336673</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.8222645290581162</v>
+        <v>82.22645290581163</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.8203206412825651</v>
+        <v>82.03206412825651</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.818376753507014</v>
+        <v>81.8376753507014</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.8164328657314629</v>
+        <v>81.64328657314628</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.8144889779559118</v>
+        <v>81.44889779559118</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.8125450901803607</v>
+        <v>81.25450901803607</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.8106012024048096</v>
+        <v>81.06012024048096</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.8086573146292585</v>
+        <v>80.86573146292585</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.8067134268537074</v>
+        <v>80.67134268537075</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.8047695390781563</v>
+        <v>80.47695390781563</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.8028256513026052</v>
+        <v>80.28256513026052</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.8008817635270541</v>
+        <v>80.0881763527054</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.798937875751503</v>
+        <v>79.8937875751503</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.7969939879759519</v>
+        <v>79.69939879759519</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.7950501002004008</v>
+        <v>79.50501002004007</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.7931062124248497</v>
+        <v>79.31062124248497</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.7911623246492986</v>
+        <v>79.11623246492987</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.7892184368737475</v>
+        <v>78.92184368737475</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.7872745490981964</v>
+        <v>78.72745490981964</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.7853306613226453</v>
+        <v>78.53306613226452</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.7833867735470942</v>
+        <v>78.33867735470942</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.7814428857715431</v>
+        <v>78.14428857715431</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.779498997995992</v>
+        <v>77.94989979959919</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.7775551102204409</v>
+        <v>77.75551102204409</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.7756112224448898</v>
+        <v>77.56112224448898</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.7736673346693387</v>
+        <v>77.36673346693387</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.7717234468937876</v>
+        <v>77.17234468937876</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.7697795591182365</v>
+        <v>76.97795591182364</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.7678356713426854</v>
+        <v>76.78356713426854</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.7658917835671343</v>
+        <v>76.58917835671343</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.7639478957915832</v>
+        <v>76.39478957915831</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.7620040080160321</v>
+        <v>76.20040080160321</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.760060120240481</v>
+        <v>76.0060120240481</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.7581162324649299</v>
+        <v>75.81162324649299</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.7561723446893788</v>
+        <v>75.61723446893788</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.7542284569138277</v>
+        <v>75.42284569138276</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.7522845691382766</v>
+        <v>75.22845691382766</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.7503406813627255</v>
+        <v>75.03406813627255</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.7483967935871744</v>
+        <v>74.83967935871743</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.7464529058116233</v>
+        <v>74.64529058116233</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.7445090180360722</v>
+        <v>74.45090180360722</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.7425651302605211</v>
+        <v>74.2565130260521</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.7406212424849699</v>
+        <v>74.06212424849699</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.7386773547094188</v>
+        <v>73.86773547094188</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.7367334669338677</v>
+        <v>73.67334669338676</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.7347895791583166</v>
+        <v>73.47895791583166</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.7328456913827655</v>
+        <v>73.28456913827654</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.7309018036072144</v>
+        <v>73.09018036072143</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.7289579158316633</v>
+        <v>72.89579158316633</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.7270140280561121</v>
+        <v>72.70140280561121</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.725070140280561</v>
+        <v>72.5070140280561</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.7231262525050099</v>
+        <v>72.312625250501</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.7211823647294588</v>
+        <v>72.11823647294588</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.7192384769539077</v>
+        <v>71.92384769539078</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.7172945891783566</v>
+        <v>71.72945891783567</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.7153507014028055</v>
+        <v>71.53507014028055</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.7134068136272544</v>
+        <v>71.34068136272545</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.7114629258517033</v>
+        <v>71.14629258517033</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.7095190380761522</v>
+        <v>70.95190380761522</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.7075751503006011</v>
+        <v>70.75751503006012</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.70563126252505</v>
+        <v>70.563126252505</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.7036873747494989</v>
+        <v>70.3687374749499</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.7017434869739478</v>
+        <v>70.17434869739478</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.6997995991983967</v>
+        <v>69.97995991983967</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.6978557114228456</v>
+        <v>69.78557114228457</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.6959118236472945</v>
+        <v>69.59118236472945</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.6939679358717434</v>
+        <v>69.39679358717434</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.6920240480961923</v>
+        <v>69.20240480961924</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.6900801603206412</v>
+        <v>69.00801603206412</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.6881362725450901</v>
+        <v>68.81362725450902</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.686192384769539</v>
+        <v>68.61923847695391</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.6842484969939879</v>
+        <v>68.42484969939879</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.6823046092184368</v>
+        <v>68.23046092184369</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.6803607214428857</v>
+        <v>68.03607214428857</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.6784168336673346</v>
+        <v>67.84168336673346</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.6764729458917835</v>
+        <v>67.64729458917836</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.6745290581162324</v>
+        <v>67.45290581162324</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.6725851703406813</v>
+        <v>67.25851703406813</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.6706412825651302</v>
+        <v>67.06412825651302</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.6686973947895791</v>
+        <v>66.86973947895791</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.666753507014028</v>
+        <v>66.67535070140281</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.6648096192384769</v>
+        <v>66.48096192384769</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.6628657314629258</v>
+        <v>66.28657314629258</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.6609218436873747</v>
+        <v>66.09218436873748</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.6589779559118236</v>
+        <v>65.89779559118236</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.6570340681362725</v>
+        <v>65.70340681362725</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.6550901803607214</v>
+        <v>65.50901803607215</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.6531462925851703</v>
+        <v>65.31462925851703</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.6512024048096192</v>
+        <v>65.12024048096193</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.6492585170340681</v>
+        <v>64.92585170340681</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.647314629258517</v>
+        <v>64.7314629258517</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.6453707414829659</v>
+        <v>64.5370741482966</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.6434268537074148</v>
+        <v>64.34268537074148</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.6414829659318637</v>
+        <v>64.14829659318637</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.6395390781563126</v>
+        <v>63.95390781563126</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.6375951903807615</v>
+        <v>63.75951903807615</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.6356513026052104</v>
+        <v>63.56513026052104</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.6337074148296593</v>
+        <v>63.37074148296593</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.6317635270541082</v>
+        <v>63.17635270541082</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.6298196392785571</v>
+        <v>62.98196392785571</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.627875751503006</v>
+        <v>62.7875751503006</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.6259318637274549</v>
+        <v>62.59318637274549</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.6239879759519038</v>
+        <v>62.39879759519038</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.6220440881763527</v>
+        <v>62.20440881763527</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.6201002004008016</v>
+        <v>62.01002004008016</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.6181563126252505</v>
+        <v>61.81563126252505</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.6162124248496994</v>
+        <v>61.62124248496994</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.6142685370741483</v>
+        <v>61.42685370741483</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.6123246492985972</v>
+        <v>61.23246492985972</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.6103807615230461</v>
+        <v>61.03807615230461</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.608436873747495</v>
+        <v>60.8436873747495</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.6064929859719439</v>
+        <v>60.64929859719439</v>
       </c>
       <c r="GI3" t="n">
-        <v>0.6045490981963928</v>
+        <v>60.45490981963928</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.6026052104208417</v>
+        <v>60.26052104208417</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.6006613226452906</v>
+        <v>60.06613226452906</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.5987174348697395</v>
+        <v>59.87174348697395</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.5967735470941884</v>
+        <v>59.67735470941884</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.5948296593186373</v>
+        <v>59.48296593186373</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.5928857715430862</v>
+        <v>59.28857715430862</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.5909418837675351</v>
+        <v>59.09418837675351</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0.588997995991984</v>
+        <v>58.8997995991984</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.5870541082164329</v>
+        <v>58.70541082164329</v>
       </c>
       <c r="GS3" t="n">
-        <v>0.5851102204408818</v>
+        <v>58.51102204408818</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.5831663326653307</v>
+        <v>58.31663326653307</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.5812224448897796</v>
+        <v>58.12224448897796</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.5792785571142285</v>
+        <v>57.92785571142285</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.5773346693386774</v>
+        <v>57.73346693386774</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.5753907815631263</v>
+        <v>57.53907815631263</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.5734468937875752</v>
+        <v>57.34468937875752</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.5715030060120241</v>
+        <v>57.15030060120241</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.569559118236473</v>
+        <v>56.9559118236473</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.5676152304609219</v>
+        <v>56.76152304609219</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.5656713426853708</v>
+        <v>56.56713426853707</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.5637274549098197</v>
+        <v>56.37274549098197</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.5617835671342686</v>
+        <v>56.17835671342686</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.5598396793587175</v>
+        <v>55.98396793587175</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.5578957915831664</v>
+        <v>55.78957915831664</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.5559519038076153</v>
+        <v>55.59519038076153</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.5540080160320642</v>
+        <v>55.40080160320642</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.5520641282565131</v>
+        <v>55.20641282565131</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.550120240480962</v>
+        <v>55.01202404809619</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.5481763527054109</v>
+        <v>54.81763527054109</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.5462324649298598</v>
+        <v>54.62324649298598</v>
       </c>
       <c r="HN3" t="n">
-        <v>0.5442885771543087</v>
+        <v>54.42885771543087</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.5423446893787576</v>
+        <v>54.23446893787576</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.5404008016032065</v>
+        <v>54.04008016032065</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.5384569138276554</v>
+        <v>53.84569138276554</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.5365130260521043</v>
+        <v>53.65130260521043</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.5345691382765532</v>
+        <v>53.45691382765531</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.5326252505010021</v>
+        <v>53.26252505010021</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.530681362725451</v>
+        <v>53.0681362725451</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.5287374749498999</v>
+        <v>52.87374749498998</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.5267935871743488</v>
+        <v>52.67935871743488</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.5248496993987977</v>
+        <v>52.48496993987977</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.5229058116232466</v>
+        <v>52.29058116232466</v>
       </c>
       <c r="HZ3" t="n">
-        <v>0.5209619238476955</v>
+        <v>52.09619238476954</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.5190180360721444</v>
+        <v>51.90180360721443</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.5170741482965933</v>
+        <v>51.70741482965933</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.5151302605210422</v>
+        <v>51.51302605210422</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.5131863727454909</v>
+        <v>51.3186372745491</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.5112424849699398</v>
+        <v>51.12424849699399</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.5092985971943887</v>
+        <v>50.92985971943887</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.5073547094188376</v>
+        <v>50.73547094188376</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.5054108216432865</v>
+        <v>50.54108216432866</v>
       </c>
       <c r="II3" t="n">
-        <v>0.5034669338677354</v>
+        <v>50.34669338677354</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0.5015230460921843</v>
+        <v>50.15230460921843</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.4995791583166332</v>
+        <v>49.95791583166332</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.4976352705410821</v>
+        <v>49.76352705410822</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.495691382765531</v>
+        <v>49.5691382765531</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.4937474949899799</v>
+        <v>49.37474949899799</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.4918036072144288</v>
+        <v>49.18036072144288</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.4898597194388777</v>
+        <v>48.98597194388778</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.4879158316633266</v>
+        <v>48.79158316633266</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.4859719438877755</v>
+        <v>48.59719438877755</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.4840280561122244</v>
+        <v>48.40280561122244</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.4820841683366733</v>
+        <v>48.20841683366734</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.4801402805611222</v>
+        <v>48.01402805611222</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.4781963927855711</v>
+        <v>47.81963927855711</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.47625250501002</v>
+        <v>47.625250501002</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.4743086172344689</v>
+        <v>47.4308617234469</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.4723647294589178</v>
+        <v>47.23647294589178</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0.4704208416833667</v>
+        <v>47.04208416833667</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.4684769539078156</v>
+        <v>46.84769539078156</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.4665330661322645</v>
+        <v>46.65330661322646</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.4645891783567134</v>
+        <v>46.45891783567134</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.4626452905811623</v>
+        <v>46.26452905811623</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.4607014028056112</v>
+        <v>46.07014028056112</v>
       </c>
       <c r="JF3" t="n">
-        <v>0.4587575150300601</v>
+        <v>45.87575150300601</v>
       </c>
       <c r="JG3" t="n">
-        <v>0.456813627254509</v>
+        <v>45.6813627254509</v>
       </c>
       <c r="JH3" t="n">
-        <v>0.4548697394789579</v>
+        <v>45.48697394789579</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.4529258517034068</v>
+        <v>45.29258517034068</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.4509819639278557</v>
+        <v>45.09819639278557</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.4490380761523046</v>
+        <v>44.90380761523046</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.4470941883767535</v>
+        <v>44.70941883767535</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.4451503006012024</v>
+        <v>44.51503006012024</v>
       </c>
       <c r="JN3" t="n">
-        <v>0.4432064128256513</v>
+        <v>44.32064128256513</v>
       </c>
       <c r="JO3" t="n">
-        <v>0.4412625250501002</v>
+        <v>44.12625250501002</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.4393186372745491</v>
+        <v>43.93186372745491</v>
       </c>
       <c r="JQ3" t="n">
-        <v>0.437374749498998</v>
+        <v>43.7374749498998</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.4354308617234469</v>
+        <v>43.54308617234469</v>
       </c>
       <c r="JS3" t="n">
-        <v>0.4334869739478958</v>
+        <v>43.34869739478958</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.4315430861723447</v>
+        <v>43.15430861723447</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.4295991983967936</v>
+        <v>42.95991983967936</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.4276553106212425</v>
+        <v>42.76553106212425</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.4257114228456914</v>
+        <v>42.57114228456914</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.4237675350701403</v>
+        <v>42.37675350701403</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.4218236472945892</v>
+        <v>42.18236472945892</v>
       </c>
       <c r="JZ3" t="n">
-        <v>0.4198797595190381</v>
+        <v>41.98797595190381</v>
       </c>
       <c r="KA3" t="n">
-        <v>0.417935871743487</v>
+        <v>41.7935871743487</v>
       </c>
       <c r="KB3" t="n">
-        <v>0.4159919839679359</v>
+        <v>41.59919839679359</v>
       </c>
       <c r="KC3" t="n">
-        <v>0.4140480961923848</v>
+        <v>41.40480961923848</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.4121042084168337</v>
+        <v>41.21042084168337</v>
       </c>
       <c r="KE3" t="n">
-        <v>0.4101603206412826</v>
+        <v>41.01603206412826</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.4082164328657315</v>
+        <v>40.82164328657315</v>
       </c>
       <c r="KG3" t="n">
-        <v>0.4062725450901804</v>
+        <v>40.62725450901804</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.4043286573146293</v>
+        <v>40.43286573146293</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.4023847695390782</v>
+        <v>40.23847695390782</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.4004408817635271</v>
+        <v>40.04408817635271</v>
       </c>
       <c r="KK3" t="n">
-        <v>0.398496993987976</v>
+        <v>39.8496993987976</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.3965531062124249</v>
+        <v>39.65531062124249</v>
       </c>
       <c r="KM3" t="n">
-        <v>0.3946092184368738</v>
+        <v>39.46092184368738</v>
       </c>
       <c r="KN3" t="n">
-        <v>0.3926653306613227</v>
+        <v>39.26653306613227</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.3907214428857716</v>
+        <v>39.07214428857716</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.3887775551102204</v>
+        <v>38.87775551102204</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.3868336673346693</v>
+        <v>38.68336673346693</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.3848897795591182</v>
+        <v>38.48897795591182</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.3829458917835671</v>
+        <v>38.29458917835671</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.381002004008016</v>
+        <v>38.1002004008016</v>
       </c>
       <c r="KU3" t="n">
-        <v>0.3790581162324649</v>
+        <v>37.90581162324649</v>
       </c>
       <c r="KV3" t="n">
-        <v>0.3771142284569138</v>
+        <v>37.71142284569138</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.3751703406813627</v>
+        <v>37.51703406813627</v>
       </c>
       <c r="KX3" t="n">
-        <v>0.3732264529058116</v>
+        <v>37.32264529058116</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.3712825651302605</v>
+        <v>37.12825651302605</v>
       </c>
       <c r="KZ3" t="n">
-        <v>0.3693386773547094</v>
+        <v>36.93386773547094</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.3673947895791583</v>
+        <v>36.73947895791583</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.3654509018036072</v>
+        <v>36.54509018036072</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.3635070140280561</v>
+        <v>36.3507014028056</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.361563126252505</v>
+        <v>36.1563126252505</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.3596192384769539</v>
+        <v>35.96192384769539</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.3576753507014028</v>
+        <v>35.76753507014028</v>
       </c>
       <c r="LG3" t="n">
-        <v>0.3557314629258517</v>
+        <v>35.57314629258516</v>
       </c>
       <c r="LH3" t="n">
-        <v>0.3537875751503006</v>
+        <v>35.37875751503006</v>
       </c>
       <c r="LI3" t="n">
-        <v>0.3518436873747495</v>
+        <v>35.18436873747495</v>
       </c>
       <c r="LJ3" t="n">
-        <v>0.3498997995991984</v>
+        <v>34.98997995991984</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.3479559118236473</v>
+        <v>34.79559118236472</v>
       </c>
       <c r="LL3" t="n">
-        <v>0.3460120240480962</v>
+        <v>34.60120240480962</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.3440681362725451</v>
+        <v>34.40681362725451</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.342124248496994</v>
+        <v>34.2124248496994</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.3401803607214429</v>
+        <v>34.01803607214428</v>
       </c>
       <c r="LP3" t="n">
-        <v>0.3382364729458918</v>
+        <v>33.82364729458918</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.3362925851703407</v>
+        <v>33.62925851703407</v>
       </c>
       <c r="LR3" t="n">
-        <v>0.3343486973947896</v>
+        <v>33.43486973947896</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.3324048096192385</v>
+        <v>33.24048096192384</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.3304609218436874</v>
+        <v>33.04609218436874</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.3285170340681363</v>
+        <v>32.85170340681363</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.3265731462925852</v>
+        <v>32.65731462925852</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.3246292585170341</v>
+        <v>32.4629258517034</v>
       </c>
       <c r="LX3" t="n">
-        <v>0.322685370741483</v>
+        <v>32.2685370741483</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.3207414829659319</v>
+        <v>32.07414829659319</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.3187975951903808</v>
+        <v>31.87975951903807</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.3168537074148297</v>
+        <v>31.68537074148297</v>
       </c>
       <c r="MB3" t="n">
-        <v>0.3149098196392786</v>
+        <v>31.49098196392785</v>
       </c>
       <c r="MC3" t="n">
-        <v>0.3129659318637275</v>
+        <v>31.29659318637275</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.3110220440881764</v>
+        <v>31.10220440881763</v>
       </c>
       <c r="ME3" t="n">
-        <v>0.3090781563126253</v>
+        <v>30.90781563126253</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.3071342685370742</v>
+        <v>30.71342685370741</v>
       </c>
       <c r="MG3" t="n">
-        <v>0.3051903807615231</v>
+        <v>30.51903807615231</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.3032464929859719</v>
+        <v>30.32464929859719</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.3013026052104208</v>
+        <v>30.13026052104209</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.2993587174348697</v>
+        <v>29.93587174348697</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.2974148296593186</v>
+        <v>29.74148296593187</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.2954709418837675</v>
+        <v>29.54709418837675</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.2935270541082164</v>
+        <v>29.35270541082165</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.2915831663326653</v>
+        <v>29.15831663326653</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.2896392785571142</v>
+        <v>28.96392785571143</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.2876953907815631</v>
+        <v>28.76953907815631</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.285751503006012</v>
+        <v>28.57515030060121</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.2838076152304609</v>
+        <v>28.38076152304609</v>
       </c>
       <c r="MS3" t="n">
-        <v>0.2818637274549098</v>
+        <v>28.18637274549098</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.2799198396793587</v>
+        <v>27.99198396793587</v>
       </c>
       <c r="MU3" t="n">
-        <v>0.2779759519038076</v>
+        <v>27.79759519038076</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.2760320641282565</v>
+        <v>27.60320641282565</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.2740881763527054</v>
+        <v>27.40881763527054</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.2721442885771543</v>
+        <v>27.21442885771543</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.2702004008016032</v>
+        <v>27.02004008016032</v>
       </c>
       <c r="MZ3" t="n">
-        <v>0.2682565130260521</v>
+        <v>26.82565130260521</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.266312625250501</v>
+        <v>26.6312625250501</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.2643687374749499</v>
+        <v>26.43687374749499</v>
       </c>
       <c r="NC3" t="n">
-        <v>0.2624248496993988</v>
+        <v>26.24248496993988</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.2604809619238477</v>
+        <v>26.04809619238477</v>
       </c>
       <c r="NE3" t="n">
-        <v>0.2585370741482966</v>
+        <v>25.85370741482966</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.2565931863727455</v>
+        <v>25.65931863727455</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.2546492985971944</v>
+        <v>25.46492985971944</v>
       </c>
       <c r="NH3" t="n">
-        <v>0.2527054108216433</v>
+        <v>25.27054108216433</v>
       </c>
       <c r="NI3" t="n">
-        <v>0.2507615230460922</v>
+        <v>25.07615230460922</v>
       </c>
       <c r="NJ3" t="n">
-        <v>0.2488176352705411</v>
+        <v>24.88176352705411</v>
       </c>
       <c r="NK3" t="n">
-        <v>0.24687374749499</v>
+        <v>24.687374749499</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.2449298597194389</v>
+        <v>24.49298597194389</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.2429859719438878</v>
+        <v>24.29859719438878</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.2410420841683367</v>
+        <v>24.10420841683367</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.2390981963927856</v>
+        <v>23.90981963927856</v>
       </c>
       <c r="NP3" t="n">
-        <v>0.2371543086172345</v>
+        <v>23.71543086172345</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.2352104208416834</v>
+        <v>23.52104208416834</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.2332665330661323</v>
+        <v>23.32665330661323</v>
       </c>
       <c r="NS3" t="n">
-        <v>0.2313226452905812</v>
+        <v>23.13226452905812</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.2293787575150301</v>
+        <v>22.93787575150301</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.227434869739479</v>
+        <v>22.7434869739479</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.2254909819639279</v>
+        <v>22.54909819639279</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.2235470941883768</v>
+        <v>22.35470941883768</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.2216032064128256</v>
+        <v>22.16032064128256</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.2196593186372745</v>
+        <v>21.96593186372745</v>
       </c>
       <c r="NZ3" t="n">
-        <v>0.2177154308617234</v>
+        <v>21.77154308617234</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.2157715430861723</v>
+        <v>21.57715430861723</v>
       </c>
       <c r="OB3" t="n">
-        <v>0.2138276553106212</v>
+        <v>21.38276553106212</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.2118837675350701</v>
+        <v>21.18837675350701</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.209939879759519</v>
+        <v>20.9939879759519</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.2079959919839679</v>
+        <v>20.79959919839679</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.2060521042084168</v>
+        <v>20.60521042084168</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.2041082164328657</v>
+        <v>20.41082164328657</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.2021643286573146</v>
+        <v>20.21643286573146</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.2002204408817635</v>
+        <v>20.02204408817635</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.1982765531062124</v>
+        <v>19.82765531062124</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.1963326653306613</v>
+        <v>19.63326653306613</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.1943887775551102</v>
+        <v>19.43887775551102</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.1924448897795591</v>
+        <v>19.24448897795591</v>
       </c>
       <c r="ON3" t="n">
-        <v>0.190501002004008</v>
+        <v>19.0501002004008</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.1885571142284569</v>
+        <v>18.85571142284569</v>
       </c>
       <c r="OP3" t="n">
-        <v>0.1866132264529058</v>
+        <v>18.66132264529058</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.1846693386773547</v>
+        <v>18.46693386773547</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.1827254509018036</v>
+        <v>18.27254509018036</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.1807815631262525</v>
+        <v>18.07815631262525</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.1788376753507014</v>
+        <v>17.88376753507014</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.1768937875751503</v>
+        <v>17.68937875751503</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.1749498997995992</v>
+        <v>17.49498997995992</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.1730060120240481</v>
+        <v>17.30060120240481</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.171062124248497</v>
+        <v>17.1062124248497</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.1691182364729459</v>
+        <v>16.91182364729459</v>
       </c>
       <c r="OZ3" t="n">
-        <v>0.1671743486973948</v>
+        <v>16.71743486973948</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.1652304609218437</v>
+        <v>16.52304609218437</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.1632865731462926</v>
+        <v>16.32865731462926</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.1613426853707415</v>
+        <v>16.13426853707415</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.1593987975951904</v>
+        <v>15.93987975951904</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.1574549098196393</v>
+        <v>15.74549098196393</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.1555110220440882</v>
+        <v>15.55110220440882</v>
       </c>
       <c r="PG3" t="n">
-        <v>0.1535671342685371</v>
+        <v>15.35671342685371</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.151623246492986</v>
+        <v>15.1623246492986</v>
       </c>
       <c r="PI3" t="n">
-        <v>0.1496793587174349</v>
+        <v>14.96793587174349</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.1477354709418838</v>
+        <v>14.77354709418838</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.1457915831663327</v>
+        <v>14.57915831663327</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.1438476953907816</v>
+        <v>14.38476953907816</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.1419038076152305</v>
+        <v>14.19038076152305</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.1399599198396794</v>
+        <v>13.99599198396794</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.1380160320641283</v>
+        <v>13.80160320641283</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.1360721442885772</v>
+        <v>13.60721442885772</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.1341282565130261</v>
+        <v>13.41282565130261</v>
       </c>
       <c r="PR3" t="n">
-        <v>0.132184368737475</v>
+        <v>13.2184368737475</v>
       </c>
       <c r="PS3" t="n">
-        <v>0.1302404809619239</v>
+        <v>13.02404809619239</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.1282965931863728</v>
+        <v>12.82965931863728</v>
       </c>
       <c r="PU3" t="n">
-        <v>0.1263527054108217</v>
+        <v>12.63527054108217</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.1244088176352706</v>
+        <v>12.44088176352706</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.1224649298597195</v>
+        <v>12.24649298597195</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.1205210420841684</v>
+        <v>12.05210420841684</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.1185771543086173</v>
+        <v>11.85771543086173</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.1166332665330662</v>
+        <v>11.66332665330662</v>
       </c>
       <c r="QA3" t="n">
-        <v>0.1146893787575151</v>
+        <v>11.46893787575151</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.112745490981964</v>
+        <v>11.2745490981964</v>
       </c>
       <c r="QC3" t="n">
-        <v>0.1108016032064129</v>
+        <v>11.08016032064129</v>
       </c>
       <c r="QD3" t="n">
-        <v>0.1088577154308618</v>
+        <v>10.88577154308618</v>
       </c>
       <c r="QE3" t="n">
-        <v>0.1069138276553107</v>
+        <v>10.69138276553107</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.1049699398797596</v>
+        <v>10.49699398797596</v>
       </c>
       <c r="QG3" t="n">
-        <v>0.1030260521042085</v>
+        <v>10.30260521042084</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.1010821643286574</v>
+        <v>10.10821643286573</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.09913827655310625</v>
+        <v>9.913827655310625</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.09719438877755515</v>
+        <v>9.719438877755515</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.09525050100200405</v>
+        <v>9.525050100200405</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.09330661322645295</v>
+        <v>9.330661322645295</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.09136272545090185</v>
+        <v>9.136272545090184</v>
       </c>
       <c r="QN3" t="n">
-        <v>0.08941883767535075</v>
+        <v>8.941883767535074</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.08747494989979965</v>
+        <v>8.747494989979964</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.08553106212424855</v>
+        <v>8.553106212424854</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.08358717434869745</v>
+        <v>8.358717434869744</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.08164328657314635</v>
+        <v>8.164328657314634</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.07969939879759524</v>
+        <v>7.969939879759524</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.07775551102204414</v>
+        <v>7.775551102204414</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.07581162324649304</v>
+        <v>7.581162324649304</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.07386773547094194</v>
+        <v>7.386773547094194</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.07192384769539084</v>
+        <v>7.192384769539084</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.06997995991983974</v>
+        <v>6.997995991983974</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.06803607214428864</v>
+        <v>6.803607214428864</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.06609218436873754</v>
+        <v>6.609218436873753</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.06414829659318644</v>
+        <v>6.414829659318643</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.06220440881763534</v>
+        <v>6.220440881763533</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.06026052104208424</v>
+        <v>6.026052104208423</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.05831663326653314</v>
+        <v>5.831663326653313</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.05637274549098192</v>
+        <v>5.637274549098192</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.05442885771543082</v>
+        <v>5.442885771543082</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.05248496993987972</v>
+        <v>5.248496993987972</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.05054108216432862</v>
+        <v>5.054108216432862</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.04859719438877752</v>
+        <v>4.859719438877752</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04665330661322642</v>
+        <v>4.665330661322642</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.04470941883767532</v>
+        <v>4.470941883767532</v>
       </c>
       <c r="RL3" t="n">
-        <v>0.04276553106212422</v>
+        <v>4.276553106212422</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.04082164328657312</v>
+        <v>4.082164328657312</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.03887775551102202</v>
+        <v>3.887775551102202</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.03693386773547092</v>
+        <v>3.693386773547092</v>
       </c>
       <c r="RP3" t="n">
-        <v>0.03498997995991981</v>
+        <v>3.498997995991981</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.03304609218436871</v>
+        <v>3.304609218436871</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.03110220440881761</v>
+        <v>3.110220440881761</v>
       </c>
       <c r="RS3" t="n">
-        <v>0.02915831663326651</v>
+        <v>2.915831663326651</v>
       </c>
       <c r="RT3" t="n">
-        <v>0.02721442885771541</v>
+        <v>2.721442885771541</v>
       </c>
       <c r="RU3" t="n">
-        <v>0.02527054108216431</v>
+        <v>2.527054108216431</v>
       </c>
       <c r="RV3" t="n">
-        <v>0.02332665330661321</v>
+        <v>2.332665330661321</v>
       </c>
       <c r="RW3" t="n">
-        <v>0.02138276553106211</v>
+        <v>2.138276553106211</v>
       </c>
       <c r="RX3" t="n">
-        <v>0.01943887775551101</v>
+        <v>1.943887775551101</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.01749498997995991</v>
+        <v>1.749498997995991</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.01555110220440881</v>
+        <v>1.555110220440881</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.01360721442885771</v>
+        <v>1.360721442885771</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.0116633266533066</v>
+        <v>1.16633266533066</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.009719438877755504</v>
+        <v>0.9719438877755504</v>
       </c>
       <c r="SD3" t="n">
-        <v>0.007775551102204403</v>
+        <v>0.7775551102204403</v>
       </c>
       <c r="SE3" t="n">
-        <v>0.005831663326653302</v>
+        <v>0.5831663326653302</v>
       </c>
       <c r="SF3" t="n">
-        <v>0.003887775551102202</v>
+        <v>0.3887775551102202</v>
       </c>
       <c r="SG3" t="n">
-        <v>0.001943887775551101</v>
+        <v>0.1943887775551101</v>
       </c>
       <c r="SH3" t="n">
         <v>0</v>
@@ -4967,1504 +4967,1504 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.97</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9580360721442885</v>
+        <v>95.80360721442885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9460721442885771</v>
+        <v>94.60721442885772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9341082164328657</v>
+        <v>93.41082164328657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9221442885771542</v>
+        <v>92.21442885771542</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9101803607214428</v>
+        <v>91.01803607214428</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8982164328657314</v>
+        <v>89.82164328657313</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8862525050100201</v>
+        <v>88.625250501002</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8742885771543086</v>
+        <v>87.42885771543087</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8623246492985972</v>
+        <v>86.23246492985972</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8503607214428858</v>
+        <v>85.03607214428858</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8383967935871743</v>
+        <v>83.83967935871743</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8264328657314629</v>
+        <v>82.64328657314628</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8144689378757515</v>
+        <v>81.44689378757515</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.80250501002004</v>
+        <v>80.250501002004</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7905410821643286</v>
+        <v>79.05410821643287</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7785771543086172</v>
+        <v>77.85771543086172</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7666132264529057</v>
+        <v>76.66132264529057</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7546492985971944</v>
+        <v>75.46492985971945</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7426853707414829</v>
+        <v>74.26853707414828</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7307214428857716</v>
+        <v>73.07214428857716</v>
       </c>
       <c r="X4" t="n">
-        <v>0.71875751503006</v>
+        <v>71.875751503006</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7067935871743487</v>
+        <v>70.67935871743487</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6948296593186373</v>
+        <v>69.48296593186373</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6828657314629258</v>
+        <v>68.28657314629258</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6709018036072144</v>
+        <v>67.09018036072145</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.658937875751503</v>
+        <v>65.8937875751503</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6469739478957915</v>
+        <v>64.69739478957915</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6350100200400801</v>
+        <v>63.50100200400801</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6230460921843688</v>
+        <v>62.30460921843688</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6110821643286573</v>
+        <v>61.10821643286572</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5991182364729459</v>
+        <v>59.9118236472946</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5871543086172344</v>
+        <v>58.71543086172344</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.5751903807615231</v>
+        <v>57.51903807615231</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5632264529058115</v>
+        <v>56.32264529058115</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5512625250501002</v>
+        <v>55.12625250501002</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5392985971943888</v>
+        <v>53.92985971943888</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.5273346693386773</v>
+        <v>52.73346693386773</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.5153707414829659</v>
+        <v>51.53707414829659</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5034068136272545</v>
+        <v>50.34068136272545</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.491442885771543</v>
+        <v>49.14428857715431</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.4794789579158316</v>
+        <v>47.94789579158316</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.4675150300601202</v>
+        <v>46.75150300601202</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4555511022044088</v>
+        <v>45.55511022044087</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.4435871743486973</v>
+        <v>44.35871743486973</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.431623246492986</v>
+        <v>43.1623246492986</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.4196593186372746</v>
+        <v>41.96593186372746</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.4076953907815631</v>
+        <v>40.76953907815631</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.3957314629258517</v>
+        <v>39.57314629258517</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.3837675350701403</v>
+        <v>38.37675350701403</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.3718036072144288</v>
+        <v>37.18036072144288</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.3598396793587174</v>
+        <v>35.98396793587174</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.347875751503006</v>
+        <v>34.7875751503006</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.3359118236472945</v>
+        <v>33.59118236472946</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.3239478957915831</v>
+        <v>32.39478957915831</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.3119839679358717</v>
+        <v>31.19839679358717</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.3000200400801603</v>
+        <v>30.00200400801603</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.2880561122244488</v>
+        <v>28.80561122244488</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.2760921843687375</v>
+        <v>27.60921843687375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.2641282565130261</v>
+        <v>26.41282565130261</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.2521643286573146</v>
+        <v>25.21643286573146</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2402004008016032</v>
+        <v>24.02004008016032</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.2282364729458918</v>
+        <v>22.82364729458918</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.2162725450901803</v>
+        <v>21.62725450901803</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2043086172344689</v>
+        <v>20.43086172344689</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1923446893787575</v>
+        <v>19.23446893787575</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.1803807615230461</v>
+        <v>18.0380761523046</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1684168336673346</v>
+        <v>16.84168336673346</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.1564529058116232</v>
+        <v>15.64529058116232</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.1444889779559118</v>
+        <v>14.44889779559118</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1325250501002003</v>
+        <v>13.25250501002003</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.120561122244489</v>
+        <v>12.0561122244489</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.1085971943887776</v>
+        <v>10.85971943887776</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.09663326653306614</v>
+        <v>9.663326653306614</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.08466933867735471</v>
+        <v>8.46693386773547</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.07270541082164328</v>
+        <v>7.270541082164328</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.06074148296593185</v>
+        <v>6.074148296593185</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.04877755511022042</v>
+        <v>4.877755511022041</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.03681362725450898</v>
+        <v>3.681362725450898</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.02484969939879755</v>
+        <v>2.484969939879755</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.01288577154308612</v>
+        <v>1.288577154308612</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0009218436873746905</v>
+        <v>0.09218436873746905</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.01104208416833674</v>
+        <v>-1.104208416833674</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.02300601202404817</v>
+        <v>-2.300601202404817</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.0349699398797596</v>
+        <v>-3.49699398797596</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.04693386773547092</v>
+        <v>-4.693386773547092</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.05889779559118247</v>
+        <v>-5.889779559118247</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.07086172344689379</v>
+        <v>-7.086172344689379</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.08282565130260533</v>
+        <v>-8.282565130260533</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.09478957915831665</v>
+        <v>-9.478957915831664</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.106753507014028</v>
+        <v>-10.6753507014028</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.1187174348697395</v>
+        <v>-11.87174348697395</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.1306813627254508</v>
+        <v>-13.06813627254508</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.1426452905811624</v>
+        <v>-14.26452905811624</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1546092184368737</v>
+        <v>-15.46092184368737</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.1665731462925852</v>
+        <v>-16.65731462925852</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.1785370741482966</v>
+        <v>-17.85370741482966</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.1905010020040081</v>
+        <v>-19.05010020040081</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.2024649298597194</v>
+        <v>-20.24649298597194</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.214428857715431</v>
+        <v>-21.4428857715431</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.2263927855711423</v>
+        <v>-22.63927855711423</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.2383567134268538</v>
+        <v>-23.83567134268538</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.2503206412825651</v>
+        <v>-25.03206412825651</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.2622845691382765</v>
+        <v>-26.22845691382765</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.274248496993988</v>
+        <v>-27.4248496993988</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.2862124248496993</v>
+        <v>-28.62124248496993</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.2981763527054109</v>
+        <v>-29.81763527054109</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.3101402805611222</v>
+        <v>-31.01402805611222</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.3221042084168337</v>
+        <v>-32.21042084168337</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.3340681362725451</v>
+        <v>-33.40681362725451</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.3460320641282566</v>
+        <v>-34.60320641282566</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.3579959919839679</v>
+        <v>-35.79959919839679</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.3699599198396795</v>
+        <v>-36.99599198396795</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.3819238476953908</v>
+        <v>-38.19238476953907</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.3938877755511023</v>
+        <v>-39.38877755511023</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0.4058517034068136</v>
+        <v>-40.58517034068137</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.417815631262525</v>
+        <v>-41.78156312625249</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.4297795591182365</v>
+        <v>-42.97795591182365</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.4417434869739478</v>
+        <v>-44.17434869739478</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.4537074148296594</v>
+        <v>-45.37074148296594</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.4656713426853707</v>
+        <v>-46.56713426853707</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0.4776352705410822</v>
+        <v>-47.76352705410822</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.4895991983967936</v>
+        <v>-48.95991983967936</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.5015631262525051</v>
+        <v>-50.15631262525051</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.5135270541082164</v>
+        <v>-51.35270541082164</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.525490981963928</v>
+        <v>-52.5490981963928</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.5374549098196393</v>
+        <v>-53.74549098196393</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0.5494188376753508</v>
+        <v>-54.94188376753508</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.5613827655310621</v>
+        <v>-56.13827655310622</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5733466933867735</v>
+        <v>-57.33466933867734</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.585310621242485</v>
+        <v>-58.5310621242485</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.5972745490981963</v>
+        <v>-59.72745490981963</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.6092384769539079</v>
+        <v>-60.92384769539079</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.6212024048096192</v>
+        <v>-62.12024048096192</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0.6331663326653307</v>
+        <v>-63.31663326653307</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.6451302605210421</v>
+        <v>-64.51302605210421</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.6570941883767536</v>
+        <v>-65.70941883767536</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.6690581162324649</v>
+        <v>-66.90581162324649</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.6810220440881765</v>
+        <v>-68.10220440881764</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0.6929859719438878</v>
+        <v>-69.29859719438878</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.7049498997995993</v>
+        <v>-70.49498997995994</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.7169138276553106</v>
+        <v>-71.69138276553106</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.728877755511022</v>
+        <v>-72.88777555110219</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.7408416833667335</v>
+        <v>-74.08416833667334</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7528056112224448</v>
+        <v>-75.28056112224448</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.7647695390781564</v>
+        <v>-76.47695390781564</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.7767334669338677</v>
+        <v>-77.67334669338678</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0.7886973947895792</v>
+        <v>-78.86973947895792</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0.8006613226452906</v>
+        <v>-80.06613226452906</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.8126252505010021</v>
+        <v>-81.26252505010021</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.8245891783567134</v>
+        <v>-82.45891783567134</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.836553106212425</v>
+        <v>-83.65531062124249</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.8485170340681363</v>
+        <v>-84.85170340681363</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.8604809619238478</v>
+        <v>-86.04809619238478</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.8724448897795591</v>
+        <v>-87.24448897795591</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.8844088176352705</v>
+        <v>-88.44088176352705</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.896372745490982</v>
+        <v>-89.63727454909819</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.9083366733466933</v>
+        <v>-90.83366733466933</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.9203006012024049</v>
+        <v>-92.03006012024049</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.9322645290581162</v>
+        <v>-93.22645290581161</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9442284569138277</v>
+        <v>-94.42284569138278</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.956192384769539</v>
+        <v>-95.61923847695391</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.9681563126252506</v>
+        <v>-96.81563126252506</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.9801202404809619</v>
+        <v>-98.01202404809619</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.9920841683366735</v>
+        <v>-99.20841683366734</v>
       </c>
       <c r="FL4" t="n">
-        <v>-1.004048096192385</v>
+        <v>-100.4048096192385</v>
       </c>
       <c r="FM4" t="n">
-        <v>-1.016012024048096</v>
+        <v>-101.6012024048096</v>
       </c>
       <c r="FN4" t="n">
-        <v>-1.027975951903808</v>
+        <v>-102.7975951903808</v>
       </c>
       <c r="FO4" t="n">
-        <v>-1.039939879759519</v>
+        <v>-103.9939879759519</v>
       </c>
       <c r="FP4" t="n">
-        <v>-1.05190380761523</v>
+        <v>-105.190380761523</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-1.063867735470942</v>
+        <v>-106.3867735470942</v>
       </c>
       <c r="FR4" t="n">
-        <v>-1.075831663326653</v>
+        <v>-107.5831663326653</v>
       </c>
       <c r="FS4" t="n">
-        <v>-1.087795591182365</v>
+        <v>-108.7795591182365</v>
       </c>
       <c r="FT4" t="n">
-        <v>-1.099759519038076</v>
+        <v>-109.9759519038076</v>
       </c>
       <c r="FU4" t="n">
-        <v>-1.111723446893788</v>
+        <v>-111.1723446893788</v>
       </c>
       <c r="FV4" t="n">
-        <v>-1.123687374749499</v>
+        <v>-112.3687374749499</v>
       </c>
       <c r="FW4" t="n">
-        <v>-1.135651302605211</v>
+        <v>-113.5651302605211</v>
       </c>
       <c r="FX4" t="n">
-        <v>-1.147615230460922</v>
+        <v>-114.7615230460922</v>
       </c>
       <c r="FY4" t="n">
-        <v>-1.159579158316633</v>
+        <v>-115.9579158316633</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-1.171543086172345</v>
+        <v>-117.1543086172345</v>
       </c>
       <c r="GA4" t="n">
-        <v>-1.183507014028056</v>
+        <v>-118.3507014028056</v>
       </c>
       <c r="GB4" t="n">
-        <v>-1.195470941883767</v>
+        <v>-119.5470941883767</v>
       </c>
       <c r="GC4" t="n">
-        <v>-1.207434869739479</v>
+        <v>-120.7434869739479</v>
       </c>
       <c r="GD4" t="n">
-        <v>-1.219398797595191</v>
+        <v>-121.9398797595191</v>
       </c>
       <c r="GE4" t="n">
-        <v>-1.231362725450902</v>
+        <v>-123.1362725450902</v>
       </c>
       <c r="GF4" t="n">
-        <v>-1.243326653306613</v>
+        <v>-124.3326653306613</v>
       </c>
       <c r="GG4" t="n">
-        <v>-1.255290581162325</v>
+        <v>-125.5290581162325</v>
       </c>
       <c r="GH4" t="n">
-        <v>-1.267254509018036</v>
+        <v>-126.7254509018036</v>
       </c>
       <c r="GI4" t="n">
-        <v>-1.279218436873747</v>
+        <v>-127.9218436873747</v>
       </c>
       <c r="GJ4" t="n">
-        <v>-1.291182364729459</v>
+        <v>-129.1182364729459</v>
       </c>
       <c r="GK4" t="n">
-        <v>-1.30314629258517</v>
+        <v>-130.314629258517</v>
       </c>
       <c r="GL4" t="n">
-        <v>-1.315110220440882</v>
+        <v>-131.5110220440882</v>
       </c>
       <c r="GM4" t="n">
-        <v>-1.327074148296593</v>
+        <v>-132.7074148296593</v>
       </c>
       <c r="GN4" t="n">
-        <v>-1.339038076152305</v>
+        <v>-133.9038076152305</v>
       </c>
       <c r="GO4" t="n">
-        <v>-1.351002004008016</v>
+        <v>-135.1002004008016</v>
       </c>
       <c r="GP4" t="n">
-        <v>-1.362965931863727</v>
+        <v>-136.2965931863727</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-1.374929859719439</v>
+        <v>-137.4929859719439</v>
       </c>
       <c r="GR4" t="n">
-        <v>-1.38689378757515</v>
+        <v>-138.689378757515</v>
       </c>
       <c r="GS4" t="n">
-        <v>-1.398857715430862</v>
+        <v>-139.8857715430862</v>
       </c>
       <c r="GT4" t="n">
-        <v>-1.410821643286573</v>
+        <v>-141.0821643286573</v>
       </c>
       <c r="GU4" t="n">
-        <v>-1.422785571142285</v>
+        <v>-142.2785571142284</v>
       </c>
       <c r="GV4" t="n">
-        <v>-1.434749498997996</v>
+        <v>-143.4749498997996</v>
       </c>
       <c r="GW4" t="n">
-        <v>-1.446713426853708</v>
+        <v>-144.6713426853708</v>
       </c>
       <c r="GX4" t="n">
-        <v>-1.458677354709419</v>
+        <v>-145.8677354709419</v>
       </c>
       <c r="GY4" t="n">
-        <v>-1.47064128256513</v>
+        <v>-147.064128256513</v>
       </c>
       <c r="GZ4" t="n">
-        <v>-1.482605210420842</v>
+        <v>-148.2605210420842</v>
       </c>
       <c r="HA4" t="n">
-        <v>-1.494569138276553</v>
+        <v>-149.4569138276553</v>
       </c>
       <c r="HB4" t="n">
-        <v>-1.506533066132264</v>
+        <v>-150.6533066132264</v>
       </c>
       <c r="HC4" t="n">
-        <v>-1.518496993987976</v>
+        <v>-151.8496993987976</v>
       </c>
       <c r="HD4" t="n">
-        <v>-1.530460921843688</v>
+        <v>-153.0460921843687</v>
       </c>
       <c r="HE4" t="n">
-        <v>-1.542424849699399</v>
+        <v>-154.2424849699399</v>
       </c>
       <c r="HF4" t="n">
-        <v>-1.55438877755511</v>
+        <v>-155.438877755511</v>
       </c>
       <c r="HG4" t="n">
-        <v>-1.566352705410822</v>
+        <v>-156.6352705410822</v>
       </c>
       <c r="HH4" t="n">
-        <v>-1.578316633266533</v>
+        <v>-157.8316633266533</v>
       </c>
       <c r="HI4" t="n">
-        <v>-1.590280561122244</v>
+        <v>-159.0280561122244</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-1.602244488977956</v>
+        <v>-160.2244488977956</v>
       </c>
       <c r="HK4" t="n">
-        <v>-1.614208416833667</v>
+        <v>-161.4208416833667</v>
       </c>
       <c r="HL4" t="n">
-        <v>-1.626172344689379</v>
+        <v>-162.6172344689379</v>
       </c>
       <c r="HM4" t="n">
-        <v>-1.63813627254509</v>
+        <v>-163.813627254509</v>
       </c>
       <c r="HN4" t="n">
-        <v>-1.650100200400802</v>
+        <v>-165.0100200400801</v>
       </c>
       <c r="HO4" t="n">
-        <v>-1.662064128256513</v>
+        <v>-166.2064128256513</v>
       </c>
       <c r="HP4" t="n">
-        <v>-1.674028056112224</v>
+        <v>-167.4028056112224</v>
       </c>
       <c r="HQ4" t="n">
-        <v>-1.685991983967936</v>
+        <v>-168.5991983967936</v>
       </c>
       <c r="HR4" t="n">
-        <v>-1.697955911823647</v>
+        <v>-169.7955911823647</v>
       </c>
       <c r="HS4" t="n">
-        <v>-1.709919839679359</v>
+        <v>-170.9919839679359</v>
       </c>
       <c r="HT4" t="n">
-        <v>-1.72188376753507</v>
+        <v>-172.188376753507</v>
       </c>
       <c r="HU4" t="n">
-        <v>-1.733847695390782</v>
+        <v>-173.3847695390781</v>
       </c>
       <c r="HV4" t="n">
-        <v>-1.745811623246493</v>
+        <v>-174.5811623246493</v>
       </c>
       <c r="HW4" t="n">
-        <v>-1.757775551102205</v>
+        <v>-175.7775551102205</v>
       </c>
       <c r="HX4" t="n">
-        <v>-1.769739478957916</v>
+        <v>-176.9739478957916</v>
       </c>
       <c r="HY4" t="n">
-        <v>-1.781703406813627</v>
+        <v>-178.1703406813627</v>
       </c>
       <c r="HZ4" t="n">
-        <v>-1.793667334669339</v>
+        <v>-179.3667334669339</v>
       </c>
       <c r="IA4" t="n">
-        <v>-1.80563126252505</v>
+        <v>-180.563126252505</v>
       </c>
       <c r="IB4" t="n">
-        <v>-1.817595190380761</v>
+        <v>-181.7595190380761</v>
       </c>
       <c r="IC4" t="n">
-        <v>-1.829559118236473</v>
+        <v>-182.9559118236473</v>
       </c>
       <c r="ID4" t="n">
-        <v>-1.841523046092185</v>
+        <v>-184.1523046092184</v>
       </c>
       <c r="IE4" t="n">
-        <v>-1.853486973947896</v>
+        <v>-185.3486973947896</v>
       </c>
       <c r="IF4" t="n">
-        <v>-1.865450901803607</v>
+        <v>-186.5450901803607</v>
       </c>
       <c r="IG4" t="n">
-        <v>-1.877414829659319</v>
+        <v>-187.7414829659319</v>
       </c>
       <c r="IH4" t="n">
-        <v>-1.88937875751503</v>
+        <v>-188.937875751503</v>
       </c>
       <c r="II4" t="n">
-        <v>-1.901342685370741</v>
+        <v>-190.1342685370741</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-1.913306613226453</v>
+        <v>-191.3306613226453</v>
       </c>
       <c r="IK4" t="n">
-        <v>-1.925270541082164</v>
+        <v>-192.5270541082164</v>
       </c>
       <c r="IL4" t="n">
-        <v>-1.937234468937876</v>
+        <v>-193.7234468937876</v>
       </c>
       <c r="IM4" t="n">
-        <v>-1.949198396793587</v>
+        <v>-194.9198396793587</v>
       </c>
       <c r="IN4" t="n">
-        <v>-1.961162324649299</v>
+        <v>-196.1162324649299</v>
       </c>
       <c r="IO4" t="n">
-        <v>-1.97312625250501</v>
+        <v>-197.312625250501</v>
       </c>
       <c r="IP4" t="n">
-        <v>-1.985090180360721</v>
+        <v>-198.5090180360721</v>
       </c>
       <c r="IQ4" t="n">
-        <v>-1.997054108216433</v>
+        <v>-199.7054108216433</v>
       </c>
       <c r="IR4" t="n">
-        <v>-2.009018036072145</v>
+        <v>-200.9018036072144</v>
       </c>
       <c r="IS4" t="n">
-        <v>-2.020981963927856</v>
+        <v>-202.0981963927856</v>
       </c>
       <c r="IT4" t="n">
-        <v>-2.032945891783567</v>
+        <v>-203.2945891783567</v>
       </c>
       <c r="IU4" t="n">
-        <v>-2.044909819639279</v>
+        <v>-204.4909819639279</v>
       </c>
       <c r="IV4" t="n">
-        <v>-2.05687374749499</v>
+        <v>-205.687374749499</v>
       </c>
       <c r="IW4" t="n">
-        <v>-2.068837675350702</v>
+        <v>-206.8837675350702</v>
       </c>
       <c r="IX4" t="n">
-        <v>-2.080801603206413</v>
+        <v>-208.0801603206413</v>
       </c>
       <c r="IY4" t="n">
-        <v>-2.092765531062124</v>
+        <v>-209.2765531062124</v>
       </c>
       <c r="IZ4" t="n">
-        <v>-2.104729458917836</v>
+        <v>-210.4729458917836</v>
       </c>
       <c r="JA4" t="n">
-        <v>-2.116693386773547</v>
+        <v>-211.6693386773547</v>
       </c>
       <c r="JB4" t="n">
-        <v>-2.128657314629258</v>
+        <v>-212.8657314629258</v>
       </c>
       <c r="JC4" t="n">
-        <v>-2.14062124248497</v>
+        <v>-214.062124248497</v>
       </c>
       <c r="JD4" t="n">
-        <v>-2.152585170340681</v>
+        <v>-215.2585170340681</v>
       </c>
       <c r="JE4" t="n">
-        <v>-2.164549098196392</v>
+        <v>-216.4549098196392</v>
       </c>
       <c r="JF4" t="n">
-        <v>-2.176513026052104</v>
+        <v>-217.6513026052104</v>
       </c>
       <c r="JG4" t="n">
-        <v>-2.188476953907815</v>
+        <v>-218.8476953907816</v>
       </c>
       <c r="JH4" t="n">
-        <v>-2.200440881763527</v>
+        <v>-220.0440881763527</v>
       </c>
       <c r="JI4" t="n">
-        <v>-2.212404809619239</v>
+        <v>-221.2404809619239</v>
       </c>
       <c r="JJ4" t="n">
-        <v>-2.22436873747495</v>
+        <v>-222.436873747495</v>
       </c>
       <c r="JK4" t="n">
-        <v>-2.236332665330662</v>
+        <v>-223.6332665330662</v>
       </c>
       <c r="JL4" t="n">
-        <v>-2.248296593186373</v>
+        <v>-224.8296593186373</v>
       </c>
       <c r="JM4" t="n">
-        <v>-2.260260521042084</v>
+        <v>-226.0260521042084</v>
       </c>
       <c r="JN4" t="n">
-        <v>-2.272224448897796</v>
+        <v>-227.2224448897796</v>
       </c>
       <c r="JO4" t="n">
-        <v>-2.284188376753507</v>
+        <v>-228.4188376753507</v>
       </c>
       <c r="JP4" t="n">
-        <v>-2.296152304609218</v>
+        <v>-229.6152304609218</v>
       </c>
       <c r="JQ4" t="n">
-        <v>-2.30811623246493</v>
+        <v>-230.811623246493</v>
       </c>
       <c r="JR4" t="n">
-        <v>-2.320080160320641</v>
+        <v>-232.0080160320641</v>
       </c>
       <c r="JS4" t="n">
-        <v>-2.332044088176353</v>
+        <v>-233.2044088176353</v>
       </c>
       <c r="JT4" t="n">
-        <v>-2.344008016032064</v>
+        <v>-234.4008016032064</v>
       </c>
       <c r="JU4" t="n">
-        <v>-2.355971943887775</v>
+        <v>-235.5971943887775</v>
       </c>
       <c r="JV4" t="n">
-        <v>-2.367935871743487</v>
+        <v>-236.7935871743487</v>
       </c>
       <c r="JW4" t="n">
-        <v>-2.379899799599198</v>
+        <v>-237.9899799599199</v>
       </c>
       <c r="JX4" t="n">
-        <v>-2.391863727454909</v>
+        <v>-239.186372745491</v>
       </c>
       <c r="JY4" t="n">
-        <v>-2.403827655310621</v>
+        <v>-240.3827655310621</v>
       </c>
       <c r="JZ4" t="n">
-        <v>-2.415791583166333</v>
+        <v>-241.5791583166333</v>
       </c>
       <c r="KA4" t="n">
-        <v>-2.427755511022044</v>
+        <v>-242.7755511022044</v>
       </c>
       <c r="KB4" t="n">
-        <v>-2.439719438877756</v>
+        <v>-243.9719438877756</v>
       </c>
       <c r="KC4" t="n">
-        <v>-2.451683366733467</v>
+        <v>-245.1683366733467</v>
       </c>
       <c r="KD4" t="n">
-        <v>-2.463647294589179</v>
+        <v>-246.3647294589179</v>
       </c>
       <c r="KE4" t="n">
-        <v>-2.47561122244489</v>
+        <v>-247.561122244489</v>
       </c>
       <c r="KF4" t="n">
-        <v>-2.487575150300601</v>
+        <v>-248.7575150300601</v>
       </c>
       <c r="KG4" t="n">
-        <v>-2.499539078156313</v>
+        <v>-249.9539078156313</v>
       </c>
       <c r="KH4" t="n">
-        <v>-2.511503006012024</v>
+        <v>-251.1503006012024</v>
       </c>
       <c r="KI4" t="n">
-        <v>-2.523466933867735</v>
+        <v>-252.3466933867735</v>
       </c>
       <c r="KJ4" t="n">
-        <v>-2.535430861723447</v>
+        <v>-253.5430861723447</v>
       </c>
       <c r="KK4" t="n">
-        <v>-2.547394789579158</v>
+        <v>-254.7394789579158</v>
       </c>
       <c r="KL4" t="n">
-        <v>-2.559358717434869</v>
+        <v>-255.9358717434869</v>
       </c>
       <c r="KM4" t="n">
-        <v>-2.571322645290581</v>
+        <v>-257.1322645290581</v>
       </c>
       <c r="KN4" t="n">
-        <v>-2.583286573146292</v>
+        <v>-258.3286573146293</v>
       </c>
       <c r="KO4" t="n">
-        <v>-2.595250501002004</v>
+        <v>-259.5250501002004</v>
       </c>
       <c r="KP4" t="n">
-        <v>-2.607214428857715</v>
+        <v>-260.7214428857715</v>
       </c>
       <c r="KQ4" t="n">
-        <v>-2.619178356713427</v>
+        <v>-261.9178356713427</v>
       </c>
       <c r="KR4" t="n">
-        <v>-2.631142284569139</v>
+        <v>-263.1142284569138</v>
       </c>
       <c r="KS4" t="n">
-        <v>-2.64310621242485</v>
+        <v>-264.310621242485</v>
       </c>
       <c r="KT4" t="n">
-        <v>-2.655070140280561</v>
+        <v>-265.5070140280561</v>
       </c>
       <c r="KU4" t="n">
-        <v>-2.667034068136273</v>
+        <v>-266.7034068136273</v>
       </c>
       <c r="KV4" t="n">
-        <v>-2.678997995991984</v>
+        <v>-267.8997995991984</v>
       </c>
       <c r="KW4" t="n">
-        <v>-2.690961923847696</v>
+        <v>-269.0961923847696</v>
       </c>
       <c r="KX4" t="n">
-        <v>-2.702925851703407</v>
+        <v>-270.2925851703407</v>
       </c>
       <c r="KY4" t="n">
-        <v>-2.714889779559118</v>
+        <v>-271.4889779559118</v>
       </c>
       <c r="KZ4" t="n">
-        <v>-2.72685370741483</v>
+        <v>-272.685370741483</v>
       </c>
       <c r="LA4" t="n">
-        <v>-2.738817635270541</v>
+        <v>-273.8817635270541</v>
       </c>
       <c r="LB4" t="n">
-        <v>-2.750781563126252</v>
+        <v>-275.0781563126252</v>
       </c>
       <c r="LC4" t="n">
-        <v>-2.762745490981964</v>
+        <v>-276.2745490981964</v>
       </c>
       <c r="LD4" t="n">
-        <v>-2.774709418837675</v>
+        <v>-277.4709418837675</v>
       </c>
       <c r="LE4" t="n">
-        <v>-2.786673346693386</v>
+        <v>-278.6673346693386</v>
       </c>
       <c r="LF4" t="n">
-        <v>-2.798637274549098</v>
+        <v>-279.8637274549098</v>
       </c>
       <c r="LG4" t="n">
-        <v>-2.810601202404809</v>
+        <v>-281.060120240481</v>
       </c>
       <c r="LH4" t="n">
-        <v>-2.822565130260521</v>
+        <v>-282.2565130260522</v>
       </c>
       <c r="LI4" t="n">
-        <v>-2.834529058116233</v>
+        <v>-283.4529058116233</v>
       </c>
       <c r="LJ4" t="n">
-        <v>-2.846492985971944</v>
+        <v>-284.6492985971944</v>
       </c>
       <c r="LK4" t="n">
-        <v>-2.858456913827656</v>
+        <v>-285.8456913827656</v>
       </c>
       <c r="LL4" t="n">
-        <v>-2.870420841683367</v>
+        <v>-287.0420841683367</v>
       </c>
       <c r="LM4" t="n">
-        <v>-2.882384769539078</v>
+        <v>-288.2384769539078</v>
       </c>
       <c r="LN4" t="n">
-        <v>-2.89434869739479</v>
+        <v>-289.434869739479</v>
       </c>
       <c r="LO4" t="n">
-        <v>-2.906312625250501</v>
+        <v>-290.6312625250501</v>
       </c>
       <c r="LP4" t="n">
-        <v>-2.918276553106212</v>
+        <v>-291.8276553106212</v>
       </c>
       <c r="LQ4" t="n">
-        <v>-2.930240480961924</v>
+        <v>-293.0240480961924</v>
       </c>
       <c r="LR4" t="n">
-        <v>-2.942204408817635</v>
+        <v>-294.2204408817635</v>
       </c>
       <c r="LS4" t="n">
-        <v>-2.954168336673347</v>
+        <v>-295.4168336673347</v>
       </c>
       <c r="LT4" t="n">
-        <v>-2.966132264529058</v>
+        <v>-296.6132264529058</v>
       </c>
       <c r="LU4" t="n">
-        <v>-2.978096192384769</v>
+        <v>-297.809619238477</v>
       </c>
       <c r="LV4" t="n">
-        <v>-2.990060120240481</v>
+        <v>-299.0060120240481</v>
       </c>
       <c r="LW4" t="n">
-        <v>-3.002024048096192</v>
+        <v>-300.2024048096192</v>
       </c>
       <c r="LX4" t="n">
-        <v>-3.013987975951903</v>
+        <v>-301.3987975951903</v>
       </c>
       <c r="LY4" t="n">
-        <v>-3.025951903807615</v>
+        <v>-302.5951903807616</v>
       </c>
       <c r="LZ4" t="n">
-        <v>-3.037915831663327</v>
+        <v>-303.7915831663327</v>
       </c>
       <c r="MA4" t="n">
-        <v>-3.049879759519039</v>
+        <v>-304.9879759519039</v>
       </c>
       <c r="MB4" t="n">
-        <v>-3.06184368737475</v>
+        <v>-306.184368737475</v>
       </c>
       <c r="MC4" t="n">
-        <v>-3.073807615230461</v>
+        <v>-307.3807615230461</v>
       </c>
       <c r="MD4" t="n">
-        <v>-3.085771543086173</v>
+        <v>-308.5771543086173</v>
       </c>
       <c r="ME4" t="n">
-        <v>-3.097735470941884</v>
+        <v>-309.7735470941884</v>
       </c>
       <c r="MF4" t="n">
-        <v>-3.109699398797596</v>
+        <v>-310.9699398797596</v>
       </c>
       <c r="MG4" t="n">
-        <v>-3.121663326653307</v>
+        <v>-312.1663326653307</v>
       </c>
       <c r="MH4" t="n">
-        <v>-3.133627254509018</v>
+        <v>-313.3627254509018</v>
       </c>
       <c r="MI4" t="n">
-        <v>-3.14559118236473</v>
+        <v>-314.559118236473</v>
       </c>
       <c r="MJ4" t="n">
-        <v>-3.157555110220441</v>
+        <v>-315.7555110220441</v>
       </c>
       <c r="MK4" t="n">
-        <v>-3.169519038076152</v>
+        <v>-316.9519038076152</v>
       </c>
       <c r="ML4" t="n">
-        <v>-3.181482965931864</v>
+        <v>-318.1482965931864</v>
       </c>
       <c r="MM4" t="n">
-        <v>-3.193446893787575</v>
+        <v>-319.3446893787576</v>
       </c>
       <c r="MN4" t="n">
-        <v>-3.205410821643286</v>
+        <v>-320.5410821643287</v>
       </c>
       <c r="MO4" t="n">
-        <v>-3.217374749498998</v>
+        <v>-321.7374749498998</v>
       </c>
       <c r="MP4" t="n">
-        <v>-3.229338677354709</v>
+        <v>-322.9338677354709</v>
       </c>
       <c r="MQ4" t="n">
-        <v>-3.241302605210421</v>
+        <v>-324.1302605210421</v>
       </c>
       <c r="MR4" t="n">
-        <v>-3.253266533066133</v>
+        <v>-325.3266533066133</v>
       </c>
       <c r="MS4" t="n">
-        <v>-3.265230460921844</v>
+        <v>-326.5230460921844</v>
       </c>
       <c r="MT4" t="n">
-        <v>-3.277194388777556</v>
+        <v>-327.7194388777556</v>
       </c>
       <c r="MU4" t="n">
-        <v>-3.289158316633267</v>
+        <v>-328.9158316633267</v>
       </c>
       <c r="MV4" t="n">
-        <v>-3.301122244488978</v>
+        <v>-330.1122244488978</v>
       </c>
       <c r="MW4" t="n">
-        <v>-3.31308617234469</v>
+        <v>-331.308617234469</v>
       </c>
       <c r="MX4" t="n">
-        <v>-3.325050100200401</v>
+        <v>-332.5050100200401</v>
       </c>
       <c r="MY4" t="n">
-        <v>-3.337014028056112</v>
+        <v>-333.7014028056112</v>
       </c>
       <c r="MZ4" t="n">
-        <v>-3.348977955911824</v>
+        <v>-334.8977955911824</v>
       </c>
       <c r="NA4" t="n">
-        <v>-3.360941883767535</v>
+        <v>-336.0941883767535</v>
       </c>
       <c r="NB4" t="n">
-        <v>-3.372905811623247</v>
+        <v>-337.2905811623247</v>
       </c>
       <c r="NC4" t="n">
-        <v>-3.384869739478958</v>
+        <v>-338.4869739478958</v>
       </c>
       <c r="ND4" t="n">
-        <v>-3.396833667334669</v>
+        <v>-339.6833667334669</v>
       </c>
       <c r="NE4" t="n">
-        <v>-3.408797595190381</v>
+        <v>-340.8797595190381</v>
       </c>
       <c r="NF4" t="n">
-        <v>-3.420761523046092</v>
+        <v>-342.0761523046093</v>
       </c>
       <c r="NG4" t="n">
-        <v>-3.432725450901803</v>
+        <v>-343.2725450901804</v>
       </c>
       <c r="NH4" t="n">
-        <v>-3.444689378757515</v>
+        <v>-344.4689378757515</v>
       </c>
       <c r="NI4" t="n">
-        <v>-3.456653306613227</v>
+        <v>-345.6653306613226</v>
       </c>
       <c r="NJ4" t="n">
-        <v>-3.468617234468939</v>
+        <v>-346.8617234468938</v>
       </c>
       <c r="NK4" t="n">
-        <v>-3.48058116232465</v>
+        <v>-348.058116232465</v>
       </c>
       <c r="NL4" t="n">
-        <v>-3.492545090180361</v>
+        <v>-349.2545090180361</v>
       </c>
       <c r="NM4" t="n">
-        <v>-3.504509018036073</v>
+        <v>-350.4509018036073</v>
       </c>
       <c r="NN4" t="n">
-        <v>-3.516472945891784</v>
+        <v>-351.6472945891784</v>
       </c>
       <c r="NO4" t="n">
-        <v>-3.528436873747495</v>
+        <v>-352.8436873747495</v>
       </c>
       <c r="NP4" t="n">
-        <v>-3.540400801603207</v>
+        <v>-354.0400801603207</v>
       </c>
       <c r="NQ4" t="n">
-        <v>-3.552364729458918</v>
+        <v>-355.2364729458918</v>
       </c>
       <c r="NR4" t="n">
-        <v>-3.564328657314629</v>
+        <v>-356.4328657314629</v>
       </c>
       <c r="NS4" t="n">
-        <v>-3.576292585170341</v>
+        <v>-357.6292585170341</v>
       </c>
       <c r="NT4" t="n">
-        <v>-3.588256513026052</v>
+        <v>-358.8256513026052</v>
       </c>
       <c r="NU4" t="n">
-        <v>-3.600220440881764</v>
+        <v>-360.0220440881764</v>
       </c>
       <c r="NV4" t="n">
-        <v>-3.612184368737475</v>
+        <v>-361.2184368737475</v>
       </c>
       <c r="NW4" t="n">
-        <v>-3.624148296593186</v>
+        <v>-362.4148296593186</v>
       </c>
       <c r="NX4" t="n">
-        <v>-3.636112224448898</v>
+        <v>-363.6112224448898</v>
       </c>
       <c r="NY4" t="n">
-        <v>-3.648076152304609</v>
+        <v>-364.807615230461</v>
       </c>
       <c r="NZ4" t="n">
-        <v>-3.660040080160321</v>
+        <v>-366.0040080160321</v>
       </c>
       <c r="OA4" t="n">
-        <v>-3.672004008016033</v>
+        <v>-367.2004008016033</v>
       </c>
       <c r="OB4" t="n">
-        <v>-3.683967935871744</v>
+        <v>-368.3967935871744</v>
       </c>
       <c r="OC4" t="n">
-        <v>-3.695931863727455</v>
+        <v>-369.5931863727455</v>
       </c>
       <c r="OD4" t="n">
-        <v>-3.707895791583167</v>
+        <v>-370.7895791583167</v>
       </c>
       <c r="OE4" t="n">
-        <v>-3.719859719438878</v>
+        <v>-371.9859719438878</v>
       </c>
       <c r="OF4" t="n">
-        <v>-3.73182364729459</v>
+        <v>-373.182364729459</v>
       </c>
       <c r="OG4" t="n">
-        <v>-3.743787575150301</v>
+        <v>-374.3787575150301</v>
       </c>
       <c r="OH4" t="n">
-        <v>-3.755751503006012</v>
+        <v>-375.5751503006012</v>
       </c>
       <c r="OI4" t="n">
-        <v>-3.767715430861724</v>
+        <v>-376.7715430861724</v>
       </c>
       <c r="OJ4" t="n">
-        <v>-3.779679358717435</v>
+        <v>-377.9679358717435</v>
       </c>
       <c r="OK4" t="n">
-        <v>-3.791643286573146</v>
+        <v>-379.1643286573146</v>
       </c>
       <c r="OL4" t="n">
-        <v>-3.803607214428858</v>
+        <v>-380.3607214428858</v>
       </c>
       <c r="OM4" t="n">
-        <v>-3.815571142284569</v>
+        <v>-381.557114228457</v>
       </c>
       <c r="ON4" t="n">
-        <v>-3.82753507014028</v>
+        <v>-382.7535070140281</v>
       </c>
       <c r="OO4" t="n">
-        <v>-3.839498997995992</v>
+        <v>-383.9498997995992</v>
       </c>
       <c r="OP4" t="n">
-        <v>-3.851462925851703</v>
+        <v>-385.1462925851703</v>
       </c>
       <c r="OQ4" t="n">
-        <v>-3.863426853707415</v>
+        <v>-386.3426853707415</v>
       </c>
       <c r="OR4" t="n">
-        <v>-3.875390781563127</v>
+        <v>-387.5390781563127</v>
       </c>
       <c r="OS4" t="n">
-        <v>-3.887354709418838</v>
+        <v>-388.7354709418838</v>
       </c>
       <c r="OT4" t="n">
-        <v>-3.89931863727455</v>
+        <v>-389.931863727455</v>
       </c>
       <c r="OU4" t="n">
-        <v>-3.911282565130261</v>
+        <v>-391.1282565130261</v>
       </c>
       <c r="OV4" t="n">
-        <v>-3.923246492985972</v>
+        <v>-392.3246492985972</v>
       </c>
       <c r="OW4" t="n">
-        <v>-3.935210420841684</v>
+        <v>-393.5210420841684</v>
       </c>
       <c r="OX4" t="n">
-        <v>-3.947174348697395</v>
+        <v>-394.7174348697395</v>
       </c>
       <c r="OY4" t="n">
-        <v>-3.959138276553106</v>
+        <v>-395.9138276553106</v>
       </c>
       <c r="OZ4" t="n">
-        <v>-3.971102204408818</v>
+        <v>-397.1102204408818</v>
       </c>
       <c r="PA4" t="n">
-        <v>-3.983066132264529</v>
+        <v>-398.3066132264529</v>
       </c>
       <c r="PB4" t="n">
-        <v>-3.995030060120241</v>
+        <v>-399.5030060120241</v>
       </c>
       <c r="PC4" t="n">
-        <v>-4.006993987975952</v>
+        <v>-400.6993987975952</v>
       </c>
       <c r="PD4" t="n">
-        <v>-4.018957915831663</v>
+        <v>-401.8957915831663</v>
       </c>
       <c r="PE4" t="n">
-        <v>-4.030921843687375</v>
+        <v>-403.0921843687375</v>
       </c>
       <c r="PF4" t="n">
-        <v>-4.042885771543086</v>
+        <v>-404.2885771543087</v>
       </c>
       <c r="PG4" t="n">
-        <v>-4.054849699398797</v>
+        <v>-405.4849699398798</v>
       </c>
       <c r="PH4" t="n">
-        <v>-4.066813627254509</v>
+        <v>-406.6813627254509</v>
       </c>
       <c r="PI4" t="n">
-        <v>-4.078777555110221</v>
+        <v>-407.877755511022</v>
       </c>
       <c r="PJ4" t="n">
-        <v>-4.090741482965932</v>
+        <v>-409.0741482965932</v>
       </c>
       <c r="PK4" t="n">
-        <v>-4.102705410821644</v>
+        <v>-410.2705410821644</v>
       </c>
       <c r="PL4" t="n">
-        <v>-4.114669338677355</v>
+        <v>-411.4669338677355</v>
       </c>
       <c r="PM4" t="n">
-        <v>-4.126633266533067</v>
+        <v>-412.6633266533067</v>
       </c>
       <c r="PN4" t="n">
-        <v>-4.138597194388778</v>
+        <v>-413.8597194388778</v>
       </c>
       <c r="PO4" t="n">
-        <v>-4.150561122244489</v>
+        <v>-415.0561122244489</v>
       </c>
       <c r="PP4" t="n">
-        <v>-4.162525050100201</v>
+        <v>-416.2525050100201</v>
       </c>
       <c r="PQ4" t="n">
-        <v>-4.174488977955912</v>
+        <v>-417.4488977955912</v>
       </c>
       <c r="PR4" t="n">
-        <v>-4.186452905811623</v>
+        <v>-418.6452905811623</v>
       </c>
       <c r="PS4" t="n">
-        <v>-4.198416833667335</v>
+        <v>-419.8416833667335</v>
       </c>
       <c r="PT4" t="n">
-        <v>-4.210380761523046</v>
+        <v>-421.0380761523046</v>
       </c>
       <c r="PU4" t="n">
-        <v>-4.222344689378758</v>
+        <v>-422.2344689378758</v>
       </c>
       <c r="PV4" t="n">
-        <v>-4.234308617234469</v>
+        <v>-423.4308617234469</v>
       </c>
       <c r="PW4" t="n">
-        <v>-4.24627254509018</v>
+        <v>-424.627254509018</v>
       </c>
       <c r="PX4" t="n">
-        <v>-4.258236472945892</v>
+        <v>-425.8236472945893</v>
       </c>
       <c r="PY4" t="n">
-        <v>-4.270200400801603</v>
+        <v>-427.0200400801604</v>
       </c>
       <c r="PZ4" t="n">
-        <v>-4.282164328657315</v>
+        <v>-428.2164328657315</v>
       </c>
       <c r="QA4" t="n">
-        <v>-4.294128256513027</v>
+        <v>-429.4128256513027</v>
       </c>
       <c r="QB4" t="n">
-        <v>-4.306092184368738</v>
+        <v>-430.6092184368738</v>
       </c>
       <c r="QC4" t="n">
-        <v>-4.318056112224449</v>
+        <v>-431.8056112224449</v>
       </c>
       <c r="QD4" t="n">
-        <v>-4.330020040080161</v>
+        <v>-433.0020040080161</v>
       </c>
       <c r="QE4" t="n">
-        <v>-4.341983967935872</v>
+        <v>-434.1983967935872</v>
       </c>
       <c r="QF4" t="n">
-        <v>-4.353947895791584</v>
+        <v>-435.3947895791584</v>
       </c>
       <c r="QG4" t="n">
-        <v>-4.365911823647295</v>
+        <v>-436.5911823647295</v>
       </c>
       <c r="QH4" t="n">
-        <v>-4.377875751503006</v>
+        <v>-437.7875751503006</v>
       </c>
       <c r="QI4" t="n">
-        <v>-4.389839679358718</v>
+        <v>-438.9839679358718</v>
       </c>
       <c r="QJ4" t="n">
-        <v>-4.401803607214429</v>
+        <v>-440.1803607214429</v>
       </c>
       <c r="QK4" t="n">
-        <v>-4.41376753507014</v>
+        <v>-441.376753507014</v>
       </c>
       <c r="QL4" t="n">
-        <v>-4.425731462925852</v>
+        <v>-442.5731462925852</v>
       </c>
       <c r="QM4" t="n">
-        <v>-4.437695390781563</v>
+        <v>-443.7695390781563</v>
       </c>
       <c r="QN4" t="n">
-        <v>-4.449659318637274</v>
+        <v>-444.9659318637275</v>
       </c>
       <c r="QO4" t="n">
-        <v>-4.461623246492986</v>
+        <v>-446.1623246492986</v>
       </c>
       <c r="QP4" t="n">
-        <v>-4.473587174348697</v>
+        <v>-447.3587174348697</v>
       </c>
       <c r="QQ4" t="n">
-        <v>-4.485551102204409</v>
+        <v>-448.555110220441</v>
       </c>
       <c r="QR4" t="n">
-        <v>-4.497515030060121</v>
+        <v>-449.7515030060121</v>
       </c>
       <c r="QS4" t="n">
-        <v>-4.509478957915832</v>
+        <v>-450.9478957915832</v>
       </c>
       <c r="QT4" t="n">
-        <v>-4.521442885771544</v>
+        <v>-452.1442885771544</v>
       </c>
       <c r="QU4" t="n">
-        <v>-4.533406813627255</v>
+        <v>-453.3406813627255</v>
       </c>
       <c r="QV4" t="n">
-        <v>-4.545370741482966</v>
+        <v>-454.5370741482966</v>
       </c>
       <c r="QW4" t="n">
-        <v>-4.557334669338678</v>
+        <v>-455.7334669338678</v>
       </c>
       <c r="QX4" t="n">
-        <v>-4.569298597194389</v>
+        <v>-456.9298597194389</v>
       </c>
       <c r="QY4" t="n">
-        <v>-4.5812625250501</v>
+        <v>-458.12625250501</v>
       </c>
       <c r="QZ4" t="n">
-        <v>-4.593226452905812</v>
+        <v>-459.3226452905812</v>
       </c>
       <c r="RA4" t="n">
-        <v>-4.605190380761523</v>
+        <v>-460.5190380761523</v>
       </c>
       <c r="RB4" t="n">
-        <v>-4.617154308617235</v>
+        <v>-461.7154308617235</v>
       </c>
       <c r="RC4" t="n">
-        <v>-4.629118236472946</v>
+        <v>-462.9118236472946</v>
       </c>
       <c r="RD4" t="n">
-        <v>-4.641082164328657</v>
+        <v>-464.1082164328657</v>
       </c>
       <c r="RE4" t="n">
-        <v>-4.653046092184369</v>
+        <v>-465.304609218437</v>
       </c>
       <c r="RF4" t="n">
-        <v>-4.66501002004008</v>
+        <v>-466.5010020040081</v>
       </c>
       <c r="RG4" t="n">
-        <v>-4.676973947895791</v>
+        <v>-467.6973947895792</v>
       </c>
       <c r="RH4" t="n">
-        <v>-4.688937875751503</v>
+        <v>-468.8937875751503</v>
       </c>
       <c r="RI4" t="n">
-        <v>-4.700901803607215</v>
+        <v>-470.0901803607214</v>
       </c>
       <c r="RJ4" t="n">
-        <v>-4.712865731462926</v>
+        <v>-471.2865731462925</v>
       </c>
       <c r="RK4" t="n">
-        <v>-4.724829659318638</v>
+        <v>-472.4829659318638</v>
       </c>
       <c r="RL4" t="n">
-        <v>-4.736793587174349</v>
+        <v>-473.6793587174349</v>
       </c>
       <c r="RM4" t="n">
-        <v>-4.748757515030061</v>
+        <v>-474.8757515030061</v>
       </c>
       <c r="RN4" t="n">
-        <v>-4.760721442885772</v>
+        <v>-476.0721442885772</v>
       </c>
       <c r="RO4" t="n">
-        <v>-4.772685370741483</v>
+        <v>-477.2685370741483</v>
       </c>
       <c r="RP4" t="n">
-        <v>-4.784649298597195</v>
+        <v>-478.4649298597195</v>
       </c>
       <c r="RQ4" t="n">
-        <v>-4.796613226452906</v>
+        <v>-479.6613226452906</v>
       </c>
       <c r="RR4" t="n">
-        <v>-4.808577154308617</v>
+        <v>-480.8577154308617</v>
       </c>
       <c r="RS4" t="n">
-        <v>-4.820541082164329</v>
+        <v>-482.0541082164329</v>
       </c>
       <c r="RT4" t="n">
-        <v>-4.83250501002004</v>
+        <v>-483.250501002004</v>
       </c>
       <c r="RU4" t="n">
-        <v>-4.844468937875752</v>
+        <v>-484.4468937875752</v>
       </c>
       <c r="RV4" t="n">
-        <v>-4.856432865731463</v>
+        <v>-485.6432865731463</v>
       </c>
       <c r="RW4" t="n">
-        <v>-4.868396793587174</v>
+        <v>-486.8396793587174</v>
       </c>
       <c r="RX4" t="n">
-        <v>-4.880360721442886</v>
+        <v>-488.0360721442887</v>
       </c>
       <c r="RY4" t="n">
-        <v>-4.892324649298597</v>
+        <v>-489.2324649298598</v>
       </c>
       <c r="RZ4" t="n">
-        <v>-4.904288577154309</v>
+        <v>-490.4288577154309</v>
       </c>
       <c r="SA4" t="n">
-        <v>-4.916252505010021</v>
+        <v>-491.625250501002</v>
       </c>
       <c r="SB4" t="n">
-        <v>-4.928216432865732</v>
+        <v>-492.8216432865731</v>
       </c>
       <c r="SC4" t="n">
-        <v>-4.940180360721443</v>
+        <v>-494.0180360721443</v>
       </c>
       <c r="SD4" t="n">
-        <v>-4.952144288577155</v>
+        <v>-495.2144288577155</v>
       </c>
       <c r="SE4" t="n">
-        <v>-4.964108216432866</v>
+        <v>-496.4108216432866</v>
       </c>
       <c r="SF4" t="n">
-        <v>-4.976072144288578</v>
+        <v>-497.6072144288578</v>
       </c>
       <c r="SG4" t="n">
-        <v>-4.988036072144289</v>
+        <v>-498.8036072144289</v>
       </c>
       <c r="SH4" t="n">
-        <v>-5</v>
+        <v>-500</v>
       </c>
     </row>
   </sheetData>

--- a/Data/fake_scenarios.xlsx
+++ b/Data/fake_scenarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SH4"/>
+  <dimension ref="A1:SJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,6 +1942,12 @@
       <c r="SH1" s="1" t="n">
         <v>2520</v>
       </c>
+      <c r="SI1" s="1" t="n">
+        <v>2521</v>
+      </c>
+      <c r="SJ1" s="1" t="n">
+        <v>2522</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1951,1503 +1957,1509 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
+        <v>-2.061681392379752</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.105081465243104</v>
+      </c>
+      <c r="E2" t="n">
         <v>97</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>97.80761523046093</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>98.61523046092185</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>99.42284569138276</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>100.2304609218437</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>101.0380761523046</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>101.8456913827655</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>102.6533066132264</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>103.4609218436874</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>104.2685370741483</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>105.0761523046092</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>105.8837675350701</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>106.691382765531</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>107.498997995992</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>108.3066132264529</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>109.1142284569138</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>109.9218436873747</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>110.7294589178357</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>111.5370741482966</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>112.3446893787575</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>113.1523046092184</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>113.9599198396794</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>114.7675350701403</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>115.5751503006012</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>116.3827655310621</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>117.190380761523</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>117.997995991984</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>118.8056112224449</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>119.6132264529058</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AH2" t="n">
         <v>120.4208416833667</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>121.2284569138277</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>122.0360721442886</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
         <v>122.8436873747495</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>123.6513026052104</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>124.4589178356713</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
         <v>125.2665330661323</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AO2" t="n">
         <v>126.0741482965932</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AP2" t="n">
         <v>126.8817635270541</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2" t="n">
         <v>127.689378757515</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>128.496993987976</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AS2" t="n">
         <v>129.3046092184369</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AT2" t="n">
         <v>130.1122244488978</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AU2" t="n">
         <v>130.9198396793587</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AV2" t="n">
         <v>131.7274549098196</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AW2" t="n">
         <v>132.5350701402806</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AX2" t="n">
         <v>133.3426853707415</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AY2" t="n">
         <v>134.1503006012024</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AZ2" t="n">
         <v>134.9579158316633</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BA2" t="n">
         <v>135.7655310621243</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BB2" t="n">
         <v>136.5731462925852</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BC2" t="n">
         <v>137.3807615230461</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BD2" t="n">
         <v>138.188376753507</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BE2" t="n">
         <v>138.9959919839679</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BF2" t="n">
         <v>139.8036072144289</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BG2" t="n">
         <v>140.6112224448898</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BH2" t="n">
         <v>141.4188376753507</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BI2" t="n">
         <v>142.2264529058116</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BJ2" t="n">
         <v>143.0340681362725</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BK2" t="n">
         <v>143.8416833667335</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BL2" t="n">
         <v>144.6492985971944</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BM2" t="n">
         <v>145.4569138276553</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BN2" t="n">
         <v>146.2645290581162</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BO2" t="n">
         <v>147.0721442885772</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BP2" t="n">
         <v>147.8797595190381</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BQ2" t="n">
         <v>148.687374749499</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BR2" t="n">
         <v>149.4949899799599</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BS2" t="n">
         <v>150.3026052104208</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BT2" t="n">
         <v>151.1102204408818</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BU2" t="n">
         <v>151.9178356713427</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BV2" t="n">
         <v>152.7254509018036</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BW2" t="n">
         <v>153.5330661322645</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BX2" t="n">
         <v>154.3406813627255</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BY2" t="n">
         <v>155.1482965931864</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BZ2" t="n">
         <v>155.9559118236473</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CA2" t="n">
         <v>156.7635270541082</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CB2" t="n">
         <v>157.5711422845691</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CC2" t="n">
         <v>158.3787575150301</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CD2" t="n">
         <v>159.186372745491</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CE2" t="n">
         <v>159.9939879759519</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CF2" t="n">
         <v>160.8016032064128</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CG2" t="n">
         <v>161.6092184368738</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CH2" t="n">
         <v>162.4168336673347</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CI2" t="n">
         <v>163.2244488977956</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CJ2" t="n">
         <v>164.0320641282565</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CK2" t="n">
         <v>164.8396793587174</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CL2" t="n">
         <v>165.6472945891784</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CM2" t="n">
         <v>166.4549098196393</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CN2" t="n">
         <v>167.2625250501002</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CO2" t="n">
         <v>168.0701402805611</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CP2" t="n">
         <v>168.877755511022</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CQ2" t="n">
         <v>169.685370741483</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CR2" t="n">
         <v>170.4929859719439</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CS2" t="n">
         <v>171.3006012024048</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CT2" t="n">
         <v>172.1082164328657</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CU2" t="n">
         <v>172.9158316633267</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CV2" t="n">
         <v>173.7234468937876</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CW2" t="n">
         <v>174.5310621242485</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CX2" t="n">
         <v>175.3386773547094</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CY2" t="n">
         <v>176.1462925851704</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CZ2" t="n">
         <v>176.9539078156313</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DA2" t="n">
         <v>177.7615230460922</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DB2" t="n">
         <v>178.5691382765531</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DC2" t="n">
         <v>179.376753507014</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DD2" t="n">
         <v>180.184368737475</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DE2" t="n">
         <v>180.9919839679359</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DF2" t="n">
         <v>181.7995991983968</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DG2" t="n">
         <v>182.6072144288577</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DH2" t="n">
         <v>183.4148296593186</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DI2" t="n">
         <v>184.2224448897796</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DJ2" t="n">
         <v>185.0300601202405</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DK2" t="n">
         <v>185.8376753507014</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DL2" t="n">
         <v>186.6452905811623</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DM2" t="n">
         <v>187.4529058116233</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DN2" t="n">
         <v>188.2605210420842</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DO2" t="n">
         <v>189.0681362725451</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DP2" t="n">
         <v>189.875751503006</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DQ2" t="n">
         <v>190.683366733467</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DR2" t="n">
         <v>191.4909819639279</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DS2" t="n">
         <v>192.2985971943888</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DT2" t="n">
         <v>193.1062124248497</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DU2" t="n">
         <v>193.9138276553107</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DV2" t="n">
         <v>194.7214428857716</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DW2" t="n">
         <v>195.5290581162325</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DX2" t="n">
         <v>196.3366733466934</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DY2" t="n">
         <v>197.1442885771543</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DZ2" t="n">
         <v>197.9519038076153</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EA2" t="n">
         <v>198.7595190380761</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EB2" t="n">
         <v>199.5671342685371</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EC2" t="n">
         <v>200.374749498998</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="ED2" t="n">
         <v>201.1823647294589</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EE2" t="n">
         <v>201.9899799599199</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EF2" t="n">
         <v>202.7975951903808</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EG2" t="n">
         <v>203.6052104208417</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EH2" t="n">
         <v>204.4128256513026</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EI2" t="n">
         <v>205.2204408817636</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EJ2" t="n">
         <v>206.0280561122244</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EK2" t="n">
         <v>206.8356713426854</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EL2" t="n">
         <v>207.6432865731463</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EM2" t="n">
         <v>208.4509018036072</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EN2" t="n">
         <v>209.2585170340682</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EO2" t="n">
         <v>210.0661322645291</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EP2" t="n">
         <v>210.87374749499</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EQ2" t="n">
         <v>211.6813627254509</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="ER2" t="n">
         <v>212.4889779559118</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ES2" t="n">
         <v>213.2965931863727</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ET2" t="n">
         <v>214.1042084168337</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="EU2" t="n">
         <v>214.9118236472946</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EV2" t="n">
         <v>215.7194388777556</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EW2" t="n">
         <v>216.5270541082164</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EX2" t="n">
         <v>217.3346693386774</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EY2" t="n">
         <v>218.1422845691383</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EZ2" t="n">
         <v>218.9498997995992</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="FA2" t="n">
         <v>219.7575150300601</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FB2" t="n">
         <v>220.5651302605211</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FC2" t="n">
         <v>221.372745490982</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FD2" t="n">
         <v>222.1803607214429</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FE2" t="n">
         <v>222.9879759519038</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FF2" t="n">
         <v>223.7955911823647</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FG2" t="n">
         <v>224.6032064128257</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FH2" t="n">
         <v>225.4108216432866</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FI2" t="n">
         <v>226.2184368737475</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FJ2" t="n">
         <v>227.0260521042084</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FK2" t="n">
         <v>227.8336673346693</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FL2" t="n">
         <v>228.6412825651303</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FM2" t="n">
         <v>229.4488977955912</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FN2" t="n">
         <v>230.2565130260521</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FO2" t="n">
         <v>231.064128256513</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FP2" t="n">
         <v>231.871743486974</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FQ2" t="n">
         <v>232.6793587174349</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FR2" t="n">
         <v>233.4869739478958</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FS2" t="n">
         <v>234.2945891783567</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FT2" t="n">
         <v>235.1022044088176</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FU2" t="n">
         <v>235.9098196392786</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FV2" t="n">
         <v>236.7174348697395</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FW2" t="n">
         <v>237.5250501002004</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FX2" t="n">
         <v>238.3326653306613</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FY2" t="n">
         <v>239.1402805611222</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FZ2" t="n">
         <v>239.9478957915832</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="GA2" t="n">
         <v>240.7555110220441</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GB2" t="n">
         <v>241.563126252505</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GC2" t="n">
         <v>242.370741482966</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GD2" t="n">
         <v>243.1783567134269</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GE2" t="n">
         <v>243.9859719438878</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GF2" t="n">
         <v>244.7935871743487</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GG2" t="n">
         <v>245.6012024048096</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GH2" t="n">
         <v>246.4088176352706</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GI2" t="n">
         <v>247.2164328657315</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GJ2" t="n">
         <v>248.0240480961924</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GK2" t="n">
         <v>248.8316633266533</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GL2" t="n">
         <v>249.6392785571143</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GM2" t="n">
         <v>250.4468937875751</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GN2" t="n">
         <v>251.2545090180361</v>
       </c>
-      <c r="GM2" t="n">
+      <c r="GO2" t="n">
         <v>252.062124248497</v>
       </c>
-      <c r="GN2" t="n">
+      <c r="GP2" t="n">
         <v>252.8697394789579</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GQ2" t="n">
         <v>253.6773547094189</v>
       </c>
-      <c r="GP2" t="n">
+      <c r="GR2" t="n">
         <v>254.4849699398798</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GS2" t="n">
         <v>255.2925851703407</v>
       </c>
-      <c r="GR2" t="n">
+      <c r="GT2" t="n">
         <v>256.1002004008016</v>
       </c>
-      <c r="GS2" t="n">
+      <c r="GU2" t="n">
         <v>256.9078156312625</v>
       </c>
-      <c r="GT2" t="n">
+      <c r="GV2" t="n">
         <v>257.7154308617235</v>
       </c>
-      <c r="GU2" t="n">
+      <c r="GW2" t="n">
         <v>258.5230460921844</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GX2" t="n">
         <v>259.3306613226453</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GY2" t="n">
         <v>260.1382765531063</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GZ2" t="n">
         <v>260.9458917835672</v>
       </c>
-      <c r="GY2" t="n">
+      <c r="HA2" t="n">
         <v>261.7535070140281</v>
       </c>
-      <c r="GZ2" t="n">
+      <c r="HB2" t="n">
         <v>262.561122244489</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HC2" t="n">
         <v>263.3687374749499</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HD2" t="n">
         <v>264.1763527054109</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HE2" t="n">
         <v>264.9839679358718</v>
       </c>
-      <c r="HD2" t="n">
+      <c r="HF2" t="n">
         <v>265.7915831663327</v>
       </c>
-      <c r="HE2" t="n">
+      <c r="HG2" t="n">
         <v>266.5991983967936</v>
       </c>
-      <c r="HF2" t="n">
+      <c r="HH2" t="n">
         <v>267.4068136272546</v>
       </c>
-      <c r="HG2" t="n">
+      <c r="HI2" t="n">
         <v>268.2144288577154</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HJ2" t="n">
         <v>269.0220440881764</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HK2" t="n">
         <v>269.8296593186373</v>
       </c>
-      <c r="HJ2" t="n">
+      <c r="HL2" t="n">
         <v>270.6372745490982</v>
       </c>
-      <c r="HK2" t="n">
+      <c r="HM2" t="n">
         <v>271.4448897795592</v>
       </c>
-      <c r="HL2" t="n">
+      <c r="HN2" t="n">
         <v>272.2525050100201</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HO2" t="n">
         <v>273.060120240481</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HP2" t="n">
         <v>273.8677354709419</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HQ2" t="n">
         <v>274.6753507014028</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HR2" t="n">
         <v>275.4829659318638</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HS2" t="n">
         <v>276.2905811623247</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HT2" t="n">
         <v>277.0981963927856</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HU2" t="n">
         <v>277.9058116232466</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HV2" t="n">
         <v>278.7134268537075</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HW2" t="n">
         <v>279.5210420841683</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HX2" t="n">
         <v>280.3286573146293</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HY2" t="n">
         <v>281.1362725450902</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HZ2" t="n">
         <v>281.9438877755511</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="IA2" t="n">
         <v>282.7515030060121</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IB2" t="n">
         <v>283.559118236473</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IC2" t="n">
         <v>284.3667334669339</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="ID2" t="n">
         <v>285.1743486973948</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="IE2" t="n">
         <v>285.9819639278557</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IF2" t="n">
         <v>286.7895791583167</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IG2" t="n">
         <v>287.5971943887776</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IH2" t="n">
         <v>288.4048096192384</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="II2" t="n">
         <v>289.2124248496995</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="IJ2" t="n">
         <v>290.0200400801604</v>
       </c>
-      <c r="II2" t="n">
+      <c r="IK2" t="n">
         <v>290.8276553106213</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IL2" t="n">
         <v>291.6352705410822</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IM2" t="n">
         <v>292.4428857715431</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IN2" t="n">
         <v>293.250501002004</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IO2" t="n">
         <v>294.058116232465</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IP2" t="n">
         <v>294.8657314629259</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IQ2" t="n">
         <v>295.6733466933868</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IR2" t="n">
         <v>296.4809619238477</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IS2" t="n">
         <v>297.2885771543086</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IT2" t="n">
         <v>298.0961923847696</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IU2" t="n">
         <v>298.9038076152304</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IV2" t="n">
         <v>299.7114228456913</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IW2" t="n">
         <v>300.5190380761524</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IX2" t="n">
         <v>301.3266533066133</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IY2" t="n">
         <v>302.1342685370742</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IZ2" t="n">
         <v>302.9418837675351</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="JA2" t="n">
         <v>303.749498997996</v>
       </c>
-      <c r="IZ2" t="n">
+      <c r="JB2" t="n">
         <v>304.557114228457</v>
       </c>
-      <c r="JA2" t="n">
+      <c r="JC2" t="n">
         <v>305.3647294589179</v>
       </c>
-      <c r="JB2" t="n">
+      <c r="JD2" t="n">
         <v>306.1723446893787</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JE2" t="n">
         <v>306.9799599198398</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JF2" t="n">
         <v>307.7875751503006</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JG2" t="n">
         <v>308.5951903807615</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JH2" t="n">
         <v>309.4028056112225</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JI2" t="n">
         <v>310.2104208416834</v>
       </c>
-      <c r="JH2" t="n">
+      <c r="JJ2" t="n">
         <v>311.0180360721444</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JK2" t="n">
         <v>311.8256513026053</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JL2" t="n">
         <v>312.6332665330661</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JM2" t="n">
         <v>313.4408817635271</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JN2" t="n">
         <v>314.248496993988</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JO2" t="n">
         <v>315.0561122244489</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JP2" t="n">
         <v>315.8637274549098</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JQ2" t="n">
         <v>316.6713426853707</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JR2" t="n">
         <v>317.4789579158316</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JS2" t="n">
         <v>318.2865731462927</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JT2" t="n">
         <v>319.0941883767535</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="JU2" t="n">
         <v>319.9018036072145</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JV2" t="n">
         <v>320.7094188376754</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JW2" t="n">
         <v>321.5170340681363</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JX2" t="n">
         <v>322.3246492985973</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JY2" t="n">
         <v>323.1322645290581</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JZ2" t="n">
         <v>323.939879759519</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="KA2" t="n">
         <v>324.74749498998</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="KB2" t="n">
         <v>325.5551102204409</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KC2" t="n">
         <v>326.3627254509018</v>
       </c>
-      <c r="KB2" t="n">
+      <c r="KD2" t="n">
         <v>327.1703406813627</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KE2" t="n">
         <v>327.9779559118236</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KF2" t="n">
         <v>328.7855711422847</v>
       </c>
-      <c r="KE2" t="n">
+      <c r="KG2" t="n">
         <v>329.5931863727455</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KH2" t="n">
         <v>330.4008016032064</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KI2" t="n">
         <v>331.2084168336674</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KJ2" t="n">
         <v>332.0160320641283</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KK2" t="n">
         <v>332.8236472945892</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KL2" t="n">
         <v>333.6312625250501</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KM2" t="n">
         <v>334.438877755511</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KN2" t="n">
         <v>335.2464929859719</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KO2" t="n">
         <v>336.0541082164329</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KP2" t="n">
         <v>336.8617234468938</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KQ2" t="n">
         <v>337.6693386773548</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KR2" t="n">
         <v>338.4769539078156</v>
       </c>
-      <c r="KQ2" t="n">
+      <c r="KS2" t="n">
         <v>339.2845691382765</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KT2" t="n">
         <v>340.0921843687375</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KU2" t="n">
         <v>340.8997995991984</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KV2" t="n">
         <v>341.7074148296593</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KW2" t="n">
         <v>342.5150300601203</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KX2" t="n">
         <v>343.3226452905812</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KY2" t="n">
         <v>344.1302605210421</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KZ2" t="n">
         <v>344.937875751503</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="LA2" t="n">
         <v>345.7454909819639</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="LB2" t="n">
         <v>346.553106212425</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LC2" t="n">
         <v>347.3607214428858</v>
       </c>
-      <c r="LB2" t="n">
+      <c r="LD2" t="n">
         <v>348.1683366733467</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LE2" t="n">
         <v>348.9759519038077</v>
       </c>
-      <c r="LD2" t="n">
+      <c r="LF2" t="n">
         <v>349.7835671342686</v>
       </c>
-      <c r="LE2" t="n">
+      <c r="LG2" t="n">
         <v>350.5911823647294</v>
       </c>
-      <c r="LF2" t="n">
+      <c r="LH2" t="n">
         <v>351.3987975951904</v>
       </c>
-      <c r="LG2" t="n">
+      <c r="LI2" t="n">
         <v>352.2064128256513</v>
       </c>
-      <c r="LH2" t="n">
+      <c r="LJ2" t="n">
         <v>353.0140280561122</v>
       </c>
-      <c r="LI2" t="n">
+      <c r="LK2" t="n">
         <v>353.8216432865732</v>
       </c>
-      <c r="LJ2" t="n">
+      <c r="LL2" t="n">
         <v>354.6292585170341</v>
       </c>
-      <c r="LK2" t="n">
+      <c r="LM2" t="n">
         <v>355.436873747495</v>
       </c>
-      <c r="LL2" t="n">
+      <c r="LN2" t="n">
         <v>356.2444889779559</v>
       </c>
-      <c r="LM2" t="n">
+      <c r="LO2" t="n">
         <v>357.0521042084168</v>
       </c>
-      <c r="LN2" t="n">
+      <c r="LP2" t="n">
         <v>357.8597194388778</v>
       </c>
-      <c r="LO2" t="n">
+      <c r="LQ2" t="n">
         <v>358.6673346693387</v>
       </c>
-      <c r="LP2" t="n">
+      <c r="LR2" t="n">
         <v>359.4749498997996</v>
       </c>
-      <c r="LQ2" t="n">
+      <c r="LS2" t="n">
         <v>360.2825651302606</v>
       </c>
-      <c r="LR2" t="n">
+      <c r="LT2" t="n">
         <v>361.0901803607215</v>
       </c>
-      <c r="LS2" t="n">
+      <c r="LU2" t="n">
         <v>361.8977955911823</v>
       </c>
-      <c r="LT2" t="n">
+      <c r="LV2" t="n">
         <v>362.7054108216433</v>
       </c>
-      <c r="LU2" t="n">
+      <c r="LW2" t="n">
         <v>363.5130260521042</v>
       </c>
-      <c r="LV2" t="n">
+      <c r="LX2" t="n">
         <v>364.3206412825651</v>
       </c>
-      <c r="LW2" t="n">
+      <c r="LY2" t="n">
         <v>365.1282565130261</v>
       </c>
-      <c r="LX2" t="n">
+      <c r="LZ2" t="n">
         <v>365.935871743487</v>
       </c>
-      <c r="LY2" t="n">
+      <c r="MA2" t="n">
         <v>366.7434869739479</v>
       </c>
-      <c r="LZ2" t="n">
+      <c r="MB2" t="n">
         <v>367.5511022044088</v>
       </c>
-      <c r="MA2" t="n">
+      <c r="MC2" t="n">
         <v>368.3587174348697</v>
       </c>
-      <c r="MB2" t="n">
+      <c r="MD2" t="n">
         <v>369.1663326653307</v>
       </c>
-      <c r="MC2" t="n">
+      <c r="ME2" t="n">
         <v>369.9739478957916</v>
       </c>
-      <c r="MD2" t="n">
+      <c r="MF2" t="n">
         <v>370.7815631262525</v>
       </c>
-      <c r="ME2" t="n">
+      <c r="MG2" t="n">
         <v>371.5891783567135</v>
       </c>
-      <c r="MF2" t="n">
+      <c r="MH2" t="n">
         <v>372.3967935871744</v>
       </c>
-      <c r="MG2" t="n">
+      <c r="MI2" t="n">
         <v>373.2044088176353</v>
       </c>
-      <c r="MH2" t="n">
+      <c r="MJ2" t="n">
         <v>374.0120240480962</v>
       </c>
-      <c r="MI2" t="n">
+      <c r="MK2" t="n">
         <v>374.8196392785571</v>
       </c>
-      <c r="MJ2" t="n">
+      <c r="ML2" t="n">
         <v>375.6272545090181</v>
       </c>
-      <c r="MK2" t="n">
+      <c r="MM2" t="n">
         <v>376.434869739479</v>
       </c>
-      <c r="ML2" t="n">
+      <c r="MN2" t="n">
         <v>377.2424849699399</v>
       </c>
-      <c r="MM2" t="n">
+      <c r="MO2" t="n">
         <v>378.0501002004008</v>
       </c>
-      <c r="MN2" t="n">
+      <c r="MP2" t="n">
         <v>378.8577154308617</v>
       </c>
-      <c r="MO2" t="n">
+      <c r="MQ2" t="n">
         <v>379.6653306613226</v>
       </c>
-      <c r="MP2" t="n">
+      <c r="MR2" t="n">
         <v>380.4729458917836</v>
       </c>
-      <c r="MQ2" t="n">
+      <c r="MS2" t="n">
         <v>381.2805611222445</v>
       </c>
-      <c r="MR2" t="n">
+      <c r="MT2" t="n">
         <v>382.0881763527054</v>
       </c>
-      <c r="MS2" t="n">
+      <c r="MU2" t="n">
         <v>382.8957915831664</v>
       </c>
-      <c r="MT2" t="n">
+      <c r="MV2" t="n">
         <v>383.7034068136273</v>
       </c>
-      <c r="MU2" t="n">
+      <c r="MW2" t="n">
         <v>384.5110220440882</v>
       </c>
-      <c r="MV2" t="n">
+      <c r="MX2" t="n">
         <v>385.3186372745491</v>
       </c>
-      <c r="MW2" t="n">
+      <c r="MY2" t="n">
         <v>386.12625250501</v>
       </c>
-      <c r="MX2" t="n">
+      <c r="MZ2" t="n">
         <v>386.933867735471</v>
       </c>
-      <c r="MY2" t="n">
+      <c r="NA2" t="n">
         <v>387.7414829659319</v>
       </c>
-      <c r="MZ2" t="n">
+      <c r="NB2" t="n">
         <v>388.5490981963928</v>
       </c>
-      <c r="NA2" t="n">
+      <c r="NC2" t="n">
         <v>389.3567134268538</v>
       </c>
-      <c r="NB2" t="n">
+      <c r="ND2" t="n">
         <v>390.1643286573146</v>
       </c>
-      <c r="NC2" t="n">
+      <c r="NE2" t="n">
         <v>390.9719438877755</v>
       </c>
-      <c r="ND2" t="n">
+      <c r="NF2" t="n">
         <v>391.7795591182365</v>
       </c>
-      <c r="NE2" t="n">
+      <c r="NG2" t="n">
         <v>392.5871743486974</v>
       </c>
-      <c r="NF2" t="n">
+      <c r="NH2" t="n">
         <v>393.3947895791584</v>
       </c>
-      <c r="NG2" t="n">
+      <c r="NI2" t="n">
         <v>394.2024048096193</v>
       </c>
-      <c r="NH2" t="n">
+      <c r="NJ2" t="n">
         <v>395.0100200400802</v>
       </c>
-      <c r="NI2" t="n">
+      <c r="NK2" t="n">
         <v>395.8176352705411</v>
       </c>
-      <c r="NJ2" t="n">
+      <c r="NL2" t="n">
         <v>396.625250501002</v>
       </c>
-      <c r="NK2" t="n">
+      <c r="NM2" t="n">
         <v>397.4328657314629</v>
       </c>
-      <c r="NL2" t="n">
+      <c r="NN2" t="n">
         <v>398.2404809619239</v>
       </c>
-      <c r="NM2" t="n">
+      <c r="NO2" t="n">
         <v>399.0480961923848</v>
       </c>
-      <c r="NN2" t="n">
+      <c r="NP2" t="n">
         <v>399.8557114228457</v>
       </c>
-      <c r="NO2" t="n">
+      <c r="NQ2" t="n">
         <v>400.6633266533067</v>
       </c>
-      <c r="NP2" t="n">
+      <c r="NR2" t="n">
         <v>401.4709418837675</v>
       </c>
-      <c r="NQ2" t="n">
+      <c r="NS2" t="n">
         <v>402.2785571142285</v>
       </c>
-      <c r="NR2" t="n">
+      <c r="NT2" t="n">
         <v>403.0861723446894</v>
       </c>
-      <c r="NS2" t="n">
+      <c r="NU2" t="n">
         <v>403.8937875751503</v>
       </c>
-      <c r="NT2" t="n">
+      <c r="NV2" t="n">
         <v>404.7014028056113</v>
       </c>
-      <c r="NU2" t="n">
+      <c r="NW2" t="n">
         <v>405.5090180360722</v>
       </c>
-      <c r="NV2" t="n">
+      <c r="NX2" t="n">
         <v>406.3166332665331</v>
       </c>
-      <c r="NW2" t="n">
+      <c r="NY2" t="n">
         <v>407.124248496994</v>
       </c>
-      <c r="NX2" t="n">
+      <c r="NZ2" t="n">
         <v>407.9318637274549</v>
       </c>
-      <c r="NY2" t="n">
+      <c r="OA2" t="n">
         <v>408.7394789579158</v>
       </c>
-      <c r="NZ2" t="n">
+      <c r="OB2" t="n">
         <v>409.5470941883768</v>
       </c>
-      <c r="OA2" t="n">
+      <c r="OC2" t="n">
         <v>410.3547094188377</v>
       </c>
-      <c r="OB2" t="n">
+      <c r="OD2" t="n">
         <v>411.1623246492987</v>
       </c>
-      <c r="OC2" t="n">
+      <c r="OE2" t="n">
         <v>411.9699398797596</v>
       </c>
-      <c r="OD2" t="n">
+      <c r="OF2" t="n">
         <v>412.7775551102205</v>
       </c>
-      <c r="OE2" t="n">
+      <c r="OG2" t="n">
         <v>413.5851703406814</v>
       </c>
-      <c r="OF2" t="n">
+      <c r="OH2" t="n">
         <v>414.3927855711423</v>
       </c>
-      <c r="OG2" t="n">
+      <c r="OI2" t="n">
         <v>415.2004008016032</v>
       </c>
-      <c r="OH2" t="n">
+      <c r="OJ2" t="n">
         <v>416.0080160320642</v>
       </c>
-      <c r="OI2" t="n">
+      <c r="OK2" t="n">
         <v>416.8156312625251</v>
       </c>
-      <c r="OJ2" t="n">
+      <c r="OL2" t="n">
         <v>417.623246492986</v>
       </c>
-      <c r="OK2" t="n">
+      <c r="OM2" t="n">
         <v>418.4308617234469</v>
       </c>
-      <c r="OL2" t="n">
+      <c r="ON2" t="n">
         <v>419.2384769539078</v>
       </c>
-      <c r="OM2" t="n">
+      <c r="OO2" t="n">
         <v>420.0460921843688</v>
       </c>
-      <c r="ON2" t="n">
+      <c r="OP2" t="n">
         <v>420.8537074148297</v>
       </c>
-      <c r="OO2" t="n">
+      <c r="OQ2" t="n">
         <v>421.6613226452906</v>
       </c>
-      <c r="OP2" t="n">
+      <c r="OR2" t="n">
         <v>422.4689378757516</v>
       </c>
-      <c r="OQ2" t="n">
+      <c r="OS2" t="n">
         <v>423.2765531062125</v>
       </c>
-      <c r="OR2" t="n">
+      <c r="OT2" t="n">
         <v>424.0841683366734</v>
       </c>
-      <c r="OS2" t="n">
+      <c r="OU2" t="n">
         <v>424.8917835671343</v>
       </c>
-      <c r="OT2" t="n">
+      <c r="OV2" t="n">
         <v>425.6993987975952</v>
       </c>
-      <c r="OU2" t="n">
+      <c r="OW2" t="n">
         <v>426.5070140280561</v>
       </c>
-      <c r="OV2" t="n">
+      <c r="OX2" t="n">
         <v>427.3146292585171</v>
       </c>
-      <c r="OW2" t="n">
+      <c r="OY2" t="n">
         <v>428.122244488978</v>
       </c>
-      <c r="OX2" t="n">
+      <c r="OZ2" t="n">
         <v>428.929859719439</v>
       </c>
-      <c r="OY2" t="n">
+      <c r="PA2" t="n">
         <v>429.7374749498998</v>
       </c>
-      <c r="OZ2" t="n">
+      <c r="PB2" t="n">
         <v>430.5450901803607</v>
       </c>
-      <c r="PA2" t="n">
+      <c r="PC2" t="n">
         <v>431.3527054108217</v>
       </c>
-      <c r="PB2" t="n">
+      <c r="PD2" t="n">
         <v>432.1603206412826</v>
       </c>
-      <c r="PC2" t="n">
+      <c r="PE2" t="n">
         <v>432.9679358717435</v>
       </c>
-      <c r="PD2" t="n">
+      <c r="PF2" t="n">
         <v>433.7755511022045</v>
       </c>
-      <c r="PE2" t="n">
+      <c r="PG2" t="n">
         <v>434.5831663326654</v>
       </c>
-      <c r="PF2" t="n">
+      <c r="PH2" t="n">
         <v>435.3907815631263</v>
       </c>
-      <c r="PG2" t="n">
+      <c r="PI2" t="n">
         <v>436.1983967935872</v>
       </c>
-      <c r="PH2" t="n">
+      <c r="PJ2" t="n">
         <v>437.0060120240481</v>
       </c>
-      <c r="PI2" t="n">
+      <c r="PK2" t="n">
         <v>437.8136272545091</v>
       </c>
-      <c r="PJ2" t="n">
+      <c r="PL2" t="n">
         <v>438.62124248497</v>
       </c>
-      <c r="PK2" t="n">
+      <c r="PM2" t="n">
         <v>439.4288577154309</v>
       </c>
-      <c r="PL2" t="n">
+      <c r="PN2" t="n">
         <v>440.2364729458919</v>
       </c>
-      <c r="PM2" t="n">
+      <c r="PO2" t="n">
         <v>441.0440881763527</v>
       </c>
-      <c r="PN2" t="n">
+      <c r="PP2" t="n">
         <v>441.8517034068136</v>
       </c>
-      <c r="PO2" t="n">
+      <c r="PQ2" t="n">
         <v>442.6593186372746</v>
       </c>
-      <c r="PP2" t="n">
+      <c r="PR2" t="n">
         <v>443.4669338677355</v>
       </c>
-      <c r="PQ2" t="n">
+      <c r="PS2" t="n">
         <v>444.2745490981964</v>
       </c>
-      <c r="PR2" t="n">
+      <c r="PT2" t="n">
         <v>445.0821643286574</v>
       </c>
-      <c r="PS2" t="n">
+      <c r="PU2" t="n">
         <v>445.8897795591183</v>
       </c>
-      <c r="PT2" t="n">
+      <c r="PV2" t="n">
         <v>446.6973947895792</v>
       </c>
-      <c r="PU2" t="n">
+      <c r="PW2" t="n">
         <v>447.5050100200401</v>
       </c>
-      <c r="PV2" t="n">
+      <c r="PX2" t="n">
         <v>448.312625250501</v>
       </c>
-      <c r="PW2" t="n">
+      <c r="PY2" t="n">
         <v>449.120240480962</v>
       </c>
-      <c r="PX2" t="n">
+      <c r="PZ2" t="n">
         <v>449.9278557114229</v>
       </c>
-      <c r="PY2" t="n">
+      <c r="QA2" t="n">
         <v>450.7354709418838</v>
       </c>
-      <c r="PZ2" t="n">
+      <c r="QB2" t="n">
         <v>451.5430861723448</v>
       </c>
-      <c r="QA2" t="n">
+      <c r="QC2" t="n">
         <v>452.3507014028057</v>
       </c>
-      <c r="QB2" t="n">
+      <c r="QD2" t="n">
         <v>453.1583166332665</v>
       </c>
-      <c r="QC2" t="n">
+      <c r="QE2" t="n">
         <v>453.9659318637275</v>
       </c>
-      <c r="QD2" t="n">
+      <c r="QF2" t="n">
         <v>454.7735470941884</v>
       </c>
-      <c r="QE2" t="n">
+      <c r="QG2" t="n">
         <v>455.5811623246494</v>
       </c>
-      <c r="QF2" t="n">
+      <c r="QH2" t="n">
         <v>456.3887775551103</v>
       </c>
-      <c r="QG2" t="n">
+      <c r="QI2" t="n">
         <v>457.1963927855712</v>
       </c>
-      <c r="QH2" t="n">
+      <c r="QJ2" t="n">
         <v>458.0040080160321</v>
       </c>
-      <c r="QI2" t="n">
+      <c r="QK2" t="n">
         <v>458.811623246493</v>
       </c>
-      <c r="QJ2" t="n">
+      <c r="QL2" t="n">
         <v>459.6192384769539</v>
       </c>
-      <c r="QK2" t="n">
+      <c r="QM2" t="n">
         <v>460.4268537074149</v>
       </c>
-      <c r="QL2" t="n">
+      <c r="QN2" t="n">
         <v>461.2344689378758</v>
       </c>
-      <c r="QM2" t="n">
+      <c r="QO2" t="n">
         <v>462.0420841683367</v>
       </c>
-      <c r="QN2" t="n">
+      <c r="QP2" t="n">
         <v>462.8496993987977</v>
       </c>
-      <c r="QO2" t="n">
+      <c r="QQ2" t="n">
         <v>463.6573146292586</v>
       </c>
-      <c r="QP2" t="n">
+      <c r="QR2" t="n">
         <v>464.4649298597195</v>
       </c>
-      <c r="QQ2" t="n">
+      <c r="QS2" t="n">
         <v>465.2725450901804</v>
       </c>
-      <c r="QR2" t="n">
+      <c r="QT2" t="n">
         <v>466.0801603206413</v>
       </c>
-      <c r="QS2" t="n">
+      <c r="QU2" t="n">
         <v>466.8877755511023</v>
       </c>
-      <c r="QT2" t="n">
+      <c r="QV2" t="n">
         <v>467.6953907815632</v>
       </c>
-      <c r="QU2" t="n">
+      <c r="QW2" t="n">
         <v>468.5030060120241</v>
       </c>
-      <c r="QV2" t="n">
+      <c r="QX2" t="n">
         <v>469.310621242485</v>
       </c>
-      <c r="QW2" t="n">
+      <c r="QY2" t="n">
         <v>470.1182364729459</v>
       </c>
-      <c r="QX2" t="n">
+      <c r="QZ2" t="n">
         <v>470.9258517034068</v>
       </c>
-      <c r="QY2" t="n">
+      <c r="RA2" t="n">
         <v>471.7334669338678</v>
       </c>
-      <c r="QZ2" t="n">
+      <c r="RB2" t="n">
         <v>472.5410821643287</v>
       </c>
-      <c r="RA2" t="n">
+      <c r="RC2" t="n">
         <v>473.3486973947897</v>
       </c>
-      <c r="RB2" t="n">
+      <c r="RD2" t="n">
         <v>474.1563126252506</v>
       </c>
-      <c r="RC2" t="n">
+      <c r="RE2" t="n">
         <v>474.9639278557115</v>
       </c>
-      <c r="RD2" t="n">
+      <c r="RF2" t="n">
         <v>475.7715430861724</v>
       </c>
-      <c r="RE2" t="n">
+      <c r="RG2" t="n">
         <v>476.5791583166333</v>
       </c>
-      <c r="RF2" t="n">
+      <c r="RH2" t="n">
         <v>477.3867735470942</v>
       </c>
-      <c r="RG2" t="n">
+      <c r="RI2" t="n">
         <v>478.1943887775552</v>
       </c>
-      <c r="RH2" t="n">
+      <c r="RJ2" t="n">
         <v>479.0020040080161</v>
       </c>
-      <c r="RI2" t="n">
+      <c r="RK2" t="n">
         <v>479.809619238477</v>
       </c>
-      <c r="RJ2" t="n">
+      <c r="RL2" t="n">
         <v>480.6172344689379</v>
       </c>
-      <c r="RK2" t="n">
+      <c r="RM2" t="n">
         <v>481.4248496993988</v>
       </c>
-      <c r="RL2" t="n">
+      <c r="RN2" t="n">
         <v>482.2324649298598</v>
       </c>
-      <c r="RM2" t="n">
+      <c r="RO2" t="n">
         <v>483.0400801603207</v>
       </c>
-      <c r="RN2" t="n">
+      <c r="RP2" t="n">
         <v>483.8476953907816</v>
       </c>
-      <c r="RO2" t="n">
+      <c r="RQ2" t="n">
         <v>484.6553106212426</v>
       </c>
-      <c r="RP2" t="n">
+      <c r="RR2" t="n">
         <v>485.4629258517035</v>
       </c>
-      <c r="RQ2" t="n">
+      <c r="RS2" t="n">
         <v>486.2705410821644</v>
       </c>
-      <c r="RR2" t="n">
+      <c r="RT2" t="n">
         <v>487.0781563126253</v>
       </c>
-      <c r="RS2" t="n">
+      <c r="RU2" t="n">
         <v>487.8857715430862</v>
       </c>
-      <c r="RT2" t="n">
+      <c r="RV2" t="n">
         <v>488.6933867735471</v>
       </c>
-      <c r="RU2" t="n">
+      <c r="RW2" t="n">
         <v>489.5010020040081</v>
       </c>
-      <c r="RV2" t="n">
+      <c r="RX2" t="n">
         <v>490.308617234469</v>
       </c>
-      <c r="RW2" t="n">
+      <c r="RY2" t="n">
         <v>491.11623246493</v>
       </c>
-      <c r="RX2" t="n">
+      <c r="RZ2" t="n">
         <v>491.9238476953909</v>
       </c>
-      <c r="RY2" t="n">
+      <c r="SA2" t="n">
         <v>492.7314629258517</v>
       </c>
-      <c r="RZ2" t="n">
+      <c r="SB2" t="n">
         <v>493.5390781563127</v>
       </c>
-      <c r="SA2" t="n">
+      <c r="SC2" t="n">
         <v>494.3466933867736</v>
       </c>
-      <c r="SB2" t="n">
+      <c r="SD2" t="n">
         <v>495.1543086172345</v>
       </c>
-      <c r="SC2" t="n">
+      <c r="SE2" t="n">
         <v>495.9619238476955</v>
       </c>
-      <c r="SD2" t="n">
+      <c r="SF2" t="n">
         <v>496.7695390781564</v>
       </c>
-      <c r="SE2" t="n">
+      <c r="SG2" t="n">
         <v>497.5771543086173</v>
       </c>
-      <c r="SF2" t="n">
+      <c r="SH2" t="n">
         <v>498.3847695390782</v>
       </c>
-      <c r="SG2" t="n">
+      <c r="SI2" t="n">
         <v>499.1923847695391</v>
       </c>
-      <c r="SH2" t="n">
+      <c r="SJ2" t="n">
         <v>500</v>
       </c>
     </row>
@@ -3459,1503 +3471,1509 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
+        <v>-2.061559788470009</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.104954687880876</v>
+      </c>
+      <c r="E3" t="n">
         <v>97</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>96.80561122244488</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>96.61122244488978</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>96.41683366733467</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>96.22244488977955</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>96.02805611222445</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>95.83366733466934</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>95.63927855711422</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>95.44488977955912</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>95.250501002004</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>95.0561122244489</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>94.86172344689379</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>94.66733466933867</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>94.47294589178357</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>94.27855711422846</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>94.08416833667334</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>93.88977955911824</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>93.69539078156312</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>93.50100200400801</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>93.30661322645291</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>93.11222444889779</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>92.91783567134269</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>92.72344689378758</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>92.52905811623246</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>92.33466933867736</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>92.14028056112224</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>91.94589178356713</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>91.75150300601203</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>91.55711422845691</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
         <v>91.36272545090181</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>91.1683366733467</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>90.97394789579158</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
         <v>90.77955911823648</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
         <v>90.58517034068136</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>90.39078156312625</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="n">
         <v>90.19639278557115</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AO3" t="n">
         <v>90.00200400801603</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AP3" t="n">
         <v>89.80761523046093</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AQ3" t="n">
         <v>89.61322645290582</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>89.4188376753507</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AS3" t="n">
         <v>89.2244488977956</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AT3" t="n">
         <v>89.03006012024048</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AU3" t="n">
         <v>88.83567134268537</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AV3" t="n">
         <v>88.64128256513027</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AW3" t="n">
         <v>88.44689378757515</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AX3" t="n">
         <v>88.25250501002004</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AY3" t="n">
         <v>88.05811623246494</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AZ3" t="n">
         <v>87.86372745490982</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BA3" t="n">
         <v>87.66933867735472</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BB3" t="n">
         <v>87.4749498997996</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BC3" t="n">
         <v>87.28056112224448</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BD3" t="n">
         <v>87.08617234468937</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BE3" t="n">
         <v>86.89178356713427</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BF3" t="n">
         <v>86.69739478957915</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BG3" t="n">
         <v>86.50300601202404</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BH3" t="n">
         <v>86.30861723446893</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BI3" t="n">
         <v>86.11422845691382</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BJ3" t="n">
         <v>85.91983967935872</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BK3" t="n">
         <v>85.7254509018036</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BL3" t="n">
         <v>85.53106212424849</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BM3" t="n">
         <v>85.33667334669339</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BN3" t="n">
         <v>85.14228456913827</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BO3" t="n">
         <v>84.94789579158316</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BP3" t="n">
         <v>84.75350701402805</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BQ3" t="n">
         <v>84.55911823647294</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BR3" t="n">
         <v>84.36472945891784</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BS3" t="n">
         <v>84.17034068136272</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BT3" t="n">
         <v>83.97595190380761</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BU3" t="n">
         <v>83.78156312625251</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BV3" t="n">
         <v>83.58717434869739</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BW3" t="n">
         <v>83.39278557114228</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BX3" t="n">
         <v>83.19839679358716</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BY3" t="n">
         <v>83.00400801603206</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BZ3" t="n">
         <v>82.80961923847696</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CA3" t="n">
         <v>82.61523046092184</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CB3" t="n">
         <v>82.42084168336673</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CC3" t="n">
         <v>82.22645290581163</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CD3" t="n">
         <v>82.03206412825651</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CE3" t="n">
         <v>81.8376753507014</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CF3" t="n">
         <v>81.64328657314628</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CG3" t="n">
         <v>81.44889779559118</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CH3" t="n">
         <v>81.25450901803607</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CI3" t="n">
         <v>81.06012024048096</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CJ3" t="n">
         <v>80.86573146292585</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CK3" t="n">
         <v>80.67134268537075</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CL3" t="n">
         <v>80.47695390781563</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CM3" t="n">
         <v>80.28256513026052</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CN3" t="n">
         <v>80.0881763527054</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CO3" t="n">
         <v>79.8937875751503</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CP3" t="n">
         <v>79.69939879759519</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CQ3" t="n">
         <v>79.50501002004007</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CR3" t="n">
         <v>79.31062124248497</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CS3" t="n">
         <v>79.11623246492987</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CT3" t="n">
         <v>78.92184368737475</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CU3" t="n">
         <v>78.72745490981964</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CV3" t="n">
         <v>78.53306613226452</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CW3" t="n">
         <v>78.33867735470942</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CX3" t="n">
         <v>78.14428857715431</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CY3" t="n">
         <v>77.94989979959919</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CZ3" t="n">
         <v>77.75551102204409</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="DA3" t="n">
         <v>77.56112224448898</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DB3" t="n">
         <v>77.36673346693387</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DC3" t="n">
         <v>77.17234468937876</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DD3" t="n">
         <v>76.97795591182364</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DE3" t="n">
         <v>76.78356713426854</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DF3" t="n">
         <v>76.58917835671343</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DG3" t="n">
         <v>76.39478957915831</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DH3" t="n">
         <v>76.20040080160321</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DI3" t="n">
         <v>76.0060120240481</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DJ3" t="n">
         <v>75.81162324649299</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DK3" t="n">
         <v>75.61723446893788</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DL3" t="n">
         <v>75.42284569138276</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DM3" t="n">
         <v>75.22845691382766</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DN3" t="n">
         <v>75.03406813627255</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DO3" t="n">
         <v>74.83967935871743</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DP3" t="n">
         <v>74.64529058116233</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DQ3" t="n">
         <v>74.45090180360722</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DR3" t="n">
         <v>74.2565130260521</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DS3" t="n">
         <v>74.06212424849699</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DT3" t="n">
         <v>73.86773547094188</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DU3" t="n">
         <v>73.67334669338676</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DV3" t="n">
         <v>73.47895791583166</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DW3" t="n">
         <v>73.28456913827654</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DX3" t="n">
         <v>73.09018036072143</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DY3" t="n">
         <v>72.89579158316633</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DZ3" t="n">
         <v>72.70140280561121</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="EA3" t="n">
         <v>72.5070140280561</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EB3" t="n">
         <v>72.312625250501</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EC3" t="n">
         <v>72.11823647294588</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="ED3" t="n">
         <v>71.92384769539078</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EE3" t="n">
         <v>71.72945891783567</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EF3" t="n">
         <v>71.53507014028055</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EG3" t="n">
         <v>71.34068136272545</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EH3" t="n">
         <v>71.14629258517033</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EI3" t="n">
         <v>70.95190380761522</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EJ3" t="n">
         <v>70.75751503006012</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EK3" t="n">
         <v>70.563126252505</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EL3" t="n">
         <v>70.3687374749499</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EM3" t="n">
         <v>70.17434869739478</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EN3" t="n">
         <v>69.97995991983967</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EO3" t="n">
         <v>69.78557114228457</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EP3" t="n">
         <v>69.59118236472945</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EQ3" t="n">
         <v>69.39679358717434</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="ER3" t="n">
         <v>69.20240480961924</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ES3" t="n">
         <v>69.00801603206412</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ET3" t="n">
         <v>68.81362725450902</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="EU3" t="n">
         <v>68.61923847695391</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EV3" t="n">
         <v>68.42484969939879</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EW3" t="n">
         <v>68.23046092184369</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EX3" t="n">
         <v>68.03607214428857</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EY3" t="n">
         <v>67.84168336673346</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EZ3" t="n">
         <v>67.64729458917836</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="FA3" t="n">
         <v>67.45290581162324</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FB3" t="n">
         <v>67.25851703406813</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FC3" t="n">
         <v>67.06412825651302</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FD3" t="n">
         <v>66.86973947895791</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FE3" t="n">
         <v>66.67535070140281</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FF3" t="n">
         <v>66.48096192384769</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FG3" t="n">
         <v>66.28657314629258</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FH3" t="n">
         <v>66.09218436873748</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FI3" t="n">
         <v>65.89779559118236</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FJ3" t="n">
         <v>65.70340681362725</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FK3" t="n">
         <v>65.50901803607215</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FL3" t="n">
         <v>65.31462925851703</v>
       </c>
-      <c r="FK3" t="n">
+      <c r="FM3" t="n">
         <v>65.12024048096193</v>
       </c>
-      <c r="FL3" t="n">
+      <c r="FN3" t="n">
         <v>64.92585170340681</v>
       </c>
-      <c r="FM3" t="n">
+      <c r="FO3" t="n">
         <v>64.7314629258517</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FP3" t="n">
         <v>64.5370741482966</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FQ3" t="n">
         <v>64.34268537074148</v>
       </c>
-      <c r="FP3" t="n">
+      <c r="FR3" t="n">
         <v>64.14829659318637</v>
       </c>
-      <c r="FQ3" t="n">
+      <c r="FS3" t="n">
         <v>63.95390781563126</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FT3" t="n">
         <v>63.75951903807615</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FU3" t="n">
         <v>63.56513026052104</v>
       </c>
-      <c r="FT3" t="n">
+      <c r="FV3" t="n">
         <v>63.37074148296593</v>
       </c>
-      <c r="FU3" t="n">
+      <c r="FW3" t="n">
         <v>63.17635270541082</v>
       </c>
-      <c r="FV3" t="n">
+      <c r="FX3" t="n">
         <v>62.98196392785571</v>
       </c>
-      <c r="FW3" t="n">
+      <c r="FY3" t="n">
         <v>62.7875751503006</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="FZ3" t="n">
         <v>62.59318637274549</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="GA3" t="n">
         <v>62.39879759519038</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GB3" t="n">
         <v>62.20440881763527</v>
       </c>
-      <c r="GA3" t="n">
+      <c r="GC3" t="n">
         <v>62.01002004008016</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GD3" t="n">
         <v>61.81563126252505</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GE3" t="n">
         <v>61.62124248496994</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GF3" t="n">
         <v>61.42685370741483</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GG3" t="n">
         <v>61.23246492985972</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GH3" t="n">
         <v>61.03807615230461</v>
       </c>
-      <c r="GG3" t="n">
+      <c r="GI3" t="n">
         <v>60.8436873747495</v>
       </c>
-      <c r="GH3" t="n">
+      <c r="GJ3" t="n">
         <v>60.64929859719439</v>
       </c>
-      <c r="GI3" t="n">
+      <c r="GK3" t="n">
         <v>60.45490981963928</v>
       </c>
-      <c r="GJ3" t="n">
+      <c r="GL3" t="n">
         <v>60.26052104208417</v>
       </c>
-      <c r="GK3" t="n">
+      <c r="GM3" t="n">
         <v>60.06613226452906</v>
       </c>
-      <c r="GL3" t="n">
+      <c r="GN3" t="n">
         <v>59.87174348697395</v>
       </c>
-      <c r="GM3" t="n">
+      <c r="GO3" t="n">
         <v>59.67735470941884</v>
       </c>
-      <c r="GN3" t="n">
+      <c r="GP3" t="n">
         <v>59.48296593186373</v>
       </c>
-      <c r="GO3" t="n">
+      <c r="GQ3" t="n">
         <v>59.28857715430862</v>
       </c>
-      <c r="GP3" t="n">
+      <c r="GR3" t="n">
         <v>59.09418837675351</v>
       </c>
-      <c r="GQ3" t="n">
+      <c r="GS3" t="n">
         <v>58.8997995991984</v>
       </c>
-      <c r="GR3" t="n">
+      <c r="GT3" t="n">
         <v>58.70541082164329</v>
       </c>
-      <c r="GS3" t="n">
+      <c r="GU3" t="n">
         <v>58.51102204408818</v>
       </c>
-      <c r="GT3" t="n">
+      <c r="GV3" t="n">
         <v>58.31663326653307</v>
       </c>
-      <c r="GU3" t="n">
+      <c r="GW3" t="n">
         <v>58.12224448897796</v>
       </c>
-      <c r="GV3" t="n">
+      <c r="GX3" t="n">
         <v>57.92785571142285</v>
       </c>
-      <c r="GW3" t="n">
+      <c r="GY3" t="n">
         <v>57.73346693386774</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="GZ3" t="n">
         <v>57.53907815631263</v>
       </c>
-      <c r="GY3" t="n">
+      <c r="HA3" t="n">
         <v>57.34468937875752</v>
       </c>
-      <c r="GZ3" t="n">
+      <c r="HB3" t="n">
         <v>57.15030060120241</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HC3" t="n">
         <v>56.9559118236473</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HD3" t="n">
         <v>56.76152304609219</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HE3" t="n">
         <v>56.56713426853707</v>
       </c>
-      <c r="HD3" t="n">
+      <c r="HF3" t="n">
         <v>56.37274549098197</v>
       </c>
-      <c r="HE3" t="n">
+      <c r="HG3" t="n">
         <v>56.17835671342686</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HH3" t="n">
         <v>55.98396793587175</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HI3" t="n">
         <v>55.78957915831664</v>
       </c>
-      <c r="HH3" t="n">
+      <c r="HJ3" t="n">
         <v>55.59519038076153</v>
       </c>
-      <c r="HI3" t="n">
+      <c r="HK3" t="n">
         <v>55.40080160320642</v>
       </c>
-      <c r="HJ3" t="n">
+      <c r="HL3" t="n">
         <v>55.20641282565131</v>
       </c>
-      <c r="HK3" t="n">
+      <c r="HM3" t="n">
         <v>55.01202404809619</v>
       </c>
-      <c r="HL3" t="n">
+      <c r="HN3" t="n">
         <v>54.81763527054109</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HO3" t="n">
         <v>54.62324649298598</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HP3" t="n">
         <v>54.42885771543087</v>
       </c>
-      <c r="HO3" t="n">
+      <c r="HQ3" t="n">
         <v>54.23446893787576</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HR3" t="n">
         <v>54.04008016032065</v>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HS3" t="n">
         <v>53.84569138276554</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HT3" t="n">
         <v>53.65130260521043</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HU3" t="n">
         <v>53.45691382765531</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HV3" t="n">
         <v>53.26252505010021</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HW3" t="n">
         <v>53.0681362725451</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HX3" t="n">
         <v>52.87374749498998</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HY3" t="n">
         <v>52.67935871743488</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HZ3" t="n">
         <v>52.48496993987977</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="IA3" t="n">
         <v>52.29058116232466</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="IB3" t="n">
         <v>52.09619238476954</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IC3" t="n">
         <v>51.90180360721443</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="ID3" t="n">
         <v>51.70741482965933</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="IE3" t="n">
         <v>51.51302605210422</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="IF3" t="n">
         <v>51.3186372745491</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IG3" t="n">
         <v>51.12424849699399</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IH3" t="n">
         <v>50.92985971943887</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="II3" t="n">
         <v>50.73547094188376</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="IJ3" t="n">
         <v>50.54108216432866</v>
       </c>
-      <c r="II3" t="n">
+      <c r="IK3" t="n">
         <v>50.34669338677354</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IL3" t="n">
         <v>50.15230460921843</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IM3" t="n">
         <v>49.95791583166332</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IN3" t="n">
         <v>49.76352705410822</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IO3" t="n">
         <v>49.5691382765531</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IP3" t="n">
         <v>49.37474949899799</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IQ3" t="n">
         <v>49.18036072144288</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IR3" t="n">
         <v>48.98597194388778</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IS3" t="n">
         <v>48.79158316633266</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IT3" t="n">
         <v>48.59719438877755</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IU3" t="n">
         <v>48.40280561122244</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IV3" t="n">
         <v>48.20841683366734</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IW3" t="n">
         <v>48.01402805611222</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IX3" t="n">
         <v>47.81963927855711</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IY3" t="n">
         <v>47.625250501002</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IZ3" t="n">
         <v>47.4308617234469</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="JA3" t="n">
         <v>47.23647294589178</v>
       </c>
-      <c r="IZ3" t="n">
+      <c r="JB3" t="n">
         <v>47.04208416833667</v>
       </c>
-      <c r="JA3" t="n">
+      <c r="JC3" t="n">
         <v>46.84769539078156</v>
       </c>
-      <c r="JB3" t="n">
+      <c r="JD3" t="n">
         <v>46.65330661322646</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JE3" t="n">
         <v>46.45891783567134</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JF3" t="n">
         <v>46.26452905811623</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JG3" t="n">
         <v>46.07014028056112</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JH3" t="n">
         <v>45.87575150300601</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JI3" t="n">
         <v>45.6813627254509</v>
       </c>
-      <c r="JH3" t="n">
+      <c r="JJ3" t="n">
         <v>45.48697394789579</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JK3" t="n">
         <v>45.29258517034068</v>
       </c>
-      <c r="JJ3" t="n">
+      <c r="JL3" t="n">
         <v>45.09819639278557</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JM3" t="n">
         <v>44.90380761523046</v>
       </c>
-      <c r="JL3" t="n">
+      <c r="JN3" t="n">
         <v>44.70941883767535</v>
       </c>
-      <c r="JM3" t="n">
+      <c r="JO3" t="n">
         <v>44.51503006012024</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JP3" t="n">
         <v>44.32064128256513</v>
       </c>
-      <c r="JO3" t="n">
+      <c r="JQ3" t="n">
         <v>44.12625250501002</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JR3" t="n">
         <v>43.93186372745491</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JS3" t="n">
         <v>43.7374749498998</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JT3" t="n">
         <v>43.54308617234469</v>
       </c>
-      <c r="JS3" t="n">
+      <c r="JU3" t="n">
         <v>43.34869739478958</v>
       </c>
-      <c r="JT3" t="n">
+      <c r="JV3" t="n">
         <v>43.15430861723447</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JW3" t="n">
         <v>42.95991983967936</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JX3" t="n">
         <v>42.76553106212425</v>
       </c>
-      <c r="JW3" t="n">
+      <c r="JY3" t="n">
         <v>42.57114228456914</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JZ3" t="n">
         <v>42.37675350701403</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="KA3" t="n">
         <v>42.18236472945892</v>
       </c>
-      <c r="JZ3" t="n">
+      <c r="KB3" t="n">
         <v>41.98797595190381</v>
       </c>
-      <c r="KA3" t="n">
+      <c r="KC3" t="n">
         <v>41.7935871743487</v>
       </c>
-      <c r="KB3" t="n">
+      <c r="KD3" t="n">
         <v>41.59919839679359</v>
       </c>
-      <c r="KC3" t="n">
+      <c r="KE3" t="n">
         <v>41.40480961923848</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KF3" t="n">
         <v>41.21042084168337</v>
       </c>
-      <c r="KE3" t="n">
+      <c r="KG3" t="n">
         <v>41.01603206412826</v>
       </c>
-      <c r="KF3" t="n">
+      <c r="KH3" t="n">
         <v>40.82164328657315</v>
       </c>
-      <c r="KG3" t="n">
+      <c r="KI3" t="n">
         <v>40.62725450901804</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KJ3" t="n">
         <v>40.43286573146293</v>
       </c>
-      <c r="KI3" t="n">
+      <c r="KK3" t="n">
         <v>40.23847695390782</v>
       </c>
-      <c r="KJ3" t="n">
+      <c r="KL3" t="n">
         <v>40.04408817635271</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KM3" t="n">
         <v>39.8496993987976</v>
       </c>
-      <c r="KL3" t="n">
+      <c r="KN3" t="n">
         <v>39.65531062124249</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KO3" t="n">
         <v>39.46092184368738</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KP3" t="n">
         <v>39.26653306613227</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KQ3" t="n">
         <v>39.07214428857716</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KR3" t="n">
         <v>38.87775551102204</v>
       </c>
-      <c r="KQ3" t="n">
+      <c r="KS3" t="n">
         <v>38.68336673346693</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KT3" t="n">
         <v>38.48897795591182</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KU3" t="n">
         <v>38.29458917835671</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KV3" t="n">
         <v>38.1002004008016</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KW3" t="n">
         <v>37.90581162324649</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KX3" t="n">
         <v>37.71142284569138</v>
       </c>
-      <c r="KW3" t="n">
+      <c r="KY3" t="n">
         <v>37.51703406813627</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KZ3" t="n">
         <v>37.32264529058116</v>
       </c>
-      <c r="KY3" t="n">
+      <c r="LA3" t="n">
         <v>37.12825651302605</v>
       </c>
-      <c r="KZ3" t="n">
+      <c r="LB3" t="n">
         <v>36.93386773547094</v>
       </c>
-      <c r="LA3" t="n">
+      <c r="LC3" t="n">
         <v>36.73947895791583</v>
       </c>
-      <c r="LB3" t="n">
+      <c r="LD3" t="n">
         <v>36.54509018036072</v>
       </c>
-      <c r="LC3" t="n">
+      <c r="LE3" t="n">
         <v>36.3507014028056</v>
       </c>
-      <c r="LD3" t="n">
+      <c r="LF3" t="n">
         <v>36.1563126252505</v>
       </c>
-      <c r="LE3" t="n">
+      <c r="LG3" t="n">
         <v>35.96192384769539</v>
       </c>
-      <c r="LF3" t="n">
+      <c r="LH3" t="n">
         <v>35.76753507014028</v>
       </c>
-      <c r="LG3" t="n">
+      <c r="LI3" t="n">
         <v>35.57314629258516</v>
       </c>
-      <c r="LH3" t="n">
+      <c r="LJ3" t="n">
         <v>35.37875751503006</v>
       </c>
-      <c r="LI3" t="n">
+      <c r="LK3" t="n">
         <v>35.18436873747495</v>
       </c>
-      <c r="LJ3" t="n">
+      <c r="LL3" t="n">
         <v>34.98997995991984</v>
       </c>
-      <c r="LK3" t="n">
+      <c r="LM3" t="n">
         <v>34.79559118236472</v>
       </c>
-      <c r="LL3" t="n">
+      <c r="LN3" t="n">
         <v>34.60120240480962</v>
       </c>
-      <c r="LM3" t="n">
+      <c r="LO3" t="n">
         <v>34.40681362725451</v>
       </c>
-      <c r="LN3" t="n">
+      <c r="LP3" t="n">
         <v>34.2124248496994</v>
       </c>
-      <c r="LO3" t="n">
+      <c r="LQ3" t="n">
         <v>34.01803607214428</v>
       </c>
-      <c r="LP3" t="n">
+      <c r="LR3" t="n">
         <v>33.82364729458918</v>
       </c>
-      <c r="LQ3" t="n">
+      <c r="LS3" t="n">
         <v>33.62925851703407</v>
       </c>
-      <c r="LR3" t="n">
+      <c r="LT3" t="n">
         <v>33.43486973947896</v>
       </c>
-      <c r="LS3" t="n">
+      <c r="LU3" t="n">
         <v>33.24048096192384</v>
       </c>
-      <c r="LT3" t="n">
+      <c r="LV3" t="n">
         <v>33.04609218436874</v>
       </c>
-      <c r="LU3" t="n">
+      <c r="LW3" t="n">
         <v>32.85170340681363</v>
       </c>
-      <c r="LV3" t="n">
+      <c r="LX3" t="n">
         <v>32.65731462925852</v>
       </c>
-      <c r="LW3" t="n">
+      <c r="LY3" t="n">
         <v>32.4629258517034</v>
       </c>
-      <c r="LX3" t="n">
+      <c r="LZ3" t="n">
         <v>32.2685370741483</v>
       </c>
-      <c r="LY3" t="n">
+      <c r="MA3" t="n">
         <v>32.07414829659319</v>
       </c>
-      <c r="LZ3" t="n">
+      <c r="MB3" t="n">
         <v>31.87975951903807</v>
       </c>
-      <c r="MA3" t="n">
+      <c r="MC3" t="n">
         <v>31.68537074148297</v>
       </c>
-      <c r="MB3" t="n">
+      <c r="MD3" t="n">
         <v>31.49098196392785</v>
       </c>
-      <c r="MC3" t="n">
+      <c r="ME3" t="n">
         <v>31.29659318637275</v>
       </c>
-      <c r="MD3" t="n">
+      <c r="MF3" t="n">
         <v>31.10220440881763</v>
       </c>
-      <c r="ME3" t="n">
+      <c r="MG3" t="n">
         <v>30.90781563126253</v>
       </c>
-      <c r="MF3" t="n">
+      <c r="MH3" t="n">
         <v>30.71342685370741</v>
       </c>
-      <c r="MG3" t="n">
+      <c r="MI3" t="n">
         <v>30.51903807615231</v>
       </c>
-      <c r="MH3" t="n">
+      <c r="MJ3" t="n">
         <v>30.32464929859719</v>
       </c>
-      <c r="MI3" t="n">
+      <c r="MK3" t="n">
         <v>30.13026052104209</v>
       </c>
-      <c r="MJ3" t="n">
+      <c r="ML3" t="n">
         <v>29.93587174348697</v>
       </c>
-      <c r="MK3" t="n">
+      <c r="MM3" t="n">
         <v>29.74148296593187</v>
       </c>
-      <c r="ML3" t="n">
+      <c r="MN3" t="n">
         <v>29.54709418837675</v>
       </c>
-      <c r="MM3" t="n">
+      <c r="MO3" t="n">
         <v>29.35270541082165</v>
       </c>
-      <c r="MN3" t="n">
+      <c r="MP3" t="n">
         <v>29.15831663326653</v>
       </c>
-      <c r="MO3" t="n">
+      <c r="MQ3" t="n">
         <v>28.96392785571143</v>
       </c>
-      <c r="MP3" t="n">
+      <c r="MR3" t="n">
         <v>28.76953907815631</v>
       </c>
-      <c r="MQ3" t="n">
+      <c r="MS3" t="n">
         <v>28.57515030060121</v>
       </c>
-      <c r="MR3" t="n">
+      <c r="MT3" t="n">
         <v>28.38076152304609</v>
       </c>
-      <c r="MS3" t="n">
+      <c r="MU3" t="n">
         <v>28.18637274549098</v>
       </c>
-      <c r="MT3" t="n">
+      <c r="MV3" t="n">
         <v>27.99198396793587</v>
       </c>
-      <c r="MU3" t="n">
+      <c r="MW3" t="n">
         <v>27.79759519038076</v>
       </c>
-      <c r="MV3" t="n">
+      <c r="MX3" t="n">
         <v>27.60320641282565</v>
       </c>
-      <c r="MW3" t="n">
+      <c r="MY3" t="n">
         <v>27.40881763527054</v>
       </c>
-      <c r="MX3" t="n">
+      <c r="MZ3" t="n">
         <v>27.21442885771543</v>
       </c>
-      <c r="MY3" t="n">
+      <c r="NA3" t="n">
         <v>27.02004008016032</v>
       </c>
-      <c r="MZ3" t="n">
+      <c r="NB3" t="n">
         <v>26.82565130260521</v>
       </c>
-      <c r="NA3" t="n">
+      <c r="NC3" t="n">
         <v>26.6312625250501</v>
       </c>
-      <c r="NB3" t="n">
+      <c r="ND3" t="n">
         <v>26.43687374749499</v>
       </c>
-      <c r="NC3" t="n">
+      <c r="NE3" t="n">
         <v>26.24248496993988</v>
       </c>
-      <c r="ND3" t="n">
+      <c r="NF3" t="n">
         <v>26.04809619238477</v>
       </c>
-      <c r="NE3" t="n">
+      <c r="NG3" t="n">
         <v>25.85370741482966</v>
       </c>
-      <c r="NF3" t="n">
+      <c r="NH3" t="n">
         <v>25.65931863727455</v>
       </c>
-      <c r="NG3" t="n">
+      <c r="NI3" t="n">
         <v>25.46492985971944</v>
       </c>
-      <c r="NH3" t="n">
+      <c r="NJ3" t="n">
         <v>25.27054108216433</v>
       </c>
-      <c r="NI3" t="n">
+      <c r="NK3" t="n">
         <v>25.07615230460922</v>
       </c>
-      <c r="NJ3" t="n">
+      <c r="NL3" t="n">
         <v>24.88176352705411</v>
       </c>
-      <c r="NK3" t="n">
+      <c r="NM3" t="n">
         <v>24.687374749499</v>
       </c>
-      <c r="NL3" t="n">
+      <c r="NN3" t="n">
         <v>24.49298597194389</v>
       </c>
-      <c r="NM3" t="n">
+      <c r="NO3" t="n">
         <v>24.29859719438878</v>
       </c>
-      <c r="NN3" t="n">
+      <c r="NP3" t="n">
         <v>24.10420841683367</v>
       </c>
-      <c r="NO3" t="n">
+      <c r="NQ3" t="n">
         <v>23.90981963927856</v>
       </c>
-      <c r="NP3" t="n">
+      <c r="NR3" t="n">
         <v>23.71543086172345</v>
       </c>
-      <c r="NQ3" t="n">
+      <c r="NS3" t="n">
         <v>23.52104208416834</v>
       </c>
-      <c r="NR3" t="n">
+      <c r="NT3" t="n">
         <v>23.32665330661323</v>
       </c>
-      <c r="NS3" t="n">
+      <c r="NU3" t="n">
         <v>23.13226452905812</v>
       </c>
-      <c r="NT3" t="n">
+      <c r="NV3" t="n">
         <v>22.93787575150301</v>
       </c>
-      <c r="NU3" t="n">
+      <c r="NW3" t="n">
         <v>22.7434869739479</v>
       </c>
-      <c r="NV3" t="n">
+      <c r="NX3" t="n">
         <v>22.54909819639279</v>
       </c>
-      <c r="NW3" t="n">
+      <c r="NY3" t="n">
         <v>22.35470941883768</v>
       </c>
-      <c r="NX3" t="n">
+      <c r="NZ3" t="n">
         <v>22.16032064128256</v>
       </c>
-      <c r="NY3" t="n">
+      <c r="OA3" t="n">
         <v>21.96593186372745</v>
       </c>
-      <c r="NZ3" t="n">
+      <c r="OB3" t="n">
         <v>21.77154308617234</v>
       </c>
-      <c r="OA3" t="n">
+      <c r="OC3" t="n">
         <v>21.57715430861723</v>
       </c>
-      <c r="OB3" t="n">
+      <c r="OD3" t="n">
         <v>21.38276553106212</v>
       </c>
-      <c r="OC3" t="n">
+      <c r="OE3" t="n">
         <v>21.18837675350701</v>
       </c>
-      <c r="OD3" t="n">
+      <c r="OF3" t="n">
         <v>20.9939879759519</v>
       </c>
-      <c r="OE3" t="n">
+      <c r="OG3" t="n">
         <v>20.79959919839679</v>
       </c>
-      <c r="OF3" t="n">
+      <c r="OH3" t="n">
         <v>20.60521042084168</v>
       </c>
-      <c r="OG3" t="n">
+      <c r="OI3" t="n">
         <v>20.41082164328657</v>
       </c>
-      <c r="OH3" t="n">
+      <c r="OJ3" t="n">
         <v>20.21643286573146</v>
       </c>
-      <c r="OI3" t="n">
+      <c r="OK3" t="n">
         <v>20.02204408817635</v>
       </c>
-      <c r="OJ3" t="n">
+      <c r="OL3" t="n">
         <v>19.82765531062124</v>
       </c>
-      <c r="OK3" t="n">
+      <c r="OM3" t="n">
         <v>19.63326653306613</v>
       </c>
-      <c r="OL3" t="n">
+      <c r="ON3" t="n">
         <v>19.43887775551102</v>
       </c>
-      <c r="OM3" t="n">
+      <c r="OO3" t="n">
         <v>19.24448897795591</v>
       </c>
-      <c r="ON3" t="n">
+      <c r="OP3" t="n">
         <v>19.0501002004008</v>
       </c>
-      <c r="OO3" t="n">
+      <c r="OQ3" t="n">
         <v>18.85571142284569</v>
       </c>
-      <c r="OP3" t="n">
+      <c r="OR3" t="n">
         <v>18.66132264529058</v>
       </c>
-      <c r="OQ3" t="n">
+      <c r="OS3" t="n">
         <v>18.46693386773547</v>
       </c>
-      <c r="OR3" t="n">
+      <c r="OT3" t="n">
         <v>18.27254509018036</v>
       </c>
-      <c r="OS3" t="n">
+      <c r="OU3" t="n">
         <v>18.07815631262525</v>
       </c>
-      <c r="OT3" t="n">
+      <c r="OV3" t="n">
         <v>17.88376753507014</v>
       </c>
-      <c r="OU3" t="n">
+      <c r="OW3" t="n">
         <v>17.68937875751503</v>
       </c>
-      <c r="OV3" t="n">
+      <c r="OX3" t="n">
         <v>17.49498997995992</v>
       </c>
-      <c r="OW3" t="n">
+      <c r="OY3" t="n">
         <v>17.30060120240481</v>
       </c>
-      <c r="OX3" t="n">
+      <c r="OZ3" t="n">
         <v>17.1062124248497</v>
       </c>
-      <c r="OY3" t="n">
+      <c r="PA3" t="n">
         <v>16.91182364729459</v>
       </c>
-      <c r="OZ3" t="n">
+      <c r="PB3" t="n">
         <v>16.71743486973948</v>
       </c>
-      <c r="PA3" t="n">
+      <c r="PC3" t="n">
         <v>16.52304609218437</v>
       </c>
-      <c r="PB3" t="n">
+      <c r="PD3" t="n">
         <v>16.32865731462926</v>
       </c>
-      <c r="PC3" t="n">
+      <c r="PE3" t="n">
         <v>16.13426853707415</v>
       </c>
-      <c r="PD3" t="n">
+      <c r="PF3" t="n">
         <v>15.93987975951904</v>
       </c>
-      <c r="PE3" t="n">
+      <c r="PG3" t="n">
         <v>15.74549098196393</v>
       </c>
-      <c r="PF3" t="n">
+      <c r="PH3" t="n">
         <v>15.55110220440882</v>
       </c>
-      <c r="PG3" t="n">
+      <c r="PI3" t="n">
         <v>15.35671342685371</v>
       </c>
-      <c r="PH3" t="n">
+      <c r="PJ3" t="n">
         <v>15.1623246492986</v>
       </c>
-      <c r="PI3" t="n">
+      <c r="PK3" t="n">
         <v>14.96793587174349</v>
       </c>
-      <c r="PJ3" t="n">
+      <c r="PL3" t="n">
         <v>14.77354709418838</v>
       </c>
-      <c r="PK3" t="n">
+      <c r="PM3" t="n">
         <v>14.57915831663327</v>
       </c>
-      <c r="PL3" t="n">
+      <c r="PN3" t="n">
         <v>14.38476953907816</v>
       </c>
-      <c r="PM3" t="n">
+      <c r="PO3" t="n">
         <v>14.19038076152305</v>
       </c>
-      <c r="PN3" t="n">
+      <c r="PP3" t="n">
         <v>13.99599198396794</v>
       </c>
-      <c r="PO3" t="n">
+      <c r="PQ3" t="n">
         <v>13.80160320641283</v>
       </c>
-      <c r="PP3" t="n">
+      <c r="PR3" t="n">
         <v>13.60721442885772</v>
       </c>
-      <c r="PQ3" t="n">
+      <c r="PS3" t="n">
         <v>13.41282565130261</v>
       </c>
-      <c r="PR3" t="n">
+      <c r="PT3" t="n">
         <v>13.2184368737475</v>
       </c>
-      <c r="PS3" t="n">
+      <c r="PU3" t="n">
         <v>13.02404809619239</v>
       </c>
-      <c r="PT3" t="n">
+      <c r="PV3" t="n">
         <v>12.82965931863728</v>
       </c>
-      <c r="PU3" t="n">
+      <c r="PW3" t="n">
         <v>12.63527054108217</v>
       </c>
-      <c r="PV3" t="n">
+      <c r="PX3" t="n">
         <v>12.44088176352706</v>
       </c>
-      <c r="PW3" t="n">
+      <c r="PY3" t="n">
         <v>12.24649298597195</v>
       </c>
-      <c r="PX3" t="n">
+      <c r="PZ3" t="n">
         <v>12.05210420841684</v>
       </c>
-      <c r="PY3" t="n">
+      <c r="QA3" t="n">
         <v>11.85771543086173</v>
       </c>
-      <c r="PZ3" t="n">
+      <c r="QB3" t="n">
         <v>11.66332665330662</v>
       </c>
-      <c r="QA3" t="n">
+      <c r="QC3" t="n">
         <v>11.46893787575151</v>
       </c>
-      <c r="QB3" t="n">
+      <c r="QD3" t="n">
         <v>11.2745490981964</v>
       </c>
-      <c r="QC3" t="n">
+      <c r="QE3" t="n">
         <v>11.08016032064129</v>
       </c>
-      <c r="QD3" t="n">
+      <c r="QF3" t="n">
         <v>10.88577154308618</v>
       </c>
-      <c r="QE3" t="n">
+      <c r="QG3" t="n">
         <v>10.69138276553107</v>
       </c>
-      <c r="QF3" t="n">
+      <c r="QH3" t="n">
         <v>10.49699398797596</v>
       </c>
-      <c r="QG3" t="n">
+      <c r="QI3" t="n">
         <v>10.30260521042084</v>
       </c>
-      <c r="QH3" t="n">
+      <c r="QJ3" t="n">
         <v>10.10821643286573</v>
       </c>
-      <c r="QI3" t="n">
+      <c r="QK3" t="n">
         <v>9.913827655310625</v>
       </c>
-      <c r="QJ3" t="n">
+      <c r="QL3" t="n">
         <v>9.719438877755515</v>
       </c>
-      <c r="QK3" t="n">
+      <c r="QM3" t="n">
         <v>9.525050100200405</v>
       </c>
-      <c r="QL3" t="n">
+      <c r="QN3" t="n">
         <v>9.330661322645295</v>
       </c>
-      <c r="QM3" t="n">
+      <c r="QO3" t="n">
         <v>9.136272545090184</v>
       </c>
-      <c r="QN3" t="n">
+      <c r="QP3" t="n">
         <v>8.941883767535074</v>
       </c>
-      <c r="QO3" t="n">
+      <c r="QQ3" t="n">
         <v>8.747494989979964</v>
       </c>
-      <c r="QP3" t="n">
+      <c r="QR3" t="n">
         <v>8.553106212424854</v>
       </c>
-      <c r="QQ3" t="n">
+      <c r="QS3" t="n">
         <v>8.358717434869744</v>
       </c>
-      <c r="QR3" t="n">
+      <c r="QT3" t="n">
         <v>8.164328657314634</v>
       </c>
-      <c r="QS3" t="n">
+      <c r="QU3" t="n">
         <v>7.969939879759524</v>
       </c>
-      <c r="QT3" t="n">
+      <c r="QV3" t="n">
         <v>7.775551102204414</v>
       </c>
-      <c r="QU3" t="n">
+      <c r="QW3" t="n">
         <v>7.581162324649304</v>
       </c>
-      <c r="QV3" t="n">
+      <c r="QX3" t="n">
         <v>7.386773547094194</v>
       </c>
-      <c r="QW3" t="n">
+      <c r="QY3" t="n">
         <v>7.192384769539084</v>
       </c>
-      <c r="QX3" t="n">
+      <c r="QZ3" t="n">
         <v>6.997995991983974</v>
       </c>
-      <c r="QY3" t="n">
+      <c r="RA3" t="n">
         <v>6.803607214428864</v>
       </c>
-      <c r="QZ3" t="n">
+      <c r="RB3" t="n">
         <v>6.609218436873753</v>
       </c>
-      <c r="RA3" t="n">
+      <c r="RC3" t="n">
         <v>6.414829659318643</v>
       </c>
-      <c r="RB3" t="n">
+      <c r="RD3" t="n">
         <v>6.220440881763533</v>
       </c>
-      <c r="RC3" t="n">
+      <c r="RE3" t="n">
         <v>6.026052104208423</v>
       </c>
-      <c r="RD3" t="n">
+      <c r="RF3" t="n">
         <v>5.831663326653313</v>
       </c>
-      <c r="RE3" t="n">
+      <c r="RG3" t="n">
         <v>5.637274549098192</v>
       </c>
-      <c r="RF3" t="n">
+      <c r="RH3" t="n">
         <v>5.442885771543082</v>
       </c>
-      <c r="RG3" t="n">
+      <c r="RI3" t="n">
         <v>5.248496993987972</v>
       </c>
-      <c r="RH3" t="n">
+      <c r="RJ3" t="n">
         <v>5.054108216432862</v>
       </c>
-      <c r="RI3" t="n">
+      <c r="RK3" t="n">
         <v>4.859719438877752</v>
       </c>
-      <c r="RJ3" t="n">
+      <c r="RL3" t="n">
         <v>4.665330661322642</v>
       </c>
-      <c r="RK3" t="n">
+      <c r="RM3" t="n">
         <v>4.470941883767532</v>
       </c>
-      <c r="RL3" t="n">
+      <c r="RN3" t="n">
         <v>4.276553106212422</v>
       </c>
-      <c r="RM3" t="n">
+      <c r="RO3" t="n">
         <v>4.082164328657312</v>
       </c>
-      <c r="RN3" t="n">
+      <c r="RP3" t="n">
         <v>3.887775551102202</v>
       </c>
-      <c r="RO3" t="n">
+      <c r="RQ3" t="n">
         <v>3.693386773547092</v>
       </c>
-      <c r="RP3" t="n">
+      <c r="RR3" t="n">
         <v>3.498997995991981</v>
       </c>
-      <c r="RQ3" t="n">
+      <c r="RS3" t="n">
         <v>3.304609218436871</v>
       </c>
-      <c r="RR3" t="n">
+      <c r="RT3" t="n">
         <v>3.110220440881761</v>
       </c>
-      <c r="RS3" t="n">
+      <c r="RU3" t="n">
         <v>2.915831663326651</v>
       </c>
-      <c r="RT3" t="n">
+      <c r="RV3" t="n">
         <v>2.721442885771541</v>
       </c>
-      <c r="RU3" t="n">
+      <c r="RW3" t="n">
         <v>2.527054108216431</v>
       </c>
-      <c r="RV3" t="n">
+      <c r="RX3" t="n">
         <v>2.332665330661321</v>
       </c>
-      <c r="RW3" t="n">
+      <c r="RY3" t="n">
         <v>2.138276553106211</v>
       </c>
-      <c r="RX3" t="n">
+      <c r="RZ3" t="n">
         <v>1.943887775551101</v>
       </c>
-      <c r="RY3" t="n">
+      <c r="SA3" t="n">
         <v>1.749498997995991</v>
       </c>
-      <c r="RZ3" t="n">
+      <c r="SB3" t="n">
         <v>1.555110220440881</v>
       </c>
-      <c r="SA3" t="n">
+      <c r="SC3" t="n">
         <v>1.360721442885771</v>
       </c>
-      <c r="SB3" t="n">
+      <c r="SD3" t="n">
         <v>1.16633266533066</v>
       </c>
-      <c r="SC3" t="n">
+      <c r="SE3" t="n">
         <v>0.9719438877755504</v>
       </c>
-      <c r="SD3" t="n">
+      <c r="SF3" t="n">
         <v>0.7775551102204403</v>
       </c>
-      <c r="SE3" t="n">
+      <c r="SG3" t="n">
         <v>0.5831663326653302</v>
       </c>
-      <c r="SF3" t="n">
+      <c r="SH3" t="n">
         <v>0.3887775551102202</v>
       </c>
-      <c r="SG3" t="n">
+      <c r="SI3" t="n">
         <v>0.1943887775551101</v>
       </c>
-      <c r="SH3" t="n">
+      <c r="SJ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4967,1503 +4985,1509 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
+        <v>-2.602168995290593</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.67169090774185</v>
+      </c>
+      <c r="E4" t="n">
         <v>97</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>95.80360721442885</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>94.60721442885772</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>93.41082164328657</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>92.21442885771542</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>91.01803607214428</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>89.82164328657313</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>88.625250501002</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>87.42885771543087</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>86.23246492985972</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>85.03607214428858</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>83.83967935871743</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>82.64328657314628</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>81.44689378757515</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>80.250501002004</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>79.05410821643287</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>77.85771543086172</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>76.66132264529057</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>75.46492985971945</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>74.26853707414828</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>73.07214428857716</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>71.875751503006</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>70.67935871743487</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>69.48296593186373</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>68.28657314629258</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>67.09018036072145</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>65.8937875751503</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>64.69739478957915</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>63.50100200400801</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>62.30460921843688</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>61.10821643286572</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>59.9118236472946</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>58.71543086172344</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>57.51903807615231</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>56.32264529058115</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="n">
         <v>55.12625250501002</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
         <v>53.92985971943888</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
         <v>52.73346693386773</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
         <v>51.53707414829659</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>50.34068136272545</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AS4" t="n">
         <v>49.14428857715431</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AT4" t="n">
         <v>47.94789579158316</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AU4" t="n">
         <v>46.75150300601202</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AV4" t="n">
         <v>45.55511022044087</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AW4" t="n">
         <v>44.35871743486973</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AX4" t="n">
         <v>43.1623246492986</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AY4" t="n">
         <v>41.96593186372746</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AZ4" t="n">
         <v>40.76953907815631</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="BA4" t="n">
         <v>39.57314629258517</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BB4" t="n">
         <v>38.37675350701403</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BC4" t="n">
         <v>37.18036072144288</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BD4" t="n">
         <v>35.98396793587174</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BE4" t="n">
         <v>34.7875751503006</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BF4" t="n">
         <v>33.59118236472946</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BG4" t="n">
         <v>32.39478957915831</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BH4" t="n">
         <v>31.19839679358717</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BI4" t="n">
         <v>30.00200400801603</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BJ4" t="n">
         <v>28.80561122244488</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BK4" t="n">
         <v>27.60921843687375</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BL4" t="n">
         <v>26.41282565130261</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BM4" t="n">
         <v>25.21643286573146</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BN4" t="n">
         <v>24.02004008016032</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BO4" t="n">
         <v>22.82364729458918</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BP4" t="n">
         <v>21.62725450901803</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BQ4" t="n">
         <v>20.43086172344689</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BR4" t="n">
         <v>19.23446893787575</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BS4" t="n">
         <v>18.0380761523046</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BT4" t="n">
         <v>16.84168336673346</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BU4" t="n">
         <v>15.64529058116232</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BV4" t="n">
         <v>14.44889779559118</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BW4" t="n">
         <v>13.25250501002003</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BX4" t="n">
         <v>12.0561122244489</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BY4" t="n">
         <v>10.85971943887776</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BZ4" t="n">
         <v>9.663326653306614</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CA4" t="n">
         <v>8.46693386773547</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CB4" t="n">
         <v>7.270541082164328</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CC4" t="n">
         <v>6.074148296593185</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CD4" t="n">
         <v>4.877755511022041</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CE4" t="n">
         <v>3.681362725450898</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CF4" t="n">
         <v>2.484969939879755</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CG4" t="n">
         <v>1.288577154308612</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CH4" t="n">
         <v>0.09218436873746905</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CI4" t="n">
         <v>-1.104208416833674</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CJ4" t="n">
         <v>-2.300601202404817</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CK4" t="n">
         <v>-3.49699398797596</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CL4" t="n">
         <v>-4.693386773547092</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CM4" t="n">
         <v>-5.889779559118247</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CN4" t="n">
         <v>-7.086172344689379</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CO4" t="n">
         <v>-8.282565130260533</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CP4" t="n">
         <v>-9.478957915831664</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CQ4" t="n">
         <v>-10.6753507014028</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CR4" t="n">
         <v>-11.87174348697395</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CS4" t="n">
         <v>-13.06813627254508</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CT4" t="n">
         <v>-14.26452905811624</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CU4" t="n">
         <v>-15.46092184368737</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CV4" t="n">
         <v>-16.65731462925852</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CW4" t="n">
         <v>-17.85370741482966</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="CX4" t="n">
         <v>-19.05010020040081</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CY4" t="n">
         <v>-20.24649298597194</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CZ4" t="n">
         <v>-21.4428857715431</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="DA4" t="n">
         <v>-22.63927855711423</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DB4" t="n">
         <v>-23.83567134268538</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DC4" t="n">
         <v>-25.03206412825651</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DD4" t="n">
         <v>-26.22845691382765</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DE4" t="n">
         <v>-27.4248496993988</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DF4" t="n">
         <v>-28.62124248496993</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DG4" t="n">
         <v>-29.81763527054109</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DH4" t="n">
         <v>-31.01402805611222</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DI4" t="n">
         <v>-32.21042084168337</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DJ4" t="n">
         <v>-33.40681362725451</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DK4" t="n">
         <v>-34.60320641282566</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DL4" t="n">
         <v>-35.79959919839679</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DM4" t="n">
         <v>-36.99599198396795</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DN4" t="n">
         <v>-38.19238476953907</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DO4" t="n">
         <v>-39.38877755511023</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DP4" t="n">
         <v>-40.58517034068137</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DQ4" t="n">
         <v>-41.78156312625249</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DR4" t="n">
         <v>-42.97795591182365</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DS4" t="n">
         <v>-44.17434869739478</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DT4" t="n">
         <v>-45.37074148296594</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DU4" t="n">
         <v>-46.56713426853707</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DV4" t="n">
         <v>-47.76352705410822</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DW4" t="n">
         <v>-48.95991983967936</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DX4" t="n">
         <v>-50.15631262525051</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DY4" t="n">
         <v>-51.35270541082164</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DZ4" t="n">
         <v>-52.5490981963928</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="EA4" t="n">
         <v>-53.74549098196393</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EB4" t="n">
         <v>-54.94188376753508</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EC4" t="n">
         <v>-56.13827655310622</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="ED4" t="n">
         <v>-57.33466933867734</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EE4" t="n">
         <v>-58.5310621242485</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EF4" t="n">
         <v>-59.72745490981963</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EG4" t="n">
         <v>-60.92384769539079</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EH4" t="n">
         <v>-62.12024048096192</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EI4" t="n">
         <v>-63.31663326653307</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EJ4" t="n">
         <v>-64.51302605210421</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EK4" t="n">
         <v>-65.70941883767536</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EL4" t="n">
         <v>-66.90581162324649</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EM4" t="n">
         <v>-68.10220440881764</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EN4" t="n">
         <v>-69.29859719438878</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EO4" t="n">
         <v>-70.49498997995994</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EP4" t="n">
         <v>-71.69138276553106</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EQ4" t="n">
         <v>-72.88777555110219</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="ER4" t="n">
         <v>-74.08416833667334</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ES4" t="n">
         <v>-75.28056112224448</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ET4" t="n">
         <v>-76.47695390781564</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="EU4" t="n">
         <v>-77.67334669338678</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EV4" t="n">
         <v>-78.86973947895792</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EW4" t="n">
         <v>-80.06613226452906</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EX4" t="n">
         <v>-81.26252505010021</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EY4" t="n">
         <v>-82.45891783567134</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EZ4" t="n">
         <v>-83.65531062124249</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="FA4" t="n">
         <v>-84.85170340681363</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FB4" t="n">
         <v>-86.04809619238478</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FC4" t="n">
         <v>-87.24448897795591</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FD4" t="n">
         <v>-88.44088176352705</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FE4" t="n">
         <v>-89.63727454909819</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FF4" t="n">
         <v>-90.83366733466933</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FG4" t="n">
         <v>-92.03006012024049</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="FH4" t="n">
         <v>-93.22645290581161</v>
       </c>
-      <c r="FG4" t="n">
+      <c r="FI4" t="n">
         <v>-94.42284569138278</v>
       </c>
-      <c r="FH4" t="n">
+      <c r="FJ4" t="n">
         <v>-95.61923847695391</v>
       </c>
-      <c r="FI4" t="n">
+      <c r="FK4" t="n">
         <v>-96.81563126252506</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FL4" t="n">
         <v>-98.01202404809619</v>
       </c>
-      <c r="FK4" t="n">
+      <c r="FM4" t="n">
         <v>-99.20841683366734</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FN4" t="n">
         <v>-100.4048096192385</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FO4" t="n">
         <v>-101.6012024048096</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FP4" t="n">
         <v>-102.7975951903808</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FQ4" t="n">
         <v>-103.9939879759519</v>
       </c>
-      <c r="FP4" t="n">
+      <c r="FR4" t="n">
         <v>-105.190380761523</v>
       </c>
-      <c r="FQ4" t="n">
+      <c r="FS4" t="n">
         <v>-106.3867735470942</v>
       </c>
-      <c r="FR4" t="n">
+      <c r="FT4" t="n">
         <v>-107.5831663326653</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FU4" t="n">
         <v>-108.7795591182365</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FV4" t="n">
         <v>-109.9759519038076</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FW4" t="n">
         <v>-111.1723446893788</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="FX4" t="n">
         <v>-112.3687374749499</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="FY4" t="n">
         <v>-113.5651302605211</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="FZ4" t="n">
         <v>-114.7615230460922</v>
       </c>
-      <c r="FY4" t="n">
+      <c r="GA4" t="n">
         <v>-115.9579158316633</v>
       </c>
-      <c r="FZ4" t="n">
+      <c r="GB4" t="n">
         <v>-117.1543086172345</v>
       </c>
-      <c r="GA4" t="n">
+      <c r="GC4" t="n">
         <v>-118.3507014028056</v>
       </c>
-      <c r="GB4" t="n">
+      <c r="GD4" t="n">
         <v>-119.5470941883767</v>
       </c>
-      <c r="GC4" t="n">
+      <c r="GE4" t="n">
         <v>-120.7434869739479</v>
       </c>
-      <c r="GD4" t="n">
+      <c r="GF4" t="n">
         <v>-121.9398797595191</v>
       </c>
-      <c r="GE4" t="n">
+      <c r="GG4" t="n">
         <v>-123.1362725450902</v>
       </c>
-      <c r="GF4" t="n">
+      <c r="GH4" t="n">
         <v>-124.3326653306613</v>
       </c>
-      <c r="GG4" t="n">
+      <c r="GI4" t="n">
         <v>-125.5290581162325</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GJ4" t="n">
         <v>-126.7254509018036</v>
       </c>
-      <c r="GI4" t="n">
+      <c r="GK4" t="n">
         <v>-127.9218436873747</v>
       </c>
-      <c r="GJ4" t="n">
+      <c r="GL4" t="n">
         <v>-129.1182364729459</v>
       </c>
-      <c r="GK4" t="n">
+      <c r="GM4" t="n">
         <v>-130.314629258517</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GN4" t="n">
         <v>-131.5110220440882</v>
       </c>
-      <c r="GM4" t="n">
+      <c r="GO4" t="n">
         <v>-132.7074148296593</v>
       </c>
-      <c r="GN4" t="n">
+      <c r="GP4" t="n">
         <v>-133.9038076152305</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="GQ4" t="n">
         <v>-135.1002004008016</v>
       </c>
-      <c r="GP4" t="n">
+      <c r="GR4" t="n">
         <v>-136.2965931863727</v>
       </c>
-      <c r="GQ4" t="n">
+      <c r="GS4" t="n">
         <v>-137.4929859719439</v>
       </c>
-      <c r="GR4" t="n">
+      <c r="GT4" t="n">
         <v>-138.689378757515</v>
       </c>
-      <c r="GS4" t="n">
+      <c r="GU4" t="n">
         <v>-139.8857715430862</v>
       </c>
-      <c r="GT4" t="n">
+      <c r="GV4" t="n">
         <v>-141.0821643286573</v>
       </c>
-      <c r="GU4" t="n">
+      <c r="GW4" t="n">
         <v>-142.2785571142284</v>
       </c>
-      <c r="GV4" t="n">
+      <c r="GX4" t="n">
         <v>-143.4749498997996</v>
       </c>
-      <c r="GW4" t="n">
+      <c r="GY4" t="n">
         <v>-144.6713426853708</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="GZ4" t="n">
         <v>-145.8677354709419</v>
       </c>
-      <c r="GY4" t="n">
+      <c r="HA4" t="n">
         <v>-147.064128256513</v>
       </c>
-      <c r="GZ4" t="n">
+      <c r="HB4" t="n">
         <v>-148.2605210420842</v>
       </c>
-      <c r="HA4" t="n">
+      <c r="HC4" t="n">
         <v>-149.4569138276553</v>
       </c>
-      <c r="HB4" t="n">
+      <c r="HD4" t="n">
         <v>-150.6533066132264</v>
       </c>
-      <c r="HC4" t="n">
+      <c r="HE4" t="n">
         <v>-151.8496993987976</v>
       </c>
-      <c r="HD4" t="n">
+      <c r="HF4" t="n">
         <v>-153.0460921843687</v>
       </c>
-      <c r="HE4" t="n">
+      <c r="HG4" t="n">
         <v>-154.2424849699399</v>
       </c>
-      <c r="HF4" t="n">
+      <c r="HH4" t="n">
         <v>-155.438877755511</v>
       </c>
-      <c r="HG4" t="n">
+      <c r="HI4" t="n">
         <v>-156.6352705410822</v>
       </c>
-      <c r="HH4" t="n">
+      <c r="HJ4" t="n">
         <v>-157.8316633266533</v>
       </c>
-      <c r="HI4" t="n">
+      <c r="HK4" t="n">
         <v>-159.0280561122244</v>
       </c>
-      <c r="HJ4" t="n">
+      <c r="HL4" t="n">
         <v>-160.2244488977956</v>
       </c>
-      <c r="HK4" t="n">
+      <c r="HM4" t="n">
         <v>-161.4208416833667</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HN4" t="n">
         <v>-162.6172344689379</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HO4" t="n">
         <v>-163.813627254509</v>
       </c>
-      <c r="HN4" t="n">
+      <c r="HP4" t="n">
         <v>-165.0100200400801</v>
       </c>
-      <c r="HO4" t="n">
+      <c r="HQ4" t="n">
         <v>-166.2064128256513</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HR4" t="n">
         <v>-167.4028056112224</v>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HS4" t="n">
         <v>-168.5991983967936</v>
       </c>
-      <c r="HR4" t="n">
+      <c r="HT4" t="n">
         <v>-169.7955911823647</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HU4" t="n">
         <v>-170.9919839679359</v>
       </c>
-      <c r="HT4" t="n">
+      <c r="HV4" t="n">
         <v>-172.188376753507</v>
       </c>
-      <c r="HU4" t="n">
+      <c r="HW4" t="n">
         <v>-173.3847695390781</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HX4" t="n">
         <v>-174.5811623246493</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HY4" t="n">
         <v>-175.7775551102205</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HZ4" t="n">
         <v>-176.9739478957916</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="IA4" t="n">
         <v>-178.1703406813627</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="IB4" t="n">
         <v>-179.3667334669339</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IC4" t="n">
         <v>-180.563126252505</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="ID4" t="n">
         <v>-181.7595190380761</v>
       </c>
-      <c r="IC4" t="n">
+      <c r="IE4" t="n">
         <v>-182.9559118236473</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="IF4" t="n">
         <v>-184.1523046092184</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IG4" t="n">
         <v>-185.3486973947896</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IH4" t="n">
         <v>-186.5450901803607</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="II4" t="n">
         <v>-187.7414829659319</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="IJ4" t="n">
         <v>-188.937875751503</v>
       </c>
-      <c r="II4" t="n">
+      <c r="IK4" t="n">
         <v>-190.1342685370741</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IL4" t="n">
         <v>-191.3306613226453</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IM4" t="n">
         <v>-192.5270541082164</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IN4" t="n">
         <v>-193.7234468937876</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IO4" t="n">
         <v>-194.9198396793587</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IP4" t="n">
         <v>-196.1162324649299</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IQ4" t="n">
         <v>-197.312625250501</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IR4" t="n">
         <v>-198.5090180360721</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IS4" t="n">
         <v>-199.7054108216433</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IT4" t="n">
         <v>-200.9018036072144</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IU4" t="n">
         <v>-202.0981963927856</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IV4" t="n">
         <v>-203.2945891783567</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IW4" t="n">
         <v>-204.4909819639279</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IX4" t="n">
         <v>-205.687374749499</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IY4" t="n">
         <v>-206.8837675350702</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IZ4" t="n">
         <v>-208.0801603206413</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="JA4" t="n">
         <v>-209.2765531062124</v>
       </c>
-      <c r="IZ4" t="n">
+      <c r="JB4" t="n">
         <v>-210.4729458917836</v>
       </c>
-      <c r="JA4" t="n">
+      <c r="JC4" t="n">
         <v>-211.6693386773547</v>
       </c>
-      <c r="JB4" t="n">
+      <c r="JD4" t="n">
         <v>-212.8657314629258</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JE4" t="n">
         <v>-214.062124248497</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JF4" t="n">
         <v>-215.2585170340681</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JG4" t="n">
         <v>-216.4549098196392</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JH4" t="n">
         <v>-217.6513026052104</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JI4" t="n">
         <v>-218.8476953907816</v>
       </c>
-      <c r="JH4" t="n">
+      <c r="JJ4" t="n">
         <v>-220.0440881763527</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JK4" t="n">
         <v>-221.2404809619239</v>
       </c>
-      <c r="JJ4" t="n">
+      <c r="JL4" t="n">
         <v>-222.436873747495</v>
       </c>
-      <c r="JK4" t="n">
+      <c r="JM4" t="n">
         <v>-223.6332665330662</v>
       </c>
-      <c r="JL4" t="n">
+      <c r="JN4" t="n">
         <v>-224.8296593186373</v>
       </c>
-      <c r="JM4" t="n">
+      <c r="JO4" t="n">
         <v>-226.0260521042084</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JP4" t="n">
         <v>-227.2224448897796</v>
       </c>
-      <c r="JO4" t="n">
+      <c r="JQ4" t="n">
         <v>-228.4188376753507</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JR4" t="n">
         <v>-229.6152304609218</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JS4" t="n">
         <v>-230.811623246493</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JT4" t="n">
         <v>-232.0080160320641</v>
       </c>
-      <c r="JS4" t="n">
+      <c r="JU4" t="n">
         <v>-233.2044088176353</v>
       </c>
-      <c r="JT4" t="n">
+      <c r="JV4" t="n">
         <v>-234.4008016032064</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JW4" t="n">
         <v>-235.5971943887775</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JX4" t="n">
         <v>-236.7935871743487</v>
       </c>
-      <c r="JW4" t="n">
+      <c r="JY4" t="n">
         <v>-237.9899799599199</v>
       </c>
-      <c r="JX4" t="n">
+      <c r="JZ4" t="n">
         <v>-239.186372745491</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="KA4" t="n">
         <v>-240.3827655310621</v>
       </c>
-      <c r="JZ4" t="n">
+      <c r="KB4" t="n">
         <v>-241.5791583166333</v>
       </c>
-      <c r="KA4" t="n">
+      <c r="KC4" t="n">
         <v>-242.7755511022044</v>
       </c>
-      <c r="KB4" t="n">
+      <c r="KD4" t="n">
         <v>-243.9719438877756</v>
       </c>
-      <c r="KC4" t="n">
+      <c r="KE4" t="n">
         <v>-245.1683366733467</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KF4" t="n">
         <v>-246.3647294589179</v>
       </c>
-      <c r="KE4" t="n">
+      <c r="KG4" t="n">
         <v>-247.561122244489</v>
       </c>
-      <c r="KF4" t="n">
+      <c r="KH4" t="n">
         <v>-248.7575150300601</v>
       </c>
-      <c r="KG4" t="n">
+      <c r="KI4" t="n">
         <v>-249.9539078156313</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KJ4" t="n">
         <v>-251.1503006012024</v>
       </c>
-      <c r="KI4" t="n">
+      <c r="KK4" t="n">
         <v>-252.3466933867735</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KL4" t="n">
         <v>-253.5430861723447</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KM4" t="n">
         <v>-254.7394789579158</v>
       </c>
-      <c r="KL4" t="n">
+      <c r="KN4" t="n">
         <v>-255.9358717434869</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KO4" t="n">
         <v>-257.1322645290581</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KP4" t="n">
         <v>-258.3286573146293</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KQ4" t="n">
         <v>-259.5250501002004</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KR4" t="n">
         <v>-260.7214428857715</v>
       </c>
-      <c r="KQ4" t="n">
+      <c r="KS4" t="n">
         <v>-261.9178356713427</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KT4" t="n">
         <v>-263.1142284569138</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KU4" t="n">
         <v>-264.310621242485</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KV4" t="n">
         <v>-265.5070140280561</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KW4" t="n">
         <v>-266.7034068136273</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KX4" t="n">
         <v>-267.8997995991984</v>
       </c>
-      <c r="KW4" t="n">
+      <c r="KY4" t="n">
         <v>-269.0961923847696</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KZ4" t="n">
         <v>-270.2925851703407</v>
       </c>
-      <c r="KY4" t="n">
+      <c r="LA4" t="n">
         <v>-271.4889779559118</v>
       </c>
-      <c r="KZ4" t="n">
+      <c r="LB4" t="n">
         <v>-272.685370741483</v>
       </c>
-      <c r="LA4" t="n">
+      <c r="LC4" t="n">
         <v>-273.8817635270541</v>
       </c>
-      <c r="LB4" t="n">
+      <c r="LD4" t="n">
         <v>-275.0781563126252</v>
       </c>
-      <c r="LC4" t="n">
+      <c r="LE4" t="n">
         <v>-276.2745490981964</v>
       </c>
-      <c r="LD4" t="n">
+      <c r="LF4" t="n">
         <v>-277.4709418837675</v>
       </c>
-      <c r="LE4" t="n">
+      <c r="LG4" t="n">
         <v>-278.6673346693386</v>
       </c>
-      <c r="LF4" t="n">
+      <c r="LH4" t="n">
         <v>-279.8637274549098</v>
       </c>
-      <c r="LG4" t="n">
+      <c r="LI4" t="n">
         <v>-281.060120240481</v>
       </c>
-      <c r="LH4" t="n">
+      <c r="LJ4" t="n">
         <v>-282.2565130260522</v>
       </c>
-      <c r="LI4" t="n">
+      <c r="LK4" t="n">
         <v>-283.4529058116233</v>
       </c>
-      <c r="LJ4" t="n">
+      <c r="LL4" t="n">
         <v>-284.6492985971944</v>
       </c>
-      <c r="LK4" t="n">
+      <c r="LM4" t="n">
         <v>-285.8456913827656</v>
       </c>
-      <c r="LL4" t="n">
+      <c r="LN4" t="n">
         <v>-287.0420841683367</v>
       </c>
-      <c r="LM4" t="n">
+      <c r="LO4" t="n">
         <v>-288.2384769539078</v>
       </c>
-      <c r="LN4" t="n">
+      <c r="LP4" t="n">
         <v>-289.434869739479</v>
       </c>
-      <c r="LO4" t="n">
+      <c r="LQ4" t="n">
         <v>-290.6312625250501</v>
       </c>
-      <c r="LP4" t="n">
+      <c r="LR4" t="n">
         <v>-291.8276553106212</v>
       </c>
-      <c r="LQ4" t="n">
+      <c r="LS4" t="n">
         <v>-293.0240480961924</v>
       </c>
-      <c r="LR4" t="n">
+      <c r="LT4" t="n">
         <v>-294.2204408817635</v>
       </c>
-      <c r="LS4" t="n">
+      <c r="LU4" t="n">
         <v>-295.4168336673347</v>
       </c>
-      <c r="LT4" t="n">
+      <c r="LV4" t="n">
         <v>-296.6132264529058</v>
       </c>
-      <c r="LU4" t="n">
+      <c r="LW4" t="n">
         <v>-297.809619238477</v>
       </c>
-      <c r="LV4" t="n">
+      <c r="LX4" t="n">
         <v>-299.0060120240481</v>
       </c>
-      <c r="LW4" t="n">
+      <c r="LY4" t="n">
         <v>-300.2024048096192</v>
       </c>
-      <c r="LX4" t="n">
+      <c r="LZ4" t="n">
         <v>-301.3987975951903</v>
       </c>
-      <c r="LY4" t="n">
+      <c r="MA4" t="n">
         <v>-302.5951903807616</v>
       </c>
-      <c r="LZ4" t="n">
+      <c r="MB4" t="n">
         <v>-303.7915831663327</v>
       </c>
-      <c r="MA4" t="n">
+      <c r="MC4" t="n">
         <v>-304.9879759519039</v>
       </c>
-      <c r="MB4" t="n">
+      <c r="MD4" t="n">
         <v>-306.184368737475</v>
       </c>
-      <c r="MC4" t="n">
+      <c r="ME4" t="n">
         <v>-307.3807615230461</v>
       </c>
-      <c r="MD4" t="n">
+      <c r="MF4" t="n">
         <v>-308.5771543086173</v>
       </c>
-      <c r="ME4" t="n">
+      <c r="MG4" t="n">
         <v>-309.7735470941884</v>
       </c>
-      <c r="MF4" t="n">
+      <c r="MH4" t="n">
         <v>-310.9699398797596</v>
       </c>
-      <c r="MG4" t="n">
+      <c r="MI4" t="n">
         <v>-312.1663326653307</v>
       </c>
-      <c r="MH4" t="n">
+      <c r="MJ4" t="n">
         <v>-313.3627254509018</v>
       </c>
-      <c r="MI4" t="n">
+      <c r="MK4" t="n">
         <v>-314.559118236473</v>
       </c>
-      <c r="MJ4" t="n">
+      <c r="ML4" t="n">
         <v>-315.7555110220441</v>
       </c>
-      <c r="MK4" t="n">
+      <c r="MM4" t="n">
         <v>-316.9519038076152</v>
       </c>
-      <c r="ML4" t="n">
+      <c r="MN4" t="n">
         <v>-318.1482965931864</v>
       </c>
-      <c r="MM4" t="n">
+      <c r="MO4" t="n">
         <v>-319.3446893787576</v>
       </c>
-      <c r="MN4" t="n">
+      <c r="MP4" t="n">
         <v>-320.5410821643287</v>
       </c>
-      <c r="MO4" t="n">
+      <c r="MQ4" t="n">
         <v>-321.7374749498998</v>
       </c>
-      <c r="MP4" t="n">
+      <c r="MR4" t="n">
         <v>-322.9338677354709</v>
       </c>
-      <c r="MQ4" t="n">
+      <c r="MS4" t="n">
         <v>-324.1302605210421</v>
       </c>
-      <c r="MR4" t="n">
+      <c r="MT4" t="n">
         <v>-325.3266533066133</v>
       </c>
-      <c r="MS4" t="n">
+      <c r="MU4" t="n">
         <v>-326.5230460921844</v>
       </c>
-      <c r="MT4" t="n">
+      <c r="MV4" t="n">
         <v>-327.7194388777556</v>
       </c>
-      <c r="MU4" t="n">
+      <c r="MW4" t="n">
         <v>-328.9158316633267</v>
       </c>
-      <c r="MV4" t="n">
+      <c r="MX4" t="n">
         <v>-330.1122244488978</v>
       </c>
-      <c r="MW4" t="n">
+      <c r="MY4" t="n">
         <v>-331.308617234469</v>
       </c>
-      <c r="MX4" t="n">
+      <c r="MZ4" t="n">
         <v>-332.5050100200401</v>
       </c>
-      <c r="MY4" t="n">
+      <c r="NA4" t="n">
         <v>-333.7014028056112</v>
       </c>
-      <c r="MZ4" t="n">
+      <c r="NB4" t="n">
         <v>-334.8977955911824</v>
       </c>
-      <c r="NA4" t="n">
+      <c r="NC4" t="n">
         <v>-336.0941883767535</v>
       </c>
-      <c r="NB4" t="n">
+      <c r="ND4" t="n">
         <v>-337.2905811623247</v>
       </c>
-      <c r="NC4" t="n">
+      <c r="NE4" t="n">
         <v>-338.4869739478958</v>
       </c>
-      <c r="ND4" t="n">
+      <c r="NF4" t="n">
         <v>-339.6833667334669</v>
       </c>
-      <c r="NE4" t="n">
+      <c r="NG4" t="n">
         <v>-340.8797595190381</v>
       </c>
-      <c r="NF4" t="n">
+      <c r="NH4" t="n">
         <v>-342.0761523046093</v>
       </c>
-      <c r="NG4" t="n">
+      <c r="NI4" t="n">
         <v>-343.2725450901804</v>
       </c>
-      <c r="NH4" t="n">
+      <c r="NJ4" t="n">
         <v>-344.4689378757515</v>
       </c>
-      <c r="NI4" t="n">
+      <c r="NK4" t="n">
         <v>-345.6653306613226</v>
       </c>
-      <c r="NJ4" t="n">
+      <c r="NL4" t="n">
         <v>-346.8617234468938</v>
       </c>
-      <c r="NK4" t="n">
+      <c r="NM4" t="n">
         <v>-348.058116232465</v>
       </c>
-      <c r="NL4" t="n">
+      <c r="NN4" t="n">
         <v>-349.2545090180361</v>
       </c>
-      <c r="NM4" t="n">
+      <c r="NO4" t="n">
         <v>-350.4509018036073</v>
       </c>
-      <c r="NN4" t="n">
+      <c r="NP4" t="n">
         <v>-351.6472945891784</v>
       </c>
-      <c r="NO4" t="n">
+      <c r="NQ4" t="n">
         <v>-352.8436873747495</v>
       </c>
-      <c r="NP4" t="n">
+      <c r="NR4" t="n">
         <v>-354.0400801603207</v>
       </c>
-      <c r="NQ4" t="n">
+      <c r="NS4" t="n">
         <v>-355.2364729458918</v>
       </c>
-      <c r="NR4" t="n">
+      <c r="NT4" t="n">
         <v>-356.4328657314629</v>
       </c>
-      <c r="NS4" t="n">
+      <c r="NU4" t="n">
         <v>-357.6292585170341</v>
       </c>
-      <c r="NT4" t="n">
+      <c r="NV4" t="n">
         <v>-358.8256513026052</v>
       </c>
-      <c r="NU4" t="n">
+      <c r="NW4" t="n">
         <v>-360.0220440881764</v>
       </c>
-      <c r="NV4" t="n">
+      <c r="NX4" t="n">
         <v>-361.2184368737475</v>
       </c>
-      <c r="NW4" t="n">
+      <c r="NY4" t="n">
         <v>-362.4148296593186</v>
       </c>
-      <c r="NX4" t="n">
+      <c r="NZ4" t="n">
         <v>-363.6112224448898</v>
       </c>
-      <c r="NY4" t="n">
+      <c r="OA4" t="n">
         <v>-364.807615230461</v>
       </c>
-      <c r="NZ4" t="n">
+      <c r="OB4" t="n">
         <v>-366.0040080160321</v>
       </c>
-      <c r="OA4" t="n">
+      <c r="OC4" t="n">
         <v>-367.2004008016033</v>
       </c>
-      <c r="OB4" t="n">
+      <c r="OD4" t="n">
         <v>-368.3967935871744</v>
       </c>
-      <c r="OC4" t="n">
+      <c r="OE4" t="n">
         <v>-369.5931863727455</v>
       </c>
-      <c r="OD4" t="n">
+      <c r="OF4" t="n">
         <v>-370.7895791583167</v>
       </c>
-      <c r="OE4" t="n">
+      <c r="OG4" t="n">
         <v>-371.9859719438878</v>
       </c>
-      <c r="OF4" t="n">
+      <c r="OH4" t="n">
         <v>-373.182364729459</v>
       </c>
-      <c r="OG4" t="n">
+      <c r="OI4" t="n">
         <v>-374.3787575150301</v>
       </c>
-      <c r="OH4" t="n">
+      <c r="OJ4" t="n">
         <v>-375.5751503006012</v>
       </c>
-      <c r="OI4" t="n">
+      <c r="OK4" t="n">
         <v>-376.7715430861724</v>
       </c>
-      <c r="OJ4" t="n">
+      <c r="OL4" t="n">
         <v>-377.9679358717435</v>
       </c>
-      <c r="OK4" t="n">
+      <c r="OM4" t="n">
         <v>-379.1643286573146</v>
       </c>
-      <c r="OL4" t="n">
+      <c r="ON4" t="n">
         <v>-380.3607214428858</v>
       </c>
-      <c r="OM4" t="n">
+      <c r="OO4" t="n">
         <v>-381.557114228457</v>
       </c>
-      <c r="ON4" t="n">
+      <c r="OP4" t="n">
         <v>-382.7535070140281</v>
       </c>
-      <c r="OO4" t="n">
+      <c r="OQ4" t="n">
         <v>-383.9498997995992</v>
       </c>
-      <c r="OP4" t="n">
+      <c r="OR4" t="n">
         <v>-385.1462925851703</v>
       </c>
-      <c r="OQ4" t="n">
+      <c r="OS4" t="n">
         <v>-386.3426853707415</v>
       </c>
-      <c r="OR4" t="n">
+      <c r="OT4" t="n">
         <v>-387.5390781563127</v>
       </c>
-      <c r="OS4" t="n">
+      <c r="OU4" t="n">
         <v>-388.7354709418838</v>
       </c>
-      <c r="OT4" t="n">
+      <c r="OV4" t="n">
         <v>-389.931863727455</v>
       </c>
-      <c r="OU4" t="n">
+      <c r="OW4" t="n">
         <v>-391.1282565130261</v>
       </c>
-      <c r="OV4" t="n">
+      <c r="OX4" t="n">
         <v>-392.3246492985972</v>
       </c>
-      <c r="OW4" t="n">
+      <c r="OY4" t="n">
         <v>-393.5210420841684</v>
       </c>
-      <c r="OX4" t="n">
+      <c r="OZ4" t="n">
         <v>-394.7174348697395</v>
       </c>
-      <c r="OY4" t="n">
+      <c r="PA4" t="n">
         <v>-395.9138276553106</v>
       </c>
-      <c r="OZ4" t="n">
+      <c r="PB4" t="n">
         <v>-397.1102204408818</v>
       </c>
-      <c r="PA4" t="n">
+      <c r="PC4" t="n">
         <v>-398.3066132264529</v>
       </c>
-      <c r="PB4" t="n">
+      <c r="PD4" t="n">
         <v>-399.5030060120241</v>
       </c>
-      <c r="PC4" t="n">
+      <c r="PE4" t="n">
         <v>-400.6993987975952</v>
       </c>
-      <c r="PD4" t="n">
+      <c r="PF4" t="n">
         <v>-401.8957915831663</v>
       </c>
-      <c r="PE4" t="n">
+      <c r="PG4" t="n">
         <v>-403.0921843687375</v>
       </c>
-      <c r="PF4" t="n">
+      <c r="PH4" t="n">
         <v>-404.2885771543087</v>
       </c>
-      <c r="PG4" t="n">
+      <c r="PI4" t="n">
         <v>-405.4849699398798</v>
       </c>
-      <c r="PH4" t="n">
+      <c r="PJ4" t="n">
         <v>-406.6813627254509</v>
       </c>
-      <c r="PI4" t="n">
+      <c r="PK4" t="n">
         <v>-407.877755511022</v>
       </c>
-      <c r="PJ4" t="n">
+      <c r="PL4" t="n">
         <v>-409.0741482965932</v>
       </c>
-      <c r="PK4" t="n">
+      <c r="PM4" t="n">
         <v>-410.2705410821644</v>
       </c>
-      <c r="PL4" t="n">
+      <c r="PN4" t="n">
         <v>-411.4669338677355</v>
       </c>
-      <c r="PM4" t="n">
+      <c r="PO4" t="n">
         <v>-412.6633266533067</v>
       </c>
-      <c r="PN4" t="n">
+      <c r="PP4" t="n">
         <v>-413.8597194388778</v>
       </c>
-      <c r="PO4" t="n">
+      <c r="PQ4" t="n">
         <v>-415.0561122244489</v>
       </c>
-      <c r="PP4" t="n">
+      <c r="PR4" t="n">
         <v>-416.2525050100201</v>
       </c>
-      <c r="PQ4" t="n">
+      <c r="PS4" t="n">
         <v>-417.4488977955912</v>
       </c>
-      <c r="PR4" t="n">
+      <c r="PT4" t="n">
         <v>-418.6452905811623</v>
       </c>
-      <c r="PS4" t="n">
+      <c r="PU4" t="n">
         <v>-419.8416833667335</v>
       </c>
-      <c r="PT4" t="n">
+      <c r="PV4" t="n">
         <v>-421.0380761523046</v>
       </c>
-      <c r="PU4" t="n">
+      <c r="PW4" t="n">
         <v>-422.2344689378758</v>
       </c>
-      <c r="PV4" t="n">
+      <c r="PX4" t="n">
         <v>-423.4308617234469</v>
       </c>
-      <c r="PW4" t="n">
+      <c r="PY4" t="n">
         <v>-424.627254509018</v>
       </c>
-      <c r="PX4" t="n">
+      <c r="PZ4" t="n">
         <v>-425.8236472945893</v>
       </c>
-      <c r="PY4" t="n">
+      <c r="QA4" t="n">
         <v>-427.0200400801604</v>
       </c>
-      <c r="PZ4" t="n">
+      <c r="QB4" t="n">
         <v>-428.2164328657315</v>
       </c>
-      <c r="QA4" t="n">
+      <c r="QC4" t="n">
         <v>-429.4128256513027</v>
       </c>
-      <c r="QB4" t="n">
+      <c r="QD4" t="n">
         <v>-430.6092184368738</v>
       </c>
-      <c r="QC4" t="n">
+      <c r="QE4" t="n">
         <v>-431.8056112224449</v>
       </c>
-      <c r="QD4" t="n">
+      <c r="QF4" t="n">
         <v>-433.0020040080161</v>
       </c>
-      <c r="QE4" t="n">
+      <c r="QG4" t="n">
         <v>-434.1983967935872</v>
       </c>
-      <c r="QF4" t="n">
+      <c r="QH4" t="n">
         <v>-435.3947895791584</v>
       </c>
-      <c r="QG4" t="n">
+      <c r="QI4" t="n">
         <v>-436.5911823647295</v>
       </c>
-      <c r="QH4" t="n">
+      <c r="QJ4" t="n">
         <v>-437.7875751503006</v>
       </c>
-      <c r="QI4" t="n">
+      <c r="QK4" t="n">
         <v>-438.9839679358718</v>
       </c>
-      <c r="QJ4" t="n">
+      <c r="QL4" t="n">
         <v>-440.1803607214429</v>
       </c>
-      <c r="QK4" t="n">
+      <c r="QM4" t="n">
         <v>-441.376753507014</v>
       </c>
-      <c r="QL4" t="n">
+      <c r="QN4" t="n">
         <v>-442.5731462925852</v>
       </c>
-      <c r="QM4" t="n">
+      <c r="QO4" t="n">
         <v>-443.7695390781563</v>
       </c>
-      <c r="QN4" t="n">
+      <c r="QP4" t="n">
         <v>-444.9659318637275</v>
       </c>
-      <c r="QO4" t="n">
+      <c r="QQ4" t="n">
         <v>-446.1623246492986</v>
       </c>
-      <c r="QP4" t="n">
+      <c r="QR4" t="n">
         <v>-447.3587174348697</v>
       </c>
-      <c r="QQ4" t="n">
+      <c r="QS4" t="n">
         <v>-448.555110220441</v>
       </c>
-      <c r="QR4" t="n">
+      <c r="QT4" t="n">
         <v>-449.7515030060121</v>
       </c>
-      <c r="QS4" t="n">
+      <c r="QU4" t="n">
         <v>-450.9478957915832</v>
       </c>
-      <c r="QT4" t="n">
+      <c r="QV4" t="n">
         <v>-452.1442885771544</v>
       </c>
-      <c r="QU4" t="n">
+      <c r="QW4" t="n">
         <v>-453.3406813627255</v>
       </c>
-      <c r="QV4" t="n">
+      <c r="QX4" t="n">
         <v>-454.5370741482966</v>
       </c>
-      <c r="QW4" t="n">
+      <c r="QY4" t="n">
         <v>-455.7334669338678</v>
       </c>
-      <c r="QX4" t="n">
+      <c r="QZ4" t="n">
         <v>-456.9298597194389</v>
       </c>
-      <c r="QY4" t="n">
+      <c r="RA4" t="n">
         <v>-458.12625250501</v>
       </c>
-      <c r="QZ4" t="n">
+      <c r="RB4" t="n">
         <v>-459.3226452905812</v>
       </c>
-      <c r="RA4" t="n">
+      <c r="RC4" t="n">
         <v>-460.5190380761523</v>
       </c>
-      <c r="RB4" t="n">
+      <c r="RD4" t="n">
         <v>-461.7154308617235</v>
       </c>
-      <c r="RC4" t="n">
+      <c r="RE4" t="n">
         <v>-462.9118236472946</v>
       </c>
-      <c r="RD4" t="n">
+      <c r="RF4" t="n">
         <v>-464.1082164328657</v>
       </c>
-      <c r="RE4" t="n">
+      <c r="RG4" t="n">
         <v>-465.304609218437</v>
       </c>
-      <c r="RF4" t="n">
+      <c r="RH4" t="n">
         <v>-466.5010020040081</v>
       </c>
-      <c r="RG4" t="n">
+      <c r="RI4" t="n">
         <v>-467.6973947895792</v>
       </c>
-      <c r="RH4" t="n">
+      <c r="RJ4" t="n">
         <v>-468.8937875751503</v>
       </c>
-      <c r="RI4" t="n">
+      <c r="RK4" t="n">
         <v>-470.0901803607214</v>
       </c>
-      <c r="RJ4" t="n">
+      <c r="RL4" t="n">
         <v>-471.2865731462925</v>
       </c>
-      <c r="RK4" t="n">
+      <c r="RM4" t="n">
         <v>-472.4829659318638</v>
       </c>
-      <c r="RL4" t="n">
+      <c r="RN4" t="n">
         <v>-473.6793587174349</v>
       </c>
-      <c r="RM4" t="n">
+      <c r="RO4" t="n">
         <v>-474.8757515030061</v>
       </c>
-      <c r="RN4" t="n">
+      <c r="RP4" t="n">
         <v>-476.0721442885772</v>
       </c>
-      <c r="RO4" t="n">
+      <c r="RQ4" t="n">
         <v>-477.2685370741483</v>
       </c>
-      <c r="RP4" t="n">
+      <c r="RR4" t="n">
         <v>-478.4649298597195</v>
       </c>
-      <c r="RQ4" t="n">
+      <c r="RS4" t="n">
         <v>-479.6613226452906</v>
       </c>
-      <c r="RR4" t="n">
+      <c r="RT4" t="n">
         <v>-480.8577154308617</v>
       </c>
-      <c r="RS4" t="n">
+      <c r="RU4" t="n">
         <v>-482.0541082164329</v>
       </c>
-      <c r="RT4" t="n">
+      <c r="RV4" t="n">
         <v>-483.250501002004</v>
       </c>
-      <c r="RU4" t="n">
+      <c r="RW4" t="n">
         <v>-484.4468937875752</v>
       </c>
-      <c r="RV4" t="n">
+      <c r="RX4" t="n">
         <v>-485.6432865731463</v>
       </c>
-      <c r="RW4" t="n">
+      <c r="RY4" t="n">
         <v>-486.8396793587174</v>
       </c>
-      <c r="RX4" t="n">
+      <c r="RZ4" t="n">
         <v>-488.0360721442887</v>
       </c>
-      <c r="RY4" t="n">
+      <c r="SA4" t="n">
         <v>-489.2324649298598</v>
       </c>
-      <c r="RZ4" t="n">
+      <c r="SB4" t="n">
         <v>-490.4288577154309</v>
       </c>
-      <c r="SA4" t="n">
+      <c r="SC4" t="n">
         <v>-491.625250501002</v>
       </c>
-      <c r="SB4" t="n">
+      <c r="SD4" t="n">
         <v>-492.8216432865731</v>
       </c>
-      <c r="SC4" t="n">
+      <c r="SE4" t="n">
         <v>-494.0180360721443</v>
       </c>
-      <c r="SD4" t="n">
+      <c r="SF4" t="n">
         <v>-495.2144288577155</v>
       </c>
-      <c r="SE4" t="n">
+      <c r="SG4" t="n">
         <v>-496.4108216432866</v>
       </c>
-      <c r="SF4" t="n">
+      <c r="SH4" t="n">
         <v>-497.6072144288578</v>
       </c>
-      <c r="SG4" t="n">
+      <c r="SI4" t="n">
         <v>-498.8036072144289</v>
       </c>
-      <c r="SH4" t="n">
+      <c r="SJ4" t="n">
         <v>-500</v>
       </c>
     </row>

--- a/Data/fake_scenarios.xlsx
+++ b/Data/fake_scenarios.xlsx
@@ -1963,1501 +1963,1501 @@
         <v>-2.105081465243104</v>
       </c>
       <c r="E2" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>97.80761523046093</v>
+        <v>1.002004008016032</v>
       </c>
       <c r="G2" t="n">
-        <v>98.61523046092185</v>
+        <v>2.004008016032064</v>
       </c>
       <c r="H2" t="n">
-        <v>99.42284569138276</v>
+        <v>3.006012024048096</v>
       </c>
       <c r="I2" t="n">
-        <v>100.2304609218437</v>
+        <v>4.008016032064128</v>
       </c>
       <c r="J2" t="n">
-        <v>101.0380761523046</v>
+        <v>5.01002004008016</v>
       </c>
       <c r="K2" t="n">
-        <v>101.8456913827655</v>
+        <v>6.012024048096192</v>
       </c>
       <c r="L2" t="n">
-        <v>102.6533066132264</v>
+        <v>7.014028056112224</v>
       </c>
       <c r="M2" t="n">
-        <v>103.4609218436874</v>
+        <v>8.016032064128256</v>
       </c>
       <c r="N2" t="n">
-        <v>104.2685370741483</v>
+        <v>9.018036072144287</v>
       </c>
       <c r="O2" t="n">
-        <v>105.0761523046092</v>
+        <v>10.02004008016032</v>
       </c>
       <c r="P2" t="n">
-        <v>105.8837675350701</v>
+        <v>11.02204408817635</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.691382765531</v>
+        <v>12.02404809619238</v>
       </c>
       <c r="R2" t="n">
-        <v>107.498997995992</v>
+        <v>13.02605210420842</v>
       </c>
       <c r="S2" t="n">
-        <v>108.3066132264529</v>
+        <v>14.02805611222445</v>
       </c>
       <c r="T2" t="n">
-        <v>109.1142284569138</v>
+        <v>15.03006012024048</v>
       </c>
       <c r="U2" t="n">
-        <v>109.9218436873747</v>
+        <v>16.03206412825651</v>
       </c>
       <c r="V2" t="n">
-        <v>110.7294589178357</v>
+        <v>17.03406813627254</v>
       </c>
       <c r="W2" t="n">
-        <v>111.5370741482966</v>
+        <v>18.03607214428857</v>
       </c>
       <c r="X2" t="n">
-        <v>112.3446893787575</v>
+        <v>19.03807615230461</v>
       </c>
       <c r="Y2" t="n">
-        <v>113.1523046092184</v>
+        <v>20.04008016032064</v>
       </c>
       <c r="Z2" t="n">
-        <v>113.9599198396794</v>
+        <v>21.04208416833667</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.7675350701403</v>
+        <v>22.0440881763527</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.5751503006012</v>
+        <v>23.04609218436874</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.3827655310621</v>
+        <v>24.04809619238477</v>
       </c>
       <c r="AD2" t="n">
-        <v>117.190380761523</v>
+        <v>25.0501002004008</v>
       </c>
       <c r="AE2" t="n">
-        <v>117.997995991984</v>
+        <v>26.05210420841683</v>
       </c>
       <c r="AF2" t="n">
-        <v>118.8056112224449</v>
+        <v>27.05410821643286</v>
       </c>
       <c r="AG2" t="n">
-        <v>119.6132264529058</v>
+        <v>28.0561122244489</v>
       </c>
       <c r="AH2" t="n">
-        <v>120.4208416833667</v>
+        <v>29.05811623246493</v>
       </c>
       <c r="AI2" t="n">
-        <v>121.2284569138277</v>
+        <v>30.06012024048096</v>
       </c>
       <c r="AJ2" t="n">
-        <v>122.0360721442886</v>
+        <v>31.06212424849699</v>
       </c>
       <c r="AK2" t="n">
-        <v>122.8436873747495</v>
+        <v>32.06412825651302</v>
       </c>
       <c r="AL2" t="n">
-        <v>123.6513026052104</v>
+        <v>33.06613226452905</v>
       </c>
       <c r="AM2" t="n">
-        <v>124.4589178356713</v>
+        <v>34.06813627254509</v>
       </c>
       <c r="AN2" t="n">
-        <v>125.2665330661323</v>
+        <v>35.07014028056112</v>
       </c>
       <c r="AO2" t="n">
-        <v>126.0741482965932</v>
+        <v>36.07214428857715</v>
       </c>
       <c r="AP2" t="n">
-        <v>126.8817635270541</v>
+        <v>37.07414829659318</v>
       </c>
       <c r="AQ2" t="n">
-        <v>127.689378757515</v>
+        <v>38.07615230460922</v>
       </c>
       <c r="AR2" t="n">
-        <v>128.496993987976</v>
+        <v>39.07815631262525</v>
       </c>
       <c r="AS2" t="n">
-        <v>129.3046092184369</v>
+        <v>40.08016032064128</v>
       </c>
       <c r="AT2" t="n">
-        <v>130.1122244488978</v>
+        <v>41.08216432865731</v>
       </c>
       <c r="AU2" t="n">
-        <v>130.9198396793587</v>
+        <v>42.08416833667334</v>
       </c>
       <c r="AV2" t="n">
-        <v>131.7274549098196</v>
+        <v>43.08617234468937</v>
       </c>
       <c r="AW2" t="n">
-        <v>132.5350701402806</v>
+        <v>44.0881763527054</v>
       </c>
       <c r="AX2" t="n">
-        <v>133.3426853707415</v>
+        <v>45.09018036072144</v>
       </c>
       <c r="AY2" t="n">
-        <v>134.1503006012024</v>
+        <v>46.09218436873747</v>
       </c>
       <c r="AZ2" t="n">
-        <v>134.9579158316633</v>
+        <v>47.0941883767535</v>
       </c>
       <c r="BA2" t="n">
-        <v>135.7655310621243</v>
+        <v>48.09619238476954</v>
       </c>
       <c r="BB2" t="n">
-        <v>136.5731462925852</v>
+        <v>49.09819639278557</v>
       </c>
       <c r="BC2" t="n">
-        <v>137.3807615230461</v>
+        <v>50.1002004008016</v>
       </c>
       <c r="BD2" t="n">
-        <v>138.188376753507</v>
+        <v>51.10220440881763</v>
       </c>
       <c r="BE2" t="n">
-        <v>138.9959919839679</v>
+        <v>52.10420841683366</v>
       </c>
       <c r="BF2" t="n">
-        <v>139.8036072144289</v>
+        <v>53.10621242484969</v>
       </c>
       <c r="BG2" t="n">
-        <v>140.6112224448898</v>
+        <v>54.10821643286572</v>
       </c>
       <c r="BH2" t="n">
-        <v>141.4188376753507</v>
+        <v>55.11022044088175</v>
       </c>
       <c r="BI2" t="n">
-        <v>142.2264529058116</v>
+        <v>56.11222444889779</v>
       </c>
       <c r="BJ2" t="n">
-        <v>143.0340681362725</v>
+        <v>57.11422845691382</v>
       </c>
       <c r="BK2" t="n">
-        <v>143.8416833667335</v>
+        <v>58.11623246492985</v>
       </c>
       <c r="BL2" t="n">
-        <v>144.6492985971944</v>
+        <v>59.11823647294589</v>
       </c>
       <c r="BM2" t="n">
-        <v>145.4569138276553</v>
+        <v>60.12024048096192</v>
       </c>
       <c r="BN2" t="n">
-        <v>146.2645290581162</v>
+        <v>61.12224448897795</v>
       </c>
       <c r="BO2" t="n">
-        <v>147.0721442885772</v>
+        <v>62.12424849699398</v>
       </c>
       <c r="BP2" t="n">
-        <v>147.8797595190381</v>
+        <v>63.12625250501002</v>
       </c>
       <c r="BQ2" t="n">
-        <v>148.687374749499</v>
+        <v>64.12825651302605</v>
       </c>
       <c r="BR2" t="n">
-        <v>149.4949899799599</v>
+        <v>65.13026052104208</v>
       </c>
       <c r="BS2" t="n">
-        <v>150.3026052104208</v>
+        <v>66.13226452905811</v>
       </c>
       <c r="BT2" t="n">
-        <v>151.1102204408818</v>
+        <v>67.13426853707413</v>
       </c>
       <c r="BU2" t="n">
-        <v>151.9178356713427</v>
+        <v>68.13627254509018</v>
       </c>
       <c r="BV2" t="n">
-        <v>152.7254509018036</v>
+        <v>69.13827655310621</v>
       </c>
       <c r="BW2" t="n">
-        <v>153.5330661322645</v>
+        <v>70.14028056112224</v>
       </c>
       <c r="BX2" t="n">
-        <v>154.3406813627255</v>
+        <v>71.14228456913827</v>
       </c>
       <c r="BY2" t="n">
-        <v>155.1482965931864</v>
+        <v>72.1442885771543</v>
       </c>
       <c r="BZ2" t="n">
-        <v>155.9559118236473</v>
+        <v>73.14629258517033</v>
       </c>
       <c r="CA2" t="n">
-        <v>156.7635270541082</v>
+        <v>74.14829659318636</v>
       </c>
       <c r="CB2" t="n">
-        <v>157.5711422845691</v>
+        <v>75.1503006012024</v>
       </c>
       <c r="CC2" t="n">
-        <v>158.3787575150301</v>
+        <v>76.15230460921843</v>
       </c>
       <c r="CD2" t="n">
-        <v>159.186372745491</v>
+        <v>77.15430861723446</v>
       </c>
       <c r="CE2" t="n">
-        <v>159.9939879759519</v>
+        <v>78.15631262525049</v>
       </c>
       <c r="CF2" t="n">
-        <v>160.8016032064128</v>
+        <v>79.15831663326652</v>
       </c>
       <c r="CG2" t="n">
-        <v>161.6092184368738</v>
+        <v>80.16032064128255</v>
       </c>
       <c r="CH2" t="n">
-        <v>162.4168336673347</v>
+        <v>81.16232464929858</v>
       </c>
       <c r="CI2" t="n">
-        <v>163.2244488977956</v>
+        <v>82.16432865731463</v>
       </c>
       <c r="CJ2" t="n">
-        <v>164.0320641282565</v>
+        <v>83.16633266533066</v>
       </c>
       <c r="CK2" t="n">
-        <v>164.8396793587174</v>
+        <v>84.16833667334669</v>
       </c>
       <c r="CL2" t="n">
-        <v>165.6472945891784</v>
+        <v>85.17034068136272</v>
       </c>
       <c r="CM2" t="n">
-        <v>166.4549098196393</v>
+        <v>86.17234468937875</v>
       </c>
       <c r="CN2" t="n">
-        <v>167.2625250501002</v>
+        <v>87.17434869739478</v>
       </c>
       <c r="CO2" t="n">
-        <v>168.0701402805611</v>
+        <v>88.17635270541081</v>
       </c>
       <c r="CP2" t="n">
-        <v>168.877755511022</v>
+        <v>89.17835671342685</v>
       </c>
       <c r="CQ2" t="n">
-        <v>169.685370741483</v>
+        <v>90.18036072144288</v>
       </c>
       <c r="CR2" t="n">
-        <v>170.4929859719439</v>
+        <v>91.18236472945891</v>
       </c>
       <c r="CS2" t="n">
-        <v>171.3006012024048</v>
+        <v>92.18436873747494</v>
       </c>
       <c r="CT2" t="n">
-        <v>172.1082164328657</v>
+        <v>93.18637274549097</v>
       </c>
       <c r="CU2" t="n">
-        <v>172.9158316633267</v>
+        <v>94.188376753507</v>
       </c>
       <c r="CV2" t="n">
-        <v>173.7234468937876</v>
+        <v>95.19038076152303</v>
       </c>
       <c r="CW2" t="n">
-        <v>174.5310621242485</v>
+        <v>96.19238476953907</v>
       </c>
       <c r="CX2" t="n">
-        <v>175.3386773547094</v>
+        <v>97.1943887775551</v>
       </c>
       <c r="CY2" t="n">
-        <v>176.1462925851704</v>
+        <v>98.19639278557113</v>
       </c>
       <c r="CZ2" t="n">
-        <v>176.9539078156313</v>
+        <v>99.19839679358716</v>
       </c>
       <c r="DA2" t="n">
-        <v>177.7615230460922</v>
+        <v>100.2004008016032</v>
       </c>
       <c r="DB2" t="n">
-        <v>178.5691382765531</v>
+        <v>101.2024048096192</v>
       </c>
       <c r="DC2" t="n">
-        <v>179.376753507014</v>
+        <v>102.2044088176353</v>
       </c>
       <c r="DD2" t="n">
-        <v>180.184368737475</v>
+        <v>103.2064128256513</v>
       </c>
       <c r="DE2" t="n">
-        <v>180.9919839679359</v>
+        <v>104.2084168336673</v>
       </c>
       <c r="DF2" t="n">
-        <v>181.7995991983968</v>
+        <v>105.2104208416834</v>
       </c>
       <c r="DG2" t="n">
-        <v>182.6072144288577</v>
+        <v>106.2124248496994</v>
       </c>
       <c r="DH2" t="n">
-        <v>183.4148296593186</v>
+        <v>107.2144288577154</v>
       </c>
       <c r="DI2" t="n">
-        <v>184.2224448897796</v>
+        <v>108.2164328657314</v>
       </c>
       <c r="DJ2" t="n">
-        <v>185.0300601202405</v>
+        <v>109.2184368737475</v>
       </c>
       <c r="DK2" t="n">
-        <v>185.8376753507014</v>
+        <v>110.2204408817635</v>
       </c>
       <c r="DL2" t="n">
-        <v>186.6452905811623</v>
+        <v>111.2224448897796</v>
       </c>
       <c r="DM2" t="n">
-        <v>187.4529058116233</v>
+        <v>112.2244488977956</v>
       </c>
       <c r="DN2" t="n">
-        <v>188.2605210420842</v>
+        <v>113.2264529058116</v>
       </c>
       <c r="DO2" t="n">
-        <v>189.0681362725451</v>
+        <v>114.2284569138276</v>
       </c>
       <c r="DP2" t="n">
-        <v>189.875751503006</v>
+        <v>115.2304609218437</v>
       </c>
       <c r="DQ2" t="n">
-        <v>190.683366733467</v>
+        <v>116.2324649298597</v>
       </c>
       <c r="DR2" t="n">
-        <v>191.4909819639279</v>
+        <v>117.2344689378757</v>
       </c>
       <c r="DS2" t="n">
-        <v>192.2985971943888</v>
+        <v>118.2364729458918</v>
       </c>
       <c r="DT2" t="n">
-        <v>193.1062124248497</v>
+        <v>119.2384769539078</v>
       </c>
       <c r="DU2" t="n">
-        <v>193.9138276553107</v>
+        <v>120.2404809619238</v>
       </c>
       <c r="DV2" t="n">
-        <v>194.7214428857716</v>
+        <v>121.2424849699399</v>
       </c>
       <c r="DW2" t="n">
-        <v>195.5290581162325</v>
+        <v>122.2444889779559</v>
       </c>
       <c r="DX2" t="n">
-        <v>196.3366733466934</v>
+        <v>123.2464929859719</v>
       </c>
       <c r="DY2" t="n">
-        <v>197.1442885771543</v>
+        <v>124.248496993988</v>
       </c>
       <c r="DZ2" t="n">
-        <v>197.9519038076153</v>
+        <v>125.250501002004</v>
       </c>
       <c r="EA2" t="n">
-        <v>198.7595190380761</v>
+        <v>126.25250501002</v>
       </c>
       <c r="EB2" t="n">
-        <v>199.5671342685371</v>
+        <v>127.2545090180361</v>
       </c>
       <c r="EC2" t="n">
-        <v>200.374749498998</v>
+        <v>128.2565130260521</v>
       </c>
       <c r="ED2" t="n">
-        <v>201.1823647294589</v>
+        <v>129.2585170340681</v>
       </c>
       <c r="EE2" t="n">
-        <v>201.9899799599199</v>
+        <v>130.2605210420842</v>
       </c>
       <c r="EF2" t="n">
-        <v>202.7975951903808</v>
+        <v>131.2625250501002</v>
       </c>
       <c r="EG2" t="n">
-        <v>203.6052104208417</v>
+        <v>132.2645290581162</v>
       </c>
       <c r="EH2" t="n">
-        <v>204.4128256513026</v>
+        <v>133.2665330661322</v>
       </c>
       <c r="EI2" t="n">
-        <v>205.2204408817636</v>
+        <v>134.2685370741483</v>
       </c>
       <c r="EJ2" t="n">
-        <v>206.0280561122244</v>
+        <v>135.2705410821643</v>
       </c>
       <c r="EK2" t="n">
-        <v>206.8356713426854</v>
+        <v>136.2725450901804</v>
       </c>
       <c r="EL2" t="n">
-        <v>207.6432865731463</v>
+        <v>137.2745490981964</v>
       </c>
       <c r="EM2" t="n">
-        <v>208.4509018036072</v>
+        <v>138.2765531062124</v>
       </c>
       <c r="EN2" t="n">
-        <v>209.2585170340682</v>
+        <v>139.2785571142284</v>
       </c>
       <c r="EO2" t="n">
-        <v>210.0661322645291</v>
+        <v>140.2805611222445</v>
       </c>
       <c r="EP2" t="n">
-        <v>210.87374749499</v>
+        <v>141.2825651302605</v>
       </c>
       <c r="EQ2" t="n">
-        <v>211.6813627254509</v>
+        <v>142.2845691382765</v>
       </c>
       <c r="ER2" t="n">
-        <v>212.4889779559118</v>
+        <v>143.2865731462926</v>
       </c>
       <c r="ES2" t="n">
-        <v>213.2965931863727</v>
+        <v>144.2885771543086</v>
       </c>
       <c r="ET2" t="n">
-        <v>214.1042084168337</v>
+        <v>145.2905811623246</v>
       </c>
       <c r="EU2" t="n">
-        <v>214.9118236472946</v>
+        <v>146.2925851703407</v>
       </c>
       <c r="EV2" t="n">
-        <v>215.7194388777556</v>
+        <v>147.2945891783567</v>
       </c>
       <c r="EW2" t="n">
-        <v>216.5270541082164</v>
+        <v>148.2965931863727</v>
       </c>
       <c r="EX2" t="n">
-        <v>217.3346693386774</v>
+        <v>149.2985971943887</v>
       </c>
       <c r="EY2" t="n">
-        <v>218.1422845691383</v>
+        <v>150.3006012024048</v>
       </c>
       <c r="EZ2" t="n">
-        <v>218.9498997995992</v>
+        <v>151.3026052104208</v>
       </c>
       <c r="FA2" t="n">
-        <v>219.7575150300601</v>
+        <v>152.3046092184369</v>
       </c>
       <c r="FB2" t="n">
-        <v>220.5651302605211</v>
+        <v>153.3066132264529</v>
       </c>
       <c r="FC2" t="n">
-        <v>221.372745490982</v>
+        <v>154.3086172344689</v>
       </c>
       <c r="FD2" t="n">
-        <v>222.1803607214429</v>
+        <v>155.310621242485</v>
       </c>
       <c r="FE2" t="n">
-        <v>222.9879759519038</v>
+        <v>156.312625250501</v>
       </c>
       <c r="FF2" t="n">
-        <v>223.7955911823647</v>
+        <v>157.314629258517</v>
       </c>
       <c r="FG2" t="n">
-        <v>224.6032064128257</v>
+        <v>158.316633266533</v>
       </c>
       <c r="FH2" t="n">
-        <v>225.4108216432866</v>
+        <v>159.3186372745491</v>
       </c>
       <c r="FI2" t="n">
-        <v>226.2184368737475</v>
+        <v>160.3206412825651</v>
       </c>
       <c r="FJ2" t="n">
-        <v>227.0260521042084</v>
+        <v>161.3226452905811</v>
       </c>
       <c r="FK2" t="n">
-        <v>227.8336673346693</v>
+        <v>162.3246492985972</v>
       </c>
       <c r="FL2" t="n">
-        <v>228.6412825651303</v>
+        <v>163.3266533066132</v>
       </c>
       <c r="FM2" t="n">
-        <v>229.4488977955912</v>
+        <v>164.3286573146293</v>
       </c>
       <c r="FN2" t="n">
-        <v>230.2565130260521</v>
+        <v>165.3306613226453</v>
       </c>
       <c r="FO2" t="n">
-        <v>231.064128256513</v>
+        <v>166.3326653306613</v>
       </c>
       <c r="FP2" t="n">
-        <v>231.871743486974</v>
+        <v>167.3346693386773</v>
       </c>
       <c r="FQ2" t="n">
-        <v>232.6793587174349</v>
+        <v>168.3366733466934</v>
       </c>
       <c r="FR2" t="n">
-        <v>233.4869739478958</v>
+        <v>169.3386773547094</v>
       </c>
       <c r="FS2" t="n">
-        <v>234.2945891783567</v>
+        <v>170.3406813627254</v>
       </c>
       <c r="FT2" t="n">
-        <v>235.1022044088176</v>
+        <v>171.3426853707415</v>
       </c>
       <c r="FU2" t="n">
-        <v>235.9098196392786</v>
+        <v>172.3446893787575</v>
       </c>
       <c r="FV2" t="n">
-        <v>236.7174348697395</v>
+        <v>173.3466933867735</v>
       </c>
       <c r="FW2" t="n">
-        <v>237.5250501002004</v>
+        <v>174.3486973947896</v>
       </c>
       <c r="FX2" t="n">
-        <v>238.3326653306613</v>
+        <v>175.3507014028056</v>
       </c>
       <c r="FY2" t="n">
-        <v>239.1402805611222</v>
+        <v>176.3527054108216</v>
       </c>
       <c r="FZ2" t="n">
-        <v>239.9478957915832</v>
+        <v>177.3547094188376</v>
       </c>
       <c r="GA2" t="n">
-        <v>240.7555110220441</v>
+        <v>178.3567134268537</v>
       </c>
       <c r="GB2" t="n">
-        <v>241.563126252505</v>
+        <v>179.3587174348697</v>
       </c>
       <c r="GC2" t="n">
-        <v>242.370741482966</v>
+        <v>180.3607214428858</v>
       </c>
       <c r="GD2" t="n">
-        <v>243.1783567134269</v>
+        <v>181.3627254509018</v>
       </c>
       <c r="GE2" t="n">
-        <v>243.9859719438878</v>
+        <v>182.3647294589178</v>
       </c>
       <c r="GF2" t="n">
-        <v>244.7935871743487</v>
+        <v>183.3667334669339</v>
       </c>
       <c r="GG2" t="n">
-        <v>245.6012024048096</v>
+        <v>184.3687374749499</v>
       </c>
       <c r="GH2" t="n">
-        <v>246.4088176352706</v>
+        <v>185.3707414829659</v>
       </c>
       <c r="GI2" t="n">
-        <v>247.2164328657315</v>
+        <v>186.3727454909819</v>
       </c>
       <c r="GJ2" t="n">
-        <v>248.0240480961924</v>
+        <v>187.374749498998</v>
       </c>
       <c r="GK2" t="n">
-        <v>248.8316633266533</v>
+        <v>188.376753507014</v>
       </c>
       <c r="GL2" t="n">
-        <v>249.6392785571143</v>
+        <v>189.37875751503</v>
       </c>
       <c r="GM2" t="n">
-        <v>250.4468937875751</v>
+        <v>190.3807615230461</v>
       </c>
       <c r="GN2" t="n">
-        <v>251.2545090180361</v>
+        <v>191.3827655310621</v>
       </c>
       <c r="GO2" t="n">
-        <v>252.062124248497</v>
+        <v>192.3847695390781</v>
       </c>
       <c r="GP2" t="n">
-        <v>252.8697394789579</v>
+        <v>193.3867735470942</v>
       </c>
       <c r="GQ2" t="n">
-        <v>253.6773547094189</v>
+        <v>194.3887775551102</v>
       </c>
       <c r="GR2" t="n">
-        <v>254.4849699398798</v>
+        <v>195.3907815631262</v>
       </c>
       <c r="GS2" t="n">
-        <v>255.2925851703407</v>
+        <v>196.3927855711423</v>
       </c>
       <c r="GT2" t="n">
-        <v>256.1002004008016</v>
+        <v>197.3947895791583</v>
       </c>
       <c r="GU2" t="n">
-        <v>256.9078156312625</v>
+        <v>198.3967935871743</v>
       </c>
       <c r="GV2" t="n">
-        <v>257.7154308617235</v>
+        <v>199.3987975951904</v>
       </c>
       <c r="GW2" t="n">
-        <v>258.5230460921844</v>
+        <v>200.4008016032064</v>
       </c>
       <c r="GX2" t="n">
-        <v>259.3306613226453</v>
+        <v>201.4028056112224</v>
       </c>
       <c r="GY2" t="n">
-        <v>260.1382765531063</v>
+        <v>202.4048096192384</v>
       </c>
       <c r="GZ2" t="n">
-        <v>260.9458917835672</v>
+        <v>203.4068136272545</v>
       </c>
       <c r="HA2" t="n">
-        <v>261.7535070140281</v>
+        <v>204.4088176352705</v>
       </c>
       <c r="HB2" t="n">
-        <v>262.561122244489</v>
+        <v>205.4108216432865</v>
       </c>
       <c r="HC2" t="n">
-        <v>263.3687374749499</v>
+        <v>206.4128256513026</v>
       </c>
       <c r="HD2" t="n">
-        <v>264.1763527054109</v>
+        <v>207.4148296593186</v>
       </c>
       <c r="HE2" t="n">
-        <v>264.9839679358718</v>
+        <v>208.4168336673347</v>
       </c>
       <c r="HF2" t="n">
-        <v>265.7915831663327</v>
+        <v>209.4188376753507</v>
       </c>
       <c r="HG2" t="n">
-        <v>266.5991983967936</v>
+        <v>210.4208416833667</v>
       </c>
       <c r="HH2" t="n">
-        <v>267.4068136272546</v>
+        <v>211.4228456913827</v>
       </c>
       <c r="HI2" t="n">
-        <v>268.2144288577154</v>
+        <v>212.4248496993988</v>
       </c>
       <c r="HJ2" t="n">
-        <v>269.0220440881764</v>
+        <v>213.4268537074148</v>
       </c>
       <c r="HK2" t="n">
-        <v>269.8296593186373</v>
+        <v>214.4288577154308</v>
       </c>
       <c r="HL2" t="n">
-        <v>270.6372745490982</v>
+        <v>215.4308617234469</v>
       </c>
       <c r="HM2" t="n">
-        <v>271.4448897795592</v>
+        <v>216.4328657314629</v>
       </c>
       <c r="HN2" t="n">
-        <v>272.2525050100201</v>
+        <v>217.4348697394789</v>
       </c>
       <c r="HO2" t="n">
-        <v>273.060120240481</v>
+        <v>218.436873747495</v>
       </c>
       <c r="HP2" t="n">
-        <v>273.8677354709419</v>
+        <v>219.438877755511</v>
       </c>
       <c r="HQ2" t="n">
-        <v>274.6753507014028</v>
+        <v>220.440881763527</v>
       </c>
       <c r="HR2" t="n">
-        <v>275.4829659318638</v>
+        <v>221.4428857715431</v>
       </c>
       <c r="HS2" t="n">
-        <v>276.2905811623247</v>
+        <v>222.4448897795591</v>
       </c>
       <c r="HT2" t="n">
-        <v>277.0981963927856</v>
+        <v>223.4468937875751</v>
       </c>
       <c r="HU2" t="n">
-        <v>277.9058116232466</v>
+        <v>224.4488977955912</v>
       </c>
       <c r="HV2" t="n">
-        <v>278.7134268537075</v>
+        <v>225.4509018036072</v>
       </c>
       <c r="HW2" t="n">
-        <v>279.5210420841683</v>
+        <v>226.4529058116232</v>
       </c>
       <c r="HX2" t="n">
-        <v>280.3286573146293</v>
+        <v>227.4549098196393</v>
       </c>
       <c r="HY2" t="n">
-        <v>281.1362725450902</v>
+        <v>228.4569138276553</v>
       </c>
       <c r="HZ2" t="n">
-        <v>281.9438877755511</v>
+        <v>229.4589178356713</v>
       </c>
       <c r="IA2" t="n">
-        <v>282.7515030060121</v>
+        <v>230.4609218436873</v>
       </c>
       <c r="IB2" t="n">
-        <v>283.559118236473</v>
+        <v>231.4629258517034</v>
       </c>
       <c r="IC2" t="n">
-        <v>284.3667334669339</v>
+        <v>232.4649298597194</v>
       </c>
       <c r="ID2" t="n">
-        <v>285.1743486973948</v>
+        <v>233.4669338677354</v>
       </c>
       <c r="IE2" t="n">
-        <v>285.9819639278557</v>
+        <v>234.4689378757515</v>
       </c>
       <c r="IF2" t="n">
-        <v>286.7895791583167</v>
+        <v>235.4709418837675</v>
       </c>
       <c r="IG2" t="n">
-        <v>287.5971943887776</v>
+        <v>236.4729458917836</v>
       </c>
       <c r="IH2" t="n">
-        <v>288.4048096192384</v>
+        <v>237.4749498997996</v>
       </c>
       <c r="II2" t="n">
-        <v>289.2124248496995</v>
+        <v>238.4769539078156</v>
       </c>
       <c r="IJ2" t="n">
-        <v>290.0200400801604</v>
+        <v>239.4789579158316</v>
       </c>
       <c r="IK2" t="n">
-        <v>290.8276553106213</v>
+        <v>240.4809619238477</v>
       </c>
       <c r="IL2" t="n">
-        <v>291.6352705410822</v>
+        <v>241.4829659318637</v>
       </c>
       <c r="IM2" t="n">
-        <v>292.4428857715431</v>
+        <v>242.4849699398797</v>
       </c>
       <c r="IN2" t="n">
-        <v>293.250501002004</v>
+        <v>243.4869739478958</v>
       </c>
       <c r="IO2" t="n">
-        <v>294.058116232465</v>
+        <v>244.4889779559118</v>
       </c>
       <c r="IP2" t="n">
-        <v>294.8657314629259</v>
+        <v>245.4909819639278</v>
       </c>
       <c r="IQ2" t="n">
-        <v>295.6733466933868</v>
+        <v>246.4929859719439</v>
       </c>
       <c r="IR2" t="n">
-        <v>296.4809619238477</v>
+        <v>247.4949899799599</v>
       </c>
       <c r="IS2" t="n">
-        <v>297.2885771543086</v>
+        <v>248.4969939879759</v>
       </c>
       <c r="IT2" t="n">
-        <v>298.0961923847696</v>
+        <v>249.498997995992</v>
       </c>
       <c r="IU2" t="n">
-        <v>298.9038076152304</v>
+        <v>250.501002004008</v>
       </c>
       <c r="IV2" t="n">
-        <v>299.7114228456913</v>
+        <v>251.503006012024</v>
       </c>
       <c r="IW2" t="n">
-        <v>300.5190380761524</v>
+        <v>252.5050100200401</v>
       </c>
       <c r="IX2" t="n">
-        <v>301.3266533066133</v>
+        <v>253.5070140280561</v>
       </c>
       <c r="IY2" t="n">
-        <v>302.1342685370742</v>
+        <v>254.5090180360721</v>
       </c>
       <c r="IZ2" t="n">
-        <v>302.9418837675351</v>
+        <v>255.5110220440882</v>
       </c>
       <c r="JA2" t="n">
-        <v>303.749498997996</v>
+        <v>256.5130260521042</v>
       </c>
       <c r="JB2" t="n">
-        <v>304.557114228457</v>
+        <v>257.5150300601202</v>
       </c>
       <c r="JC2" t="n">
-        <v>305.3647294589179</v>
+        <v>258.5170340681362</v>
       </c>
       <c r="JD2" t="n">
-        <v>306.1723446893787</v>
+        <v>259.5190380761523</v>
       </c>
       <c r="JE2" t="n">
-        <v>306.9799599198398</v>
+        <v>260.5210420841683</v>
       </c>
       <c r="JF2" t="n">
-        <v>307.7875751503006</v>
+        <v>261.5230460921844</v>
       </c>
       <c r="JG2" t="n">
-        <v>308.5951903807615</v>
+        <v>262.5250501002004</v>
       </c>
       <c r="JH2" t="n">
-        <v>309.4028056112225</v>
+        <v>263.5270541082164</v>
       </c>
       <c r="JI2" t="n">
-        <v>310.2104208416834</v>
+        <v>264.5290581162324</v>
       </c>
       <c r="JJ2" t="n">
-        <v>311.0180360721444</v>
+        <v>265.5310621242485</v>
       </c>
       <c r="JK2" t="n">
-        <v>311.8256513026053</v>
+        <v>266.5330661322645</v>
       </c>
       <c r="JL2" t="n">
-        <v>312.6332665330661</v>
+        <v>267.5350701402805</v>
       </c>
       <c r="JM2" t="n">
-        <v>313.4408817635271</v>
+        <v>268.5370741482965</v>
       </c>
       <c r="JN2" t="n">
-        <v>314.248496993988</v>
+        <v>269.5390781563126</v>
       </c>
       <c r="JO2" t="n">
-        <v>315.0561122244489</v>
+        <v>270.5410821643286</v>
       </c>
       <c r="JP2" t="n">
-        <v>315.8637274549098</v>
+        <v>271.5430861723447</v>
       </c>
       <c r="JQ2" t="n">
-        <v>316.6713426853707</v>
+        <v>272.5450901803607</v>
       </c>
       <c r="JR2" t="n">
-        <v>317.4789579158316</v>
+        <v>273.5470941883767</v>
       </c>
       <c r="JS2" t="n">
-        <v>318.2865731462927</v>
+        <v>274.5490981963928</v>
       </c>
       <c r="JT2" t="n">
-        <v>319.0941883767535</v>
+        <v>275.5511022044088</v>
       </c>
       <c r="JU2" t="n">
-        <v>319.9018036072145</v>
+        <v>276.5531062124248</v>
       </c>
       <c r="JV2" t="n">
-        <v>320.7094188376754</v>
+        <v>277.5551102204408</v>
       </c>
       <c r="JW2" t="n">
-        <v>321.5170340681363</v>
+        <v>278.5571142284569</v>
       </c>
       <c r="JX2" t="n">
-        <v>322.3246492985973</v>
+        <v>279.5591182364729</v>
       </c>
       <c r="JY2" t="n">
-        <v>323.1322645290581</v>
+        <v>280.561122244489</v>
       </c>
       <c r="JZ2" t="n">
-        <v>323.939879759519</v>
+        <v>281.563126252505</v>
       </c>
       <c r="KA2" t="n">
-        <v>324.74749498998</v>
+        <v>282.565130260521</v>
       </c>
       <c r="KB2" t="n">
-        <v>325.5551102204409</v>
+        <v>283.567134268537</v>
       </c>
       <c r="KC2" t="n">
-        <v>326.3627254509018</v>
+        <v>284.5691382765531</v>
       </c>
       <c r="KD2" t="n">
-        <v>327.1703406813627</v>
+        <v>285.5711422845691</v>
       </c>
       <c r="KE2" t="n">
-        <v>327.9779559118236</v>
+        <v>286.5731462925851</v>
       </c>
       <c r="KF2" t="n">
-        <v>328.7855711422847</v>
+        <v>287.5751503006012</v>
       </c>
       <c r="KG2" t="n">
-        <v>329.5931863727455</v>
+        <v>288.5771543086172</v>
       </c>
       <c r="KH2" t="n">
-        <v>330.4008016032064</v>
+        <v>289.5791583166333</v>
       </c>
       <c r="KI2" t="n">
-        <v>331.2084168336674</v>
+        <v>290.5811623246493</v>
       </c>
       <c r="KJ2" t="n">
-        <v>332.0160320641283</v>
+        <v>291.5831663326653</v>
       </c>
       <c r="KK2" t="n">
-        <v>332.8236472945892</v>
+        <v>292.5851703406813</v>
       </c>
       <c r="KL2" t="n">
-        <v>333.6312625250501</v>
+        <v>293.5871743486974</v>
       </c>
       <c r="KM2" t="n">
-        <v>334.438877755511</v>
+        <v>294.5891783567134</v>
       </c>
       <c r="KN2" t="n">
-        <v>335.2464929859719</v>
+        <v>295.5911823647294</v>
       </c>
       <c r="KO2" t="n">
-        <v>336.0541082164329</v>
+        <v>296.5931863727454</v>
       </c>
       <c r="KP2" t="n">
-        <v>336.8617234468938</v>
+        <v>297.5951903807615</v>
       </c>
       <c r="KQ2" t="n">
-        <v>337.6693386773548</v>
+        <v>298.5971943887775</v>
       </c>
       <c r="KR2" t="n">
-        <v>338.4769539078156</v>
+        <v>299.5991983967936</v>
       </c>
       <c r="KS2" t="n">
-        <v>339.2845691382765</v>
+        <v>300.6012024048096</v>
       </c>
       <c r="KT2" t="n">
-        <v>340.0921843687375</v>
+        <v>301.6032064128256</v>
       </c>
       <c r="KU2" t="n">
-        <v>340.8997995991984</v>
+        <v>302.6052104208417</v>
       </c>
       <c r="KV2" t="n">
-        <v>341.7074148296593</v>
+        <v>303.6072144288577</v>
       </c>
       <c r="KW2" t="n">
-        <v>342.5150300601203</v>
+        <v>304.6092184368737</v>
       </c>
       <c r="KX2" t="n">
-        <v>343.3226452905812</v>
+        <v>305.6112224448897</v>
       </c>
       <c r="KY2" t="n">
-        <v>344.1302605210421</v>
+        <v>306.6132264529058</v>
       </c>
       <c r="KZ2" t="n">
-        <v>344.937875751503</v>
+        <v>307.6152304609218</v>
       </c>
       <c r="LA2" t="n">
-        <v>345.7454909819639</v>
+        <v>308.6172344689379</v>
       </c>
       <c r="LB2" t="n">
-        <v>346.553106212425</v>
+        <v>309.6192384769539</v>
       </c>
       <c r="LC2" t="n">
-        <v>347.3607214428858</v>
+        <v>310.6212424849699</v>
       </c>
       <c r="LD2" t="n">
-        <v>348.1683366733467</v>
+        <v>311.6232464929859</v>
       </c>
       <c r="LE2" t="n">
-        <v>348.9759519038077</v>
+        <v>312.625250501002</v>
       </c>
       <c r="LF2" t="n">
-        <v>349.7835671342686</v>
+        <v>313.627254509018</v>
       </c>
       <c r="LG2" t="n">
-        <v>350.5911823647294</v>
+        <v>314.629258517034</v>
       </c>
       <c r="LH2" t="n">
-        <v>351.3987975951904</v>
+        <v>315.6312625250501</v>
       </c>
       <c r="LI2" t="n">
-        <v>352.2064128256513</v>
+        <v>316.6332665330661</v>
       </c>
       <c r="LJ2" t="n">
-        <v>353.0140280561122</v>
+        <v>317.6352705410821</v>
       </c>
       <c r="LK2" t="n">
-        <v>353.8216432865732</v>
+        <v>318.6372745490982</v>
       </c>
       <c r="LL2" t="n">
-        <v>354.6292585170341</v>
+        <v>319.6392785571142</v>
       </c>
       <c r="LM2" t="n">
-        <v>355.436873747495</v>
+        <v>320.6412825651302</v>
       </c>
       <c r="LN2" t="n">
-        <v>356.2444889779559</v>
+        <v>321.6432865731463</v>
       </c>
       <c r="LO2" t="n">
-        <v>357.0521042084168</v>
+        <v>322.6452905811623</v>
       </c>
       <c r="LP2" t="n">
-        <v>357.8597194388778</v>
+        <v>323.6472945891783</v>
       </c>
       <c r="LQ2" t="n">
-        <v>358.6673346693387</v>
+        <v>324.6492985971943</v>
       </c>
       <c r="LR2" t="n">
-        <v>359.4749498997996</v>
+        <v>325.6513026052104</v>
       </c>
       <c r="LS2" t="n">
-        <v>360.2825651302606</v>
+        <v>326.6533066132264</v>
       </c>
       <c r="LT2" t="n">
-        <v>361.0901803607215</v>
+        <v>327.6553106212424</v>
       </c>
       <c r="LU2" t="n">
-        <v>361.8977955911823</v>
+        <v>328.6573146292585</v>
       </c>
       <c r="LV2" t="n">
-        <v>362.7054108216433</v>
+        <v>329.6593186372745</v>
       </c>
       <c r="LW2" t="n">
-        <v>363.5130260521042</v>
+        <v>330.6613226452906</v>
       </c>
       <c r="LX2" t="n">
-        <v>364.3206412825651</v>
+        <v>331.6633266533066</v>
       </c>
       <c r="LY2" t="n">
-        <v>365.1282565130261</v>
+        <v>332.6653306613226</v>
       </c>
       <c r="LZ2" t="n">
-        <v>365.935871743487</v>
+        <v>333.6673346693386</v>
       </c>
       <c r="MA2" t="n">
-        <v>366.7434869739479</v>
+        <v>334.6693386773547</v>
       </c>
       <c r="MB2" t="n">
-        <v>367.5511022044088</v>
+        <v>335.6713426853707</v>
       </c>
       <c r="MC2" t="n">
-        <v>368.3587174348697</v>
+        <v>336.6733466933867</v>
       </c>
       <c r="MD2" t="n">
-        <v>369.1663326653307</v>
+        <v>337.6753507014027</v>
       </c>
       <c r="ME2" t="n">
-        <v>369.9739478957916</v>
+        <v>338.6773547094188</v>
       </c>
       <c r="MF2" t="n">
-        <v>370.7815631262525</v>
+        <v>339.6793587174348</v>
       </c>
       <c r="MG2" t="n">
-        <v>371.5891783567135</v>
+        <v>340.6813627254509</v>
       </c>
       <c r="MH2" t="n">
-        <v>372.3967935871744</v>
+        <v>341.6833667334669</v>
       </c>
       <c r="MI2" t="n">
-        <v>373.2044088176353</v>
+        <v>342.6853707414829</v>
       </c>
       <c r="MJ2" t="n">
-        <v>374.0120240480962</v>
+        <v>343.687374749499</v>
       </c>
       <c r="MK2" t="n">
-        <v>374.8196392785571</v>
+        <v>344.689378757515</v>
       </c>
       <c r="ML2" t="n">
-        <v>375.6272545090181</v>
+        <v>345.691382765531</v>
       </c>
       <c r="MM2" t="n">
-        <v>376.434869739479</v>
+        <v>346.693386773547</v>
       </c>
       <c r="MN2" t="n">
-        <v>377.2424849699399</v>
+        <v>347.6953907815631</v>
       </c>
       <c r="MO2" t="n">
-        <v>378.0501002004008</v>
+        <v>348.6973947895791</v>
       </c>
       <c r="MP2" t="n">
-        <v>378.8577154308617</v>
+        <v>349.6993987975952</v>
       </c>
       <c r="MQ2" t="n">
-        <v>379.6653306613226</v>
+        <v>350.7014028056112</v>
       </c>
       <c r="MR2" t="n">
-        <v>380.4729458917836</v>
+        <v>351.7034068136272</v>
       </c>
       <c r="MS2" t="n">
-        <v>381.2805611222445</v>
+        <v>352.7054108216432</v>
       </c>
       <c r="MT2" t="n">
-        <v>382.0881763527054</v>
+        <v>353.7074148296593</v>
       </c>
       <c r="MU2" t="n">
-        <v>382.8957915831664</v>
+        <v>354.7094188376753</v>
       </c>
       <c r="MV2" t="n">
-        <v>383.7034068136273</v>
+        <v>355.7114228456913</v>
       </c>
       <c r="MW2" t="n">
-        <v>384.5110220440882</v>
+        <v>356.7134268537074</v>
       </c>
       <c r="MX2" t="n">
-        <v>385.3186372745491</v>
+        <v>357.7154308617234</v>
       </c>
       <c r="MY2" t="n">
-        <v>386.12625250501</v>
+        <v>358.7174348697395</v>
       </c>
       <c r="MZ2" t="n">
-        <v>386.933867735471</v>
+        <v>359.7194388777555</v>
       </c>
       <c r="NA2" t="n">
-        <v>387.7414829659319</v>
+        <v>360.7214428857715</v>
       </c>
       <c r="NB2" t="n">
-        <v>388.5490981963928</v>
+        <v>361.7234468937875</v>
       </c>
       <c r="NC2" t="n">
-        <v>389.3567134268538</v>
+        <v>362.7254509018036</v>
       </c>
       <c r="ND2" t="n">
-        <v>390.1643286573146</v>
+        <v>363.7274549098196</v>
       </c>
       <c r="NE2" t="n">
-        <v>390.9719438877755</v>
+        <v>364.7294589178356</v>
       </c>
       <c r="NF2" t="n">
-        <v>391.7795591182365</v>
+        <v>365.7314629258516</v>
       </c>
       <c r="NG2" t="n">
-        <v>392.5871743486974</v>
+        <v>366.7334669338677</v>
       </c>
       <c r="NH2" t="n">
-        <v>393.3947895791584</v>
+        <v>367.7354709418837</v>
       </c>
       <c r="NI2" t="n">
-        <v>394.2024048096193</v>
+        <v>368.7374749498998</v>
       </c>
       <c r="NJ2" t="n">
-        <v>395.0100200400802</v>
+        <v>369.7394789579158</v>
       </c>
       <c r="NK2" t="n">
-        <v>395.8176352705411</v>
+        <v>370.7414829659318</v>
       </c>
       <c r="NL2" t="n">
-        <v>396.625250501002</v>
+        <v>371.7434869739479</v>
       </c>
       <c r="NM2" t="n">
-        <v>397.4328657314629</v>
+        <v>372.7454909819639</v>
       </c>
       <c r="NN2" t="n">
-        <v>398.2404809619239</v>
+        <v>373.7474949899799</v>
       </c>
       <c r="NO2" t="n">
-        <v>399.0480961923848</v>
+        <v>374.7494989979959</v>
       </c>
       <c r="NP2" t="n">
-        <v>399.8557114228457</v>
+        <v>375.751503006012</v>
       </c>
       <c r="NQ2" t="n">
-        <v>400.6633266533067</v>
+        <v>376.753507014028</v>
       </c>
       <c r="NR2" t="n">
-        <v>401.4709418837675</v>
+        <v>377.7555110220441</v>
       </c>
       <c r="NS2" t="n">
-        <v>402.2785571142285</v>
+        <v>378.7575150300601</v>
       </c>
       <c r="NT2" t="n">
-        <v>403.0861723446894</v>
+        <v>379.7595190380761</v>
       </c>
       <c r="NU2" t="n">
-        <v>403.8937875751503</v>
+        <v>380.7615230460921</v>
       </c>
       <c r="NV2" t="n">
-        <v>404.7014028056113</v>
+        <v>381.7635270541082</v>
       </c>
       <c r="NW2" t="n">
-        <v>405.5090180360722</v>
+        <v>382.7655310621242</v>
       </c>
       <c r="NX2" t="n">
-        <v>406.3166332665331</v>
+        <v>383.7675350701402</v>
       </c>
       <c r="NY2" t="n">
-        <v>407.124248496994</v>
+        <v>384.7695390781563</v>
       </c>
       <c r="NZ2" t="n">
-        <v>407.9318637274549</v>
+        <v>385.7715430861723</v>
       </c>
       <c r="OA2" t="n">
-        <v>408.7394789579158</v>
+        <v>386.7735470941884</v>
       </c>
       <c r="OB2" t="n">
-        <v>409.5470941883768</v>
+        <v>387.7755511022044</v>
       </c>
       <c r="OC2" t="n">
-        <v>410.3547094188377</v>
+        <v>388.7775551102204</v>
       </c>
       <c r="OD2" t="n">
-        <v>411.1623246492987</v>
+        <v>389.7795591182364</v>
       </c>
       <c r="OE2" t="n">
-        <v>411.9699398797596</v>
+        <v>390.7815631262525</v>
       </c>
       <c r="OF2" t="n">
-        <v>412.7775551102205</v>
+        <v>391.7835671342685</v>
       </c>
       <c r="OG2" t="n">
-        <v>413.5851703406814</v>
+        <v>392.7855711422845</v>
       </c>
       <c r="OH2" t="n">
-        <v>414.3927855711423</v>
+        <v>393.7875751503005</v>
       </c>
       <c r="OI2" t="n">
-        <v>415.2004008016032</v>
+        <v>394.7895791583166</v>
       </c>
       <c r="OJ2" t="n">
-        <v>416.0080160320642</v>
+        <v>395.7915831663326</v>
       </c>
       <c r="OK2" t="n">
-        <v>416.8156312625251</v>
+        <v>396.7935871743487</v>
       </c>
       <c r="OL2" t="n">
-        <v>417.623246492986</v>
+        <v>397.7955911823647</v>
       </c>
       <c r="OM2" t="n">
-        <v>418.4308617234469</v>
+        <v>398.7975951903807</v>
       </c>
       <c r="ON2" t="n">
-        <v>419.2384769539078</v>
+        <v>399.7995991983968</v>
       </c>
       <c r="OO2" t="n">
-        <v>420.0460921843688</v>
+        <v>400.8016032064128</v>
       </c>
       <c r="OP2" t="n">
-        <v>420.8537074148297</v>
+        <v>401.8036072144288</v>
       </c>
       <c r="OQ2" t="n">
-        <v>421.6613226452906</v>
+        <v>402.8056112224448</v>
       </c>
       <c r="OR2" t="n">
-        <v>422.4689378757516</v>
+        <v>403.8076152304609</v>
       </c>
       <c r="OS2" t="n">
-        <v>423.2765531062125</v>
+        <v>404.8096192384769</v>
       </c>
       <c r="OT2" t="n">
-        <v>424.0841683366734</v>
+        <v>405.811623246493</v>
       </c>
       <c r="OU2" t="n">
-        <v>424.8917835671343</v>
+        <v>406.813627254509</v>
       </c>
       <c r="OV2" t="n">
-        <v>425.6993987975952</v>
+        <v>407.815631262525</v>
       </c>
       <c r="OW2" t="n">
-        <v>426.5070140280561</v>
+        <v>408.817635270541</v>
       </c>
       <c r="OX2" t="n">
-        <v>427.3146292585171</v>
+        <v>409.8196392785571</v>
       </c>
       <c r="OY2" t="n">
-        <v>428.122244488978</v>
+        <v>410.8216432865731</v>
       </c>
       <c r="OZ2" t="n">
-        <v>428.929859719439</v>
+        <v>411.8236472945891</v>
       </c>
       <c r="PA2" t="n">
-        <v>429.7374749498998</v>
+        <v>412.8256513026051</v>
       </c>
       <c r="PB2" t="n">
-        <v>430.5450901803607</v>
+        <v>413.8276553106212</v>
       </c>
       <c r="PC2" t="n">
-        <v>431.3527054108217</v>
+        <v>414.8296593186373</v>
       </c>
       <c r="PD2" t="n">
-        <v>432.1603206412826</v>
+        <v>415.8316633266533</v>
       </c>
       <c r="PE2" t="n">
-        <v>432.9679358717435</v>
+        <v>416.8336673346693</v>
       </c>
       <c r="PF2" t="n">
-        <v>433.7755511022045</v>
+        <v>417.8356713426853</v>
       </c>
       <c r="PG2" t="n">
-        <v>434.5831663326654</v>
+        <v>418.8376753507014</v>
       </c>
       <c r="PH2" t="n">
-        <v>435.3907815631263</v>
+        <v>419.8396793587174</v>
       </c>
       <c r="PI2" t="n">
-        <v>436.1983967935872</v>
+        <v>420.8416833667334</v>
       </c>
       <c r="PJ2" t="n">
-        <v>437.0060120240481</v>
+        <v>421.8436873747494</v>
       </c>
       <c r="PK2" t="n">
-        <v>437.8136272545091</v>
+        <v>422.8456913827655</v>
       </c>
       <c r="PL2" t="n">
-        <v>438.62124248497</v>
+        <v>423.8476953907815</v>
       </c>
       <c r="PM2" t="n">
-        <v>439.4288577154309</v>
+        <v>424.8496993987976</v>
       </c>
       <c r="PN2" t="n">
-        <v>440.2364729458919</v>
+        <v>425.8517034068136</v>
       </c>
       <c r="PO2" t="n">
-        <v>441.0440881763527</v>
+        <v>426.8537074148296</v>
       </c>
       <c r="PP2" t="n">
-        <v>441.8517034068136</v>
+        <v>427.8557114228457</v>
       </c>
       <c r="PQ2" t="n">
-        <v>442.6593186372746</v>
+        <v>428.8577154308617</v>
       </c>
       <c r="PR2" t="n">
-        <v>443.4669338677355</v>
+        <v>429.8597194388777</v>
       </c>
       <c r="PS2" t="n">
-        <v>444.2745490981964</v>
+        <v>430.8617234468937</v>
       </c>
       <c r="PT2" t="n">
-        <v>445.0821643286574</v>
+        <v>431.8637274549098</v>
       </c>
       <c r="PU2" t="n">
-        <v>445.8897795591183</v>
+        <v>432.8657314629258</v>
       </c>
       <c r="PV2" t="n">
-        <v>446.6973947895792</v>
+        <v>433.8677354709419</v>
       </c>
       <c r="PW2" t="n">
-        <v>447.5050100200401</v>
+        <v>434.8697394789579</v>
       </c>
       <c r="PX2" t="n">
-        <v>448.312625250501</v>
+        <v>435.8717434869739</v>
       </c>
       <c r="PY2" t="n">
-        <v>449.120240480962</v>
+        <v>436.8737474949899</v>
       </c>
       <c r="PZ2" t="n">
-        <v>449.9278557114229</v>
+        <v>437.875751503006</v>
       </c>
       <c r="QA2" t="n">
-        <v>450.7354709418838</v>
+        <v>438.877755511022</v>
       </c>
       <c r="QB2" t="n">
-        <v>451.5430861723448</v>
+        <v>439.879759519038</v>
       </c>
       <c r="QC2" t="n">
-        <v>452.3507014028057</v>
+        <v>440.881763527054</v>
       </c>
       <c r="QD2" t="n">
-        <v>453.1583166332665</v>
+        <v>441.8837675350701</v>
       </c>
       <c r="QE2" t="n">
-        <v>453.9659318637275</v>
+        <v>442.8857715430862</v>
       </c>
       <c r="QF2" t="n">
-        <v>454.7735470941884</v>
+        <v>443.8877755511022</v>
       </c>
       <c r="QG2" t="n">
-        <v>455.5811623246494</v>
+        <v>444.8897795591182</v>
       </c>
       <c r="QH2" t="n">
-        <v>456.3887775551103</v>
+        <v>445.8917835671342</v>
       </c>
       <c r="QI2" t="n">
-        <v>457.1963927855712</v>
+        <v>446.8937875751503</v>
       </c>
       <c r="QJ2" t="n">
-        <v>458.0040080160321</v>
+        <v>447.8957915831663</v>
       </c>
       <c r="QK2" t="n">
-        <v>458.811623246493</v>
+        <v>448.8977955911823</v>
       </c>
       <c r="QL2" t="n">
-        <v>459.6192384769539</v>
+        <v>449.8997995991983</v>
       </c>
       <c r="QM2" t="n">
-        <v>460.4268537074149</v>
+        <v>450.9018036072144</v>
       </c>
       <c r="QN2" t="n">
-        <v>461.2344689378758</v>
+        <v>451.9038076152304</v>
       </c>
       <c r="QO2" t="n">
-        <v>462.0420841683367</v>
+        <v>452.9058116232464</v>
       </c>
       <c r="QP2" t="n">
-        <v>462.8496993987977</v>
+        <v>453.9078156312625</v>
       </c>
       <c r="QQ2" t="n">
-        <v>463.6573146292586</v>
+        <v>454.9098196392785</v>
       </c>
       <c r="QR2" t="n">
-        <v>464.4649298597195</v>
+        <v>455.9118236472945</v>
       </c>
       <c r="QS2" t="n">
-        <v>465.2725450901804</v>
+        <v>456.9138276553106</v>
       </c>
       <c r="QT2" t="n">
-        <v>466.0801603206413</v>
+        <v>457.9158316633266</v>
       </c>
       <c r="QU2" t="n">
-        <v>466.8877755511023</v>
+        <v>458.9178356713426</v>
       </c>
       <c r="QV2" t="n">
-        <v>467.6953907815632</v>
+        <v>459.9198396793587</v>
       </c>
       <c r="QW2" t="n">
-        <v>468.5030060120241</v>
+        <v>460.9218436873747</v>
       </c>
       <c r="QX2" t="n">
-        <v>469.310621242485</v>
+        <v>461.9238476953907</v>
       </c>
       <c r="QY2" t="n">
-        <v>470.1182364729459</v>
+        <v>462.9258517034067</v>
       </c>
       <c r="QZ2" t="n">
-        <v>470.9258517034068</v>
+        <v>463.9278557114228</v>
       </c>
       <c r="RA2" t="n">
-        <v>471.7334669338678</v>
+        <v>464.9298597194388</v>
       </c>
       <c r="RB2" t="n">
-        <v>472.5410821643287</v>
+        <v>465.9318637274549</v>
       </c>
       <c r="RC2" t="n">
-        <v>473.3486973947897</v>
+        <v>466.9338677354709</v>
       </c>
       <c r="RD2" t="n">
-        <v>474.1563126252506</v>
+        <v>467.9358717434869</v>
       </c>
       <c r="RE2" t="n">
-        <v>474.9639278557115</v>
+        <v>468.9378757515029</v>
       </c>
       <c r="RF2" t="n">
-        <v>475.7715430861724</v>
+        <v>469.939879759519</v>
       </c>
       <c r="RG2" t="n">
-        <v>476.5791583166333</v>
+        <v>470.941883767535</v>
       </c>
       <c r="RH2" t="n">
-        <v>477.3867735470942</v>
+        <v>471.943887775551</v>
       </c>
       <c r="RI2" t="n">
-        <v>478.1943887775552</v>
+        <v>472.9458917835671</v>
       </c>
       <c r="RJ2" t="n">
-        <v>479.0020040080161</v>
+        <v>473.9478957915831</v>
       </c>
       <c r="RK2" t="n">
-        <v>479.809619238477</v>
+        <v>474.9498997995992</v>
       </c>
       <c r="RL2" t="n">
-        <v>480.6172344689379</v>
+        <v>475.9519038076152</v>
       </c>
       <c r="RM2" t="n">
-        <v>481.4248496993988</v>
+        <v>476.9539078156312</v>
       </c>
       <c r="RN2" t="n">
-        <v>482.2324649298598</v>
+        <v>477.9559118236472</v>
       </c>
       <c r="RO2" t="n">
-        <v>483.0400801603207</v>
+        <v>478.9579158316633</v>
       </c>
       <c r="RP2" t="n">
-        <v>483.8476953907816</v>
+        <v>479.9599198396793</v>
       </c>
       <c r="RQ2" t="n">
-        <v>484.6553106212426</v>
+        <v>480.9619238476953</v>
       </c>
       <c r="RR2" t="n">
-        <v>485.4629258517035</v>
+        <v>481.9639278557113</v>
       </c>
       <c r="RS2" t="n">
-        <v>486.2705410821644</v>
+        <v>482.9659318637274</v>
       </c>
       <c r="RT2" t="n">
-        <v>487.0781563126253</v>
+        <v>483.9679358717434</v>
       </c>
       <c r="RU2" t="n">
-        <v>487.8857715430862</v>
+        <v>484.9699398797595</v>
       </c>
       <c r="RV2" t="n">
-        <v>488.6933867735471</v>
+        <v>485.9719438877755</v>
       </c>
       <c r="RW2" t="n">
-        <v>489.5010020040081</v>
+        <v>486.9739478957915</v>
       </c>
       <c r="RX2" t="n">
-        <v>490.308617234469</v>
+        <v>487.9759519038076</v>
       </c>
       <c r="RY2" t="n">
-        <v>491.11623246493</v>
+        <v>488.9779559118236</v>
       </c>
       <c r="RZ2" t="n">
-        <v>491.9238476953909</v>
+        <v>489.9799599198396</v>
       </c>
       <c r="SA2" t="n">
-        <v>492.7314629258517</v>
+        <v>490.9819639278556</v>
       </c>
       <c r="SB2" t="n">
-        <v>493.5390781563127</v>
+        <v>491.9839679358717</v>
       </c>
       <c r="SC2" t="n">
-        <v>494.3466933867736</v>
+        <v>492.9859719438877</v>
       </c>
       <c r="SD2" t="n">
-        <v>495.1543086172345</v>
+        <v>493.9879759519038</v>
       </c>
       <c r="SE2" t="n">
-        <v>495.9619238476955</v>
+        <v>494.9899799599198</v>
       </c>
       <c r="SF2" t="n">
-        <v>496.7695390781564</v>
+        <v>495.9919839679358</v>
       </c>
       <c r="SG2" t="n">
-        <v>497.5771543086173</v>
+        <v>496.9939879759518</v>
       </c>
       <c r="SH2" t="n">
-        <v>498.3847695390782</v>
+        <v>497.9959919839679</v>
       </c>
       <c r="SI2" t="n">
-        <v>499.1923847695391</v>
+        <v>498.9979959919839</v>
       </c>
       <c r="SJ2" t="n">
         <v>500</v>
@@ -3477,1501 +3477,1501 @@
         <v>-2.104954687880876</v>
       </c>
       <c r="E3" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>96.80561122244488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96.61122244488978</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>96.41683366733467</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96.22244488977955</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.02805611222445</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>95.83366733466934</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95.63927855711422</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>95.44488977955912</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>95.250501002004</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>95.0561122244489</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>94.86172344689379</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.66733466933867</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.47294589178357</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>94.27855711422846</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>94.08416833667334</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>93.88977955911824</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>93.69539078156312</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>93.50100200400801</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>93.30661322645291</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>93.11222444889779</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>92.91783567134269</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.72344689378758</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.52905811623246</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.33466933867736</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>92.14028056112224</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>91.94589178356713</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>91.75150300601203</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>91.55711422845691</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>91.36272545090181</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>91.1683366733467</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>90.97394789579158</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>90.77955911823648</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>90.58517034068136</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>90.39078156312625</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>90.19639278557115</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>90.00200400801603</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>89.80761523046093</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>89.61322645290582</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>89.4188376753507</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>89.2244488977956</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>89.03006012024048</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>88.83567134268537</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>88.64128256513027</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>88.44689378757515</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>88.25250501002004</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>88.05811623246494</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>87.86372745490982</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>87.66933867735472</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>87.4749498997996</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>87.28056112224448</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>87.08617234468937</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>86.89178356713427</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>86.69739478957915</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>86.50300601202404</v>
+        <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>86.30861723446893</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>86.11422845691382</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>85.91983967935872</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>85.7254509018036</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>85.53106212424849</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>85.33667334669339</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>85.14228456913827</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>84.94789579158316</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>84.75350701402805</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>84.55911823647294</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>84.36472945891784</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>84.17034068136272</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>83.97595190380761</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>83.78156312625251</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>83.58717434869739</v>
+        <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>83.39278557114228</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>83.19839679358716</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>83.00400801603206</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>82.80961923847696</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>82.61523046092184</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>82.42084168336673</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>82.22645290581163</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>82.03206412825651</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>81.8376753507014</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>81.64328657314628</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>81.44889779559118</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>81.25450901803607</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>81.06012024048096</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>80.86573146292585</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>80.67134268537075</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>80.47695390781563</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>80.28256513026052</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>80.0881763527054</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>79.8937875751503</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>79.69939879759519</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>79.50501002004007</v>
+        <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>79.31062124248497</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>79.11623246492987</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>78.92184368737475</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>78.72745490981964</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>78.53306613226452</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>78.33867735470942</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>78.14428857715431</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>77.94989979959919</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>77.75551102204409</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>77.56112224448898</v>
+        <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>77.36673346693387</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>77.17234468937876</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>76.97795591182364</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>76.78356713426854</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>76.58917835671343</v>
+        <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>76.39478957915831</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>76.20040080160321</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>76.0060120240481</v>
+        <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>75.81162324649299</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>75.61723446893788</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>75.42284569138276</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>75.22845691382766</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>75.03406813627255</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>74.83967935871743</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>74.64529058116233</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>74.45090180360722</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>74.2565130260521</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>74.06212424849699</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>73.86773547094188</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>73.67334669338676</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>73.47895791583166</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>73.28456913827654</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>73.09018036072143</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>72.89579158316633</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>72.70140280561121</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>72.5070140280561</v>
+        <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>72.312625250501</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>72.11823647294588</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>71.92384769539078</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>71.72945891783567</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>71.53507014028055</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>71.34068136272545</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>71.14629258517033</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>70.95190380761522</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>70.75751503006012</v>
+        <v>0</v>
       </c>
       <c r="EK3" t="n">
-        <v>70.563126252505</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>70.3687374749499</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>70.17434869739478</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>69.97995991983967</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>69.78557114228457</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>69.59118236472945</v>
+        <v>0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>69.39679358717434</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>69.20240480961924</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>69.00801603206412</v>
+        <v>0</v>
       </c>
       <c r="ET3" t="n">
-        <v>68.81362725450902</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>68.61923847695391</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>68.42484969939879</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>68.23046092184369</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>68.03607214428857</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>67.84168336673346</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>67.64729458917836</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>67.45290581162324</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>67.25851703406813</v>
+        <v>0</v>
       </c>
       <c r="FC3" t="n">
-        <v>67.06412825651302</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>66.86973947895791</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>66.67535070140281</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>66.48096192384769</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>66.28657314629258</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>66.09218436873748</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>65.89779559118236</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>65.70340681362725</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>65.50901803607215</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>65.31462925851703</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>65.12024048096193</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>64.92585170340681</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>64.7314629258517</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>64.5370741482966</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>64.34268537074148</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>64.14829659318637</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>63.95390781563126</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>63.75951903807615</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>63.56513026052104</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>63.37074148296593</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>63.17635270541082</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>62.98196392785571</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>62.7875751503006</v>
+        <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>62.59318637274549</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>62.39879759519038</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>62.20440881763527</v>
+        <v>0</v>
       </c>
       <c r="GC3" t="n">
-        <v>62.01002004008016</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>61.81563126252505</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
-        <v>61.62124248496994</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>61.42685370741483</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>61.23246492985972</v>
+        <v>0</v>
       </c>
       <c r="GH3" t="n">
-        <v>61.03807615230461</v>
+        <v>0</v>
       </c>
       <c r="GI3" t="n">
-        <v>60.8436873747495</v>
+        <v>0</v>
       </c>
       <c r="GJ3" t="n">
-        <v>60.64929859719439</v>
+        <v>0</v>
       </c>
       <c r="GK3" t="n">
-        <v>60.45490981963928</v>
+        <v>0</v>
       </c>
       <c r="GL3" t="n">
-        <v>60.26052104208417</v>
+        <v>0</v>
       </c>
       <c r="GM3" t="n">
-        <v>60.06613226452906</v>
+        <v>0</v>
       </c>
       <c r="GN3" t="n">
-        <v>59.87174348697395</v>
+        <v>0</v>
       </c>
       <c r="GO3" t="n">
-        <v>59.67735470941884</v>
+        <v>0</v>
       </c>
       <c r="GP3" t="n">
-        <v>59.48296593186373</v>
+        <v>0</v>
       </c>
       <c r="GQ3" t="n">
-        <v>59.28857715430862</v>
+        <v>0</v>
       </c>
       <c r="GR3" t="n">
-        <v>59.09418837675351</v>
+        <v>0</v>
       </c>
       <c r="GS3" t="n">
-        <v>58.8997995991984</v>
+        <v>0</v>
       </c>
       <c r="GT3" t="n">
-        <v>58.70541082164329</v>
+        <v>0</v>
       </c>
       <c r="GU3" t="n">
-        <v>58.51102204408818</v>
+        <v>0</v>
       </c>
       <c r="GV3" t="n">
-        <v>58.31663326653307</v>
+        <v>0</v>
       </c>
       <c r="GW3" t="n">
-        <v>58.12224448897796</v>
+        <v>0</v>
       </c>
       <c r="GX3" t="n">
-        <v>57.92785571142285</v>
+        <v>0</v>
       </c>
       <c r="GY3" t="n">
-        <v>57.73346693386774</v>
+        <v>0</v>
       </c>
       <c r="GZ3" t="n">
-        <v>57.53907815631263</v>
+        <v>0</v>
       </c>
       <c r="HA3" t="n">
-        <v>57.34468937875752</v>
+        <v>0</v>
       </c>
       <c r="HB3" t="n">
-        <v>57.15030060120241</v>
+        <v>0</v>
       </c>
       <c r="HC3" t="n">
-        <v>56.9559118236473</v>
+        <v>0</v>
       </c>
       <c r="HD3" t="n">
-        <v>56.76152304609219</v>
+        <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>56.56713426853707</v>
+        <v>0</v>
       </c>
       <c r="HF3" t="n">
-        <v>56.37274549098197</v>
+        <v>0</v>
       </c>
       <c r="HG3" t="n">
-        <v>56.17835671342686</v>
+        <v>0</v>
       </c>
       <c r="HH3" t="n">
-        <v>55.98396793587175</v>
+        <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>55.78957915831664</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
-        <v>55.59519038076153</v>
+        <v>0</v>
       </c>
       <c r="HK3" t="n">
-        <v>55.40080160320642</v>
+        <v>0</v>
       </c>
       <c r="HL3" t="n">
-        <v>55.20641282565131</v>
+        <v>0</v>
       </c>
       <c r="HM3" t="n">
-        <v>55.01202404809619</v>
+        <v>0</v>
       </c>
       <c r="HN3" t="n">
-        <v>54.81763527054109</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>54.62324649298598</v>
+        <v>0</v>
       </c>
       <c r="HP3" t="n">
-        <v>54.42885771543087</v>
+        <v>0</v>
       </c>
       <c r="HQ3" t="n">
-        <v>54.23446893787576</v>
+        <v>0</v>
       </c>
       <c r="HR3" t="n">
-        <v>54.04008016032065</v>
+        <v>0</v>
       </c>
       <c r="HS3" t="n">
-        <v>53.84569138276554</v>
+        <v>0</v>
       </c>
       <c r="HT3" t="n">
-        <v>53.65130260521043</v>
+        <v>0</v>
       </c>
       <c r="HU3" t="n">
-        <v>53.45691382765531</v>
+        <v>0</v>
       </c>
       <c r="HV3" t="n">
-        <v>53.26252505010021</v>
+        <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>53.0681362725451</v>
+        <v>0</v>
       </c>
       <c r="HX3" t="n">
-        <v>52.87374749498998</v>
+        <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>52.67935871743488</v>
+        <v>0</v>
       </c>
       <c r="HZ3" t="n">
-        <v>52.48496993987977</v>
+        <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>52.29058116232466</v>
+        <v>0</v>
       </c>
       <c r="IB3" t="n">
-        <v>52.09619238476954</v>
+        <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>51.90180360721443</v>
+        <v>0</v>
       </c>
       <c r="ID3" t="n">
-        <v>51.70741482965933</v>
+        <v>0</v>
       </c>
       <c r="IE3" t="n">
-        <v>51.51302605210422</v>
+        <v>0</v>
       </c>
       <c r="IF3" t="n">
-        <v>51.3186372745491</v>
+        <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>51.12424849699399</v>
+        <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>50.92985971943887</v>
+        <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>50.73547094188376</v>
+        <v>0</v>
       </c>
       <c r="IJ3" t="n">
-        <v>50.54108216432866</v>
+        <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>50.34669338677354</v>
+        <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>50.15230460921843</v>
+        <v>0</v>
       </c>
       <c r="IM3" t="n">
-        <v>49.95791583166332</v>
+        <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>49.76352705410822</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>49.5691382765531</v>
+        <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>49.37474949899799</v>
+        <v>0</v>
       </c>
       <c r="IQ3" t="n">
-        <v>49.18036072144288</v>
+        <v>0</v>
       </c>
       <c r="IR3" t="n">
-        <v>48.98597194388778</v>
+        <v>0</v>
       </c>
       <c r="IS3" t="n">
-        <v>48.79158316633266</v>
+        <v>0</v>
       </c>
       <c r="IT3" t="n">
-        <v>48.59719438877755</v>
+        <v>0</v>
       </c>
       <c r="IU3" t="n">
-        <v>48.40280561122244</v>
+        <v>0</v>
       </c>
       <c r="IV3" t="n">
-        <v>48.20841683366734</v>
+        <v>0</v>
       </c>
       <c r="IW3" t="n">
-        <v>48.01402805611222</v>
+        <v>0</v>
       </c>
       <c r="IX3" t="n">
-        <v>47.81963927855711</v>
+        <v>0</v>
       </c>
       <c r="IY3" t="n">
-        <v>47.625250501002</v>
+        <v>0</v>
       </c>
       <c r="IZ3" t="n">
-        <v>47.4308617234469</v>
+        <v>0</v>
       </c>
       <c r="JA3" t="n">
-        <v>47.23647294589178</v>
+        <v>0</v>
       </c>
       <c r="JB3" t="n">
-        <v>47.04208416833667</v>
+        <v>0</v>
       </c>
       <c r="JC3" t="n">
-        <v>46.84769539078156</v>
+        <v>0</v>
       </c>
       <c r="JD3" t="n">
-        <v>46.65330661322646</v>
+        <v>0</v>
       </c>
       <c r="JE3" t="n">
-        <v>46.45891783567134</v>
+        <v>0</v>
       </c>
       <c r="JF3" t="n">
-        <v>46.26452905811623</v>
+        <v>0</v>
       </c>
       <c r="JG3" t="n">
-        <v>46.07014028056112</v>
+        <v>0</v>
       </c>
       <c r="JH3" t="n">
-        <v>45.87575150300601</v>
+        <v>0</v>
       </c>
       <c r="JI3" t="n">
-        <v>45.6813627254509</v>
+        <v>0</v>
       </c>
       <c r="JJ3" t="n">
-        <v>45.48697394789579</v>
+        <v>0</v>
       </c>
       <c r="JK3" t="n">
-        <v>45.29258517034068</v>
+        <v>0</v>
       </c>
       <c r="JL3" t="n">
-        <v>45.09819639278557</v>
+        <v>0</v>
       </c>
       <c r="JM3" t="n">
-        <v>44.90380761523046</v>
+        <v>0</v>
       </c>
       <c r="JN3" t="n">
-        <v>44.70941883767535</v>
+        <v>0</v>
       </c>
       <c r="JO3" t="n">
-        <v>44.51503006012024</v>
+        <v>0</v>
       </c>
       <c r="JP3" t="n">
-        <v>44.32064128256513</v>
+        <v>0</v>
       </c>
       <c r="JQ3" t="n">
-        <v>44.12625250501002</v>
+        <v>0</v>
       </c>
       <c r="JR3" t="n">
-        <v>43.93186372745491</v>
+        <v>0</v>
       </c>
       <c r="JS3" t="n">
-        <v>43.7374749498998</v>
+        <v>0</v>
       </c>
       <c r="JT3" t="n">
-        <v>43.54308617234469</v>
+        <v>0</v>
       </c>
       <c r="JU3" t="n">
-        <v>43.34869739478958</v>
+        <v>0</v>
       </c>
       <c r="JV3" t="n">
-        <v>43.15430861723447</v>
+        <v>0</v>
       </c>
       <c r="JW3" t="n">
-        <v>42.95991983967936</v>
+        <v>0</v>
       </c>
       <c r="JX3" t="n">
-        <v>42.76553106212425</v>
+        <v>0</v>
       </c>
       <c r="JY3" t="n">
-        <v>42.57114228456914</v>
+        <v>0</v>
       </c>
       <c r="JZ3" t="n">
-        <v>42.37675350701403</v>
+        <v>0</v>
       </c>
       <c r="KA3" t="n">
-        <v>42.18236472945892</v>
+        <v>0</v>
       </c>
       <c r="KB3" t="n">
-        <v>41.98797595190381</v>
+        <v>0</v>
       </c>
       <c r="KC3" t="n">
-        <v>41.7935871743487</v>
+        <v>0</v>
       </c>
       <c r="KD3" t="n">
-        <v>41.59919839679359</v>
+        <v>0</v>
       </c>
       <c r="KE3" t="n">
-        <v>41.40480961923848</v>
+        <v>0</v>
       </c>
       <c r="KF3" t="n">
-        <v>41.21042084168337</v>
+        <v>0</v>
       </c>
       <c r="KG3" t="n">
-        <v>41.01603206412826</v>
+        <v>0</v>
       </c>
       <c r="KH3" t="n">
-        <v>40.82164328657315</v>
+        <v>0</v>
       </c>
       <c r="KI3" t="n">
-        <v>40.62725450901804</v>
+        <v>0</v>
       </c>
       <c r="KJ3" t="n">
-        <v>40.43286573146293</v>
+        <v>0</v>
       </c>
       <c r="KK3" t="n">
-        <v>40.23847695390782</v>
+        <v>0</v>
       </c>
       <c r="KL3" t="n">
-        <v>40.04408817635271</v>
+        <v>0</v>
       </c>
       <c r="KM3" t="n">
-        <v>39.8496993987976</v>
+        <v>0</v>
       </c>
       <c r="KN3" t="n">
-        <v>39.65531062124249</v>
+        <v>0</v>
       </c>
       <c r="KO3" t="n">
-        <v>39.46092184368738</v>
+        <v>0</v>
       </c>
       <c r="KP3" t="n">
-        <v>39.26653306613227</v>
+        <v>0</v>
       </c>
       <c r="KQ3" t="n">
-        <v>39.07214428857716</v>
+        <v>0</v>
       </c>
       <c r="KR3" t="n">
-        <v>38.87775551102204</v>
+        <v>0</v>
       </c>
       <c r="KS3" t="n">
-        <v>38.68336673346693</v>
+        <v>0</v>
       </c>
       <c r="KT3" t="n">
-        <v>38.48897795591182</v>
+        <v>0</v>
       </c>
       <c r="KU3" t="n">
-        <v>38.29458917835671</v>
+        <v>0</v>
       </c>
       <c r="KV3" t="n">
-        <v>38.1002004008016</v>
+        <v>0</v>
       </c>
       <c r="KW3" t="n">
-        <v>37.90581162324649</v>
+        <v>0</v>
       </c>
       <c r="KX3" t="n">
-        <v>37.71142284569138</v>
+        <v>0</v>
       </c>
       <c r="KY3" t="n">
-        <v>37.51703406813627</v>
+        <v>0</v>
       </c>
       <c r="KZ3" t="n">
-        <v>37.32264529058116</v>
+        <v>0</v>
       </c>
       <c r="LA3" t="n">
-        <v>37.12825651302605</v>
+        <v>0</v>
       </c>
       <c r="LB3" t="n">
-        <v>36.93386773547094</v>
+        <v>0</v>
       </c>
       <c r="LC3" t="n">
-        <v>36.73947895791583</v>
+        <v>0</v>
       </c>
       <c r="LD3" t="n">
-        <v>36.54509018036072</v>
+        <v>0</v>
       </c>
       <c r="LE3" t="n">
-        <v>36.3507014028056</v>
+        <v>0</v>
       </c>
       <c r="LF3" t="n">
-        <v>36.1563126252505</v>
+        <v>0</v>
       </c>
       <c r="LG3" t="n">
-        <v>35.96192384769539</v>
+        <v>0</v>
       </c>
       <c r="LH3" t="n">
-        <v>35.76753507014028</v>
+        <v>0</v>
       </c>
       <c r="LI3" t="n">
-        <v>35.57314629258516</v>
+        <v>0</v>
       </c>
       <c r="LJ3" t="n">
-        <v>35.37875751503006</v>
+        <v>0</v>
       </c>
       <c r="LK3" t="n">
-        <v>35.18436873747495</v>
+        <v>0</v>
       </c>
       <c r="LL3" t="n">
-        <v>34.98997995991984</v>
+        <v>0</v>
       </c>
       <c r="LM3" t="n">
-        <v>34.79559118236472</v>
+        <v>0</v>
       </c>
       <c r="LN3" t="n">
-        <v>34.60120240480962</v>
+        <v>0</v>
       </c>
       <c r="LO3" t="n">
-        <v>34.40681362725451</v>
+        <v>0</v>
       </c>
       <c r="LP3" t="n">
-        <v>34.2124248496994</v>
+        <v>0</v>
       </c>
       <c r="LQ3" t="n">
-        <v>34.01803607214428</v>
+        <v>0</v>
       </c>
       <c r="LR3" t="n">
-        <v>33.82364729458918</v>
+        <v>0</v>
       </c>
       <c r="LS3" t="n">
-        <v>33.62925851703407</v>
+        <v>0</v>
       </c>
       <c r="LT3" t="n">
-        <v>33.43486973947896</v>
+        <v>0</v>
       </c>
       <c r="LU3" t="n">
-        <v>33.24048096192384</v>
+        <v>0</v>
       </c>
       <c r="LV3" t="n">
-        <v>33.04609218436874</v>
+        <v>0</v>
       </c>
       <c r="LW3" t="n">
-        <v>32.85170340681363</v>
+        <v>0</v>
       </c>
       <c r="LX3" t="n">
-        <v>32.65731462925852</v>
+        <v>0</v>
       </c>
       <c r="LY3" t="n">
-        <v>32.4629258517034</v>
+        <v>0</v>
       </c>
       <c r="LZ3" t="n">
-        <v>32.2685370741483</v>
+        <v>0</v>
       </c>
       <c r="MA3" t="n">
-        <v>32.07414829659319</v>
+        <v>0</v>
       </c>
       <c r="MB3" t="n">
-        <v>31.87975951903807</v>
+        <v>0</v>
       </c>
       <c r="MC3" t="n">
-        <v>31.68537074148297</v>
+        <v>0</v>
       </c>
       <c r="MD3" t="n">
-        <v>31.49098196392785</v>
+        <v>0</v>
       </c>
       <c r="ME3" t="n">
-        <v>31.29659318637275</v>
+        <v>0</v>
       </c>
       <c r="MF3" t="n">
-        <v>31.10220440881763</v>
+        <v>0</v>
       </c>
       <c r="MG3" t="n">
-        <v>30.90781563126253</v>
+        <v>0</v>
       </c>
       <c r="MH3" t="n">
-        <v>30.71342685370741</v>
+        <v>0</v>
       </c>
       <c r="MI3" t="n">
-        <v>30.51903807615231</v>
+        <v>0</v>
       </c>
       <c r="MJ3" t="n">
-        <v>30.32464929859719</v>
+        <v>0</v>
       </c>
       <c r="MK3" t="n">
-        <v>30.13026052104209</v>
+        <v>0</v>
       </c>
       <c r="ML3" t="n">
-        <v>29.93587174348697</v>
+        <v>0</v>
       </c>
       <c r="MM3" t="n">
-        <v>29.74148296593187</v>
+        <v>0</v>
       </c>
       <c r="MN3" t="n">
-        <v>29.54709418837675</v>
+        <v>0</v>
       </c>
       <c r="MO3" t="n">
-        <v>29.35270541082165</v>
+        <v>0</v>
       </c>
       <c r="MP3" t="n">
-        <v>29.15831663326653</v>
+        <v>0</v>
       </c>
       <c r="MQ3" t="n">
-        <v>28.96392785571143</v>
+        <v>0</v>
       </c>
       <c r="MR3" t="n">
-        <v>28.76953907815631</v>
+        <v>0</v>
       </c>
       <c r="MS3" t="n">
-        <v>28.57515030060121</v>
+        <v>0</v>
       </c>
       <c r="MT3" t="n">
-        <v>28.38076152304609</v>
+        <v>0</v>
       </c>
       <c r="MU3" t="n">
-        <v>28.18637274549098</v>
+        <v>0</v>
       </c>
       <c r="MV3" t="n">
-        <v>27.99198396793587</v>
+        <v>0</v>
       </c>
       <c r="MW3" t="n">
-        <v>27.79759519038076</v>
+        <v>0</v>
       </c>
       <c r="MX3" t="n">
-        <v>27.60320641282565</v>
+        <v>0</v>
       </c>
       <c r="MY3" t="n">
-        <v>27.40881763527054</v>
+        <v>0</v>
       </c>
       <c r="MZ3" t="n">
-        <v>27.21442885771543</v>
+        <v>0</v>
       </c>
       <c r="NA3" t="n">
-        <v>27.02004008016032</v>
+        <v>0</v>
       </c>
       <c r="NB3" t="n">
-        <v>26.82565130260521</v>
+        <v>0</v>
       </c>
       <c r="NC3" t="n">
-        <v>26.6312625250501</v>
+        <v>0</v>
       </c>
       <c r="ND3" t="n">
-        <v>26.43687374749499</v>
+        <v>0</v>
       </c>
       <c r="NE3" t="n">
-        <v>26.24248496993988</v>
+        <v>0</v>
       </c>
       <c r="NF3" t="n">
-        <v>26.04809619238477</v>
+        <v>0</v>
       </c>
       <c r="NG3" t="n">
-        <v>25.85370741482966</v>
+        <v>0</v>
       </c>
       <c r="NH3" t="n">
-        <v>25.65931863727455</v>
+        <v>0</v>
       </c>
       <c r="NI3" t="n">
-        <v>25.46492985971944</v>
+        <v>0</v>
       </c>
       <c r="NJ3" t="n">
-        <v>25.27054108216433</v>
+        <v>0</v>
       </c>
       <c r="NK3" t="n">
-        <v>25.07615230460922</v>
+        <v>0</v>
       </c>
       <c r="NL3" t="n">
-        <v>24.88176352705411</v>
+        <v>0</v>
       </c>
       <c r="NM3" t="n">
-        <v>24.687374749499</v>
+        <v>0</v>
       </c>
       <c r="NN3" t="n">
-        <v>24.49298597194389</v>
+        <v>0</v>
       </c>
       <c r="NO3" t="n">
-        <v>24.29859719438878</v>
+        <v>0</v>
       </c>
       <c r="NP3" t="n">
-        <v>24.10420841683367</v>
+        <v>0</v>
       </c>
       <c r="NQ3" t="n">
-        <v>23.90981963927856</v>
+        <v>0</v>
       </c>
       <c r="NR3" t="n">
-        <v>23.71543086172345</v>
+        <v>0</v>
       </c>
       <c r="NS3" t="n">
-        <v>23.52104208416834</v>
+        <v>0</v>
       </c>
       <c r="NT3" t="n">
-        <v>23.32665330661323</v>
+        <v>0</v>
       </c>
       <c r="NU3" t="n">
-        <v>23.13226452905812</v>
+        <v>0</v>
       </c>
       <c r="NV3" t="n">
-        <v>22.93787575150301</v>
+        <v>0</v>
       </c>
       <c r="NW3" t="n">
-        <v>22.7434869739479</v>
+        <v>0</v>
       </c>
       <c r="NX3" t="n">
-        <v>22.54909819639279</v>
+        <v>0</v>
       </c>
       <c r="NY3" t="n">
-        <v>22.35470941883768</v>
+        <v>0</v>
       </c>
       <c r="NZ3" t="n">
-        <v>22.16032064128256</v>
+        <v>0</v>
       </c>
       <c r="OA3" t="n">
-        <v>21.96593186372745</v>
+        <v>0</v>
       </c>
       <c r="OB3" t="n">
-        <v>21.77154308617234</v>
+        <v>0</v>
       </c>
       <c r="OC3" t="n">
-        <v>21.57715430861723</v>
+        <v>0</v>
       </c>
       <c r="OD3" t="n">
-        <v>21.38276553106212</v>
+        <v>0</v>
       </c>
       <c r="OE3" t="n">
-        <v>21.18837675350701</v>
+        <v>0</v>
       </c>
       <c r="OF3" t="n">
-        <v>20.9939879759519</v>
+        <v>0</v>
       </c>
       <c r="OG3" t="n">
-        <v>20.79959919839679</v>
+        <v>0</v>
       </c>
       <c r="OH3" t="n">
-        <v>20.60521042084168</v>
+        <v>0</v>
       </c>
       <c r="OI3" t="n">
-        <v>20.41082164328657</v>
+        <v>0</v>
       </c>
       <c r="OJ3" t="n">
-        <v>20.21643286573146</v>
+        <v>0</v>
       </c>
       <c r="OK3" t="n">
-        <v>20.02204408817635</v>
+        <v>0</v>
       </c>
       <c r="OL3" t="n">
-        <v>19.82765531062124</v>
+        <v>0</v>
       </c>
       <c r="OM3" t="n">
-        <v>19.63326653306613</v>
+        <v>0</v>
       </c>
       <c r="ON3" t="n">
-        <v>19.43887775551102</v>
+        <v>0</v>
       </c>
       <c r="OO3" t="n">
-        <v>19.24448897795591</v>
+        <v>0</v>
       </c>
       <c r="OP3" t="n">
-        <v>19.0501002004008</v>
+        <v>0</v>
       </c>
       <c r="OQ3" t="n">
-        <v>18.85571142284569</v>
+        <v>0</v>
       </c>
       <c r="OR3" t="n">
-        <v>18.66132264529058</v>
+        <v>0</v>
       </c>
       <c r="OS3" t="n">
-        <v>18.46693386773547</v>
+        <v>0</v>
       </c>
       <c r="OT3" t="n">
-        <v>18.27254509018036</v>
+        <v>0</v>
       </c>
       <c r="OU3" t="n">
-        <v>18.07815631262525</v>
+        <v>0</v>
       </c>
       <c r="OV3" t="n">
-        <v>17.88376753507014</v>
+        <v>0</v>
       </c>
       <c r="OW3" t="n">
-        <v>17.68937875751503</v>
+        <v>0</v>
       </c>
       <c r="OX3" t="n">
-        <v>17.49498997995992</v>
+        <v>0</v>
       </c>
       <c r="OY3" t="n">
-        <v>17.30060120240481</v>
+        <v>0</v>
       </c>
       <c r="OZ3" t="n">
-        <v>17.1062124248497</v>
+        <v>0</v>
       </c>
       <c r="PA3" t="n">
-        <v>16.91182364729459</v>
+        <v>0</v>
       </c>
       <c r="PB3" t="n">
-        <v>16.71743486973948</v>
+        <v>0</v>
       </c>
       <c r="PC3" t="n">
-        <v>16.52304609218437</v>
+        <v>0</v>
       </c>
       <c r="PD3" t="n">
-        <v>16.32865731462926</v>
+        <v>0</v>
       </c>
       <c r="PE3" t="n">
-        <v>16.13426853707415</v>
+        <v>0</v>
       </c>
       <c r="PF3" t="n">
-        <v>15.93987975951904</v>
+        <v>0</v>
       </c>
       <c r="PG3" t="n">
-        <v>15.74549098196393</v>
+        <v>0</v>
       </c>
       <c r="PH3" t="n">
-        <v>15.55110220440882</v>
+        <v>0</v>
       </c>
       <c r="PI3" t="n">
-        <v>15.35671342685371</v>
+        <v>0</v>
       </c>
       <c r="PJ3" t="n">
-        <v>15.1623246492986</v>
+        <v>0</v>
       </c>
       <c r="PK3" t="n">
-        <v>14.96793587174349</v>
+        <v>0</v>
       </c>
       <c r="PL3" t="n">
-        <v>14.77354709418838</v>
+        <v>0</v>
       </c>
       <c r="PM3" t="n">
-        <v>14.57915831663327</v>
+        <v>0</v>
       </c>
       <c r="PN3" t="n">
-        <v>14.38476953907816</v>
+        <v>0</v>
       </c>
       <c r="PO3" t="n">
-        <v>14.19038076152305</v>
+        <v>0</v>
       </c>
       <c r="PP3" t="n">
-        <v>13.99599198396794</v>
+        <v>0</v>
       </c>
       <c r="PQ3" t="n">
-        <v>13.80160320641283</v>
+        <v>0</v>
       </c>
       <c r="PR3" t="n">
-        <v>13.60721442885772</v>
+        <v>0</v>
       </c>
       <c r="PS3" t="n">
-        <v>13.41282565130261</v>
+        <v>0</v>
       </c>
       <c r="PT3" t="n">
-        <v>13.2184368737475</v>
+        <v>0</v>
       </c>
       <c r="PU3" t="n">
-        <v>13.02404809619239</v>
+        <v>0</v>
       </c>
       <c r="PV3" t="n">
-        <v>12.82965931863728</v>
+        <v>0</v>
       </c>
       <c r="PW3" t="n">
-        <v>12.63527054108217</v>
+        <v>0</v>
       </c>
       <c r="PX3" t="n">
-        <v>12.44088176352706</v>
+        <v>0</v>
       </c>
       <c r="PY3" t="n">
-        <v>12.24649298597195</v>
+        <v>0</v>
       </c>
       <c r="PZ3" t="n">
-        <v>12.05210420841684</v>
+        <v>0</v>
       </c>
       <c r="QA3" t="n">
-        <v>11.85771543086173</v>
+        <v>0</v>
       </c>
       <c r="QB3" t="n">
-        <v>11.66332665330662</v>
+        <v>0</v>
       </c>
       <c r="QC3" t="n">
-        <v>11.46893787575151</v>
+        <v>0</v>
       </c>
       <c r="QD3" t="n">
-        <v>11.2745490981964</v>
+        <v>0</v>
       </c>
       <c r="QE3" t="n">
-        <v>11.08016032064129</v>
+        <v>0</v>
       </c>
       <c r="QF3" t="n">
-        <v>10.88577154308618</v>
+        <v>0</v>
       </c>
       <c r="QG3" t="n">
-        <v>10.69138276553107</v>
+        <v>0</v>
       </c>
       <c r="QH3" t="n">
-        <v>10.49699398797596</v>
+        <v>0</v>
       </c>
       <c r="QI3" t="n">
-        <v>10.30260521042084</v>
+        <v>0</v>
       </c>
       <c r="QJ3" t="n">
-        <v>10.10821643286573</v>
+        <v>0</v>
       </c>
       <c r="QK3" t="n">
-        <v>9.913827655310625</v>
+        <v>0</v>
       </c>
       <c r="QL3" t="n">
-        <v>9.719438877755515</v>
+        <v>0</v>
       </c>
       <c r="QM3" t="n">
-        <v>9.525050100200405</v>
+        <v>0</v>
       </c>
       <c r="QN3" t="n">
-        <v>9.330661322645295</v>
+        <v>0</v>
       </c>
       <c r="QO3" t="n">
-        <v>9.136272545090184</v>
+        <v>0</v>
       </c>
       <c r="QP3" t="n">
-        <v>8.941883767535074</v>
+        <v>0</v>
       </c>
       <c r="QQ3" t="n">
-        <v>8.747494989979964</v>
+        <v>0</v>
       </c>
       <c r="QR3" t="n">
-        <v>8.553106212424854</v>
+        <v>0</v>
       </c>
       <c r="QS3" t="n">
-        <v>8.358717434869744</v>
+        <v>0</v>
       </c>
       <c r="QT3" t="n">
-        <v>8.164328657314634</v>
+        <v>0</v>
       </c>
       <c r="QU3" t="n">
-        <v>7.969939879759524</v>
+        <v>0</v>
       </c>
       <c r="QV3" t="n">
-        <v>7.775551102204414</v>
+        <v>0</v>
       </c>
       <c r="QW3" t="n">
-        <v>7.581162324649304</v>
+        <v>0</v>
       </c>
       <c r="QX3" t="n">
-        <v>7.386773547094194</v>
+        <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>7.192384769539084</v>
+        <v>0</v>
       </c>
       <c r="QZ3" t="n">
-        <v>6.997995991983974</v>
+        <v>0</v>
       </c>
       <c r="RA3" t="n">
-        <v>6.803607214428864</v>
+        <v>0</v>
       </c>
       <c r="RB3" t="n">
-        <v>6.609218436873753</v>
+        <v>0</v>
       </c>
       <c r="RC3" t="n">
-        <v>6.414829659318643</v>
+        <v>0</v>
       </c>
       <c r="RD3" t="n">
-        <v>6.220440881763533</v>
+        <v>0</v>
       </c>
       <c r="RE3" t="n">
-        <v>6.026052104208423</v>
+        <v>0</v>
       </c>
       <c r="RF3" t="n">
-        <v>5.831663326653313</v>
+        <v>0</v>
       </c>
       <c r="RG3" t="n">
-        <v>5.637274549098192</v>
+        <v>0</v>
       </c>
       <c r="RH3" t="n">
-        <v>5.442885771543082</v>
+        <v>0</v>
       </c>
       <c r="RI3" t="n">
-        <v>5.248496993987972</v>
+        <v>0</v>
       </c>
       <c r="RJ3" t="n">
-        <v>5.054108216432862</v>
+        <v>0</v>
       </c>
       <c r="RK3" t="n">
-        <v>4.859719438877752</v>
+        <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>4.665330661322642</v>
+        <v>0</v>
       </c>
       <c r="RM3" t="n">
-        <v>4.470941883767532</v>
+        <v>0</v>
       </c>
       <c r="RN3" t="n">
-        <v>4.276553106212422</v>
+        <v>0</v>
       </c>
       <c r="RO3" t="n">
-        <v>4.082164328657312</v>
+        <v>0</v>
       </c>
       <c r="RP3" t="n">
-        <v>3.887775551102202</v>
+        <v>0</v>
       </c>
       <c r="RQ3" t="n">
-        <v>3.693386773547092</v>
+        <v>0</v>
       </c>
       <c r="RR3" t="n">
-        <v>3.498997995991981</v>
+        <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>3.304609218436871</v>
+        <v>0</v>
       </c>
       <c r="RT3" t="n">
-        <v>3.110220440881761</v>
+        <v>0</v>
       </c>
       <c r="RU3" t="n">
-        <v>2.915831663326651</v>
+        <v>0</v>
       </c>
       <c r="RV3" t="n">
-        <v>2.721442885771541</v>
+        <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>2.527054108216431</v>
+        <v>0</v>
       </c>
       <c r="RX3" t="n">
-        <v>2.332665330661321</v>
+        <v>0</v>
       </c>
       <c r="RY3" t="n">
-        <v>2.138276553106211</v>
+        <v>0</v>
       </c>
       <c r="RZ3" t="n">
-        <v>1.943887775551101</v>
+        <v>0</v>
       </c>
       <c r="SA3" t="n">
-        <v>1.749498997995991</v>
+        <v>0</v>
       </c>
       <c r="SB3" t="n">
-        <v>1.555110220440881</v>
+        <v>0</v>
       </c>
       <c r="SC3" t="n">
-        <v>1.360721442885771</v>
+        <v>0</v>
       </c>
       <c r="SD3" t="n">
-        <v>1.16633266533066</v>
+        <v>0</v>
       </c>
       <c r="SE3" t="n">
-        <v>0.9719438877755504</v>
+        <v>0</v>
       </c>
       <c r="SF3" t="n">
-        <v>0.7775551102204403</v>
+        <v>0</v>
       </c>
       <c r="SG3" t="n">
-        <v>0.5831663326653302</v>
+        <v>0</v>
       </c>
       <c r="SH3" t="n">
-        <v>0.3887775551102202</v>
+        <v>0</v>
       </c>
       <c r="SI3" t="n">
-        <v>0.1943887775551101</v>
+        <v>0</v>
       </c>
       <c r="SJ3" t="n">
         <v>0</v>
@@ -4991,1501 +4991,1501 @@
         <v>-2.67169090774185</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>95.80360721442885</v>
+        <v>-1.002004008016032</v>
       </c>
       <c r="G4" t="n">
-        <v>94.60721442885772</v>
+        <v>-2.004008016032064</v>
       </c>
       <c r="H4" t="n">
-        <v>93.41082164328657</v>
+        <v>-3.006012024048096</v>
       </c>
       <c r="I4" t="n">
-        <v>92.21442885771542</v>
+        <v>-4.008016032064128</v>
       </c>
       <c r="J4" t="n">
-        <v>91.01803607214428</v>
+        <v>-5.01002004008016</v>
       </c>
       <c r="K4" t="n">
-        <v>89.82164328657313</v>
+        <v>-6.012024048096192</v>
       </c>
       <c r="L4" t="n">
-        <v>88.625250501002</v>
+        <v>-7.014028056112224</v>
       </c>
       <c r="M4" t="n">
-        <v>87.42885771543087</v>
+        <v>-8.016032064128256</v>
       </c>
       <c r="N4" t="n">
-        <v>86.23246492985972</v>
+        <v>-9.018036072144287</v>
       </c>
       <c r="O4" t="n">
-        <v>85.03607214428858</v>
+        <v>-10.02004008016032</v>
       </c>
       <c r="P4" t="n">
-        <v>83.83967935871743</v>
+        <v>-11.02204408817635</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.64328657314628</v>
+        <v>-12.02404809619238</v>
       </c>
       <c r="R4" t="n">
-        <v>81.44689378757515</v>
+        <v>-13.02605210420842</v>
       </c>
       <c r="S4" t="n">
-        <v>80.250501002004</v>
+        <v>-14.02805611222445</v>
       </c>
       <c r="T4" t="n">
-        <v>79.05410821643287</v>
+        <v>-15.03006012024048</v>
       </c>
       <c r="U4" t="n">
-        <v>77.85771543086172</v>
+        <v>-16.03206412825651</v>
       </c>
       <c r="V4" t="n">
-        <v>76.66132264529057</v>
+        <v>-17.03406813627254</v>
       </c>
       <c r="W4" t="n">
-        <v>75.46492985971945</v>
+        <v>-18.03607214428857</v>
       </c>
       <c r="X4" t="n">
-        <v>74.26853707414828</v>
+        <v>-19.03807615230461</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.07214428857716</v>
+        <v>-20.04008016032064</v>
       </c>
       <c r="Z4" t="n">
-        <v>71.875751503006</v>
+        <v>-21.04208416833667</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.67935871743487</v>
+        <v>-22.0440881763527</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.48296593186373</v>
+        <v>-23.04609218436874</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.28657314629258</v>
+        <v>-24.04809619238477</v>
       </c>
       <c r="AD4" t="n">
-        <v>67.09018036072145</v>
+        <v>-25.0501002004008</v>
       </c>
       <c r="AE4" t="n">
-        <v>65.8937875751503</v>
+        <v>-26.05210420841683</v>
       </c>
       <c r="AF4" t="n">
-        <v>64.69739478957915</v>
+        <v>-27.05410821643286</v>
       </c>
       <c r="AG4" t="n">
-        <v>63.50100200400801</v>
+        <v>-28.0561122244489</v>
       </c>
       <c r="AH4" t="n">
-        <v>62.30460921843688</v>
+        <v>-29.05811623246493</v>
       </c>
       <c r="AI4" t="n">
-        <v>61.10821643286572</v>
+        <v>-30.06012024048096</v>
       </c>
       <c r="AJ4" t="n">
-        <v>59.9118236472946</v>
+        <v>-31.06212424849699</v>
       </c>
       <c r="AK4" t="n">
-        <v>58.71543086172344</v>
+        <v>-32.06412825651302</v>
       </c>
       <c r="AL4" t="n">
-        <v>57.51903807615231</v>
+        <v>-33.06613226452905</v>
       </c>
       <c r="AM4" t="n">
-        <v>56.32264529058115</v>
+        <v>-34.06813627254509</v>
       </c>
       <c r="AN4" t="n">
-        <v>55.12625250501002</v>
+        <v>-35.07014028056112</v>
       </c>
       <c r="AO4" t="n">
-        <v>53.92985971943888</v>
+        <v>-36.07214428857715</v>
       </c>
       <c r="AP4" t="n">
-        <v>52.73346693386773</v>
+        <v>-37.07414829659318</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51.53707414829659</v>
+        <v>-38.07615230460922</v>
       </c>
       <c r="AR4" t="n">
-        <v>50.34068136272545</v>
+        <v>-39.07815631262525</v>
       </c>
       <c r="AS4" t="n">
-        <v>49.14428857715431</v>
+        <v>-40.08016032064128</v>
       </c>
       <c r="AT4" t="n">
-        <v>47.94789579158316</v>
+        <v>-41.08216432865731</v>
       </c>
       <c r="AU4" t="n">
-        <v>46.75150300601202</v>
+        <v>-42.08416833667334</v>
       </c>
       <c r="AV4" t="n">
-        <v>45.55511022044087</v>
+        <v>-43.08617234468937</v>
       </c>
       <c r="AW4" t="n">
-        <v>44.35871743486973</v>
+        <v>-44.0881763527054</v>
       </c>
       <c r="AX4" t="n">
-        <v>43.1623246492986</v>
+        <v>-45.09018036072144</v>
       </c>
       <c r="AY4" t="n">
-        <v>41.96593186372746</v>
+        <v>-46.09218436873747</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40.76953907815631</v>
+        <v>-47.0941883767535</v>
       </c>
       <c r="BA4" t="n">
-        <v>39.57314629258517</v>
+        <v>-48.09619238476954</v>
       </c>
       <c r="BB4" t="n">
-        <v>38.37675350701403</v>
+        <v>-49.09819639278557</v>
       </c>
       <c r="BC4" t="n">
-        <v>37.18036072144288</v>
+        <v>-50.1002004008016</v>
       </c>
       <c r="BD4" t="n">
-        <v>35.98396793587174</v>
+        <v>-51.10220440881763</v>
       </c>
       <c r="BE4" t="n">
-        <v>34.7875751503006</v>
+        <v>-52.10420841683366</v>
       </c>
       <c r="BF4" t="n">
-        <v>33.59118236472946</v>
+        <v>-53.10621242484969</v>
       </c>
       <c r="BG4" t="n">
-        <v>32.39478957915831</v>
+        <v>-54.10821643286572</v>
       </c>
       <c r="BH4" t="n">
-        <v>31.19839679358717</v>
+        <v>-55.11022044088175</v>
       </c>
       <c r="BI4" t="n">
-        <v>30.00200400801603</v>
+        <v>-56.11222444889779</v>
       </c>
       <c r="BJ4" t="n">
-        <v>28.80561122244488</v>
+        <v>-57.11422845691382</v>
       </c>
       <c r="BK4" t="n">
-        <v>27.60921843687375</v>
+        <v>-58.11623246492985</v>
       </c>
       <c r="BL4" t="n">
-        <v>26.41282565130261</v>
+        <v>-59.11823647294589</v>
       </c>
       <c r="BM4" t="n">
-        <v>25.21643286573146</v>
+        <v>-60.12024048096192</v>
       </c>
       <c r="BN4" t="n">
-        <v>24.02004008016032</v>
+        <v>-61.12224448897795</v>
       </c>
       <c r="BO4" t="n">
-        <v>22.82364729458918</v>
+        <v>-62.12424849699398</v>
       </c>
       <c r="BP4" t="n">
-        <v>21.62725450901803</v>
+        <v>-63.12625250501002</v>
       </c>
       <c r="BQ4" t="n">
-        <v>20.43086172344689</v>
+        <v>-64.12825651302605</v>
       </c>
       <c r="BR4" t="n">
-        <v>19.23446893787575</v>
+        <v>-65.13026052104208</v>
       </c>
       <c r="BS4" t="n">
-        <v>18.0380761523046</v>
+        <v>-66.13226452905811</v>
       </c>
       <c r="BT4" t="n">
-        <v>16.84168336673346</v>
+        <v>-67.13426853707413</v>
       </c>
       <c r="BU4" t="n">
-        <v>15.64529058116232</v>
+        <v>-68.13627254509018</v>
       </c>
       <c r="BV4" t="n">
-        <v>14.44889779559118</v>
+        <v>-69.13827655310621</v>
       </c>
       <c r="BW4" t="n">
-        <v>13.25250501002003</v>
+        <v>-70.14028056112224</v>
       </c>
       <c r="BX4" t="n">
-        <v>12.0561122244489</v>
+        <v>-71.14228456913827</v>
       </c>
       <c r="BY4" t="n">
-        <v>10.85971943887776</v>
+        <v>-72.1442885771543</v>
       </c>
       <c r="BZ4" t="n">
-        <v>9.663326653306614</v>
+        <v>-73.14629258517033</v>
       </c>
       <c r="CA4" t="n">
-        <v>8.46693386773547</v>
+        <v>-74.14829659318636</v>
       </c>
       <c r="CB4" t="n">
-        <v>7.270541082164328</v>
+        <v>-75.1503006012024</v>
       </c>
       <c r="CC4" t="n">
-        <v>6.074148296593185</v>
+        <v>-76.15230460921843</v>
       </c>
       <c r="CD4" t="n">
-        <v>4.877755511022041</v>
+        <v>-77.15430861723446</v>
       </c>
       <c r="CE4" t="n">
-        <v>3.681362725450898</v>
+        <v>-78.15631262525049</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.484969939879755</v>
+        <v>-79.15831663326652</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.288577154308612</v>
+        <v>-80.16032064128255</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.09218436873746905</v>
+        <v>-81.16232464929858</v>
       </c>
       <c r="CI4" t="n">
-        <v>-1.104208416833674</v>
+        <v>-82.16432865731463</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-2.300601202404817</v>
+        <v>-83.16633266533066</v>
       </c>
       <c r="CK4" t="n">
-        <v>-3.49699398797596</v>
+        <v>-84.16833667334669</v>
       </c>
       <c r="CL4" t="n">
-        <v>-4.693386773547092</v>
+        <v>-85.17034068136272</v>
       </c>
       <c r="CM4" t="n">
-        <v>-5.889779559118247</v>
+        <v>-86.17234468937875</v>
       </c>
       <c r="CN4" t="n">
-        <v>-7.086172344689379</v>
+        <v>-87.17434869739478</v>
       </c>
       <c r="CO4" t="n">
-        <v>-8.282565130260533</v>
+        <v>-88.17635270541081</v>
       </c>
       <c r="CP4" t="n">
-        <v>-9.478957915831664</v>
+        <v>-89.17835671342685</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-10.6753507014028</v>
+        <v>-90.18036072144288</v>
       </c>
       <c r="CR4" t="n">
-        <v>-11.87174348697395</v>
+        <v>-91.18236472945891</v>
       </c>
       <c r="CS4" t="n">
-        <v>-13.06813627254508</v>
+        <v>-92.18436873747494</v>
       </c>
       <c r="CT4" t="n">
-        <v>-14.26452905811624</v>
+        <v>-93.18637274549097</v>
       </c>
       <c r="CU4" t="n">
-        <v>-15.46092184368737</v>
+        <v>-94.188376753507</v>
       </c>
       <c r="CV4" t="n">
-        <v>-16.65731462925852</v>
+        <v>-95.19038076152303</v>
       </c>
       <c r="CW4" t="n">
-        <v>-17.85370741482966</v>
+        <v>-96.19238476953907</v>
       </c>
       <c r="CX4" t="n">
-        <v>-19.05010020040081</v>
+        <v>-97.1943887775551</v>
       </c>
       <c r="CY4" t="n">
-        <v>-20.24649298597194</v>
+        <v>-98.19639278557113</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-21.4428857715431</v>
+        <v>-99.19839679358716</v>
       </c>
       <c r="DA4" t="n">
-        <v>-22.63927855711423</v>
+        <v>-100.2004008016032</v>
       </c>
       <c r="DB4" t="n">
-        <v>-23.83567134268538</v>
+        <v>-101.2024048096192</v>
       </c>
       <c r="DC4" t="n">
-        <v>-25.03206412825651</v>
+        <v>-102.2044088176353</v>
       </c>
       <c r="DD4" t="n">
-        <v>-26.22845691382765</v>
+        <v>-103.2064128256513</v>
       </c>
       <c r="DE4" t="n">
-        <v>-27.4248496993988</v>
+        <v>-104.2084168336673</v>
       </c>
       <c r="DF4" t="n">
-        <v>-28.62124248496993</v>
+        <v>-105.2104208416834</v>
       </c>
       <c r="DG4" t="n">
-        <v>-29.81763527054109</v>
+        <v>-106.2124248496994</v>
       </c>
       <c r="DH4" t="n">
-        <v>-31.01402805611222</v>
+        <v>-107.2144288577154</v>
       </c>
       <c r="DI4" t="n">
-        <v>-32.21042084168337</v>
+        <v>-108.2164328657314</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-33.40681362725451</v>
+        <v>-109.2184368737475</v>
       </c>
       <c r="DK4" t="n">
-        <v>-34.60320641282566</v>
+        <v>-110.2204408817635</v>
       </c>
       <c r="DL4" t="n">
-        <v>-35.79959919839679</v>
+        <v>-111.2224448897796</v>
       </c>
       <c r="DM4" t="n">
-        <v>-36.99599198396795</v>
+        <v>-112.2244488977956</v>
       </c>
       <c r="DN4" t="n">
-        <v>-38.19238476953907</v>
+        <v>-113.2264529058116</v>
       </c>
       <c r="DO4" t="n">
-        <v>-39.38877755511023</v>
+        <v>-114.2284569138276</v>
       </c>
       <c r="DP4" t="n">
-        <v>-40.58517034068137</v>
+        <v>-115.2304609218437</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-41.78156312625249</v>
+        <v>-116.2324649298597</v>
       </c>
       <c r="DR4" t="n">
-        <v>-42.97795591182365</v>
+        <v>-117.2344689378757</v>
       </c>
       <c r="DS4" t="n">
-        <v>-44.17434869739478</v>
+        <v>-118.2364729458918</v>
       </c>
       <c r="DT4" t="n">
-        <v>-45.37074148296594</v>
+        <v>-119.2384769539078</v>
       </c>
       <c r="DU4" t="n">
-        <v>-46.56713426853707</v>
+        <v>-120.2404809619238</v>
       </c>
       <c r="DV4" t="n">
-        <v>-47.76352705410822</v>
+        <v>-121.2424849699399</v>
       </c>
       <c r="DW4" t="n">
-        <v>-48.95991983967936</v>
+        <v>-122.2444889779559</v>
       </c>
       <c r="DX4" t="n">
-        <v>-50.15631262525051</v>
+        <v>-123.2464929859719</v>
       </c>
       <c r="DY4" t="n">
-        <v>-51.35270541082164</v>
+        <v>-124.248496993988</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-52.5490981963928</v>
+        <v>-125.250501002004</v>
       </c>
       <c r="EA4" t="n">
-        <v>-53.74549098196393</v>
+        <v>-126.25250501002</v>
       </c>
       <c r="EB4" t="n">
-        <v>-54.94188376753508</v>
+        <v>-127.2545090180361</v>
       </c>
       <c r="EC4" t="n">
-        <v>-56.13827655310622</v>
+        <v>-128.2565130260521</v>
       </c>
       <c r="ED4" t="n">
-        <v>-57.33466933867734</v>
+        <v>-129.2585170340681</v>
       </c>
       <c r="EE4" t="n">
-        <v>-58.5310621242485</v>
+        <v>-130.2605210420842</v>
       </c>
       <c r="EF4" t="n">
-        <v>-59.72745490981963</v>
+        <v>-131.2625250501002</v>
       </c>
       <c r="EG4" t="n">
-        <v>-60.92384769539079</v>
+        <v>-132.2645290581162</v>
       </c>
       <c r="EH4" t="n">
-        <v>-62.12024048096192</v>
+        <v>-133.2665330661322</v>
       </c>
       <c r="EI4" t="n">
-        <v>-63.31663326653307</v>
+        <v>-134.2685370741483</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-64.51302605210421</v>
+        <v>-135.2705410821643</v>
       </c>
       <c r="EK4" t="n">
-        <v>-65.70941883767536</v>
+        <v>-136.2725450901804</v>
       </c>
       <c r="EL4" t="n">
-        <v>-66.90581162324649</v>
+        <v>-137.2745490981964</v>
       </c>
       <c r="EM4" t="n">
-        <v>-68.10220440881764</v>
+        <v>-138.2765531062124</v>
       </c>
       <c r="EN4" t="n">
-        <v>-69.29859719438878</v>
+        <v>-139.2785571142284</v>
       </c>
       <c r="EO4" t="n">
-        <v>-70.49498997995994</v>
+        <v>-140.2805611222445</v>
       </c>
       <c r="EP4" t="n">
-        <v>-71.69138276553106</v>
+        <v>-141.2825651302605</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-72.88777555110219</v>
+        <v>-142.2845691382765</v>
       </c>
       <c r="ER4" t="n">
-        <v>-74.08416833667334</v>
+        <v>-143.2865731462926</v>
       </c>
       <c r="ES4" t="n">
-        <v>-75.28056112224448</v>
+        <v>-144.2885771543086</v>
       </c>
       <c r="ET4" t="n">
-        <v>-76.47695390781564</v>
+        <v>-145.2905811623246</v>
       </c>
       <c r="EU4" t="n">
-        <v>-77.67334669338678</v>
+        <v>-146.2925851703407</v>
       </c>
       <c r="EV4" t="n">
-        <v>-78.86973947895792</v>
+        <v>-147.2945891783567</v>
       </c>
       <c r="EW4" t="n">
-        <v>-80.06613226452906</v>
+        <v>-148.2965931863727</v>
       </c>
       <c r="EX4" t="n">
-        <v>-81.26252505010021</v>
+        <v>-149.2985971943887</v>
       </c>
       <c r="EY4" t="n">
-        <v>-82.45891783567134</v>
+        <v>-150.3006012024048</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-83.65531062124249</v>
+        <v>-151.3026052104208</v>
       </c>
       <c r="FA4" t="n">
-        <v>-84.85170340681363</v>
+        <v>-152.3046092184369</v>
       </c>
       <c r="FB4" t="n">
-        <v>-86.04809619238478</v>
+        <v>-153.3066132264529</v>
       </c>
       <c r="FC4" t="n">
-        <v>-87.24448897795591</v>
+        <v>-154.3086172344689</v>
       </c>
       <c r="FD4" t="n">
-        <v>-88.44088176352705</v>
+        <v>-155.310621242485</v>
       </c>
       <c r="FE4" t="n">
-        <v>-89.63727454909819</v>
+        <v>-156.312625250501</v>
       </c>
       <c r="FF4" t="n">
-        <v>-90.83366733466933</v>
+        <v>-157.314629258517</v>
       </c>
       <c r="FG4" t="n">
-        <v>-92.03006012024049</v>
+        <v>-158.316633266533</v>
       </c>
       <c r="FH4" t="n">
-        <v>-93.22645290581161</v>
+        <v>-159.3186372745491</v>
       </c>
       <c r="FI4" t="n">
-        <v>-94.42284569138278</v>
+        <v>-160.3206412825651</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-95.61923847695391</v>
+        <v>-161.3226452905811</v>
       </c>
       <c r="FK4" t="n">
-        <v>-96.81563126252506</v>
+        <v>-162.3246492985972</v>
       </c>
       <c r="FL4" t="n">
-        <v>-98.01202404809619</v>
+        <v>-163.3266533066132</v>
       </c>
       <c r="FM4" t="n">
-        <v>-99.20841683366734</v>
+        <v>-164.3286573146293</v>
       </c>
       <c r="FN4" t="n">
-        <v>-100.4048096192385</v>
+        <v>-165.3306613226453</v>
       </c>
       <c r="FO4" t="n">
-        <v>-101.6012024048096</v>
+        <v>-166.3326653306613</v>
       </c>
       <c r="FP4" t="n">
-        <v>-102.7975951903808</v>
+        <v>-167.3346693386773</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-103.9939879759519</v>
+        <v>-168.3366733466934</v>
       </c>
       <c r="FR4" t="n">
-        <v>-105.190380761523</v>
+        <v>-169.3386773547094</v>
       </c>
       <c r="FS4" t="n">
-        <v>-106.3867735470942</v>
+        <v>-170.3406813627254</v>
       </c>
       <c r="FT4" t="n">
-        <v>-107.5831663326653</v>
+        <v>-171.3426853707415</v>
       </c>
       <c r="FU4" t="n">
-        <v>-108.7795591182365</v>
+        <v>-172.3446893787575</v>
       </c>
       <c r="FV4" t="n">
-        <v>-109.9759519038076</v>
+        <v>-173.3466933867735</v>
       </c>
       <c r="FW4" t="n">
-        <v>-111.1723446893788</v>
+        <v>-174.3486973947896</v>
       </c>
       <c r="FX4" t="n">
-        <v>-112.3687374749499</v>
+        <v>-175.3507014028056</v>
       </c>
       <c r="FY4" t="n">
-        <v>-113.5651302605211</v>
+        <v>-176.3527054108216</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-114.7615230460922</v>
+        <v>-177.3547094188376</v>
       </c>
       <c r="GA4" t="n">
-        <v>-115.9579158316633</v>
+        <v>-178.3567134268537</v>
       </c>
       <c r="GB4" t="n">
-        <v>-117.1543086172345</v>
+        <v>-179.3587174348697</v>
       </c>
       <c r="GC4" t="n">
-        <v>-118.3507014028056</v>
+        <v>-180.3607214428858</v>
       </c>
       <c r="GD4" t="n">
-        <v>-119.5470941883767</v>
+        <v>-181.3627254509018</v>
       </c>
       <c r="GE4" t="n">
-        <v>-120.7434869739479</v>
+        <v>-182.3647294589178</v>
       </c>
       <c r="GF4" t="n">
-        <v>-121.9398797595191</v>
+        <v>-183.3667334669339</v>
       </c>
       <c r="GG4" t="n">
-        <v>-123.1362725450902</v>
+        <v>-184.3687374749499</v>
       </c>
       <c r="GH4" t="n">
-        <v>-124.3326653306613</v>
+        <v>-185.3707414829659</v>
       </c>
       <c r="GI4" t="n">
-        <v>-125.5290581162325</v>
+        <v>-186.3727454909819</v>
       </c>
       <c r="GJ4" t="n">
-        <v>-126.7254509018036</v>
+        <v>-187.374749498998</v>
       </c>
       <c r="GK4" t="n">
-        <v>-127.9218436873747</v>
+        <v>-188.376753507014</v>
       </c>
       <c r="GL4" t="n">
-        <v>-129.1182364729459</v>
+        <v>-189.37875751503</v>
       </c>
       <c r="GM4" t="n">
-        <v>-130.314629258517</v>
+        <v>-190.3807615230461</v>
       </c>
       <c r="GN4" t="n">
-        <v>-131.5110220440882</v>
+        <v>-191.3827655310621</v>
       </c>
       <c r="GO4" t="n">
-        <v>-132.7074148296593</v>
+        <v>-192.3847695390781</v>
       </c>
       <c r="GP4" t="n">
-        <v>-133.9038076152305</v>
+        <v>-193.3867735470942</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-135.1002004008016</v>
+        <v>-194.3887775551102</v>
       </c>
       <c r="GR4" t="n">
-        <v>-136.2965931863727</v>
+        <v>-195.3907815631262</v>
       </c>
       <c r="GS4" t="n">
-        <v>-137.4929859719439</v>
+        <v>-196.3927855711423</v>
       </c>
       <c r="GT4" t="n">
-        <v>-138.689378757515</v>
+        <v>-197.3947895791583</v>
       </c>
       <c r="GU4" t="n">
-        <v>-139.8857715430862</v>
+        <v>-198.3967935871743</v>
       </c>
       <c r="GV4" t="n">
-        <v>-141.0821643286573</v>
+        <v>-199.3987975951904</v>
       </c>
       <c r="GW4" t="n">
-        <v>-142.2785571142284</v>
+        <v>-200.4008016032064</v>
       </c>
       <c r="GX4" t="n">
-        <v>-143.4749498997996</v>
+        <v>-201.4028056112224</v>
       </c>
       <c r="GY4" t="n">
-        <v>-144.6713426853708</v>
+        <v>-202.4048096192384</v>
       </c>
       <c r="GZ4" t="n">
-        <v>-145.8677354709419</v>
+        <v>-203.4068136272545</v>
       </c>
       <c r="HA4" t="n">
-        <v>-147.064128256513</v>
+        <v>-204.4088176352705</v>
       </c>
       <c r="HB4" t="n">
-        <v>-148.2605210420842</v>
+        <v>-205.4108216432865</v>
       </c>
       <c r="HC4" t="n">
-        <v>-149.4569138276553</v>
+        <v>-206.4128256513026</v>
       </c>
       <c r="HD4" t="n">
-        <v>-150.6533066132264</v>
+        <v>-207.4148296593186</v>
       </c>
       <c r="HE4" t="n">
-        <v>-151.8496993987976</v>
+        <v>-208.4168336673347</v>
       </c>
       <c r="HF4" t="n">
-        <v>-153.0460921843687</v>
+        <v>-209.4188376753507</v>
       </c>
       <c r="HG4" t="n">
-        <v>-154.2424849699399</v>
+        <v>-210.4208416833667</v>
       </c>
       <c r="HH4" t="n">
-        <v>-155.438877755511</v>
+        <v>-211.4228456913827</v>
       </c>
       <c r="HI4" t="n">
-        <v>-156.6352705410822</v>
+        <v>-212.4248496993988</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-157.8316633266533</v>
+        <v>-213.4268537074148</v>
       </c>
       <c r="HK4" t="n">
-        <v>-159.0280561122244</v>
+        <v>-214.4288577154308</v>
       </c>
       <c r="HL4" t="n">
-        <v>-160.2244488977956</v>
+        <v>-215.4308617234469</v>
       </c>
       <c r="HM4" t="n">
-        <v>-161.4208416833667</v>
+        <v>-216.4328657314629</v>
       </c>
       <c r="HN4" t="n">
-        <v>-162.6172344689379</v>
+        <v>-217.4348697394789</v>
       </c>
       <c r="HO4" t="n">
-        <v>-163.813627254509</v>
+        <v>-218.436873747495</v>
       </c>
       <c r="HP4" t="n">
-        <v>-165.0100200400801</v>
+        <v>-219.438877755511</v>
       </c>
       <c r="HQ4" t="n">
-        <v>-166.2064128256513</v>
+        <v>-220.440881763527</v>
       </c>
       <c r="HR4" t="n">
-        <v>-167.4028056112224</v>
+        <v>-221.4428857715431</v>
       </c>
       <c r="HS4" t="n">
-        <v>-168.5991983967936</v>
+        <v>-222.4448897795591</v>
       </c>
       <c r="HT4" t="n">
-        <v>-169.7955911823647</v>
+        <v>-223.4468937875751</v>
       </c>
       <c r="HU4" t="n">
-        <v>-170.9919839679359</v>
+        <v>-224.4488977955912</v>
       </c>
       <c r="HV4" t="n">
-        <v>-172.188376753507</v>
+        <v>-225.4509018036072</v>
       </c>
       <c r="HW4" t="n">
-        <v>-173.3847695390781</v>
+        <v>-226.4529058116232</v>
       </c>
       <c r="HX4" t="n">
-        <v>-174.5811623246493</v>
+        <v>-227.4549098196393</v>
       </c>
       <c r="HY4" t="n">
-        <v>-175.7775551102205</v>
+        <v>-228.4569138276553</v>
       </c>
       <c r="HZ4" t="n">
-        <v>-176.9739478957916</v>
+        <v>-229.4589178356713</v>
       </c>
       <c r="IA4" t="n">
-        <v>-178.1703406813627</v>
+        <v>-230.4609218436873</v>
       </c>
       <c r="IB4" t="n">
-        <v>-179.3667334669339</v>
+        <v>-231.4629258517034</v>
       </c>
       <c r="IC4" t="n">
-        <v>-180.563126252505</v>
+        <v>-232.4649298597194</v>
       </c>
       <c r="ID4" t="n">
-        <v>-181.7595190380761</v>
+        <v>-233.4669338677354</v>
       </c>
       <c r="IE4" t="n">
-        <v>-182.9559118236473</v>
+        <v>-234.4689378757515</v>
       </c>
       <c r="IF4" t="n">
-        <v>-184.1523046092184</v>
+        <v>-235.4709418837675</v>
       </c>
       <c r="IG4" t="n">
-        <v>-185.3486973947896</v>
+        <v>-236.4729458917836</v>
       </c>
       <c r="IH4" t="n">
-        <v>-186.5450901803607</v>
+        <v>-237.4749498997996</v>
       </c>
       <c r="II4" t="n">
-        <v>-187.7414829659319</v>
+        <v>-238.4769539078156</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-188.937875751503</v>
+        <v>-239.4789579158316</v>
       </c>
       <c r="IK4" t="n">
-        <v>-190.1342685370741</v>
+        <v>-240.4809619238477</v>
       </c>
       <c r="IL4" t="n">
-        <v>-191.3306613226453</v>
+        <v>-241.4829659318637</v>
       </c>
       <c r="IM4" t="n">
-        <v>-192.5270541082164</v>
+        <v>-242.4849699398797</v>
       </c>
       <c r="IN4" t="n">
-        <v>-193.7234468937876</v>
+        <v>-243.4869739478958</v>
       </c>
       <c r="IO4" t="n">
-        <v>-194.9198396793587</v>
+        <v>-244.4889779559118</v>
       </c>
       <c r="IP4" t="n">
-        <v>-196.1162324649299</v>
+        <v>-245.4909819639278</v>
       </c>
       <c r="IQ4" t="n">
-        <v>-197.312625250501</v>
+        <v>-246.4929859719439</v>
       </c>
       <c r="IR4" t="n">
-        <v>-198.5090180360721</v>
+        <v>-247.4949899799599</v>
       </c>
       <c r="IS4" t="n">
-        <v>-199.7054108216433</v>
+        <v>-248.4969939879759</v>
       </c>
       <c r="IT4" t="n">
-        <v>-200.9018036072144</v>
+        <v>-249.498997995992</v>
       </c>
       <c r="IU4" t="n">
-        <v>-202.0981963927856</v>
+        <v>-250.501002004008</v>
       </c>
       <c r="IV4" t="n">
-        <v>-203.2945891783567</v>
+        <v>-251.503006012024</v>
       </c>
       <c r="IW4" t="n">
-        <v>-204.4909819639279</v>
+        <v>-252.5050100200401</v>
       </c>
       <c r="IX4" t="n">
-        <v>-205.687374749499</v>
+        <v>-253.5070140280561</v>
       </c>
       <c r="IY4" t="n">
-        <v>-206.8837675350702</v>
+        <v>-254.5090180360721</v>
       </c>
       <c r="IZ4" t="n">
-        <v>-208.0801603206413</v>
+        <v>-255.5110220440882</v>
       </c>
       <c r="JA4" t="n">
-        <v>-209.2765531062124</v>
+        <v>-256.5130260521042</v>
       </c>
       <c r="JB4" t="n">
-        <v>-210.4729458917836</v>
+        <v>-257.5150300601202</v>
       </c>
       <c r="JC4" t="n">
-        <v>-211.6693386773547</v>
+        <v>-258.5170340681362</v>
       </c>
       <c r="JD4" t="n">
-        <v>-212.8657314629258</v>
+        <v>-259.5190380761523</v>
       </c>
       <c r="JE4" t="n">
-        <v>-214.062124248497</v>
+        <v>-260.5210420841683</v>
       </c>
       <c r="JF4" t="n">
-        <v>-215.2585170340681</v>
+        <v>-261.5230460921844</v>
       </c>
       <c r="JG4" t="n">
-        <v>-216.4549098196392</v>
+        <v>-262.5250501002004</v>
       </c>
       <c r="JH4" t="n">
-        <v>-217.6513026052104</v>
+        <v>-263.5270541082164</v>
       </c>
       <c r="JI4" t="n">
-        <v>-218.8476953907816</v>
+        <v>-264.5290581162324</v>
       </c>
       <c r="JJ4" t="n">
-        <v>-220.0440881763527</v>
+        <v>-265.5310621242485</v>
       </c>
       <c r="JK4" t="n">
-        <v>-221.2404809619239</v>
+        <v>-266.5330661322645</v>
       </c>
       <c r="JL4" t="n">
-        <v>-222.436873747495</v>
+        <v>-267.5350701402805</v>
       </c>
       <c r="JM4" t="n">
-        <v>-223.6332665330662</v>
+        <v>-268.5370741482965</v>
       </c>
       <c r="JN4" t="n">
-        <v>-224.8296593186373</v>
+        <v>-269.5390781563126</v>
       </c>
       <c r="JO4" t="n">
-        <v>-226.0260521042084</v>
+        <v>-270.5410821643286</v>
       </c>
       <c r="JP4" t="n">
-        <v>-227.2224448897796</v>
+        <v>-271.5430861723447</v>
       </c>
       <c r="JQ4" t="n">
-        <v>-228.4188376753507</v>
+        <v>-272.5450901803607</v>
       </c>
       <c r="JR4" t="n">
-        <v>-229.6152304609218</v>
+        <v>-273.5470941883767</v>
       </c>
       <c r="JS4" t="n">
-        <v>-230.811623246493</v>
+        <v>-274.5490981963928</v>
       </c>
       <c r="JT4" t="n">
-        <v>-232.0080160320641</v>
+        <v>-275.5511022044088</v>
       </c>
       <c r="JU4" t="n">
-        <v>-233.2044088176353</v>
+        <v>-276.5531062124248</v>
       </c>
       <c r="JV4" t="n">
-        <v>-234.4008016032064</v>
+        <v>-277.5551102204408</v>
       </c>
       <c r="JW4" t="n">
-        <v>-235.5971943887775</v>
+        <v>-278.5571142284569</v>
       </c>
       <c r="JX4" t="n">
-        <v>-236.7935871743487</v>
+        <v>-279.5591182364729</v>
       </c>
       <c r="JY4" t="n">
-        <v>-237.9899799599199</v>
+        <v>-280.561122244489</v>
       </c>
       <c r="JZ4" t="n">
-        <v>-239.186372745491</v>
+        <v>-281.563126252505</v>
       </c>
       <c r="KA4" t="n">
-        <v>-240.3827655310621</v>
+        <v>-282.565130260521</v>
       </c>
       <c r="KB4" t="n">
-        <v>-241.5791583166333</v>
+        <v>-283.567134268537</v>
       </c>
       <c r="KC4" t="n">
-        <v>-242.7755511022044</v>
+        <v>-284.5691382765531</v>
       </c>
       <c r="KD4" t="n">
-        <v>-243.9719438877756</v>
+        <v>-285.5711422845691</v>
       </c>
       <c r="KE4" t="n">
-        <v>-245.1683366733467</v>
+        <v>-286.5731462925851</v>
       </c>
       <c r="KF4" t="n">
-        <v>-246.3647294589179</v>
+        <v>-287.5751503006012</v>
       </c>
       <c r="KG4" t="n">
-        <v>-247.561122244489</v>
+        <v>-288.5771543086172</v>
       </c>
       <c r="KH4" t="n">
-        <v>-248.7575150300601</v>
+        <v>-289.5791583166333</v>
       </c>
       <c r="KI4" t="n">
-        <v>-249.9539078156313</v>
+        <v>-290.5811623246493</v>
       </c>
       <c r="KJ4" t="n">
-        <v>-251.1503006012024</v>
+        <v>-291.5831663326653</v>
       </c>
       <c r="KK4" t="n">
-        <v>-252.3466933867735</v>
+        <v>-292.5851703406813</v>
       </c>
       <c r="KL4" t="n">
-        <v>-253.5430861723447</v>
+        <v>-293.5871743486974</v>
       </c>
       <c r="KM4" t="n">
-        <v>-254.7394789579158</v>
+        <v>-294.5891783567134</v>
       </c>
       <c r="KN4" t="n">
-        <v>-255.9358717434869</v>
+        <v>-295.5911823647294</v>
       </c>
       <c r="KO4" t="n">
-        <v>-257.1322645290581</v>
+        <v>-296.5931863727454</v>
       </c>
       <c r="KP4" t="n">
-        <v>-258.3286573146293</v>
+        <v>-297.5951903807615</v>
       </c>
       <c r="KQ4" t="n">
-        <v>-259.5250501002004</v>
+        <v>-298.5971943887775</v>
       </c>
       <c r="KR4" t="n">
-        <v>-260.7214428857715</v>
+        <v>-299.5991983967936</v>
       </c>
       <c r="KS4" t="n">
-        <v>-261.9178356713427</v>
+        <v>-300.6012024048096</v>
       </c>
       <c r="KT4" t="n">
-        <v>-263.1142284569138</v>
+        <v>-301.6032064128256</v>
       </c>
       <c r="KU4" t="n">
-        <v>-264.310621242485</v>
+        <v>-302.6052104208417</v>
       </c>
       <c r="KV4" t="n">
-        <v>-265.5070140280561</v>
+        <v>-303.6072144288577</v>
       </c>
       <c r="KW4" t="n">
-        <v>-266.7034068136273</v>
+        <v>-304.6092184368737</v>
       </c>
       <c r="KX4" t="n">
-        <v>-267.8997995991984</v>
+        <v>-305.6112224448897</v>
       </c>
       <c r="KY4" t="n">
-        <v>-269.0961923847696</v>
+        <v>-306.6132264529058</v>
       </c>
       <c r="KZ4" t="n">
-        <v>-270.2925851703407</v>
+        <v>-307.6152304609218</v>
       </c>
       <c r="LA4" t="n">
-        <v>-271.4889779559118</v>
+        <v>-308.6172344689379</v>
       </c>
       <c r="LB4" t="n">
-        <v>-272.685370741483</v>
+        <v>-309.6192384769539</v>
       </c>
       <c r="LC4" t="n">
-        <v>-273.8817635270541</v>
+        <v>-310.6212424849699</v>
       </c>
       <c r="LD4" t="n">
-        <v>-275.0781563126252</v>
+        <v>-311.6232464929859</v>
       </c>
       <c r="LE4" t="n">
-        <v>-276.2745490981964</v>
+        <v>-312.625250501002</v>
       </c>
       <c r="LF4" t="n">
-        <v>-277.4709418837675</v>
+        <v>-313.627254509018</v>
       </c>
       <c r="LG4" t="n">
-        <v>-278.6673346693386</v>
+        <v>-314.629258517034</v>
       </c>
       <c r="LH4" t="n">
-        <v>-279.8637274549098</v>
+        <v>-315.6312625250501</v>
       </c>
       <c r="LI4" t="n">
-        <v>-281.060120240481</v>
+        <v>-316.6332665330661</v>
       </c>
       <c r="LJ4" t="n">
-        <v>-282.2565130260522</v>
+        <v>-317.6352705410821</v>
       </c>
       <c r="LK4" t="n">
-        <v>-283.4529058116233</v>
+        <v>-318.6372745490982</v>
       </c>
       <c r="LL4" t="n">
-        <v>-284.6492985971944</v>
+        <v>-319.6392785571142</v>
       </c>
       <c r="LM4" t="n">
-        <v>-285.8456913827656</v>
+        <v>-320.6412825651302</v>
       </c>
       <c r="LN4" t="n">
-        <v>-287.0420841683367</v>
+        <v>-321.6432865731463</v>
       </c>
       <c r="LO4" t="n">
-        <v>-288.2384769539078</v>
+        <v>-322.6452905811623</v>
       </c>
       <c r="LP4" t="n">
-        <v>-289.434869739479</v>
+        <v>-323.6472945891783</v>
       </c>
       <c r="LQ4" t="n">
-        <v>-290.6312625250501</v>
+        <v>-324.6492985971943</v>
       </c>
       <c r="LR4" t="n">
-        <v>-291.8276553106212</v>
+        <v>-325.6513026052104</v>
       </c>
       <c r="LS4" t="n">
-        <v>-293.0240480961924</v>
+        <v>-326.6533066132264</v>
       </c>
       <c r="LT4" t="n">
-        <v>-294.2204408817635</v>
+        <v>-327.6553106212424</v>
       </c>
       <c r="LU4" t="n">
-        <v>-295.4168336673347</v>
+        <v>-328.6573146292585</v>
       </c>
       <c r="LV4" t="n">
-        <v>-296.6132264529058</v>
+        <v>-329.6593186372745</v>
       </c>
       <c r="LW4" t="n">
-        <v>-297.809619238477</v>
+        <v>-330.6613226452906</v>
       </c>
       <c r="LX4" t="n">
-        <v>-299.0060120240481</v>
+        <v>-331.6633266533066</v>
       </c>
       <c r="LY4" t="n">
-        <v>-300.2024048096192</v>
+        <v>-332.6653306613226</v>
       </c>
       <c r="LZ4" t="n">
-        <v>-301.3987975951903</v>
+        <v>-333.6673346693386</v>
       </c>
       <c r="MA4" t="n">
-        <v>-302.5951903807616</v>
+        <v>-334.6693386773547</v>
       </c>
       <c r="MB4" t="n">
-        <v>-303.7915831663327</v>
+        <v>-335.6713426853707</v>
       </c>
       <c r="MC4" t="n">
-        <v>-304.9879759519039</v>
+        <v>-336.6733466933867</v>
       </c>
       <c r="MD4" t="n">
-        <v>-306.184368737475</v>
+        <v>-337.6753507014027</v>
       </c>
       <c r="ME4" t="n">
-        <v>-307.3807615230461</v>
+        <v>-338.6773547094188</v>
       </c>
       <c r="MF4" t="n">
-        <v>-308.5771543086173</v>
+        <v>-339.6793587174348</v>
       </c>
       <c r="MG4" t="n">
-        <v>-309.7735470941884</v>
+        <v>-340.6813627254509</v>
       </c>
       <c r="MH4" t="n">
-        <v>-310.9699398797596</v>
+        <v>-341.6833667334669</v>
       </c>
       <c r="MI4" t="n">
-        <v>-312.1663326653307</v>
+        <v>-342.6853707414829</v>
       </c>
       <c r="MJ4" t="n">
-        <v>-313.3627254509018</v>
+        <v>-343.687374749499</v>
       </c>
       <c r="MK4" t="n">
-        <v>-314.559118236473</v>
+        <v>-344.689378757515</v>
       </c>
       <c r="ML4" t="n">
-        <v>-315.7555110220441</v>
+        <v>-345.691382765531</v>
       </c>
       <c r="MM4" t="n">
-        <v>-316.9519038076152</v>
+        <v>-346.693386773547</v>
       </c>
       <c r="MN4" t="n">
-        <v>-318.1482965931864</v>
+        <v>-347.6953907815631</v>
       </c>
       <c r="MO4" t="n">
-        <v>-319.3446893787576</v>
+        <v>-348.6973947895791</v>
       </c>
       <c r="MP4" t="n">
-        <v>-320.5410821643287</v>
+        <v>-349.6993987975952</v>
       </c>
       <c r="MQ4" t="n">
-        <v>-321.7374749498998</v>
+        <v>-350.7014028056112</v>
       </c>
       <c r="MR4" t="n">
-        <v>-322.9338677354709</v>
+        <v>-351.7034068136272</v>
       </c>
       <c r="MS4" t="n">
-        <v>-324.1302605210421</v>
+        <v>-352.7054108216432</v>
       </c>
       <c r="MT4" t="n">
-        <v>-325.3266533066133</v>
+        <v>-353.7074148296593</v>
       </c>
       <c r="MU4" t="n">
-        <v>-326.5230460921844</v>
+        <v>-354.7094188376753</v>
       </c>
       <c r="MV4" t="n">
-        <v>-327.7194388777556</v>
+        <v>-355.7114228456913</v>
       </c>
       <c r="MW4" t="n">
-        <v>-328.9158316633267</v>
+        <v>-356.7134268537074</v>
       </c>
       <c r="MX4" t="n">
-        <v>-330.1122244488978</v>
+        <v>-357.7154308617234</v>
       </c>
       <c r="MY4" t="n">
-        <v>-331.308617234469</v>
+        <v>-358.7174348697395</v>
       </c>
       <c r="MZ4" t="n">
-        <v>-332.5050100200401</v>
+        <v>-359.7194388777555</v>
       </c>
       <c r="NA4" t="n">
-        <v>-333.7014028056112</v>
+        <v>-360.7214428857715</v>
       </c>
       <c r="NB4" t="n">
-        <v>-334.8977955911824</v>
+        <v>-361.7234468937875</v>
       </c>
       <c r="NC4" t="n">
-        <v>-336.0941883767535</v>
+        <v>-362.7254509018036</v>
       </c>
       <c r="ND4" t="n">
-        <v>-337.2905811623247</v>
+        <v>-363.7274549098196</v>
       </c>
       <c r="NE4" t="n">
-        <v>-338.4869739478958</v>
+        <v>-364.7294589178356</v>
       </c>
       <c r="NF4" t="n">
-        <v>-339.6833667334669</v>
+        <v>-365.7314629258516</v>
       </c>
       <c r="NG4" t="n">
-        <v>-340.8797595190381</v>
+        <v>-366.7334669338677</v>
       </c>
       <c r="NH4" t="n">
-        <v>-342.0761523046093</v>
+        <v>-367.7354709418837</v>
       </c>
       <c r="NI4" t="n">
-        <v>-343.2725450901804</v>
+        <v>-368.7374749498998</v>
       </c>
       <c r="NJ4" t="n">
-        <v>-344.4689378757515</v>
+        <v>-369.7394789579158</v>
       </c>
       <c r="NK4" t="n">
-        <v>-345.6653306613226</v>
+        <v>-370.7414829659318</v>
       </c>
       <c r="NL4" t="n">
-        <v>-346.8617234468938</v>
+        <v>-371.7434869739479</v>
       </c>
       <c r="NM4" t="n">
-        <v>-348.058116232465</v>
+        <v>-372.7454909819639</v>
       </c>
       <c r="NN4" t="n">
-        <v>-349.2545090180361</v>
+        <v>-373.7474949899799</v>
       </c>
       <c r="NO4" t="n">
-        <v>-350.4509018036073</v>
+        <v>-374.7494989979959</v>
       </c>
       <c r="NP4" t="n">
-        <v>-351.6472945891784</v>
+        <v>-375.751503006012</v>
       </c>
       <c r="NQ4" t="n">
-        <v>-352.8436873747495</v>
+        <v>-376.753507014028</v>
       </c>
       <c r="NR4" t="n">
-        <v>-354.0400801603207</v>
+        <v>-377.7555110220441</v>
       </c>
       <c r="NS4" t="n">
-        <v>-355.2364729458918</v>
+        <v>-378.7575150300601</v>
       </c>
       <c r="NT4" t="n">
-        <v>-356.4328657314629</v>
+        <v>-379.7595190380761</v>
       </c>
       <c r="NU4" t="n">
-        <v>-357.6292585170341</v>
+        <v>-380.7615230460921</v>
       </c>
       <c r="NV4" t="n">
-        <v>-358.8256513026052</v>
+        <v>-381.7635270541082</v>
       </c>
       <c r="NW4" t="n">
-        <v>-360.0220440881764</v>
+        <v>-382.7655310621242</v>
       </c>
       <c r="NX4" t="n">
-        <v>-361.2184368737475</v>
+        <v>-383.7675350701402</v>
       </c>
       <c r="NY4" t="n">
-        <v>-362.4148296593186</v>
+        <v>-384.7695390781563</v>
       </c>
       <c r="NZ4" t="n">
-        <v>-363.6112224448898</v>
+        <v>-385.7715430861723</v>
       </c>
       <c r="OA4" t="n">
-        <v>-364.807615230461</v>
+        <v>-386.7735470941884</v>
       </c>
       <c r="OB4" t="n">
-        <v>-366.0040080160321</v>
+        <v>-387.7755511022044</v>
       </c>
       <c r="OC4" t="n">
-        <v>-367.2004008016033</v>
+        <v>-388.7775551102204</v>
       </c>
       <c r="OD4" t="n">
-        <v>-368.3967935871744</v>
+        <v>-389.7795591182364</v>
       </c>
       <c r="OE4" t="n">
-        <v>-369.5931863727455</v>
+        <v>-390.7815631262525</v>
       </c>
       <c r="OF4" t="n">
-        <v>-370.7895791583167</v>
+        <v>-391.7835671342685</v>
       </c>
       <c r="OG4" t="n">
-        <v>-371.9859719438878</v>
+        <v>-392.7855711422845</v>
       </c>
       <c r="OH4" t="n">
-        <v>-373.182364729459</v>
+        <v>-393.7875751503005</v>
       </c>
       <c r="OI4" t="n">
-        <v>-374.3787575150301</v>
+        <v>-394.7895791583166</v>
       </c>
       <c r="OJ4" t="n">
-        <v>-375.5751503006012</v>
+        <v>-395.7915831663326</v>
       </c>
       <c r="OK4" t="n">
-        <v>-376.7715430861724</v>
+        <v>-396.7935871743487</v>
       </c>
       <c r="OL4" t="n">
-        <v>-377.9679358717435</v>
+        <v>-397.7955911823647</v>
       </c>
       <c r="OM4" t="n">
-        <v>-379.1643286573146</v>
+        <v>-398.7975951903807</v>
       </c>
       <c r="ON4" t="n">
-        <v>-380.3607214428858</v>
+        <v>-399.7995991983968</v>
       </c>
       <c r="OO4" t="n">
-        <v>-381.557114228457</v>
+        <v>-400.8016032064128</v>
       </c>
       <c r="OP4" t="n">
-        <v>-382.7535070140281</v>
+        <v>-401.8036072144288</v>
       </c>
       <c r="OQ4" t="n">
-        <v>-383.9498997995992</v>
+        <v>-402.8056112224448</v>
       </c>
       <c r="OR4" t="n">
-        <v>-385.1462925851703</v>
+        <v>-403.8076152304609</v>
       </c>
       <c r="OS4" t="n">
-        <v>-386.3426853707415</v>
+        <v>-404.8096192384769</v>
       </c>
       <c r="OT4" t="n">
-        <v>-387.5390781563127</v>
+        <v>-405.811623246493</v>
       </c>
       <c r="OU4" t="n">
-        <v>-388.7354709418838</v>
+        <v>-406.813627254509</v>
       </c>
       <c r="OV4" t="n">
-        <v>-389.931863727455</v>
+        <v>-407.815631262525</v>
       </c>
       <c r="OW4" t="n">
-        <v>-391.1282565130261</v>
+        <v>-408.817635270541</v>
       </c>
       <c r="OX4" t="n">
-        <v>-392.3246492985972</v>
+        <v>-409.8196392785571</v>
       </c>
       <c r="OY4" t="n">
-        <v>-393.5210420841684</v>
+        <v>-410.8216432865731</v>
       </c>
       <c r="OZ4" t="n">
-        <v>-394.7174348697395</v>
+        <v>-411.8236472945891</v>
       </c>
       <c r="PA4" t="n">
-        <v>-395.9138276553106</v>
+        <v>-412.8256513026051</v>
       </c>
       <c r="PB4" t="n">
-        <v>-397.1102204408818</v>
+        <v>-413.8276553106212</v>
       </c>
       <c r="PC4" t="n">
-        <v>-398.3066132264529</v>
+        <v>-414.8296593186373</v>
       </c>
       <c r="PD4" t="n">
-        <v>-399.5030060120241</v>
+        <v>-415.8316633266533</v>
       </c>
       <c r="PE4" t="n">
-        <v>-400.6993987975952</v>
+        <v>-416.8336673346693</v>
       </c>
       <c r="PF4" t="n">
-        <v>-401.8957915831663</v>
+        <v>-417.8356713426853</v>
       </c>
       <c r="PG4" t="n">
-        <v>-403.0921843687375</v>
+        <v>-418.8376753507014</v>
       </c>
       <c r="PH4" t="n">
-        <v>-404.2885771543087</v>
+        <v>-419.8396793587174</v>
       </c>
       <c r="PI4" t="n">
-        <v>-405.4849699398798</v>
+        <v>-420.8416833667334</v>
       </c>
       <c r="PJ4" t="n">
-        <v>-406.6813627254509</v>
+        <v>-421.8436873747494</v>
       </c>
       <c r="PK4" t="n">
-        <v>-407.877755511022</v>
+        <v>-422.8456913827655</v>
       </c>
       <c r="PL4" t="n">
-        <v>-409.0741482965932</v>
+        <v>-423.8476953907815</v>
       </c>
       <c r="PM4" t="n">
-        <v>-410.2705410821644</v>
+        <v>-424.8496993987976</v>
       </c>
       <c r="PN4" t="n">
-        <v>-411.4669338677355</v>
+        <v>-425.8517034068136</v>
       </c>
       <c r="PO4" t="n">
-        <v>-412.6633266533067</v>
+        <v>-426.8537074148296</v>
       </c>
       <c r="PP4" t="n">
-        <v>-413.8597194388778</v>
+        <v>-427.8557114228457</v>
       </c>
       <c r="PQ4" t="n">
-        <v>-415.0561122244489</v>
+        <v>-428.8577154308617</v>
       </c>
       <c r="PR4" t="n">
-        <v>-416.2525050100201</v>
+        <v>-429.8597194388777</v>
       </c>
       <c r="PS4" t="n">
-        <v>-417.4488977955912</v>
+        <v>-430.8617234468937</v>
       </c>
       <c r="PT4" t="n">
-        <v>-418.6452905811623</v>
+        <v>-431.8637274549098</v>
       </c>
       <c r="PU4" t="n">
-        <v>-419.8416833667335</v>
+        <v>-432.8657314629258</v>
       </c>
       <c r="PV4" t="n">
-        <v>-421.0380761523046</v>
+        <v>-433.8677354709419</v>
       </c>
       <c r="PW4" t="n">
-        <v>-422.2344689378758</v>
+        <v>-434.8697394789579</v>
       </c>
       <c r="PX4" t="n">
-        <v>-423.4308617234469</v>
+        <v>-435.8717434869739</v>
       </c>
       <c r="PY4" t="n">
-        <v>-424.627254509018</v>
+        <v>-436.8737474949899</v>
       </c>
       <c r="PZ4" t="n">
-        <v>-425.8236472945893</v>
+        <v>-437.875751503006</v>
       </c>
       <c r="QA4" t="n">
-        <v>-427.0200400801604</v>
+        <v>-438.877755511022</v>
       </c>
       <c r="QB4" t="n">
-        <v>-428.2164328657315</v>
+        <v>-439.879759519038</v>
       </c>
       <c r="QC4" t="n">
-        <v>-429.4128256513027</v>
+        <v>-440.881763527054</v>
       </c>
       <c r="QD4" t="n">
-        <v>-430.6092184368738</v>
+        <v>-441.8837675350701</v>
       </c>
       <c r="QE4" t="n">
-        <v>-431.8056112224449</v>
+        <v>-442.8857715430862</v>
       </c>
       <c r="QF4" t="n">
-        <v>-433.0020040080161</v>
+        <v>-443.8877755511022</v>
       </c>
       <c r="QG4" t="n">
-        <v>-434.1983967935872</v>
+        <v>-444.8897795591182</v>
       </c>
       <c r="QH4" t="n">
-        <v>-435.3947895791584</v>
+        <v>-445.8917835671342</v>
       </c>
       <c r="QI4" t="n">
-        <v>-436.5911823647295</v>
+        <v>-446.8937875751503</v>
       </c>
       <c r="QJ4" t="n">
-        <v>-437.7875751503006</v>
+        <v>-447.8957915831663</v>
       </c>
       <c r="QK4" t="n">
-        <v>-438.9839679358718</v>
+        <v>-448.8977955911823</v>
       </c>
       <c r="QL4" t="n">
-        <v>-440.1803607214429</v>
+        <v>-449.8997995991983</v>
       </c>
       <c r="QM4" t="n">
-        <v>-441.376753507014</v>
+        <v>-450.9018036072144</v>
       </c>
       <c r="QN4" t="n">
-        <v>-442.5731462925852</v>
+        <v>-451.9038076152304</v>
       </c>
       <c r="QO4" t="n">
-        <v>-443.7695390781563</v>
+        <v>-452.9058116232464</v>
       </c>
       <c r="QP4" t="n">
-        <v>-444.9659318637275</v>
+        <v>-453.9078156312625</v>
       </c>
       <c r="QQ4" t="n">
-        <v>-446.1623246492986</v>
+        <v>-454.9098196392785</v>
       </c>
       <c r="QR4" t="n">
-        <v>-447.3587174348697</v>
+        <v>-455.9118236472945</v>
       </c>
       <c r="QS4" t="n">
-        <v>-448.555110220441</v>
+        <v>-456.9138276553106</v>
       </c>
       <c r="QT4" t="n">
-        <v>-449.7515030060121</v>
+        <v>-457.9158316633266</v>
       </c>
       <c r="QU4" t="n">
-        <v>-450.9478957915832</v>
+        <v>-458.9178356713426</v>
       </c>
       <c r="QV4" t="n">
-        <v>-452.1442885771544</v>
+        <v>-459.9198396793587</v>
       </c>
       <c r="QW4" t="n">
-        <v>-453.3406813627255</v>
+        <v>-460.9218436873747</v>
       </c>
       <c r="QX4" t="n">
-        <v>-454.5370741482966</v>
+        <v>-461.9238476953907</v>
       </c>
       <c r="QY4" t="n">
-        <v>-455.7334669338678</v>
+        <v>-462.9258517034067</v>
       </c>
       <c r="QZ4" t="n">
-        <v>-456.9298597194389</v>
+        <v>-463.9278557114228</v>
       </c>
       <c r="RA4" t="n">
-        <v>-458.12625250501</v>
+        <v>-464.9298597194388</v>
       </c>
       <c r="RB4" t="n">
-        <v>-459.3226452905812</v>
+        <v>-465.9318637274549</v>
       </c>
       <c r="RC4" t="n">
-        <v>-460.5190380761523</v>
+        <v>-466.9338677354709</v>
       </c>
       <c r="RD4" t="n">
-        <v>-461.7154308617235</v>
+        <v>-467.9358717434869</v>
       </c>
       <c r="RE4" t="n">
-        <v>-462.9118236472946</v>
+        <v>-468.9378757515029</v>
       </c>
       <c r="RF4" t="n">
-        <v>-464.1082164328657</v>
+        <v>-469.939879759519</v>
       </c>
       <c r="RG4" t="n">
-        <v>-465.304609218437</v>
+        <v>-470.941883767535</v>
       </c>
       <c r="RH4" t="n">
-        <v>-466.5010020040081</v>
+        <v>-471.943887775551</v>
       </c>
       <c r="RI4" t="n">
-        <v>-467.6973947895792</v>
+        <v>-472.9458917835671</v>
       </c>
       <c r="RJ4" t="n">
-        <v>-468.8937875751503</v>
+        <v>-473.9478957915831</v>
       </c>
       <c r="RK4" t="n">
-        <v>-470.0901803607214</v>
+        <v>-474.9498997995992</v>
       </c>
       <c r="RL4" t="n">
-        <v>-471.2865731462925</v>
+        <v>-475.9519038076152</v>
       </c>
       <c r="RM4" t="n">
-        <v>-472.4829659318638</v>
+        <v>-476.9539078156312</v>
       </c>
       <c r="RN4" t="n">
-        <v>-473.6793587174349</v>
+        <v>-477.9559118236472</v>
       </c>
       <c r="RO4" t="n">
-        <v>-474.8757515030061</v>
+        <v>-478.9579158316633</v>
       </c>
       <c r="RP4" t="n">
-        <v>-476.0721442885772</v>
+        <v>-479.9599198396793</v>
       </c>
       <c r="RQ4" t="n">
-        <v>-477.2685370741483</v>
+        <v>-480.9619238476953</v>
       </c>
       <c r="RR4" t="n">
-        <v>-478.4649298597195</v>
+        <v>-481.9639278557113</v>
       </c>
       <c r="RS4" t="n">
-        <v>-479.6613226452906</v>
+        <v>-482.9659318637274</v>
       </c>
       <c r="RT4" t="n">
-        <v>-480.8577154308617</v>
+        <v>-483.9679358717434</v>
       </c>
       <c r="RU4" t="n">
-        <v>-482.0541082164329</v>
+        <v>-484.9699398797595</v>
       </c>
       <c r="RV4" t="n">
-        <v>-483.250501002004</v>
+        <v>-485.9719438877755</v>
       </c>
       <c r="RW4" t="n">
-        <v>-484.4468937875752</v>
+        <v>-486.9739478957915</v>
       </c>
       <c r="RX4" t="n">
-        <v>-485.6432865731463</v>
+        <v>-487.9759519038076</v>
       </c>
       <c r="RY4" t="n">
-        <v>-486.8396793587174</v>
+        <v>-488.9779559118236</v>
       </c>
       <c r="RZ4" t="n">
-        <v>-488.0360721442887</v>
+        <v>-489.9799599198396</v>
       </c>
       <c r="SA4" t="n">
-        <v>-489.2324649298598</v>
+        <v>-490.9819639278556</v>
       </c>
       <c r="SB4" t="n">
-        <v>-490.4288577154309</v>
+        <v>-491.9839679358717</v>
       </c>
       <c r="SC4" t="n">
-        <v>-491.625250501002</v>
+        <v>-492.9859719438877</v>
       </c>
       <c r="SD4" t="n">
-        <v>-492.8216432865731</v>
+        <v>-493.9879759519038</v>
       </c>
       <c r="SE4" t="n">
-        <v>-494.0180360721443</v>
+        <v>-494.9899799599198</v>
       </c>
       <c r="SF4" t="n">
-        <v>-495.2144288577155</v>
+        <v>-495.9919839679358</v>
       </c>
       <c r="SG4" t="n">
-        <v>-496.4108216432866</v>
+        <v>-496.9939879759518</v>
       </c>
       <c r="SH4" t="n">
-        <v>-497.6072144288578</v>
+        <v>-497.9959919839679</v>
       </c>
       <c r="SI4" t="n">
-        <v>-498.8036072144289</v>
+        <v>-498.9979959919839</v>
       </c>
       <c r="SJ4" t="n">
         <v>-500</v>
